--- a/Datasets/Behave/Behave.xlsx
+++ b/Datasets/Behave/Behave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W602"/>
+  <dimension ref="A1:X602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>publisher</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>metadata_missing</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -605,6 +610,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -666,6 +672,7 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -694,7 +701,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fabio Gomes Rocha; Layse Santos Souza; Thiciane Suely Silva; Guillermo Rodríguez</t>
+          <t>F. G. Rocha; L. S. Souza; T. S. Silva; G. Rodríguez</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -702,11 +709,7 @@
           <t>2021 IEEE Global Engineering Education Conference (EDUCON)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/EDUCON46332.2021.9453916</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -730,23 +733,12 @@
       <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Enhancing the Student Learning Experience by Adopting TDD and BDD in Course Projects</t>
-        </is>
-      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -783,11 +775,7 @@
           <t>Proceedings of the XXXIII Brazilian Symposium on Software Engineering</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3350768.3351301</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -811,23 +799,12 @@
       <c r="R5" t="n">
         <v>2</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>How to Evaluate BDD Scenarios' Quality?</t>
-        </is>
-      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -889,6 +866,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -950,6 +928,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1007,6 +986,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1035,7 +1015,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mauricio Alferez; Fabrizio Pastore; Mehrdad Sabetzadeh; Lionel Briand; Jean-Richard Riccardi</t>
+          <t>M. Alferez; F. Pastore; M. Sabetzadeh; L. Briand; J. Riccardi</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1043,16 +1023,8 @@
           <t>2019 ACM/IEEE 22nd International Conference on Model Driven Engineering Languages and Systems (MODELS)</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/MODELS.2019.00008</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.P. Ammann and J. Offutt, Introduction to software testing, Cambridge University Press, 2016. CrossRef  Google Scholar; 2.M. Wynne and A. Hellesoy, The Cucumber Book: Behaviour-Driven Development for Testers and Developers, Pragmatic Bookshelf, 2017. Google Scholar; 3."OMG unified modeling language (OMG UML). version 2.5", Object Management Group Inc., 2015,  [online]  Available: http://www.omg.org/specIUML/2.5/. Google Scholar; 4.Clearstream services SA,  [online]  Available: https://www.clearstream.com. Google Scholar; 5."Target2-Securities. User detailed functional specifications. v3.0", European Central Bank, March 2018,  [online]  Available: https://www.ecb.europa.eu/paym/t2s/html/index.en.html. Google Scholar; 6.C. Larman, Applying UML and Patterns: An Introduction to Object-Oriented Analysis and Design and the Unified Process, Prentice Hall Professional, 2002. Google Scholar; 7.M. Alferez, F. Pastore, M. Sabetzadeh, L. C. Briand and J.-R. Riccardi, Bridging the gap between requirements modeling and behavior-driven development supplementary materials, 2019,  [online]  Available: http://hdl.handle.net/10993/39710. Google Scholar; 8.Enterprise architect,  [online]  Available: https://sparxsystems.com/products/ea/. Google Scholar; 9.T. H. Cormen, C. E. Leiserson, R. L. Rivest and C. Stein, Introduction to Algorithms, MIT Press, 2009. Google Scholar; 10.M. Shirole and R. Kumar, "UML behavioral model based test case generation: a survey", ACM SIGSOFT Software Engineering Notes, vol. 38, no. 4, pp. 1-13, 2013. CrossRef  Google Scholar; 11.A. Groce and W. Visser, "Heuristic model checking for java programs" in SPIN ser. Lecture Notes in Computer Science, Springer, vol. 2318, pp. 242-245, 2002. CrossRef  Google Scholar; 12.C. Wang, F. Pastore and L. Briand, "Automated generation of constraints from use case specifications to support system testing", 2018 IEEE 11 th International Conference on Software Testing Verification and Validation (ICST), pp. 23-33, April 2018. View Article  Google Scholar; 13.C. Wang, F. Pastore and L. C. Briand, "Automated generation of constraints from use case specifications to support system testing", ICST. IEEE Computer Society, pp. 23-33, 2018. View Article  Google Scholar; 14.A. Orso and G. Rothermel, "Software testing: A research travelogue (2000–2014)", Proceedings of the on Future of Software Engineering ser. FOSE 2014, pp. 117-132, 2014. CrossRef  Google Scholar; 15.S. Anand, E. K. Burke, T. Y. Chen, J. Clark, M. B. Cohen, W. Grieskamp, et al., "An orchestrated survey of methodologies for automated software test case generation", J. Syst. Softw., vol. 86, no. 8, pp. 1978-2001, Aug. 2013. CrossRef  Google Scholar; 16.M. J. E. Cuaresma, J. J. Gutiérrez, M. Mejias, G. Aragon, I. M. Ramos, J. T. Valderrama, et al., "An overview on test generation from functional requirements", Journal of Systems and Software, vol. 84, no. 8, pp. 1379-1393, 2011. Google Scholar; 17.A. C. Dias Neto, R. Subramanyan, M. Vieira and G. H. Travassos, "A survey on model-based testing approaches: A systematic review", Proceedings of the 1st ACM International Workshop on Empirical Assessment of Software Engineering Languages and Technologies: Held in Conjunction with the 22Nd IEEE/ACM International Conference on Automated Software Engineering (ASE) 2007 ser. WEASELTech'07, pp. 31-36, 2007. CrossRef  Google Scholar; 18.A. Nayak and D. Samanta, "Synthesis of test scenarios using UML activity diagrams", Software and System Modeling, vol. 10, no. 1, pp. 63-89, 2011. CrossRef  Google Scholar; 19.D. Kundu, M. Sarma and D. Samanta, "A uml model-based approach to detect infeasible paths", J. Syst. Softw., vol. 107, no. C, pp. 71-92, Sep. 2015. CrossRef  Google Scholar; 20.C. Sun, Y. Zhao, L. Pan, X. He and D. Towey, "A transformation-based approach to testing concurrent programs using UML activity diagrams", Softw. Pract. Exper., vol. 46, no. 4, pp. 551-576, 2016. CrossRef  Google Scholar; 21.V. Arora, R. Bhatia and M. Singh, "Synthesizing test scenarios in uml activity diagram using a bio-inspired approach", Comput. Lang. Syst. Struct., vol. 50, no. C, pp. 1-19, Dec. 2017. CrossRef  Google Scholar; 22.C. Wang, F. Pastore, A. Goknil, L. C. Briand and M. Z. Z. Iqbal, "Automatic generation of system test cases from use case specifications", Proceedings of the 2015 International Symposium on Software Testing and Analysis ISSTA 2015, pp. 385-396, July 12-17, 2015, 2015. CrossRef  Google Scholar; 23.G. Carvalho, D. Falcao, F. Barros, A. Sampaio, A. Mota, L. Motta, et al., "NAT2TEST SCR: Test case generation from natural language requirements based on SCR specifications", Science of Computer Programming, vol. 95, no. P3, pp. 275-297, Dec. 2014. CrossRef  Google Scholar; 24.T. Yue, S. Ali and M. Zhang, "Rtcm: A natural language based automated and practical test case generation framework", Proceedings of International Symposium on Software Testing and Analysis ser. ISSTA 2015, pp. 397-408, 2015. CrossRef  Google Scholar; 25.E. Sarmiento, J. C. Leite, E. Almentero and G. S. Alzamora, "Test scenario generation from natural language requirements descriptions based on petri-nets", Electronic Notes in Theoretical Computer Science, vol. 329, pp. 123-148, 2016. CrossRef  Google Scholar</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -1075,23 +1047,12 @@
       <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Bridging the Gap between Requirements Modeling and Behavior-Driven Development</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1153,6 +1114,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1214,6 +1176,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1279,6 +1242,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1344,6 +1308,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1357,7 +1322,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Behavior-driven development benefits and challenges:reports from an industrial study</t>
+          <t>Behavior-Driven Development Benefits and Challenges: Reports from an Industrial Study</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1380,11 +1345,7 @@
           <t>Proceedings of the 19th International Conference on Agile Software Development: Companion</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3234152.3234167</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1408,23 +1369,12 @@
       <c r="R14" t="n">
         <v>2</v>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Behavior-Driven Development Benefits and Challenges: Reports from an Industrial Study</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1438,7 +1388,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Legend: an agile DSL toolset for web acceptance testing</t>
+          <t>Legend: An Agile DSL Toolset for Web Acceptance Testing</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1461,11 +1411,7 @@
           <t>Proceedings of the 2014 International Symposium on Software Testing and Analysis</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/2610384.2628048</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1489,23 +1435,12 @@
       <c r="R15" t="n">
         <v>2</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Legend: An Agile DSL Toolset for Web Acceptance Testing</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1519,7 +1454,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Combining STPA and BDD for safety analysis and verification in agile development</t>
+          <t>Combining STPA and BDD for Safety Analysis and Verification in Agile Development</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1542,11 +1477,7 @@
           <t>Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3183440.3194973</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1570,23 +1501,12 @@
       <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Combining STPA and BDD for Safety Analysis and Verification in Agile Development</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1600,7 +1520,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Combining STPA and BDD for safety analysis and verification in agile development</t>
+          <t>Poster: Combining STPA and BDD for Safety Analysis and Verification in Agile Development</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1623,11 +1543,7 @@
           <t>2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3183440.3194973</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1651,23 +1567,12 @@
       <c r="R17" t="n">
         <v>2</v>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Poster: Combining STPA and BDD for Safety Analysis and Verification in Agile Development</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1729,6 +1634,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1794,6 +1700,7 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1859,6 +1766,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1924,6 +1832,7 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1985,6 +1894,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2050,6 +1960,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2111,6 +2022,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2168,6 +2080,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2233,6 +2146,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2298,6 +2212,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2326,7 +2241,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Samia Oussena; Joe Essien</t>
+          <t>S. Oussena; J. Essien</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2334,16 +2249,8 @@
           <t>2013 3rd International Symposium ISKO-Maghreb</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ISKO-Maghreb.2013.6728200</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1.Ankolekar, A., Burstein, M., Hobbs, J. R., Lassila, O., Martin, D., McDermott, D.,  Sycara, K. (2002). DAML-S: Web service description for the semantic web. In The Semantic Web-ISWC 2002 (pp. 348-363). Springer Berlin Heidelberg. CrossRef  Google Scholar; 2.Boury-Brisset, A. C. (2003, July). Ontology-based approach for information fusion. In Proceedings of the Sixth International Conference on Information Fusion (pp. 522-529). View Article  Google Scholar; 3.Coleman, P., Papp, R., 2006. Strategic Alignment: Analysis of Perspectives. Proceedings of the 2006 Southern Association for Information Systems Conference. Google Scholar; 4.Fischer, C., Winter, R, Aier, S., 2010. What Is an Enterprise Architecture Principle? Towards a Consolidated Definition, Computer and Information Science 2010, SCI 317, pp. 193-205. springerlink.com Springer-Verlag Berlin Heidelberg. CrossRef  Google Scholar; 5.GARTNER, 2013. Available at http://www.gartner.com. Accessed April, 2013; 6.Glimm, B. (2011). Using SPARQL with RDFS and OWL entailment. In Reasoning Web. Semantic Technologies for the Web of Data (pp. 137-201). Springer Berlin Heidelberg. CrossRef  Google Scholar; 7.Green, N., Bate, C.,  Press, E. T. 2007. Lost in Translation: A Handbook for Information Systems in the 21st Century. Google Scholar; 8.Horrocks, I., Patel-Schneider, P. F., Boley, H., Tabet, S., Grosof, B.,  Dean, M. (2004). SWRL: A semantic web rule language combining OWL and RuleML. W3C Member submission, 21, 79. Google Scholar; 9.Heflin, J., Volz, R., Dale, J., Requirements for a Web Ontology Language, Working draft of the W3C Ontology Working Group, http://www.w3c.org/TR/webont- req. accessed:16/9/2013 Google Scholar; 10.Huang, J., Abadi, D. J.,  Ren, K. (2011). Scalable SPARQL querying of large RDF graphs. Proceedings of the VLDB Endowment, 4(11), 1123-1134. CrossRef  Google Scholar; 11.IEEE Computer Society. IEEE Recommended Practice for Architectural Description of Software Intensive Systems. IEEE Standard 1471-2000. Google Scholar; 12.Lankhorst, M., 2013. Enterprise Architecture at Work: Modelling, Communication and Analysis. Springer, Berlin, Heidelberg, New York. CrossRef  Google Scholar; 13.McGovern, J., 2004. A practical guide to enterprise architecture. Prentice Hall Professional. Google Scholar; 14.McGuinness, D. L. Ontologies Come of Age, In Dieter Fensel, J im Hendler, Henry Lieberman, and Wolfgang Wahlster, editors. Spinning the Semantic Web: Bringing the WWW to Its Full Potential. MIT Press, 2002. Google Scholar; 15.North, D., 2006. Introducing BDD. Available at: http://dannorth.net/ introducing-bdd/. Accessed on: March 2013. Google Scholar; 16.Quilitz, B.,  Leser, U. (2008). Querying distributed RDF data sources with SPARQL. In The Semantic Web: Research and Applications (pp. 524-538). Springer Berlin Heidelberg. CrossRef  Google Scholar; 17.Salmans, B., Kappelman, L. A., 2010. The State of EA: Progress, Not Perfection. The SIM guide to enterprise architecture, 165-187. Google Scholar; 18.Samia O, 2012, University of West London, Available at: http://samsa.uwl.ac.uk/mdse/. Accessed 07/01/2103 Google Scholar; 19.Sessions, R., 2007. A Comparison of the Top Four Enterprise-Architecture Methodologies, ObjectWatch, Inc. Google Scholar; 20.Sintek, M.,  Decker, S. (2002). TRIPLE-A query, inference, and transformation language for the semantic web. In The Semantic Web-ISWC 2002 (pp. 364-378). Springer Berlin Heidelberg. Google Scholar; 21.TOGAF, The Open Group. ArchiMate Version 2. http://www.opengroup.org/ archimate, Oct, 2012. Google Scholar; 22.Stanford Univeristy, 2013, Protégé Version 3.5, http://protege.stanford.edu/accessed 16/09/2013 Google Scholar; 23.TURTLE, http://www.w3.org/TeamSubmission/turtle/ec-tutorial, accessed 17/09/2013. Google Scholar; 24.Venkatraman, N., Henderson, J., 2010. Strategic Alignment: Leveraging IT for Transforming Organisations, IBM Systems Journal, Vol 32 No 1. Google Scholar; 25.Wache, H., Voegele, T., Visser, U., Stuckenschmidt, H., Schuster, G., Neumann, H.,  Hübner, S. (2001). Ontology-based integration of information-a survey of existing approaaches. In IJCAI-01 workshop: ontologies and information sharing (Vol. 2001, pp. 108-117). Google Scholar; 26.Weston, J., Defee, J., 2004. Performance Based Enterprise Architecture Planning - A white Paper, 2004, http://www.caci.com/. Google Scholar</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
@@ -2366,23 +2273,12 @@
       <c r="R28" t="n">
         <v>2</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Validating enterprise architecture using ontology-based approach: A case study of student internship programme</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2419,11 +2315,7 @@
           <t>Proceedings of the 17th International Conference on Mining Software Repositories</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3379597.3387471</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -2447,23 +2339,12 @@
       <c r="R29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Did You Remember To Test Your Tokens?</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2521,6 +2402,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2549,7 +2431,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Donnie Johnson Sackey; Noah Ullmann</t>
+          <t>D. J. Sackey; N. Ullmann</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2557,16 +2439,8 @@
           <t>2012 IEEE International Professional Communication Conference</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/IPCC.2012.6408654</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>1.G. Cowburn, "Consumer understanding and use of nutrition labeling: A systematic review,." Public Health Nutrition, vol. 8, no. 1, pp. 21-28 , 2005. CrossRef  Google Scholar; 2.E. Golan et al., "Economics of food labeling,." J. of Consumer Policy, vol. 24, no. 2, pp. 117-184, 2001. CrossRef  Google Scholar; 3.J. McGonigal, Gaming can make a better world. Available: http://www.ted.com/talks/jane-mcgonigal-gaming-can-make-a-better-world.html. Google Scholar; 4.R. Layard and S. Glaister, Cost-Benefit Analysis. New York, NY: Cambridge University Press, 1994. CrossRef  Google Scholar; 5.S. Bødker, Through the Interface-A Human Activity Approach to User Interface Design. Mahwah, NJ: Lawrence Erlbaum Associates, 1991. Google Scholar; 6.S. Rich and S. Jain, "Social class and life cycle as predictors of shopping behavior," J. of Marketing Research, vol. 5, no. 1, pp. 41-49, 1968. CrossRef  Google Scholar; 7.D. Norman, "Human-centered design considered harmful," Interactions, vol. 24, no. 4, pp. 14-19, 2005. CrossRef  Google Scholar; 8.J. Porter, Designing for the Social Web. Berkeley, CA: New Riders Press, 2008. Google Scholar</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
@@ -2589,23 +2463,12 @@
       <c r="R31" t="n">
         <v>2</v>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Visualizing data, encouraging change: Technical interventions in food purchasing</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2624,30 +2487,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Baked Potato is a mobile web service geared at addressing the imbalance of power between those who market and those who consume food products. Food marketers rarely provide a detailed range of information about products that would allow consumers to understand how a product and its company connect to their cultural values. The main goal of this application is to connect people in a way that celebrates their differences and gives them agency by helping them make better decisions about their food purchases.</t>
+          <t>Baked Potato is a mobile web service geared at addressing the imbalance of power between those who market and those who consume food products. Food marketers rarely provide a detailed range of information about products that would allow consumers to understand how a product and its company connect to their cultural values. The main goal of this application is to connect people in a way that celebrates their differences and gives them agency by helping them make better decisions about their food purchases. © 2012 IEEE.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Donnie Johnson Sackey; Noah Ullmann</t>
+          <t>Sackey D.J., Ullmann N.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2012 IEEE International Professional Communication Conference</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/IPCC.2012.6408654</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1.G. Cowburn, "Consumer understanding and use of nutrition labeling: A systematic review,." Public Health Nutrition, vol. 8, no. 1, pp. 21-28 , 2005. CrossRef  Google Scholar; 2.E. Golan et al., "Economics of food labeling,." J. of Consumer Policy, vol. 24, no. 2, pp. 117-184, 2001. CrossRef  Google Scholar; 3.J. McGonigal, Gaming can make a better world. Available: http://www.ted.com/talks/jane-mcgonigal-gaming-can-make-a-better-world.html. Google Scholar; 4.R. Layard and S. Glaister, Cost-Benefit Analysis. New York, NY: Cambridge University Press, 1994. CrossRef  Google Scholar; 5.S. Bødker, Through the Interface-A Human Activity Approach to User Interface Design. Mahwah, NJ: Lawrence Erlbaum Associates, 1991. Google Scholar; 6.S. Rich and S. Jain, "Social class and life cycle as predictors of shopping behavior," J. of Marketing Research, vol. 5, no. 1, pp. 41-49, 1968. CrossRef  Google Scholar; 7.D. Norman, "Human-centered design considered harmful," Interactions, vol. 24, no. 4, pp. 14-19, 2005. CrossRef  Google Scholar; 8.J. Porter, Designing for the Social Web. Berkeley, CA: New Riders Press, 2008. Google Scholar</t>
-        </is>
-      </c>
+          <t>IEEE International Professional Communication Conference</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
@@ -2670,23 +2525,12 @@
       <c r="R32" t="n">
         <v>2</v>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Visualizing data, encouraging change: Technical interventions in food purchasing</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2748,6 +2592,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2761,7 +2606,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Predicting co-changes between functionality specifications and source code in behavior driven development</t>
+          <t>Predicting Co-Changes between Functionality Specifications and Source Code in Behavior Driven Development</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2784,11 +2629,7 @@
           <t>Proceedings of the 16th International Conference on Mining Software Repositories</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/MSR.2019.00080</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2812,23 +2653,12 @@
       <c r="R34" t="n">
         <v>2</v>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Predicting Co-Changes between Functionality Specifications and Source Code in Behavior Driven Development</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2894,6 +2724,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2907,7 +2738,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A model-driven approach for behavior-driven GUI testing</t>
+          <t>A Model-Driven Approach for Behavior-Driven GUI Testing</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2930,11 +2761,7 @@
           <t>Proceedings of the 34th ACM/SIGAPP Symposium on Applied Computing</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3297280.3297450</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2958,23 +2785,12 @@
       <c r="R36" t="n">
         <v>2</v>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>A Model-Driven Approach for Behavior-Driven GUI Testing</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3036,6 +2852,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3101,6 +2918,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3114,7 +2932,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>On the applicability of BDD in a Business Intelligence project:experience report</t>
+          <t>On the Applicability of BDD in a Business Intelligence Project: Experience Report</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3137,11 +2955,7 @@
           <t>Proceedings of the 17th Brazilian Symposium on Software Quality</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3275245.3275276</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -3165,23 +2979,12 @@
       <c r="R39" t="n">
         <v>2</v>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>On the Applicability of BDD in a Business Intelligence Project: Experience Report</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3243,6 +3046,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3304,6 +3108,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3340,11 +3145,7 @@
           <t>19th Brazilian Symposium on Software Quality</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3439961.3440000</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -3368,23 +3169,12 @@
       <c r="R42" t="n">
         <v>2</v>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>On the Understanding of How to Measure the Benefits of Behavior-Driven Development Adoption: Preliminary Literature Results from a Grey Literature Study</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3398,7 +3188,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Behavior-driven development:conference tutorial</t>
+          <t>Behavior-Driven Development: Conference Tutorial</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3417,11 +3207,7 @@
           <t>J. Comput. Sci. Coll.</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5555/2167431.2167445</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -3445,23 +3231,12 @@
       <c r="R43" t="n">
         <v>2</v>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Behavior-Driven Development: Conference Tutorial</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3527,6 +3302,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3540,35 +3316,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Behave Nicely! Automatic Generation of Code for Behaviour Driven Development Test Suites</t>
+          <t>Behave nicely! automatic generation of code for behaviour driven development test suites</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Behaviour driven development (BDD) has gained widespread use in the software industry. System specifications can be expressed as test scenarios, describing the circumstances, actions and expected outcomes. These scenarios are written in a structured natural language (Gherkin), with each step in the scenario associated with a corresponding step implementation function in the underlying programming language. A challenge recognised by industry is ensuring that the natural language scenarios, step implementation functions and underlying system implementation remain consistent with one another, requiring on-going maintenance effort as changes are made to a system. To address this, we have developed behave_nicely, a tool, for automatically generating step implementation functions from structured natural language steps, with the intention of eliminating the need for maintaining step implementation functions. We evaluated our approach on a sample of 20 white box and 50 black box projects using behaviour driven development, drawn from GitHub. Our results show that behave_nicely can generate step implementation functions for 80% of the white box and 17% of black box projects. We conclude that (a) there is significant potential for automating the process of code generation for BDD tests and (b) that the development of guidelines for writing tests in Gherkin would significantly improve the results.</t>
+          <t>Behaviour driven development (BDD) has gained widespread use in the software industry. System specifications can be expressed as test scenarios, describing the circumstances, actions and expected outcomes. These scenarios are written in a structured natural language (Gherkin), with each step in the scenario associated with a corresponding step implementation function in the underlying programming language. A challenge recognised by industry is ensuring that the natural language scenarios, step implementation functions and underlying system implementation remain consistent with one another, requiring on-going maintenance effort as changes are made to a system. To address this, we have developed behave-nicely, a tool, for automatically generating step implementation functions from structured natural language steps, with the intention of eliminating the need for maintaining step implementation functions. We evaluated our approach on a sample of 20 white box and 50 black box projects using behaviour driven development, drawn from GitHub. Our results show that behave-nicely can generate step implementation functions for 80% of the white box and 17% of black box projects. We conclude that (a) there is significant potential for automating the process of code generation for BDD tests and (b) that the development of guidelines for writing tests in Gherkin would significantly improve the results. © 2019 IEEE.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tim Storer; Ruxandra Bob</t>
+          <t>Storer T., Bob R.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2019 19th International Working Conference on Source Code Analysis and Manipulation (SCAM)</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/SCAM.2019.00033</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>1.Behave nicely repository,  [online]  Available: https://gitlab.com/rbob96/behave_nicely. Google Scholar; 2.Introducing bdd,  [online]  Available: https://dannorth.net/introducing-bdd/. Google Scholar; 3.A. Carrera, C. A. Iglesias and M. Garijo, "Beast methodology: An agile testing methodology for multi-agent systems based on behaviour driven development", Information Systems Frontiers, vol. 16, no. 2, pp. 169-182, April 2014. CrossRef  Google Scholar; 4.E. Keogh, "Bdd: A lean toolkit", Processings of Lean Software &amp; Systems Conference, 2010. Google Scholar; 5.C. Solis and X. Wang, "A study of the characteristics of behaviour driven development", 2011 37th EUROMICRO Conference on Software Engineering and Advanced Applications, pp. 383-387, Aug 2011. View Article  Google Scholar; 6.Behave,  [online]  Available: https://behave.readthedocs.io/en/latest/. Google Scholar; 7.Jbehave,  [online]  Available: https://jbehave.org/. Google Scholar; 8.Cucumber,  [online]  Available: https://docs.cucumber.io/. Google Scholar; 9.SpecFlow,  [online]  Available: https://specflow.org. Google Scholar; 10.CollabNet VersionOne, 13th annual state of agile report, May 2019,  [online]  Available: https://www.stateofagile.com. Google Scholar; 11.L. P. Binamungu, S. M. Embury and N. Konstantinou, "Maintaining behaviour driven development specifications: Challenges and opportunities", 2018 IEEE 25th International Conference on Software Analysis Evolution and Reengineering (SANER), pp. 175-184, March 2018. View Article  Google Scholar; 12.R. A. DeMillo, R. J. Lipton and F. G. Sayward, "Hints on test data selection: Help for the practicing programmer", IEEE Computer, vol. 11, no. 4, pp. 34-41, 1978. View Article  Google Scholar; 13.S. Kamalakar, Automatically generating tests from natural language descriptions of software behavior, 2013. Google Scholar; 14. [online]  Available: http://github.com.; 15.K. Beck, Test Driven Development by Example ser. Signature, Addison Wesley, November 2002. Google Scholar; 16.J. Dick and A. Faivre, "Automating the generation and sequencing of test cases from model-based specifications" in FME '93: Industrial-Strength Formal Methods, Berlin, Heidelberg:Springer Berlin Heidelberg, pp. 268-284, 1993. CrossRef  Google Scholar; 17.Y. G. Kim, H. S. Hong, D. H. Bae and S. D. Cha, "Test cases generation from uml state diagrams", IEE Proceedings - Software, vol. 146, no. 4, pp. 187-192, August 1999. CrossRef  Google Scholar; 18.N. Ismail, R. Ibrahim and N. Ibrahim, "Automatic generation of test cases from use-case diagram", Proceedings of the International Conference on Electrical Engineering and Informatics Institut Teknologi Bandung, June 17–19, 2007, January 2007. Google Scholar; 19.G. Fink and M. Bishop, "Property-based testing: A new approach to testing for assurance", SIGSOFT Softw. Eng. Notes, vol. 22, no. 4, pp. 74-80, Jul. 1997. CrossRef  Google Scholar; 20.Crowdsourced testing,  [online]  Available: https://www.rainforestqa.com/blog/2016-08-17-what-is-crowdsourced-testing/. Google Scholar; 21.A. Fatwanto, "Software requirements specification analysis using natural language processing technique", 2013 International Conference on QiR, pp. 105-110, June 2013. View Article  Google Scholar; 22.C. Arora, M. Sabetzadeh, L. Briand and F. Zimmer, "Automated checking of conformance to requirements templates using natural language processing", IEEE Transactions on Software Engineering, vol. 41, no. 10, pp. 944-968, October 2015. View Article  Google Scholar; 23.J. Kocerka, M. Krzeslak and A. Galuszka, "Analysing quality of textual requirements using natural language processing: A literature review", 23rd International Conference on Methods &amp; Models in Automation &amp; Robotics MMAR 2018, pp. 876-880, August 27–30, 2018. View Article  Google Scholar; 24.E. C. Groen, J. Schowalter, S. Kopczynska, S. Polst and S. Alvani, "Is there really a need for using NLP to elicit requirements? A benchmarking study to assess scalability of manual analysis", Joint Proceedings of REFSQ-2018 Workshops Doctoral Symposium Live Studies Track and Poster Track co-located with the 23rd International Conference on Requirements Engineering: Foundation for Software Quality (REFSQ 2018) Utrecht The Netherlands March 19 2018. ser. CEUR Workshop Proceedings, vol. 2075, 2018. Google Scholar; 25.A. Ferrari, "Natural language requirements processing: From research to practice", 2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion), pp. 536-537, May 2018. CrossRef  Google Scholar; 26.C. Wang, F. Pastore, A. Goknil, L. Briand and Z. Iqbal, "Automatic generation of system test cases from use case specifications", Proceedings of the 2015 International Symposium on Software Testing and Analysis ser. ISSTA 2015, pp. 385-396, 2015. CrossRef  Google Scholar; 27.P. M. Duvall, S. Matyas and A. Glover, Continuous Integration: Improving Software Quality ser. Addison Wesley Signature Series, New Jersey:Addison Wesley, June 2007. Google Scholar; 28.Natural language toolkit,  [online]  Available: https://www.nltk.org/. Google Scholar; 29.Allennlp,  [online]  Available: https://allennlp.org/. Google Scholar; 30.T. C. Lethbridge, "Priorities for the education and training of software engineers", The Journal of Systems and Software, vol. 53, pp. 53-71, 2000. CrossRef  Google Scholar</t>
-        </is>
-      </c>
+          <t>Proceedings - 19th IEEE International Working Conference on Source Code Analysis and Manipulation, SCAM 2019</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -3591,23 +3359,12 @@
       <c r="R45" t="n">
         <v>2</v>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Behave nicely! automatic generation of code for behaviour driven development test suites</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3669,6 +3426,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3734,6 +3492,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3758,7 +3517,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>J. Carter; W. B. Gardner</t>
+          <t>Carter, J.; Gardner, W. B.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3766,16 +3525,8 @@
           <t>2016 IEEE 17th International Conference on Information Reuse and Integration (IRI)</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/IRI.2016.39</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>1.K. Beck, M. Beedle, A. van Bennekum, A. Cockburn, W. Cunningham, M. Fowler, et al., "Manifesto for Agile Software Development", 2001,  [online]  Available: http://www.agilemanifesto.org/. Google Scholar; 2.K. Forsberg and H. Mooz, "The relationship of system engineering to the project cycle", Proc. of the National Council for Systems Engineering First Annual Conference, pp. 57-61, 1991. CrossRef  Google Scholar; 3.D. North, "Behavior modification: The evolution of behaviour-driven development", Better Software Magazine, Mar. 2006. Google Scholar; 4.E. Evans, Domain-Driven Design: Tackling Complexity in the Heart of Software, Boston:Addison-Wesley Longman, 2003. Google Scholar; 5."Gherkin wiki", 2016,  [online]  Available: https://github.com/cucumber/cucumber/wiki/Gherkin. Google Scholar; 6.B. Rice, R. Jones and J. Enge, "Welcome to behave!", 2014,  [online]  Available: http://pythonhosted.org/behave/. Google Scholar; 7.C. A. R. Hoare, "An axiomatic basis for computer programming", Communications of the ACM, vol. 12, no. 10, pp. 576-580, 1969. CrossRef  Google Scholar; 8.J.-R. Abrial, The B-book: Assigning Programs to Meanings, New York:Cambridge University Press, 1996. CrossRef  Google Scholar; 9.J.-R. Abrial, Modeling in Event-B: System and Software Engineering, New York:Cambridge University Press, 2010. CrossRef  Google Scholar; 10.G. Eleftherakis and A. J. Cowling, "An agile formal development methodology", Proc. 1st South-East European Workshop on Formal Methods (SEEFM 03), pp. 36-47, 2003. Google Scholar; 11.K. Scott, The Unified Process Explained, Boston:Addison- Wesley Longman, 2002. Google Scholar; 12.J. S. Ostroff, D. Makalsky and R. F. Paige, "Agile specification-driven development", Lecture Notes in Computer Science, vol. 3092, pp. 104-112, 2004. CrossRef  Google Scholar; 13.B. Meyer, "Applying “Design by Contract", Computer, vol. 25, pp. 40-51, Oct. 1992. View Article  Google Scholar; 14.K. Beck, Test-Driven Development: By Example, Boston:Addison-Wesley Longman, 2002. Google Scholar; 15.K. Beck and C. Andres, Extreme Programming Explained: Embrace Change, Boston:Addison-Wesley Professional, 2004. Google Scholar; 16.M. Lopez-Nores, J. J. Pazos-Arias, J. Garcia-Duque and B. Barragans-Martinez, "An agile approach to support incremental development of requirements specifications", Proc. Australian Software Engineering Conference (ASWEC 06), pp. 9-18, 2006. View Article  Google Scholar; 17.S. Black, P. P. Boca, J. P. Bowen, J. Gorman and M. Hinchey, "Formal Versus Agile: Survival of the Fittest", Computer, vol. 42, pp. 37-45, Sep. 2009. View Article  Google Scholar; 18.R. C. Martin, "The bowling game kata",  [online]  Available: http://butunclebob.com/ArticleS.UncleBob.TheBowlingGameKata. Google Scholar; 19.M. Leuschel, J. Bendisposto, I. Dobrikov, S. Krings and D. Plagge, "From animation to data validation: The ProB constraint solver 10 years on" in Formal Methods Applied to Complex Systems: Implementation of the B Method, Hoboken, NJ:Wiley ISTE, pp. 427-446, 2014. CrossRef  Google Scholar</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
@@ -3798,23 +3549,12 @@
       <c r="R48" t="n">
         <v>2</v>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>BHive: Towards Behaviour-Driven Development Supported by B-Method</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3847,11 +3587,7 @@
           <t>Evaluation and Assessment in Software Engineering</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3463274.3463807</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -3875,23 +3611,12 @@
       <c r="R49" t="n">
         <v>2</v>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>Empirical Findings on BDD Story Parsing to Support Consistency Assurance between Requirements and Artifacts</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3957,6 +3682,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4022,6 +3748,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4087,6 +3814,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4115,24 +3843,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Mazedur Rahman; Jerry Gao</t>
+          <t>Rahman, Mazedur; Gao, Jerry</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2015 IEEE Symposium on Service-Oriented System Engineering</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/SOSE.2015.55</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>1.D. North, "Introducing behaviour driven development", Sep 2014,  [online]  Available: http://dannorth.net/introducing-bdd/. Google Scholar; 2.K. Beck, "Test-Driven Development: by Example" in , Addison Wesley, 2003. Google Scholar; 3.K. Beck and C. Andres, "Extreme Programming Explained" in , Addison-Wesley, 2005. Google Scholar; 4.M. Fowler, "BusinessReadableDSL", Nov 2014,  [online]  Available: http://martinfowler.com/bliki/BusinessReadableDSL.html. Google Scholar; 5.Gherkin, Nov 2014,  [online]  Available: http://cukes.info/gherkin.html.; 6.Gherkin, Nov 2014,  [online]  Available: https://github.com/cucumber/cucumber/wiki/Gherkin.; 7.Nov 2014,  [online]  Available: http://guide.agilealliance.org/guide/acceptance.html.; 8.M. Fowler, "Agile Software Development", Sep 2014,  [online]  Available: http://martinfowler.com/agile.html. Google Scholar; 9.S. Ambler, "2013 IT Project Success Rates Survey Results", Sep 2014,  [online]  Available: http://www.ambysoft.com/surveys/success2013.html. Google Scholar; 10.B. Murphy et al., "Have Agile Techniques been the Silver Bullet for Software Development at Microsoft?", Empirical Software Engineering and Measurement ACM / IEEE International Symposium (2013), pp. 75-84, 2013. CrossRef  Google Scholar; 11.R. Osherove, "The art of unit testing: with examples in.NET. Greenwich (Connecticut): Manning", 2009. Google Scholar; 12.Nov 2014,  [online]  Available: http://guide.agilealliance.org/guide/unittest.html.; 13.M. Fowler, "Eradicating Non-Determinism in Tests", Nov 2014,  [online]  Available: http://martinfowler.com/articles/nonDeterminism.html. Google Scholar; 14.R. Borg and M. Kropp, "Automated acceptance test refactoring", Proceedings of the 4th Workshop on Refactoring Tools WRT '11, pp. 15-21, 2011. CrossRef  Google Scholar; 15.M. Fowler, "Microservices", Nov 2014,  [online]  Available: http://martinfowler.com/articles/microservices.html. Google Scholar; 16.Nov 2014,  [online]  Available: http://microservices.io/patterns/microservices.html.; 17.J. Marciniak, "Encyclopedia of software engineering" in , New York:Wiley, 1994. Google Scholar; 18.Nov 2014,  [online]  Available: http://guide.agilealliance.org/guide/mocks.html.; 19. [online]  Available: http://cukes.info/.; 20. [online]  Available: http://docs.behat.org/en/v2.5/.; 21. [online]  Available: http://pythonhosted.orglbehave/.</t>
-        </is>
-      </c>
+          <t>Proceedings of the 2015 IEEE Symposium on Service-Oriented System Engineering</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
@@ -4155,23 +3875,12 @@
       <c r="R53" t="n">
         <v>2</v>
       </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>A Reusable Automated Acceptance Testing Architecture for Microservices in Behavior-Driven Development</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>IEEE</t>
-        </is>
-      </c>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4233,6 +3942,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4298,6 +4008,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4359,6 +4070,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4424,6 +4136,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4489,6 +4202,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4554,6 +4268,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4619,6 +4334,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4684,6 +4400,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4745,6 +4462,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4810,6 +4528,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4823,7 +4542,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Speed up BDD for safety verification in agile development:a partially replicated controlled experiment</t>
+          <t>Speed up BDD for Safety Verification in Agile Development: A Partially Replicated Controlled Experiment</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4846,11 +4565,7 @@
           <t>Proceedings of the 19th International Conference on Agile Software Development: Companion</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3234152.3234181</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -4874,23 +4589,12 @@
       <c r="R64" t="n">
         <v>2</v>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>Speed up BDD for Safety Verification in Agile Development: A Partially Replicated Controlled Experiment</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4904,7 +4608,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Combining STPA and BDD for safety analysis and verification in agile development</t>
+          <t>Combining STPA and BDD for safety analysis and verification in agile development: A controlled experiment</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4923,11 +4627,7 @@
           <t>Lecture Notes in Business Information Processing</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3183440.3194973</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -4951,23 +4651,12 @@
       <c r="R65" t="n">
         <v>2</v>
       </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>Combining STPA and BDD for safety analysis and verification in agile development: A controlled experiment</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5033,6 +4722,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5098,6 +4788,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5159,6 +4850,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5224,6 +4916,7 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5289,6 +4982,7 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5354,6 +5048,7 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5419,6 +5114,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5484,6 +5180,7 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5549,6 +5246,7 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5614,6 +5312,7 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5679,6 +5378,7 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5744,6 +5444,7 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5809,6 +5510,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5866,6 +5568,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5931,6 +5634,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5996,6 +5700,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6061,6 +5766,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6126,6 +5832,7 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6191,6 +5898,7 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6256,6 +5964,7 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6321,6 +6030,7 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6382,6 +6092,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6447,6 +6158,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6512,6 +6224,7 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6577,6 +6290,7 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6638,6 +6352,7 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6703,6 +6418,7 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6768,6 +6484,7 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6829,6 +6546,7 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6890,6 +6608,7 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6955,6 +6674,7 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7020,6 +6740,7 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -7081,6 +6802,7 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7146,6 +6868,7 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7211,6 +6934,7 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7272,6 +6996,7 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7329,6 +7054,7 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7390,6 +7116,7 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -7447,6 +7174,7 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7512,6 +7240,7 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7577,6 +7306,7 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -7638,6 +7368,7 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -7703,6 +7434,7 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -7764,6 +7496,7 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -7829,6 +7562,7 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -7890,6 +7624,7 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -7955,6 +7690,7 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -8016,6 +7752,7 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -8081,6 +7818,7 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -8146,6 +7884,7 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8203,6 +7942,7 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -8268,6 +8008,7 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -8333,6 +8074,7 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -8398,6 +8140,7 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -8463,6 +8206,7 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -8528,6 +8272,7 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -8593,6 +8338,7 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -8654,6 +8400,7 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -8715,6 +8462,7 @@
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -8780,6 +8528,7 @@
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -8841,6 +8590,7 @@
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -8902,6 +8652,7 @@
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -8963,6 +8714,7 @@
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -9028,6 +8780,7 @@
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -9089,6 +8842,7 @@
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -9150,6 +8904,7 @@
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -9211,6 +8966,7 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -9272,6 +9028,7 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -9337,6 +9094,7 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -9398,6 +9156,7 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -9459,6 +9218,7 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -9524,6 +9284,7 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -9589,6 +9350,7 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -9650,6 +9412,7 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -9715,6 +9478,7 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -9780,6 +9544,7 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -9837,6 +9602,7 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -9898,6 +9664,7 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -9959,6 +9726,7 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -10016,6 +9784,7 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -10073,6 +9842,7 @@
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -10138,6 +9908,7 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -10203,6 +9974,7 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -10260,6 +10032,7 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -10325,6 +10098,7 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -10390,6 +10164,7 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -10451,6 +10226,7 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -10512,6 +10288,7 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -10577,6 +10354,7 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -10638,6 +10416,7 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -10703,6 +10482,7 @@
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -10768,6 +10548,7 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -10829,6 +10610,7 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr"/>
       <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -10894,6 +10676,7 @@
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
       <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -10955,6 +10738,7 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -11016,6 +10800,7 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -11081,6 +10866,7 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -11142,6 +10928,7 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -11207,6 +10994,7 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -11272,6 +11060,7 @@
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -11333,6 +11122,7 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -11394,6 +11184,7 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -11455,6 +11246,7 @@
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -11520,6 +11312,7 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
       <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -11581,6 +11374,7 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -11646,6 +11440,7 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -11703,6 +11498,7 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -11764,6 +11560,7 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -11829,6 +11626,7 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -11886,6 +11684,7 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -11947,6 +11746,7 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -12008,6 +11808,7 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr"/>
       <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -12065,6 +11866,7 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -12122,6 +11924,7 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -12183,6 +11986,7 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -12240,6 +12044,7 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -12305,6 +12110,7 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -12366,6 +12172,7 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -12431,6 +12238,7 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -12492,6 +12300,7 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr"/>
       <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -12557,6 +12366,7 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr"/>
       <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -12622,6 +12432,7 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
       <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -12683,6 +12494,7 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -12748,6 +12560,7 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -12813,6 +12626,7 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -12870,6 +12684,7 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr"/>
       <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -12935,6 +12750,7 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr"/>
       <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -12992,6 +12808,7 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr"/>
       <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -13057,6 +12874,7 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr"/>
       <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -13122,6 +12940,7 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -13187,6 +13006,7 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -13252,6 +13072,7 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
       <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -13317,6 +13138,7 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr"/>
       <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -13382,6 +13204,7 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr"/>
       <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -13447,6 +13270,7 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -13504,6 +13328,7 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -13565,6 +13390,7 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr"/>
       <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -13630,6 +13456,7 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr"/>
       <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -13695,6 +13522,7 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -13760,6 +13588,7 @@
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr"/>
       <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -13825,6 +13654,7 @@
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr"/>
       <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -13886,6 +13716,7 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr"/>
       <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -13943,6 +13774,7 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -14004,6 +13836,7 @@
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr"/>
       <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -14069,6 +13902,7 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -14134,6 +13968,7 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr"/>
       <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -14191,6 +14026,7 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
       <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -14248,6 +14084,7 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -14313,6 +14150,7 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
       <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -14374,6 +14212,7 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
       <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -14435,6 +14274,7 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -14500,6 +14340,7 @@
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr"/>
       <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -14561,6 +14402,7 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr"/>
       <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -14618,6 +14460,7 @@
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -14683,6 +14526,7 @@
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -14748,6 +14592,7 @@
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr"/>
       <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -14809,6 +14654,7 @@
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -14870,6 +14716,7 @@
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -14931,6 +14778,7 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -14996,6 +14844,7 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -15061,6 +14910,7 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr"/>
       <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -15126,6 +14976,7 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
       <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -15183,6 +15034,7 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -15244,6 +15096,7 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
       <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -15305,6 +15158,7 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
       <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -15370,6 +15224,7 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
       <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -15435,6 +15290,7 @@
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr"/>
       <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -15500,6 +15356,7 @@
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr"/>
       <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -15561,6 +15418,7 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr"/>
       <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -15626,6 +15484,7 @@
       <c r="U235" t="inlineStr"/>
       <c r="V235" t="inlineStr"/>
       <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -15687,6 +15546,7 @@
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -15748,6 +15608,7 @@
       <c r="U237" t="inlineStr"/>
       <c r="V237" t="inlineStr"/>
       <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -15809,6 +15670,7 @@
       <c r="U238" t="inlineStr"/>
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -15870,6 +15732,7 @@
       <c r="U239" t="inlineStr"/>
       <c r="V239" t="inlineStr"/>
       <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -15931,6 +15794,7 @@
       <c r="U240" t="inlineStr"/>
       <c r="V240" t="inlineStr"/>
       <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -15992,6 +15856,7 @@
       <c r="U241" t="inlineStr"/>
       <c r="V241" t="inlineStr"/>
       <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -16053,6 +15918,7 @@
       <c r="U242" t="inlineStr"/>
       <c r="V242" t="inlineStr"/>
       <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -16114,6 +15980,7 @@
       <c r="U243" t="inlineStr"/>
       <c r="V243" t="inlineStr"/>
       <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -16175,6 +16042,7 @@
       <c r="U244" t="inlineStr"/>
       <c r="V244" t="inlineStr"/>
       <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -16236,6 +16104,7 @@
       <c r="U245" t="inlineStr"/>
       <c r="V245" t="inlineStr"/>
       <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -16297,6 +16166,7 @@
       <c r="U246" t="inlineStr"/>
       <c r="V246" t="inlineStr"/>
       <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -16358,6 +16228,7 @@
       <c r="U247" t="inlineStr"/>
       <c r="V247" t="inlineStr"/>
       <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -16419,6 +16290,7 @@
       <c r="U248" t="inlineStr"/>
       <c r="V248" t="inlineStr"/>
       <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -16480,6 +16352,7 @@
       <c r="U249" t="inlineStr"/>
       <c r="V249" t="inlineStr"/>
       <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -16541,6 +16414,7 @@
       <c r="U250" t="inlineStr"/>
       <c r="V250" t="inlineStr"/>
       <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -16602,6 +16476,7 @@
       <c r="U251" t="inlineStr"/>
       <c r="V251" t="inlineStr"/>
       <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -16667,6 +16542,7 @@
       <c r="U252" t="inlineStr"/>
       <c r="V252" t="inlineStr"/>
       <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -16732,6 +16608,7 @@
       <c r="U253" t="inlineStr"/>
       <c r="V253" t="inlineStr"/>
       <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -16789,6 +16666,7 @@
       <c r="U254" t="inlineStr"/>
       <c r="V254" t="inlineStr"/>
       <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -16850,6 +16728,7 @@
       <c r="U255" t="inlineStr"/>
       <c r="V255" t="inlineStr"/>
       <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -16911,6 +16790,7 @@
       <c r="U256" t="inlineStr"/>
       <c r="V256" t="inlineStr"/>
       <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -16976,6 +16856,7 @@
       <c r="U257" t="inlineStr"/>
       <c r="V257" t="inlineStr"/>
       <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -17037,6 +16918,7 @@
       <c r="U258" t="inlineStr"/>
       <c r="V258" t="inlineStr"/>
       <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -17102,6 +16984,7 @@
       <c r="U259" t="inlineStr"/>
       <c r="V259" t="inlineStr"/>
       <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -17163,6 +17046,7 @@
       <c r="U260" t="inlineStr"/>
       <c r="V260" t="inlineStr"/>
       <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -17228,6 +17112,7 @@
       <c r="U261" t="inlineStr"/>
       <c r="V261" t="inlineStr"/>
       <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -17293,6 +17178,7 @@
       <c r="U262" t="inlineStr"/>
       <c r="V262" t="inlineStr"/>
       <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -17354,6 +17240,7 @@
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="inlineStr"/>
       <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -17415,6 +17302,7 @@
       <c r="U264" t="inlineStr"/>
       <c r="V264" t="inlineStr"/>
       <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -17476,6 +17364,7 @@
       <c r="U265" t="inlineStr"/>
       <c r="V265" t="inlineStr"/>
       <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -17541,6 +17430,7 @@
       <c r="U266" t="inlineStr"/>
       <c r="V266" t="inlineStr"/>
       <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -17598,6 +17488,7 @@
       <c r="U267" t="inlineStr"/>
       <c r="V267" t="inlineStr"/>
       <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -17659,6 +17550,7 @@
       <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
       <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -17720,6 +17612,7 @@
       <c r="U269" t="inlineStr"/>
       <c r="V269" t="inlineStr"/>
       <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -17781,6 +17674,7 @@
       <c r="U270" t="inlineStr"/>
       <c r="V270" t="inlineStr"/>
       <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -17846,6 +17740,7 @@
       <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr"/>
       <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -17907,6 +17802,7 @@
       <c r="U272" t="inlineStr"/>
       <c r="V272" t="inlineStr"/>
       <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -17972,6 +17868,7 @@
       <c r="U273" t="inlineStr"/>
       <c r="V273" t="inlineStr"/>
       <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -18033,6 +17930,7 @@
       <c r="U274" t="inlineStr"/>
       <c r="V274" t="inlineStr"/>
       <c r="W274" t="inlineStr"/>
+      <c r="X274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -18098,6 +17996,7 @@
       <c r="U275" t="inlineStr"/>
       <c r="V275" t="inlineStr"/>
       <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -18159,6 +18058,7 @@
       <c r="U276" t="inlineStr"/>
       <c r="V276" t="inlineStr"/>
       <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -18224,6 +18124,7 @@
       <c r="U277" t="inlineStr"/>
       <c r="V277" t="inlineStr"/>
       <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -18285,6 +18186,7 @@
       <c r="U278" t="inlineStr"/>
       <c r="V278" t="inlineStr"/>
       <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -18350,6 +18252,7 @@
       <c r="U279" t="inlineStr"/>
       <c r="V279" t="inlineStr"/>
       <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -18415,6 +18318,7 @@
       <c r="U280" t="inlineStr"/>
       <c r="V280" t="inlineStr"/>
       <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -18480,6 +18384,7 @@
       <c r="U281" t="inlineStr"/>
       <c r="V281" t="inlineStr"/>
       <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -18541,6 +18446,7 @@
       <c r="U282" t="inlineStr"/>
       <c r="V282" t="inlineStr"/>
       <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -18606,6 +18512,7 @@
       <c r="U283" t="inlineStr"/>
       <c r="V283" t="inlineStr"/>
       <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -18667,6 +18574,7 @@
       <c r="U284" t="inlineStr"/>
       <c r="V284" t="inlineStr"/>
       <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -18732,6 +18640,7 @@
       <c r="U285" t="inlineStr"/>
       <c r="V285" t="inlineStr"/>
       <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -18793,6 +18702,7 @@
       <c r="U286" t="inlineStr"/>
       <c r="V286" t="inlineStr"/>
       <c r="W286" t="inlineStr"/>
+      <c r="X286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -18858,6 +18768,7 @@
       <c r="U287" t="inlineStr"/>
       <c r="V287" t="inlineStr"/>
       <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -18923,6 +18834,7 @@
       <c r="U288" t="inlineStr"/>
       <c r="V288" t="inlineStr"/>
       <c r="W288" t="inlineStr"/>
+      <c r="X288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -18984,6 +18896,7 @@
       <c r="U289" t="inlineStr"/>
       <c r="V289" t="inlineStr"/>
       <c r="W289" t="inlineStr"/>
+      <c r="X289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -19045,6 +18958,7 @@
       <c r="U290" t="inlineStr"/>
       <c r="V290" t="inlineStr"/>
       <c r="W290" t="inlineStr"/>
+      <c r="X290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -19110,6 +19024,7 @@
       <c r="U291" t="inlineStr"/>
       <c r="V291" t="inlineStr"/>
       <c r="W291" t="inlineStr"/>
+      <c r="X291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -19171,6 +19086,7 @@
       <c r="U292" t="inlineStr"/>
       <c r="V292" t="inlineStr"/>
       <c r="W292" t="inlineStr"/>
+      <c r="X292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -19232,6 +19148,7 @@
       <c r="U293" t="inlineStr"/>
       <c r="V293" t="inlineStr"/>
       <c r="W293" t="inlineStr"/>
+      <c r="X293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -19293,6 +19210,7 @@
       <c r="U294" t="inlineStr"/>
       <c r="V294" t="inlineStr"/>
       <c r="W294" t="inlineStr"/>
+      <c r="X294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -19354,6 +19272,7 @@
       <c r="U295" t="inlineStr"/>
       <c r="V295" t="inlineStr"/>
       <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -19419,6 +19338,7 @@
       <c r="U296" t="inlineStr"/>
       <c r="V296" t="inlineStr"/>
       <c r="W296" t="inlineStr"/>
+      <c r="X296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -19484,6 +19404,7 @@
       <c r="U297" t="inlineStr"/>
       <c r="V297" t="inlineStr"/>
       <c r="W297" t="inlineStr"/>
+      <c r="X297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -19549,6 +19470,7 @@
       <c r="U298" t="inlineStr"/>
       <c r="V298" t="inlineStr"/>
       <c r="W298" t="inlineStr"/>
+      <c r="X298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -19614,6 +19536,7 @@
       <c r="U299" t="inlineStr"/>
       <c r="V299" t="inlineStr"/>
       <c r="W299" t="inlineStr"/>
+      <c r="X299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -19675,6 +19598,7 @@
       <c r="U300" t="inlineStr"/>
       <c r="V300" t="inlineStr"/>
       <c r="W300" t="inlineStr"/>
+      <c r="X300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -19736,6 +19660,7 @@
       <c r="U301" t="inlineStr"/>
       <c r="V301" t="inlineStr"/>
       <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -19797,6 +19722,7 @@
       <c r="U302" t="inlineStr"/>
       <c r="V302" t="inlineStr"/>
       <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -19858,6 +19784,7 @@
       <c r="U303" t="inlineStr"/>
       <c r="V303" t="inlineStr"/>
       <c r="W303" t="inlineStr"/>
+      <c r="X303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -19919,6 +19846,7 @@
       <c r="U304" t="inlineStr"/>
       <c r="V304" t="inlineStr"/>
       <c r="W304" t="inlineStr"/>
+      <c r="X304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -19980,6 +19908,7 @@
       <c r="U305" t="inlineStr"/>
       <c r="V305" t="inlineStr"/>
       <c r="W305" t="inlineStr"/>
+      <c r="X305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -20041,6 +19970,7 @@
       <c r="U306" t="inlineStr"/>
       <c r="V306" t="inlineStr"/>
       <c r="W306" t="inlineStr"/>
+      <c r="X306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -20098,6 +20028,7 @@
       <c r="U307" t="inlineStr"/>
       <c r="V307" t="inlineStr"/>
       <c r="W307" t="inlineStr"/>
+      <c r="X307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -20155,6 +20086,7 @@
       <c r="U308" t="inlineStr"/>
       <c r="V308" t="inlineStr"/>
       <c r="W308" t="inlineStr"/>
+      <c r="X308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -20220,6 +20152,7 @@
       <c r="U309" t="inlineStr"/>
       <c r="V309" t="inlineStr"/>
       <c r="W309" t="inlineStr"/>
+      <c r="X309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -20281,6 +20214,7 @@
       <c r="U310" t="inlineStr"/>
       <c r="V310" t="inlineStr"/>
       <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -20346,6 +20280,7 @@
       <c r="U311" t="inlineStr"/>
       <c r="V311" t="inlineStr"/>
       <c r="W311" t="inlineStr"/>
+      <c r="X311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -20407,6 +20342,7 @@
       <c r="U312" t="inlineStr"/>
       <c r="V312" t="inlineStr"/>
       <c r="W312" t="inlineStr"/>
+      <c r="X312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -20464,6 +20400,7 @@
       <c r="U313" t="inlineStr"/>
       <c r="V313" t="inlineStr"/>
       <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -20525,6 +20462,7 @@
       <c r="U314" t="inlineStr"/>
       <c r="V314" t="inlineStr"/>
       <c r="W314" t="inlineStr"/>
+      <c r="X314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -20582,6 +20520,7 @@
       <c r="U315" t="inlineStr"/>
       <c r="V315" t="inlineStr"/>
       <c r="W315" t="inlineStr"/>
+      <c r="X315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -20639,6 +20578,7 @@
       <c r="U316" t="inlineStr"/>
       <c r="V316" t="inlineStr"/>
       <c r="W316" t="inlineStr"/>
+      <c r="X316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -20696,6 +20636,7 @@
       <c r="U317" t="inlineStr"/>
       <c r="V317" t="inlineStr"/>
       <c r="W317" t="inlineStr"/>
+      <c r="X317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -20757,6 +20698,7 @@
       <c r="U318" t="inlineStr"/>
       <c r="V318" t="inlineStr"/>
       <c r="W318" t="inlineStr"/>
+      <c r="X318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -20814,6 +20756,7 @@
       <c r="U319" t="inlineStr"/>
       <c r="V319" t="inlineStr"/>
       <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -20875,6 +20818,7 @@
       <c r="U320" t="inlineStr"/>
       <c r="V320" t="inlineStr"/>
       <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -20932,6 +20876,7 @@
       <c r="U321" t="inlineStr"/>
       <c r="V321" t="inlineStr"/>
       <c r="W321" t="inlineStr"/>
+      <c r="X321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -20989,6 +20934,7 @@
       <c r="U322" t="inlineStr"/>
       <c r="V322" t="inlineStr"/>
       <c r="W322" t="inlineStr"/>
+      <c r="X322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -21046,6 +20992,7 @@
       <c r="U323" t="inlineStr"/>
       <c r="V323" t="inlineStr"/>
       <c r="W323" t="inlineStr"/>
+      <c r="X323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -21103,6 +21050,7 @@
       <c r="U324" t="inlineStr"/>
       <c r="V324" t="inlineStr"/>
       <c r="W324" t="inlineStr"/>
+      <c r="X324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -21160,6 +21108,7 @@
       <c r="U325" t="inlineStr"/>
       <c r="V325" t="inlineStr"/>
       <c r="W325" t="inlineStr"/>
+      <c r="X325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -21217,6 +21166,7 @@
       <c r="U326" t="inlineStr"/>
       <c r="V326" t="inlineStr"/>
       <c r="W326" t="inlineStr"/>
+      <c r="X326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -21274,6 +21224,7 @@
       <c r="U327" t="inlineStr"/>
       <c r="V327" t="inlineStr"/>
       <c r="W327" t="inlineStr"/>
+      <c r="X327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -21331,6 +21282,7 @@
       <c r="U328" t="inlineStr"/>
       <c r="V328" t="inlineStr"/>
       <c r="W328" t="inlineStr"/>
+      <c r="X328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -21388,6 +21340,7 @@
       <c r="U329" t="inlineStr"/>
       <c r="V329" t="inlineStr"/>
       <c r="W329" t="inlineStr"/>
+      <c r="X329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -21445,6 +21398,7 @@
       <c r="U330" t="inlineStr"/>
       <c r="V330" t="inlineStr"/>
       <c r="W330" t="inlineStr"/>
+      <c r="X330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -21502,6 +21456,7 @@
       <c r="U331" t="inlineStr"/>
       <c r="V331" t="inlineStr"/>
       <c r="W331" t="inlineStr"/>
+      <c r="X331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -21559,6 +21514,7 @@
       <c r="U332" t="inlineStr"/>
       <c r="V332" t="inlineStr"/>
       <c r="W332" t="inlineStr"/>
+      <c r="X332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -21616,6 +21572,7 @@
       <c r="U333" t="inlineStr"/>
       <c r="V333" t="inlineStr"/>
       <c r="W333" t="inlineStr"/>
+      <c r="X333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -21677,6 +21634,7 @@
       <c r="U334" t="inlineStr"/>
       <c r="V334" t="inlineStr"/>
       <c r="W334" t="inlineStr"/>
+      <c r="X334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -21734,6 +21692,7 @@
       <c r="U335" t="inlineStr"/>
       <c r="V335" t="inlineStr"/>
       <c r="W335" t="inlineStr"/>
+      <c r="X335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -21791,6 +21750,7 @@
       <c r="U336" t="inlineStr"/>
       <c r="V336" t="inlineStr"/>
       <c r="W336" t="inlineStr"/>
+      <c r="X336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -21848,6 +21808,7 @@
       <c r="U337" t="inlineStr"/>
       <c r="V337" t="inlineStr"/>
       <c r="W337" t="inlineStr"/>
+      <c r="X337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -21905,6 +21866,7 @@
       <c r="U338" t="inlineStr"/>
       <c r="V338" t="inlineStr"/>
       <c r="W338" t="inlineStr"/>
+      <c r="X338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -21962,6 +21924,7 @@
       <c r="U339" t="inlineStr"/>
       <c r="V339" t="inlineStr"/>
       <c r="W339" t="inlineStr"/>
+      <c r="X339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -22019,6 +21982,7 @@
       <c r="U340" t="inlineStr"/>
       <c r="V340" t="inlineStr"/>
       <c r="W340" t="inlineStr"/>
+      <c r="X340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -22076,6 +22040,7 @@
       <c r="U341" t="inlineStr"/>
       <c r="V341" t="inlineStr"/>
       <c r="W341" t="inlineStr"/>
+      <c r="X341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -22133,6 +22098,7 @@
       <c r="U342" t="inlineStr"/>
       <c r="V342" t="inlineStr"/>
       <c r="W342" t="inlineStr"/>
+      <c r="X342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -22186,6 +22152,7 @@
       <c r="U343" t="inlineStr"/>
       <c r="V343" t="inlineStr"/>
       <c r="W343" t="inlineStr"/>
+      <c r="X343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -22243,6 +22210,7 @@
       <c r="U344" t="inlineStr"/>
       <c r="V344" t="inlineStr"/>
       <c r="W344" t="inlineStr"/>
+      <c r="X344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -22300,6 +22268,7 @@
       <c r="U345" t="inlineStr"/>
       <c r="V345" t="inlineStr"/>
       <c r="W345" t="inlineStr"/>
+      <c r="X345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -22357,6 +22326,7 @@
       <c r="U346" t="inlineStr"/>
       <c r="V346" t="inlineStr"/>
       <c r="W346" t="inlineStr"/>
+      <c r="X346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -22414,6 +22384,7 @@
       <c r="U347" t="inlineStr"/>
       <c r="V347" t="inlineStr"/>
       <c r="W347" t="inlineStr"/>
+      <c r="X347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -22471,6 +22442,7 @@
       <c r="U348" t="inlineStr"/>
       <c r="V348" t="inlineStr"/>
       <c r="W348" t="inlineStr"/>
+      <c r="X348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -22528,6 +22500,7 @@
       <c r="U349" t="inlineStr"/>
       <c r="V349" t="inlineStr"/>
       <c r="W349" t="inlineStr"/>
+      <c r="X349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -22585,6 +22558,7 @@
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="inlineStr"/>
       <c r="W350" t="inlineStr"/>
+      <c r="X350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -22642,6 +22616,7 @@
       <c r="U351" t="inlineStr"/>
       <c r="V351" t="inlineStr"/>
       <c r="W351" t="inlineStr"/>
+      <c r="X351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -22699,6 +22674,7 @@
       <c r="U352" t="inlineStr"/>
       <c r="V352" t="inlineStr"/>
       <c r="W352" t="inlineStr"/>
+      <c r="X352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -22756,6 +22732,7 @@
       <c r="U353" t="inlineStr"/>
       <c r="V353" t="inlineStr"/>
       <c r="W353" t="inlineStr"/>
+      <c r="X353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -22813,6 +22790,7 @@
       <c r="U354" t="inlineStr"/>
       <c r="V354" t="inlineStr"/>
       <c r="W354" t="inlineStr"/>
+      <c r="X354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -22870,6 +22848,7 @@
       <c r="U355" t="inlineStr"/>
       <c r="V355" t="inlineStr"/>
       <c r="W355" t="inlineStr"/>
+      <c r="X355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -22927,6 +22906,7 @@
       <c r="U356" t="inlineStr"/>
       <c r="V356" t="inlineStr"/>
       <c r="W356" t="inlineStr"/>
+      <c r="X356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -22984,6 +22964,7 @@
       <c r="U357" t="inlineStr"/>
       <c r="V357" t="inlineStr"/>
       <c r="W357" t="inlineStr"/>
+      <c r="X357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -23037,6 +23018,7 @@
       <c r="U358" t="inlineStr"/>
       <c r="V358" t="inlineStr"/>
       <c r="W358" t="inlineStr"/>
+      <c r="X358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -23094,6 +23076,7 @@
       <c r="U359" t="inlineStr"/>
       <c r="V359" t="inlineStr"/>
       <c r="W359" t="inlineStr"/>
+      <c r="X359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -23151,6 +23134,7 @@
       <c r="U360" t="inlineStr"/>
       <c r="V360" t="inlineStr"/>
       <c r="W360" t="inlineStr"/>
+      <c r="X360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -23208,6 +23192,7 @@
       <c r="U361" t="inlineStr"/>
       <c r="V361" t="inlineStr"/>
       <c r="W361" t="inlineStr"/>
+      <c r="X361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -23265,6 +23250,7 @@
       <c r="U362" t="inlineStr"/>
       <c r="V362" t="inlineStr"/>
       <c r="W362" t="inlineStr"/>
+      <c r="X362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -23322,6 +23308,7 @@
       <c r="U363" t="inlineStr"/>
       <c r="V363" t="inlineStr"/>
       <c r="W363" t="inlineStr"/>
+      <c r="X363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -23379,6 +23366,7 @@
       <c r="U364" t="inlineStr"/>
       <c r="V364" t="inlineStr"/>
       <c r="W364" t="inlineStr"/>
+      <c r="X364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -23432,6 +23420,7 @@
       <c r="U365" t="inlineStr"/>
       <c r="V365" t="inlineStr"/>
       <c r="W365" t="inlineStr"/>
+      <c r="X365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -23489,6 +23478,7 @@
       <c r="U366" t="inlineStr"/>
       <c r="V366" t="inlineStr"/>
       <c r="W366" t="inlineStr"/>
+      <c r="X366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -23546,6 +23536,7 @@
       <c r="U367" t="inlineStr"/>
       <c r="V367" t="inlineStr"/>
       <c r="W367" t="inlineStr"/>
+      <c r="X367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -23599,6 +23590,7 @@
       <c r="U368" t="inlineStr"/>
       <c r="V368" t="inlineStr"/>
       <c r="W368" t="inlineStr"/>
+      <c r="X368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -23656,6 +23648,7 @@
       <c r="U369" t="inlineStr"/>
       <c r="V369" t="inlineStr"/>
       <c r="W369" t="inlineStr"/>
+      <c r="X369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -23713,6 +23706,7 @@
       <c r="U370" t="inlineStr"/>
       <c r="V370" t="inlineStr"/>
       <c r="W370" t="inlineStr"/>
+      <c r="X370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -23770,6 +23764,7 @@
       <c r="U371" t="inlineStr"/>
       <c r="V371" t="inlineStr"/>
       <c r="W371" t="inlineStr"/>
+      <c r="X371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -23827,6 +23822,7 @@
       <c r="U372" t="inlineStr"/>
       <c r="V372" t="inlineStr"/>
       <c r="W372" t="inlineStr"/>
+      <c r="X372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -23884,6 +23880,7 @@
       <c r="U373" t="inlineStr"/>
       <c r="V373" t="inlineStr"/>
       <c r="W373" t="inlineStr"/>
+      <c r="X373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -23941,6 +23938,7 @@
       <c r="U374" t="inlineStr"/>
       <c r="V374" t="inlineStr"/>
       <c r="W374" t="inlineStr"/>
+      <c r="X374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -23994,6 +23992,7 @@
       <c r="U375" t="inlineStr"/>
       <c r="V375" t="inlineStr"/>
       <c r="W375" t="inlineStr"/>
+      <c r="X375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -24051,6 +24050,7 @@
       <c r="U376" t="inlineStr"/>
       <c r="V376" t="inlineStr"/>
       <c r="W376" t="inlineStr"/>
+      <c r="X376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -24104,6 +24104,7 @@
       <c r="U377" t="inlineStr"/>
       <c r="V377" t="inlineStr"/>
       <c r="W377" t="inlineStr"/>
+      <c r="X377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -24161,6 +24162,7 @@
       <c r="U378" t="inlineStr"/>
       <c r="V378" t="inlineStr"/>
       <c r="W378" t="inlineStr"/>
+      <c r="X378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -24218,6 +24220,7 @@
       <c r="U379" t="inlineStr"/>
       <c r="V379" t="inlineStr"/>
       <c r="W379" t="inlineStr"/>
+      <c r="X379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -24271,6 +24274,7 @@
       <c r="U380" t="inlineStr"/>
       <c r="V380" t="inlineStr"/>
       <c r="W380" t="inlineStr"/>
+      <c r="X380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -24328,6 +24332,7 @@
       <c r="U381" t="inlineStr"/>
       <c r="V381" t="inlineStr"/>
       <c r="W381" t="inlineStr"/>
+      <c r="X381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -24385,6 +24390,7 @@
       <c r="U382" t="inlineStr"/>
       <c r="V382" t="inlineStr"/>
       <c r="W382" t="inlineStr"/>
+      <c r="X382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -24442,6 +24448,7 @@
       <c r="U383" t="inlineStr"/>
       <c r="V383" t="inlineStr"/>
       <c r="W383" t="inlineStr"/>
+      <c r="X383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -24499,6 +24506,7 @@
       <c r="U384" t="inlineStr"/>
       <c r="V384" t="inlineStr"/>
       <c r="W384" t="inlineStr"/>
+      <c r="X384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -24556,6 +24564,7 @@
       <c r="U385" t="inlineStr"/>
       <c r="V385" t="inlineStr"/>
       <c r="W385" t="inlineStr"/>
+      <c r="X385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -24569,7 +24578,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>VR Education Contents for Core Fundamental Nursing Skills</t>
+          <t>Contents</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -24580,11 +24589,7 @@
           <t>Procedia Computer Science</t>
         </is>
       </c>
-      <c r="I386" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3550472.3558410</t>
-        </is>
-      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr"/>
@@ -24608,23 +24613,12 @@
       <c r="R386" t="n">
         <v>2</v>
       </c>
-      <c r="S386" t="inlineStr">
-        <is>
-          <t>ACM</t>
-        </is>
-      </c>
+      <c r="S386" t="inlineStr"/>
       <c r="T386" t="inlineStr"/>
-      <c r="U386" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
+      <c r="U386" t="inlineStr"/>
       <c r="V386" t="inlineStr"/>
-      <c r="W386" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
+      <c r="W386" t="inlineStr"/>
+      <c r="X386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -24682,6 +24676,7 @@
       <c r="U387" t="inlineStr"/>
       <c r="V387" t="inlineStr"/>
       <c r="W387" t="inlineStr"/>
+      <c r="X387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -24739,6 +24734,7 @@
       <c r="U388" t="inlineStr"/>
       <c r="V388" t="inlineStr"/>
       <c r="W388" t="inlineStr"/>
+      <c r="X388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -24796,6 +24792,7 @@
       <c r="U389" t="inlineStr"/>
       <c r="V389" t="inlineStr"/>
       <c r="W389" t="inlineStr"/>
+      <c r="X389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -24857,6 +24854,7 @@
       <c r="U390" t="inlineStr"/>
       <c r="V390" t="inlineStr"/>
       <c r="W390" t="inlineStr"/>
+      <c r="X390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -24914,6 +24912,7 @@
       <c r="U391" t="inlineStr"/>
       <c r="V391" t="inlineStr"/>
       <c r="W391" t="inlineStr"/>
+      <c r="X391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -24971,6 +24970,7 @@
       <c r="U392" t="inlineStr"/>
       <c r="V392" t="inlineStr"/>
       <c r="W392" t="inlineStr"/>
+      <c r="X392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -25028,6 +25028,7 @@
       <c r="U393" t="inlineStr"/>
       <c r="V393" t="inlineStr"/>
       <c r="W393" t="inlineStr"/>
+      <c r="X393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -25085,6 +25086,7 @@
       <c r="U394" t="inlineStr"/>
       <c r="V394" t="inlineStr"/>
       <c r="W394" t="inlineStr"/>
+      <c r="X394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -25142,6 +25144,7 @@
       <c r="U395" t="inlineStr"/>
       <c r="V395" t="inlineStr"/>
       <c r="W395" t="inlineStr"/>
+      <c r="X395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -25195,6 +25198,7 @@
       <c r="U396" t="inlineStr"/>
       <c r="V396" t="inlineStr"/>
       <c r="W396" t="inlineStr"/>
+      <c r="X396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -25252,6 +25256,7 @@
       <c r="U397" t="inlineStr"/>
       <c r="V397" t="inlineStr"/>
       <c r="W397" t="inlineStr"/>
+      <c r="X397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -25309,6 +25314,7 @@
       <c r="U398" t="inlineStr"/>
       <c r="V398" t="inlineStr"/>
       <c r="W398" t="inlineStr"/>
+      <c r="X398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -25366,6 +25372,7 @@
       <c r="U399" t="inlineStr"/>
       <c r="V399" t="inlineStr"/>
       <c r="W399" t="inlineStr"/>
+      <c r="X399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -25423,6 +25430,7 @@
       <c r="U400" t="inlineStr"/>
       <c r="V400" t="inlineStr"/>
       <c r="W400" t="inlineStr"/>
+      <c r="X400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -25480,6 +25488,7 @@
       <c r="U401" t="inlineStr"/>
       <c r="V401" t="inlineStr"/>
       <c r="W401" t="inlineStr"/>
+      <c r="X401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -25537,6 +25546,7 @@
       <c r="U402" t="inlineStr"/>
       <c r="V402" t="inlineStr"/>
       <c r="W402" t="inlineStr"/>
+      <c r="X402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -25590,6 +25600,7 @@
       <c r="U403" t="inlineStr"/>
       <c r="V403" t="inlineStr"/>
       <c r="W403" t="inlineStr"/>
+      <c r="X403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -25647,6 +25658,7 @@
       <c r="U404" t="inlineStr"/>
       <c r="V404" t="inlineStr"/>
       <c r="W404" t="inlineStr"/>
+      <c r="X404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -25700,6 +25712,7 @@
       <c r="U405" t="inlineStr"/>
       <c r="V405" t="inlineStr"/>
       <c r="W405" t="inlineStr"/>
+      <c r="X405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -25757,6 +25770,7 @@
       <c r="U406" t="inlineStr"/>
       <c r="V406" t="inlineStr"/>
       <c r="W406" t="inlineStr"/>
+      <c r="X406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -25814,6 +25828,7 @@
       <c r="U407" t="inlineStr"/>
       <c r="V407" t="inlineStr"/>
       <c r="W407" t="inlineStr"/>
+      <c r="X407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -25871,6 +25886,7 @@
       <c r="U408" t="inlineStr"/>
       <c r="V408" t="inlineStr"/>
       <c r="W408" t="inlineStr"/>
+      <c r="X408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -25924,6 +25940,7 @@
       <c r="U409" t="inlineStr"/>
       <c r="V409" t="inlineStr"/>
       <c r="W409" t="inlineStr"/>
+      <c r="X409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -25981,6 +25998,7 @@
       <c r="U410" t="inlineStr"/>
       <c r="V410" t="inlineStr"/>
       <c r="W410" t="inlineStr"/>
+      <c r="X410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -26038,6 +26056,7 @@
       <c r="U411" t="inlineStr"/>
       <c r="V411" t="inlineStr"/>
       <c r="W411" t="inlineStr"/>
+      <c r="X411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -26095,6 +26114,7 @@
       <c r="U412" t="inlineStr"/>
       <c r="V412" t="inlineStr"/>
       <c r="W412" t="inlineStr"/>
+      <c r="X412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -26152,6 +26172,7 @@
       <c r="U413" t="inlineStr"/>
       <c r="V413" t="inlineStr"/>
       <c r="W413" t="inlineStr"/>
+      <c r="X413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -26209,6 +26230,7 @@
       <c r="U414" t="inlineStr"/>
       <c r="V414" t="inlineStr"/>
       <c r="W414" t="inlineStr"/>
+      <c r="X414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -26266,6 +26288,7 @@
       <c r="U415" t="inlineStr"/>
       <c r="V415" t="inlineStr"/>
       <c r="W415" t="inlineStr"/>
+      <c r="X415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -26323,6 +26346,7 @@
       <c r="U416" t="inlineStr"/>
       <c r="V416" t="inlineStr"/>
       <c r="W416" t="inlineStr"/>
+      <c r="X416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -26380,6 +26404,7 @@
       <c r="U417" t="inlineStr"/>
       <c r="V417" t="inlineStr"/>
       <c r="W417" t="inlineStr"/>
+      <c r="X417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -26437,6 +26462,7 @@
       <c r="U418" t="inlineStr"/>
       <c r="V418" t="inlineStr"/>
       <c r="W418" t="inlineStr"/>
+      <c r="X418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -26494,6 +26520,7 @@
       <c r="U419" t="inlineStr"/>
       <c r="V419" t="inlineStr"/>
       <c r="W419" t="inlineStr"/>
+      <c r="X419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -26551,6 +26578,7 @@
       <c r="U420" t="inlineStr"/>
       <c r="V420" t="inlineStr"/>
       <c r="W420" t="inlineStr"/>
+      <c r="X420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -26608,6 +26636,7 @@
       <c r="U421" t="inlineStr"/>
       <c r="V421" t="inlineStr"/>
       <c r="W421" t="inlineStr"/>
+      <c r="X421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -26665,6 +26694,7 @@
       <c r="U422" t="inlineStr"/>
       <c r="V422" t="inlineStr"/>
       <c r="W422" t="inlineStr"/>
+      <c r="X422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -26718,6 +26748,7 @@
       <c r="U423" t="inlineStr"/>
       <c r="V423" t="inlineStr"/>
       <c r="W423" t="inlineStr"/>
+      <c r="X423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -26775,6 +26806,7 @@
       <c r="U424" t="inlineStr"/>
       <c r="V424" t="inlineStr"/>
       <c r="W424" t="inlineStr"/>
+      <c r="X424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -26832,6 +26864,7 @@
       <c r="U425" t="inlineStr"/>
       <c r="V425" t="inlineStr"/>
       <c r="W425" t="inlineStr"/>
+      <c r="X425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -26889,6 +26922,7 @@
       <c r="U426" t="inlineStr"/>
       <c r="V426" t="inlineStr"/>
       <c r="W426" t="inlineStr"/>
+      <c r="X426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -26946,6 +26980,7 @@
       <c r="U427" t="inlineStr"/>
       <c r="V427" t="inlineStr"/>
       <c r="W427" t="inlineStr"/>
+      <c r="X427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -26999,6 +27034,7 @@
       <c r="U428" t="inlineStr"/>
       <c r="V428" t="inlineStr"/>
       <c r="W428" t="inlineStr"/>
+      <c r="X428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -27056,6 +27092,7 @@
       <c r="U429" t="inlineStr"/>
       <c r="V429" t="inlineStr"/>
       <c r="W429" t="inlineStr"/>
+      <c r="X429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -27113,6 +27150,7 @@
       <c r="U430" t="inlineStr"/>
       <c r="V430" t="inlineStr"/>
       <c r="W430" t="inlineStr"/>
+      <c r="X430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -27170,6 +27208,7 @@
       <c r="U431" t="inlineStr"/>
       <c r="V431" t="inlineStr"/>
       <c r="W431" t="inlineStr"/>
+      <c r="X431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -27223,6 +27262,7 @@
       <c r="U432" t="inlineStr"/>
       <c r="V432" t="inlineStr"/>
       <c r="W432" t="inlineStr"/>
+      <c r="X432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -27280,6 +27320,7 @@
       <c r="U433" t="inlineStr"/>
       <c r="V433" t="inlineStr"/>
       <c r="W433" t="inlineStr"/>
+      <c r="X433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -27337,6 +27378,7 @@
       <c r="U434" t="inlineStr"/>
       <c r="V434" t="inlineStr"/>
       <c r="W434" t="inlineStr"/>
+      <c r="X434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -27394,6 +27436,7 @@
       <c r="U435" t="inlineStr"/>
       <c r="V435" t="inlineStr"/>
       <c r="W435" t="inlineStr"/>
+      <c r="X435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -27451,6 +27494,7 @@
       <c r="U436" t="inlineStr"/>
       <c r="V436" t="inlineStr"/>
       <c r="W436" t="inlineStr"/>
+      <c r="X436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -27500,6 +27544,7 @@
       <c r="U437" t="inlineStr"/>
       <c r="V437" t="inlineStr"/>
       <c r="W437" t="inlineStr"/>
+      <c r="X437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -27557,6 +27602,7 @@
       <c r="U438" t="inlineStr"/>
       <c r="V438" t="inlineStr"/>
       <c r="W438" t="inlineStr"/>
+      <c r="X438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -27614,6 +27660,7 @@
       <c r="U439" t="inlineStr"/>
       <c r="V439" t="inlineStr"/>
       <c r="W439" t="inlineStr"/>
+      <c r="X439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -27671,6 +27718,7 @@
       <c r="U440" t="inlineStr"/>
       <c r="V440" t="inlineStr"/>
       <c r="W440" t="inlineStr"/>
+      <c r="X440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -27728,6 +27776,7 @@
       <c r="U441" t="inlineStr"/>
       <c r="V441" t="inlineStr"/>
       <c r="W441" t="inlineStr"/>
+      <c r="X441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -27785,6 +27834,7 @@
       <c r="U442" t="inlineStr"/>
       <c r="V442" t="inlineStr"/>
       <c r="W442" t="inlineStr"/>
+      <c r="X442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -27842,6 +27892,7 @@
       <c r="U443" t="inlineStr"/>
       <c r="V443" t="inlineStr"/>
       <c r="W443" t="inlineStr"/>
+      <c r="X443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -27903,6 +27954,7 @@
       <c r="U444" t="inlineStr"/>
       <c r="V444" t="inlineStr"/>
       <c r="W444" t="inlineStr"/>
+      <c r="X444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -27960,6 +28012,7 @@
       <c r="U445" t="inlineStr"/>
       <c r="V445" t="inlineStr"/>
       <c r="W445" t="inlineStr"/>
+      <c r="X445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -28017,6 +28070,7 @@
       <c r="U446" t="inlineStr"/>
       <c r="V446" t="inlineStr"/>
       <c r="W446" t="inlineStr"/>
+      <c r="X446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -28074,6 +28128,7 @@
       <c r="U447" t="inlineStr"/>
       <c r="V447" t="inlineStr"/>
       <c r="W447" t="inlineStr"/>
+      <c r="X447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -28131,6 +28186,7 @@
       <c r="U448" t="inlineStr"/>
       <c r="V448" t="inlineStr"/>
       <c r="W448" t="inlineStr"/>
+      <c r="X448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -28188,6 +28244,7 @@
       <c r="U449" t="inlineStr"/>
       <c r="V449" t="inlineStr"/>
       <c r="W449" t="inlineStr"/>
+      <c r="X449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -28245,6 +28302,7 @@
       <c r="U450" t="inlineStr"/>
       <c r="V450" t="inlineStr"/>
       <c r="W450" t="inlineStr"/>
+      <c r="X450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -28302,6 +28360,7 @@
       <c r="U451" t="inlineStr"/>
       <c r="V451" t="inlineStr"/>
       <c r="W451" t="inlineStr"/>
+      <c r="X451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -28359,6 +28418,7 @@
       <c r="U452" t="inlineStr"/>
       <c r="V452" t="inlineStr"/>
       <c r="W452" t="inlineStr"/>
+      <c r="X452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -28416,6 +28476,7 @@
       <c r="U453" t="inlineStr"/>
       <c r="V453" t="inlineStr"/>
       <c r="W453" t="inlineStr"/>
+      <c r="X453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -28469,6 +28530,7 @@
       <c r="U454" t="inlineStr"/>
       <c r="V454" t="inlineStr"/>
       <c r="W454" t="inlineStr"/>
+      <c r="X454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -28526,6 +28588,7 @@
       <c r="U455" t="inlineStr"/>
       <c r="V455" t="inlineStr"/>
       <c r="W455" t="inlineStr"/>
+      <c r="X455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -28583,6 +28646,7 @@
       <c r="U456" t="inlineStr"/>
       <c r="V456" t="inlineStr"/>
       <c r="W456" t="inlineStr"/>
+      <c r="X456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -28640,6 +28704,7 @@
       <c r="U457" t="inlineStr"/>
       <c r="V457" t="inlineStr"/>
       <c r="W457" t="inlineStr"/>
+      <c r="X457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -28697,6 +28762,7 @@
       <c r="U458" t="inlineStr"/>
       <c r="V458" t="inlineStr"/>
       <c r="W458" t="inlineStr"/>
+      <c r="X458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -28754,6 +28820,7 @@
       <c r="U459" t="inlineStr"/>
       <c r="V459" t="inlineStr"/>
       <c r="W459" t="inlineStr"/>
+      <c r="X459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -28807,6 +28874,7 @@
       <c r="U460" t="inlineStr"/>
       <c r="V460" t="inlineStr"/>
       <c r="W460" t="inlineStr"/>
+      <c r="X460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -28864,6 +28932,7 @@
       <c r="U461" t="inlineStr"/>
       <c r="V461" t="inlineStr"/>
       <c r="W461" t="inlineStr"/>
+      <c r="X461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -28917,6 +28986,7 @@
       <c r="U462" t="inlineStr"/>
       <c r="V462" t="inlineStr"/>
       <c r="W462" t="inlineStr"/>
+      <c r="X462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -28974,6 +29044,7 @@
       <c r="U463" t="inlineStr"/>
       <c r="V463" t="inlineStr"/>
       <c r="W463" t="inlineStr"/>
+      <c r="X463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -29031,6 +29102,7 @@
       <c r="U464" t="inlineStr"/>
       <c r="V464" t="inlineStr"/>
       <c r="W464" t="inlineStr"/>
+      <c r="X464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -29088,6 +29160,7 @@
       <c r="U465" t="inlineStr"/>
       <c r="V465" t="inlineStr"/>
       <c r="W465" t="inlineStr"/>
+      <c r="X465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -29145,6 +29218,7 @@
       <c r="U466" t="inlineStr"/>
       <c r="V466" t="inlineStr"/>
       <c r="W466" t="inlineStr"/>
+      <c r="X466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -29202,6 +29276,7 @@
       <c r="U467" t="inlineStr"/>
       <c r="V467" t="inlineStr"/>
       <c r="W467" t="inlineStr"/>
+      <c r="X467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -29255,6 +29330,7 @@
       <c r="U468" t="inlineStr"/>
       <c r="V468" t="inlineStr"/>
       <c r="W468" t="inlineStr"/>
+      <c r="X468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -29312,6 +29388,7 @@
       <c r="U469" t="inlineStr"/>
       <c r="V469" t="inlineStr"/>
       <c r="W469" t="inlineStr"/>
+      <c r="X469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -29369,6 +29446,7 @@
       <c r="U470" t="inlineStr"/>
       <c r="V470" t="inlineStr"/>
       <c r="W470" t="inlineStr"/>
+      <c r="X470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -29426,6 +29504,7 @@
       <c r="U471" t="inlineStr"/>
       <c r="V471" t="inlineStr"/>
       <c r="W471" t="inlineStr"/>
+      <c r="X471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -29483,6 +29562,7 @@
       <c r="U472" t="inlineStr"/>
       <c r="V472" t="inlineStr"/>
       <c r="W472" t="inlineStr"/>
+      <c r="X472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -29540,6 +29620,7 @@
       <c r="U473" t="inlineStr"/>
       <c r="V473" t="inlineStr"/>
       <c r="W473" t="inlineStr"/>
+      <c r="X473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -29597,6 +29678,7 @@
       <c r="U474" t="inlineStr"/>
       <c r="V474" t="inlineStr"/>
       <c r="W474" t="inlineStr"/>
+      <c r="X474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -29654,6 +29736,7 @@
       <c r="U475" t="inlineStr"/>
       <c r="V475" t="inlineStr"/>
       <c r="W475" t="inlineStr"/>
+      <c r="X475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -29711,6 +29794,7 @@
       <c r="U476" t="inlineStr"/>
       <c r="V476" t="inlineStr"/>
       <c r="W476" t="inlineStr"/>
+      <c r="X476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -29768,6 +29852,7 @@
       <c r="U477" t="inlineStr"/>
       <c r="V477" t="inlineStr"/>
       <c r="W477" t="inlineStr"/>
+      <c r="X477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -29825,6 +29910,7 @@
       <c r="U478" t="inlineStr"/>
       <c r="V478" t="inlineStr"/>
       <c r="W478" t="inlineStr"/>
+      <c r="X478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -29882,6 +29968,7 @@
       <c r="U479" t="inlineStr"/>
       <c r="V479" t="inlineStr"/>
       <c r="W479" t="inlineStr"/>
+      <c r="X479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -29939,6 +30026,7 @@
       <c r="U480" t="inlineStr"/>
       <c r="V480" t="inlineStr"/>
       <c r="W480" t="inlineStr"/>
+      <c r="X480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -29996,6 +30084,7 @@
       <c r="U481" t="inlineStr"/>
       <c r="V481" t="inlineStr"/>
       <c r="W481" t="inlineStr"/>
+      <c r="X481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -30053,6 +30142,7 @@
       <c r="U482" t="inlineStr"/>
       <c r="V482" t="inlineStr"/>
       <c r="W482" t="inlineStr"/>
+      <c r="X482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -30110,6 +30200,7 @@
       <c r="U483" t="inlineStr"/>
       <c r="V483" t="inlineStr"/>
       <c r="W483" t="inlineStr"/>
+      <c r="X483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -30167,6 +30258,7 @@
       <c r="U484" t="inlineStr"/>
       <c r="V484" t="inlineStr"/>
       <c r="W484" t="inlineStr"/>
+      <c r="X484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -30224,6 +30316,7 @@
       <c r="U485" t="inlineStr"/>
       <c r="V485" t="inlineStr"/>
       <c r="W485" t="inlineStr"/>
+      <c r="X485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -30281,6 +30374,7 @@
       <c r="U486" t="inlineStr"/>
       <c r="V486" t="inlineStr"/>
       <c r="W486" t="inlineStr"/>
+      <c r="X486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -30338,6 +30432,7 @@
       <c r="U487" t="inlineStr"/>
       <c r="V487" t="inlineStr"/>
       <c r="W487" t="inlineStr"/>
+      <c r="X487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -30395,6 +30490,7 @@
       <c r="U488" t="inlineStr"/>
       <c r="V488" t="inlineStr"/>
       <c r="W488" t="inlineStr"/>
+      <c r="X488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -30452,6 +30548,7 @@
       <c r="U489" t="inlineStr"/>
       <c r="V489" t="inlineStr"/>
       <c r="W489" t="inlineStr"/>
+      <c r="X489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -30470,35 +30567,19 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Domain-specific languages (DSLs) allow developers to write code at a higher level of abstraction compared with general-purpose languages (GPLs). Developers often use DSLs to reduce the complexity of GPLs. Our previous study found that developers performed program comprehension tasks more accurately and efficiently with DSLs than with corresponding APIs in GPLs. This study replicates our previous study to validate and extend the results when developers use IDEs to perform program comprehension tasks. We performed a dependent replication of a family of experiments. We made two specific changes to the original study: (1) participants used IDEs to perform the program comprehension tasks, to address a threat to validity in the original experiment and (2) each participant performed program comprehension tasks on either DSLs or GPLs, not both as in the original experiment. The results of the replication are consistent with and expanded the results of the original study. Developers are significantly more effective and efficient in tool-based program comprehension when using a DSL than when using a corresponding API in a GPL. The results indicate that, where a DSL is available, developers will perform program comprehension better using the DSL than when using the corresponding API in a GPL.</t>
-        </is>
-      </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>Domain-specific languages; General-purpose languages; Program comprehension; Controlled experiment; Replication</t>
-        </is>
-      </c>
+          <t>https://link.springer.com/article/10.1007/s10664-017-9593-2</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>Kosar, Tomaz; Gaberc, Saso; Carver, Jeffrey C.; Mernik, Marjan</t>
-        </is>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>EMPIRICAL SOFTWARE ENGINEERINGarrow_drop_down</t>
-        </is>
-      </c>
-      <c r="I490" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s10664-017-9593-2</t>
-        </is>
-      </c>
+          <t>Tomaž KosarSašo GabercJeffrey C. CarverMarjan Mernik</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>2734-2763</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr">
         <is>
@@ -30520,23 +30601,12 @@
       <c r="R490" t="n">
         <v>2</v>
       </c>
-      <c r="S490" t="inlineStr">
-        <is>
-          <t>Web of Science</t>
-        </is>
-      </c>
+      <c r="S490" t="inlineStr"/>
       <c r="T490" t="inlineStr"/>
-      <c r="U490" t="inlineStr">
-        <is>
-          <t>Program comprehension of domain-specific and general-purpose languages: replication of a family of experiments using integrated development environments</t>
-        </is>
-      </c>
+      <c r="U490" t="inlineStr"/>
       <c r="V490" t="inlineStr"/>
-      <c r="W490" t="inlineStr">
-        <is>
-          <t>SPRINGER</t>
-        </is>
-      </c>
+      <c r="W490" t="inlineStr"/>
+      <c r="X490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -30594,6 +30664,7 @@
       <c r="U491" t="inlineStr"/>
       <c r="V491" t="inlineStr"/>
       <c r="W491" t="inlineStr"/>
+      <c r="X491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -30651,6 +30722,7 @@
       <c r="U492" t="inlineStr"/>
       <c r="V492" t="inlineStr"/>
       <c r="W492" t="inlineStr"/>
+      <c r="X492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -30704,6 +30776,7 @@
       <c r="U493" t="inlineStr"/>
       <c r="V493" t="inlineStr"/>
       <c r="W493" t="inlineStr"/>
+      <c r="X493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -30757,6 +30830,7 @@
       <c r="U494" t="inlineStr"/>
       <c r="V494" t="inlineStr"/>
       <c r="W494" t="inlineStr"/>
+      <c r="X494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -30810,6 +30884,7 @@
       <c r="U495" t="inlineStr"/>
       <c r="V495" t="inlineStr"/>
       <c r="W495" t="inlineStr"/>
+      <c r="X495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -30863,6 +30938,7 @@
       <c r="U496" t="inlineStr"/>
       <c r="V496" t="inlineStr"/>
       <c r="W496" t="inlineStr"/>
+      <c r="X496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -30920,6 +30996,7 @@
       <c r="U497" t="inlineStr"/>
       <c r="V497" t="inlineStr"/>
       <c r="W497" t="inlineStr"/>
+      <c r="X497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -30977,6 +31054,7 @@
       <c r="U498" t="inlineStr"/>
       <c r="V498" t="inlineStr"/>
       <c r="W498" t="inlineStr"/>
+      <c r="X498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -31034,6 +31112,7 @@
       <c r="U499" t="inlineStr"/>
       <c r="V499" t="inlineStr"/>
       <c r="W499" t="inlineStr"/>
+      <c r="X499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -31091,6 +31170,7 @@
       <c r="U500" t="inlineStr"/>
       <c r="V500" t="inlineStr"/>
       <c r="W500" t="inlineStr"/>
+      <c r="X500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -31148,6 +31228,7 @@
       <c r="U501" t="inlineStr"/>
       <c r="V501" t="inlineStr"/>
       <c r="W501" t="inlineStr"/>
+      <c r="X501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -31205,6 +31286,7 @@
       <c r="U502" t="inlineStr"/>
       <c r="V502" t="inlineStr"/>
       <c r="W502" t="inlineStr"/>
+      <c r="X502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -31262,6 +31344,7 @@
       <c r="U503" t="inlineStr"/>
       <c r="V503" t="inlineStr"/>
       <c r="W503" t="inlineStr"/>
+      <c r="X503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -31319,6 +31402,7 @@
       <c r="U504" t="inlineStr"/>
       <c r="V504" t="inlineStr"/>
       <c r="W504" t="inlineStr"/>
+      <c r="X504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -31376,6 +31460,7 @@
       <c r="U505" t="inlineStr"/>
       <c r="V505" t="inlineStr"/>
       <c r="W505" t="inlineStr"/>
+      <c r="X505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -31433,6 +31518,7 @@
       <c r="U506" t="inlineStr"/>
       <c r="V506" t="inlineStr"/>
       <c r="W506" t="inlineStr"/>
+      <c r="X506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -31486,6 +31572,7 @@
       <c r="U507" t="inlineStr"/>
       <c r="V507" t="inlineStr"/>
       <c r="W507" t="inlineStr"/>
+      <c r="X507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -31543,6 +31630,7 @@
       <c r="U508" t="inlineStr"/>
       <c r="V508" t="inlineStr"/>
       <c r="W508" t="inlineStr"/>
+      <c r="X508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -31596,6 +31684,7 @@
       <c r="U509" t="inlineStr"/>
       <c r="V509" t="inlineStr"/>
       <c r="W509" t="inlineStr"/>
+      <c r="X509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -31649,6 +31738,7 @@
       <c r="U510" t="inlineStr"/>
       <c r="V510" t="inlineStr"/>
       <c r="W510" t="inlineStr"/>
+      <c r="X510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -31706,6 +31796,7 @@
       <c r="U511" t="inlineStr"/>
       <c r="V511" t="inlineStr"/>
       <c r="W511" t="inlineStr"/>
+      <c r="X511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -31759,6 +31850,7 @@
       <c r="U512" t="inlineStr"/>
       <c r="V512" t="inlineStr"/>
       <c r="W512" t="inlineStr"/>
+      <c r="X512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -31816,6 +31908,7 @@
       <c r="U513" t="inlineStr"/>
       <c r="V513" t="inlineStr"/>
       <c r="W513" t="inlineStr"/>
+      <c r="X513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -31873,6 +31966,7 @@
       <c r="U514" t="inlineStr"/>
       <c r="V514" t="inlineStr"/>
       <c r="W514" t="inlineStr"/>
+      <c r="X514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -31930,6 +32024,7 @@
       <c r="U515" t="inlineStr"/>
       <c r="V515" t="inlineStr"/>
       <c r="W515" t="inlineStr"/>
+      <c r="X515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -31987,6 +32082,7 @@
       <c r="U516" t="inlineStr"/>
       <c r="V516" t="inlineStr"/>
       <c r="W516" t="inlineStr"/>
+      <c r="X516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -32044,6 +32140,7 @@
       <c r="U517" t="inlineStr"/>
       <c r="V517" t="inlineStr"/>
       <c r="W517" t="inlineStr"/>
+      <c r="X517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -32101,6 +32198,7 @@
       <c r="U518" t="inlineStr"/>
       <c r="V518" t="inlineStr"/>
       <c r="W518" t="inlineStr"/>
+      <c r="X518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -32158,6 +32256,7 @@
       <c r="U519" t="inlineStr"/>
       <c r="V519" t="inlineStr"/>
       <c r="W519" t="inlineStr"/>
+      <c r="X519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -32215,6 +32314,7 @@
       <c r="U520" t="inlineStr"/>
       <c r="V520" t="inlineStr"/>
       <c r="W520" t="inlineStr"/>
+      <c r="X520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -32272,6 +32372,7 @@
       <c r="U521" t="inlineStr"/>
       <c r="V521" t="inlineStr"/>
       <c r="W521" t="inlineStr"/>
+      <c r="X521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -32329,6 +32430,7 @@
       <c r="U522" t="inlineStr"/>
       <c r="V522" t="inlineStr"/>
       <c r="W522" t="inlineStr"/>
+      <c r="X522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -32382,6 +32484,7 @@
       <c r="U523" t="inlineStr"/>
       <c r="V523" t="inlineStr"/>
       <c r="W523" t="inlineStr"/>
+      <c r="X523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -32439,6 +32542,7 @@
       <c r="U524" t="inlineStr"/>
       <c r="V524" t="inlineStr"/>
       <c r="W524" t="inlineStr"/>
+      <c r="X524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -32496,6 +32600,7 @@
       <c r="U525" t="inlineStr"/>
       <c r="V525" t="inlineStr"/>
       <c r="W525" t="inlineStr"/>
+      <c r="X525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -32549,6 +32654,7 @@
       <c r="U526" t="inlineStr"/>
       <c r="V526" t="inlineStr"/>
       <c r="W526" t="inlineStr"/>
+      <c r="X526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -32606,6 +32712,7 @@
       <c r="U527" t="inlineStr"/>
       <c r="V527" t="inlineStr"/>
       <c r="W527" t="inlineStr"/>
+      <c r="X527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -32659,6 +32766,7 @@
       <c r="U528" t="inlineStr"/>
       <c r="V528" t="inlineStr"/>
       <c r="W528" t="inlineStr"/>
+      <c r="X528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -32716,6 +32824,7 @@
       <c r="U529" t="inlineStr"/>
       <c r="V529" t="inlineStr"/>
       <c r="W529" t="inlineStr"/>
+      <c r="X529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -32773,6 +32882,7 @@
       <c r="U530" t="inlineStr"/>
       <c r="V530" t="inlineStr"/>
       <c r="W530" t="inlineStr"/>
+      <c r="X530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -32830,6 +32940,7 @@
       <c r="U531" t="inlineStr"/>
       <c r="V531" t="inlineStr"/>
       <c r="W531" t="inlineStr"/>
+      <c r="X531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -32887,6 +32998,7 @@
       <c r="U532" t="inlineStr"/>
       <c r="V532" t="inlineStr"/>
       <c r="W532" t="inlineStr"/>
+      <c r="X532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -32944,6 +33056,7 @@
       <c r="U533" t="inlineStr"/>
       <c r="V533" t="inlineStr"/>
       <c r="W533" t="inlineStr"/>
+      <c r="X533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -33001,6 +33114,7 @@
       <c r="U534" t="inlineStr"/>
       <c r="V534" t="inlineStr"/>
       <c r="W534" t="inlineStr"/>
+      <c r="X534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -33058,6 +33172,7 @@
       <c r="U535" t="inlineStr"/>
       <c r="V535" t="inlineStr"/>
       <c r="W535" t="inlineStr"/>
+      <c r="X535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -33115,6 +33230,7 @@
       <c r="U536" t="inlineStr"/>
       <c r="V536" t="inlineStr"/>
       <c r="W536" t="inlineStr"/>
+      <c r="X536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -33172,6 +33288,7 @@
       <c r="U537" t="inlineStr"/>
       <c r="V537" t="inlineStr"/>
       <c r="W537" t="inlineStr"/>
+      <c r="X537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -33225,6 +33342,7 @@
       <c r="U538" t="inlineStr"/>
       <c r="V538" t="inlineStr"/>
       <c r="W538" t="inlineStr"/>
+      <c r="X538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -33282,6 +33400,7 @@
       <c r="U539" t="inlineStr"/>
       <c r="V539" t="inlineStr"/>
       <c r="W539" t="inlineStr"/>
+      <c r="X539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -33339,6 +33458,7 @@
       <c r="U540" t="inlineStr"/>
       <c r="V540" t="inlineStr"/>
       <c r="W540" t="inlineStr"/>
+      <c r="X540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -33396,6 +33516,7 @@
       <c r="U541" t="inlineStr"/>
       <c r="V541" t="inlineStr"/>
       <c r="W541" t="inlineStr"/>
+      <c r="X541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -33453,6 +33574,7 @@
       <c r="U542" t="inlineStr"/>
       <c r="V542" t="inlineStr"/>
       <c r="W542" t="inlineStr"/>
+      <c r="X542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -33510,6 +33632,7 @@
       <c r="U543" t="inlineStr"/>
       <c r="V543" t="inlineStr"/>
       <c r="W543" t="inlineStr"/>
+      <c r="X543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -33567,6 +33690,7 @@
       <c r="U544" t="inlineStr"/>
       <c r="V544" t="inlineStr"/>
       <c r="W544" t="inlineStr"/>
+      <c r="X544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -33624,6 +33748,7 @@
       <c r="U545" t="inlineStr"/>
       <c r="V545" t="inlineStr"/>
       <c r="W545" t="inlineStr"/>
+      <c r="X545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -33681,6 +33806,7 @@
       <c r="U546" t="inlineStr"/>
       <c r="V546" t="inlineStr"/>
       <c r="W546" t="inlineStr"/>
+      <c r="X546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -33738,6 +33864,7 @@
       <c r="U547" t="inlineStr"/>
       <c r="V547" t="inlineStr"/>
       <c r="W547" t="inlineStr"/>
+      <c r="X547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -33795,6 +33922,7 @@
       <c r="U548" t="inlineStr"/>
       <c r="V548" t="inlineStr"/>
       <c r="W548" t="inlineStr"/>
+      <c r="X548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -33852,6 +33980,7 @@
       <c r="U549" t="inlineStr"/>
       <c r="V549" t="inlineStr"/>
       <c r="W549" t="inlineStr"/>
+      <c r="X549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -33909,6 +34038,7 @@
       <c r="U550" t="inlineStr"/>
       <c r="V550" t="inlineStr"/>
       <c r="W550" t="inlineStr"/>
+      <c r="X550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -33966,6 +34096,7 @@
       <c r="U551" t="inlineStr"/>
       <c r="V551" t="inlineStr"/>
       <c r="W551" t="inlineStr"/>
+      <c r="X551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -34023,6 +34154,7 @@
       <c r="U552" t="inlineStr"/>
       <c r="V552" t="inlineStr"/>
       <c r="W552" t="inlineStr"/>
+      <c r="X552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -34080,6 +34212,7 @@
       <c r="U553" t="inlineStr"/>
       <c r="V553" t="inlineStr"/>
       <c r="W553" t="inlineStr"/>
+      <c r="X553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -34137,6 +34270,7 @@
       <c r="U554" t="inlineStr"/>
       <c r="V554" t="inlineStr"/>
       <c r="W554" t="inlineStr"/>
+      <c r="X554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -34194,6 +34328,7 @@
       <c r="U555" t="inlineStr"/>
       <c r="V555" t="inlineStr"/>
       <c r="W555" t="inlineStr"/>
+      <c r="X555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -34251,6 +34386,7 @@
       <c r="U556" t="inlineStr"/>
       <c r="V556" t="inlineStr"/>
       <c r="W556" t="inlineStr"/>
+      <c r="X556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -34308,6 +34444,7 @@
       <c r="U557" t="inlineStr"/>
       <c r="V557" t="inlineStr"/>
       <c r="W557" t="inlineStr"/>
+      <c r="X557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -34365,6 +34502,7 @@
       <c r="U558" t="inlineStr"/>
       <c r="V558" t="inlineStr"/>
       <c r="W558" t="inlineStr"/>
+      <c r="X558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -34422,6 +34560,7 @@
       <c r="U559" t="inlineStr"/>
       <c r="V559" t="inlineStr"/>
       <c r="W559" t="inlineStr"/>
+      <c r="X559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -34479,6 +34618,7 @@
       <c r="U560" t="inlineStr"/>
       <c r="V560" t="inlineStr"/>
       <c r="W560" t="inlineStr"/>
+      <c r="X560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -34536,6 +34676,7 @@
       <c r="U561" t="inlineStr"/>
       <c r="V561" t="inlineStr"/>
       <c r="W561" t="inlineStr"/>
+      <c r="X561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -34593,6 +34734,7 @@
       <c r="U562" t="inlineStr"/>
       <c r="V562" t="inlineStr"/>
       <c r="W562" t="inlineStr"/>
+      <c r="X562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -34650,6 +34792,7 @@
       <c r="U563" t="inlineStr"/>
       <c r="V563" t="inlineStr"/>
       <c r="W563" t="inlineStr"/>
+      <c r="X563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -34707,6 +34850,7 @@
       <c r="U564" t="inlineStr"/>
       <c r="V564" t="inlineStr"/>
       <c r="W564" t="inlineStr"/>
+      <c r="X564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -34764,6 +34908,7 @@
       <c r="U565" t="inlineStr"/>
       <c r="V565" t="inlineStr"/>
       <c r="W565" t="inlineStr"/>
+      <c r="X565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -34821,6 +34966,7 @@
       <c r="U566" t="inlineStr"/>
       <c r="V566" t="inlineStr"/>
       <c r="W566" t="inlineStr"/>
+      <c r="X566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -34878,6 +35024,7 @@
       <c r="U567" t="inlineStr"/>
       <c r="V567" t="inlineStr"/>
       <c r="W567" t="inlineStr"/>
+      <c r="X567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -34935,6 +35082,7 @@
       <c r="U568" t="inlineStr"/>
       <c r="V568" t="inlineStr"/>
       <c r="W568" t="inlineStr"/>
+      <c r="X568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -34992,6 +35140,7 @@
       <c r="U569" t="inlineStr"/>
       <c r="V569" t="inlineStr"/>
       <c r="W569" t="inlineStr"/>
+      <c r="X569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -35049,6 +35198,7 @@
       <c r="U570" t="inlineStr"/>
       <c r="V570" t="inlineStr"/>
       <c r="W570" t="inlineStr"/>
+      <c r="X570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -35106,6 +35256,7 @@
       <c r="U571" t="inlineStr"/>
       <c r="V571" t="inlineStr"/>
       <c r="W571" t="inlineStr"/>
+      <c r="X571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -35163,6 +35314,7 @@
       <c r="U572" t="inlineStr"/>
       <c r="V572" t="inlineStr"/>
       <c r="W572" t="inlineStr"/>
+      <c r="X572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -35220,6 +35372,7 @@
       <c r="U573" t="inlineStr"/>
       <c r="V573" t="inlineStr"/>
       <c r="W573" t="inlineStr"/>
+      <c r="X573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -35277,6 +35430,7 @@
       <c r="U574" t="inlineStr"/>
       <c r="V574" t="inlineStr"/>
       <c r="W574" t="inlineStr"/>
+      <c r="X574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -35334,6 +35488,7 @@
       <c r="U575" t="inlineStr"/>
       <c r="V575" t="inlineStr"/>
       <c r="W575" t="inlineStr"/>
+      <c r="X575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -35391,6 +35546,7 @@
       <c r="U576" t="inlineStr"/>
       <c r="V576" t="inlineStr"/>
       <c r="W576" t="inlineStr"/>
+      <c r="X576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -35448,6 +35604,7 @@
       <c r="U577" t="inlineStr"/>
       <c r="V577" t="inlineStr"/>
       <c r="W577" t="inlineStr"/>
+      <c r="X577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -35505,6 +35662,7 @@
       <c r="U578" t="inlineStr"/>
       <c r="V578" t="inlineStr"/>
       <c r="W578" t="inlineStr"/>
+      <c r="X578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -35562,6 +35720,7 @@
       <c r="U579" t="inlineStr"/>
       <c r="V579" t="inlineStr"/>
       <c r="W579" t="inlineStr"/>
+      <c r="X579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -35619,6 +35778,7 @@
       <c r="U580" t="inlineStr"/>
       <c r="V580" t="inlineStr"/>
       <c r="W580" t="inlineStr"/>
+      <c r="X580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -35676,6 +35836,7 @@
       <c r="U581" t="inlineStr"/>
       <c r="V581" t="inlineStr"/>
       <c r="W581" t="inlineStr"/>
+      <c r="X581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -35733,6 +35894,7 @@
       <c r="U582" t="inlineStr"/>
       <c r="V582" t="inlineStr"/>
       <c r="W582" t="inlineStr"/>
+      <c r="X582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -35790,6 +35952,7 @@
       <c r="U583" t="inlineStr"/>
       <c r="V583" t="inlineStr"/>
       <c r="W583" t="inlineStr"/>
+      <c r="X583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -35847,6 +36010,7 @@
       <c r="U584" t="inlineStr"/>
       <c r="V584" t="inlineStr"/>
       <c r="W584" t="inlineStr"/>
+      <c r="X584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -35904,6 +36068,7 @@
       <c r="U585" t="inlineStr"/>
       <c r="V585" t="inlineStr"/>
       <c r="W585" t="inlineStr"/>
+      <c r="X585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -35961,6 +36126,7 @@
       <c r="U586" t="inlineStr"/>
       <c r="V586" t="inlineStr"/>
       <c r="W586" t="inlineStr"/>
+      <c r="X586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -36018,6 +36184,7 @@
       <c r="U587" t="inlineStr"/>
       <c r="V587" t="inlineStr"/>
       <c r="W587" t="inlineStr"/>
+      <c r="X587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -36075,6 +36242,7 @@
       <c r="U588" t="inlineStr"/>
       <c r="V588" t="inlineStr"/>
       <c r="W588" t="inlineStr"/>
+      <c r="X588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -36132,6 +36300,7 @@
       <c r="U589" t="inlineStr"/>
       <c r="V589" t="inlineStr"/>
       <c r="W589" t="inlineStr"/>
+      <c r="X589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -36189,6 +36358,7 @@
       <c r="U590" t="inlineStr"/>
       <c r="V590" t="inlineStr"/>
       <c r="W590" t="inlineStr"/>
+      <c r="X590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -36246,6 +36416,7 @@
       <c r="U591" t="inlineStr"/>
       <c r="V591" t="inlineStr"/>
       <c r="W591" t="inlineStr"/>
+      <c r="X591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -36303,6 +36474,7 @@
       <c r="U592" t="inlineStr"/>
       <c r="V592" t="inlineStr"/>
       <c r="W592" t="inlineStr"/>
+      <c r="X592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -36360,6 +36532,7 @@
       <c r="U593" t="inlineStr"/>
       <c r="V593" t="inlineStr"/>
       <c r="W593" t="inlineStr"/>
+      <c r="X593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -36417,6 +36590,7 @@
       <c r="U594" t="inlineStr"/>
       <c r="V594" t="inlineStr"/>
       <c r="W594" t="inlineStr"/>
+      <c r="X594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -36474,6 +36648,7 @@
       <c r="U595" t="inlineStr"/>
       <c r="V595" t="inlineStr"/>
       <c r="W595" t="inlineStr"/>
+      <c r="X595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -36531,6 +36706,7 @@
       <c r="U596" t="inlineStr"/>
       <c r="V596" t="inlineStr"/>
       <c r="W596" t="inlineStr"/>
+      <c r="X596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -36588,6 +36764,7 @@
       <c r="U597" t="inlineStr"/>
       <c r="V597" t="inlineStr"/>
       <c r="W597" t="inlineStr"/>
+      <c r="X597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -36645,6 +36822,7 @@
       <c r="U598" t="inlineStr"/>
       <c r="V598" t="inlineStr"/>
       <c r="W598" t="inlineStr"/>
+      <c r="X598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -36702,6 +36880,7 @@
       <c r="U599" t="inlineStr"/>
       <c r="V599" t="inlineStr"/>
       <c r="W599" t="inlineStr"/>
+      <c r="X599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -36759,6 +36938,7 @@
       <c r="U600" t="inlineStr"/>
       <c r="V600" t="inlineStr"/>
       <c r="W600" t="inlineStr"/>
+      <c r="X600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -36816,6 +36996,7 @@
       <c r="U601" t="inlineStr"/>
       <c r="V601" t="inlineStr"/>
       <c r="W601" t="inlineStr"/>
+      <c r="X601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -36873,6 +37054,7 @@
       <c r="U602" t="inlineStr"/>
       <c r="V602" t="inlineStr"/>
       <c r="W602" t="inlineStr"/>
+      <c r="X602" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Datasets/Behave/Behave.xlsx
+++ b/Datasets/Behave/Behave.xlsx
@@ -27508,13 +27508,29 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="E437" t="inlineStr"/>
-      <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr"/>
+          <t>HR-Index: An Effective Index Method for Historical Reachability Queries over Evolving Graphs</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Reachability query is a fundamental problem and has been well studied on static graphs. However, in the real world, the graphs are not static but always evolving over time. In this paper, we study the problem of historical reachability query on evolving graphs. We propose a novel index, named HR-Index, which integrates complete and correct historical reachability information of the evolving graph. A historical reachability query on an evolving graph can be converted into a static reachability query on its HR-Index and thus query efficiency can be improved significantly. We also propose two optimization techniques to reduce the size of HR-Index effectively. We confirm the effectiveness and efficiency of our method through conducting extensive experiments on real-life datasets. Experimental results show both vertex and edge size of HR-Index are far smaller than that of the evolving graphs and our method has at least an order of magnitude improvement in time and space efficiency compared to the state-of-the-art method.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>evolving graph; index; reachability query</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Yajun Yang; Hanxiao Li; Xiangju Zhu; Junhu Wang; Xin Wang; Hong Gao</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Proceedings of the ACM on Management of Data</t>
+        </is>
+      </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
@@ -27539,12 +27555,32 @@
       <c r="R437" t="n">
         <v>2</v>
       </c>
-      <c r="S437" t="inlineStr"/>
+      <c r="S437" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T437" t="inlineStr"/>
-      <c r="U437" t="inlineStr"/>
-      <c r="V437" t="inlineStr"/>
-      <c r="W437" t="inlineStr"/>
-      <c r="X437" t="inlineStr"/>
+      <c r="U437" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="V437" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3589272</t>
+        </is>
+      </c>
+      <c r="W437" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X437" t="inlineStr">
+        <is>
+          <t>nan; References; Pages; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -27906,28 +27942,36 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Interpreter Pattern</t>
+          <t>Language design and implementation using ruby and the interpreter pattern</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4842-2680-3_12</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr"/>
+          <t>In this paper, the S-expression Interpreter Framework (SIF) is presented as a tool for teaching language design and implementation. The SIF is based on the interpreter design pattern and is written in the Ruby programming language. Its core is quite small, but it can be easily extended by adding primitive procedures and special forms. The SIF can be used to demonstrate advanced language concepts (variable scopes, continuations, etc.) as well as different programming styles (functional, imperative, and object oriented).</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>design patterns; interpreter; ruby; s-expression</t>
+        </is>
+      </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>Wessel Badenhorst</t>
+          <t>Ariel Ortiz</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>These keywords were added by machine and not by the authors. This process is experimental and the keywords may be updated as the learning algorithm improves.</t>
+          <t>SIGCSE '08: Proceedings of the 39th SIGCSE technical symposium on Computer science education</t>
         </is>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>48-52</t>
+        </is>
+      </c>
       <c r="L444" t="inlineStr"/>
       <c r="M444" t="inlineStr">
         <is>
@@ -27949,12 +27993,32 @@
       <c r="R444" t="n">
         <v>2</v>
       </c>
-      <c r="S444" t="inlineStr"/>
+      <c r="S444" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T444" t="inlineStr"/>
-      <c r="U444" t="inlineStr"/>
-      <c r="V444" t="inlineStr"/>
-      <c r="W444" t="inlineStr"/>
-      <c r="X444" t="inlineStr"/>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>Interpreter Pattern</t>
+        </is>
+      </c>
+      <c r="V444" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/1352135.1352155</t>
+        </is>
+      </c>
+      <c r="W444" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X444" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -28660,24 +28724,36 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>JavaScript Unit Testing</t>
+          <t>Generating fixtures for JavaScript unit testing</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>https://link.springer.com/chapter/10.1007/978-1-4302-6674-7_10</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr"/>
+          <t>In today's web applications, JavaScript code interacts with the Document Object Model (DOM) at runtime. This runtime interaction between JavaScript and the DOM is error-prone and challenging to test. In order to unit test a JavaScript function that has read/write DOM operations, a DOM instance has to be provided as a test fixture. This DOM fixture needs to be in the exact structure expected by the function under test. Otherwise, the test case can terminate prematurely due to a null exception. Generating these fixtures is challenging due to the dynamic nature of JavaScript and the hierarchical structure of the DOM. We present an automated technique, based on dynamic symbolic execution, which generates test fixtures for unit testing JavaScript functions. Our approach is implemented in a tool called ConFix. Our empirical evaluation shows that ConFix can effectively generate tests that cover DOM-dependent paths. We also find that ConFix yields considerably higher coverage compared to an existing JavaScript input generation technique.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>DOM; JavaScript; concolic execution; dynamic symbolic execution; test fixture; test generation; web applications</t>
+        </is>
+      </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Gil FinkIdo Flatow</t>
-        </is>
-      </c>
-      <c r="H457" t="inlineStr"/>
+          <t>Amin Milani Fard; Ali Mesbah; Eric Wohlstadter</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>ASE '15: Proceedings of the 30th IEEE/ACM International Conference on Automated Software Engineering</t>
+        </is>
+      </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>190-200</t>
+        </is>
+      </c>
       <c r="L457" t="inlineStr"/>
       <c r="M457" t="inlineStr">
         <is>
@@ -28699,12 +28775,32 @@
       <c r="R457" t="n">
         <v>2</v>
       </c>
-      <c r="S457" t="inlineStr"/>
+      <c r="S457" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T457" t="inlineStr"/>
-      <c r="U457" t="inlineStr"/>
-      <c r="V457" t="inlineStr"/>
-      <c r="W457" t="inlineStr"/>
-      <c r="X457" t="inlineStr"/>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>JavaScript Unit Testing</t>
+        </is>
+      </c>
+      <c r="V457" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1109/ASE.2015.26</t>
+        </is>
+      </c>
+      <c r="W457" t="inlineStr">
+        <is>
+          <t>IEEE Press</t>
+        </is>
+      </c>
+      <c r="X457" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -29344,24 +29440,36 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Mobile Testing</t>
+          <t>Layout and Image Recognition Driving Cross-Platform Automated Mobile Testing</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4302-4039-6_13</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr"/>
+          <t>The fragmentation problem has extended from Android to different platforms, such as iOS, mobile web, and even mini-programs within some applications (app), like WeChat1. In such a situation, recording and replaying test scripts is one of the most popular automated mobile app testing approaches. However, such approach encounters severe problems when crossing platforms. Different versions of the same app need to be developed to support different platforms relying on different platform supports. Therefore, mobile app developers need to develop and maintain test scripts for multiple platforms aimed at completely the same test requirements, greatly increasing testing costs. However, we discover that developers adopt highly similar user interface layouts for versions of the same app on different platforms. Such a phenomenon inspires us to replay test scripts from the perspective of similar UI layouts.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Cross-Platform Testing; Image Analysis; Mobile Testing; Record and Replay</t>
+        </is>
+      </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Scott Preston</t>
-        </is>
-      </c>
-      <c r="H469" t="inlineStr"/>
+          <t>Shengcheng Yu; Chunrong Fang; Yexiao Yun; Yang Feng</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>ICSE '21: Proceedings of the 43rd International Conference on Software Engineering</t>
+        </is>
+      </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>1561-1571</t>
+        </is>
+      </c>
       <c r="L469" t="inlineStr"/>
       <c r="M469" t="inlineStr">
         <is>
@@ -29383,12 +29491,32 @@
       <c r="R469" t="n">
         <v>2</v>
       </c>
-      <c r="S469" t="inlineStr"/>
+      <c r="S469" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T469" t="inlineStr"/>
-      <c r="U469" t="inlineStr"/>
-      <c r="V469" t="inlineStr"/>
-      <c r="W469" t="inlineStr"/>
-      <c r="X469" t="inlineStr"/>
+      <c r="U469" t="inlineStr">
+        <is>
+          <t>Mobile Testing</t>
+        </is>
+      </c>
+      <c r="V469" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1109/ICSE43902.2021.00139</t>
+        </is>
+      </c>
+      <c r="W469" t="inlineStr">
+        <is>
+          <t>IEEE Press</t>
+        </is>
+      </c>
+      <c r="X469" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -30388,24 +30516,36 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Prerequisites</t>
+          <t>Reducing Barriers to Entry by Removing Prerequisites for a CS1 Introductory Programming Course</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4302-2887-5_3</t>
-        </is>
-      </c>
-      <c r="F487" t="inlineStr"/>
+          <t>Introductory programming has evolved in many places to become a CS0 course, enabling students to get their feet wet with programming without completing significant math coursework. A scan of CS programs shows that a majority of CS1 programming courses that count towards an undergraduate CS degree continue to have a math or CS0 prerequisite. This experience report discusses the impact of removing the math prerequisite at an R2 university and a small liberal arts college. Having minimal prerequisites has beneficial effects in terms of diversifying the CS student body as well as enabling students to begin CS coursework early, often in the first semester, potentially impacting persistence, but also enabling students to decide, early, if CS is right for them. The high success rate of students of various backgrounds taking CS certificates and pursuing graduate school also shows that aggressive prerequisites in the past may have been functioning as barriers to entering CS programs. If we are serious about supporting diversity, we need to acknowledge the wide disparity in high school education nationwide and that prerequisites are perhaps functioning as a needless barrier. Where the CS0 course doesn't count towards a degree, or there isn't space for that requirement in the program, it is also worth considering whether the CS0 prerequisite is necessary.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Barrier Reduction; Broadening Participation in Computing (BPC); CS1; Diversity; Intro Programming</t>
+        </is>
+      </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>Steven Sanderson</t>
-        </is>
-      </c>
-      <c r="H487" t="inlineStr"/>
+          <t>Udayan Das; Chris Fulton</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>SIGCSE 2024: Proceedings of the 55th ACM Technical Symposium on Computer Science Education V. 2</t>
+        </is>
+      </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>1616-1617</t>
+        </is>
+      </c>
       <c r="L487" t="inlineStr"/>
       <c r="M487" t="inlineStr">
         <is>
@@ -30427,12 +30567,32 @@
       <c r="R487" t="n">
         <v>2</v>
       </c>
-      <c r="S487" t="inlineStr"/>
+      <c r="S487" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T487" t="inlineStr"/>
-      <c r="U487" t="inlineStr"/>
-      <c r="V487" t="inlineStr"/>
-      <c r="W487" t="inlineStr"/>
-      <c r="X487" t="inlineStr"/>
+      <c r="U487" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="V487" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3626253.3635492</t>
+        </is>
+      </c>
+      <c r="W487" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X487" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -30504,24 +30664,32 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Product Planning</t>
+          <t>A tentative framework for connecting long-term business and product planning with iterative &amp; incremental software product development</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-3-642-55140-6_4</t>
+          <t>For a company in the software product business, it is essential to understand how to connect business management and software development [17] and employ a solid, value-based approach in its decision-making. However, software engineering literature (SE) commonly addresses what should be done at the "floor level" and leaves the link to business and product management unaddressed [14]. Also, existing software development models mostly adhere to the viewpoint of individual development projects and thus fail to sufficiently address common product development concerns such as multi-project or project portfolio management [20].</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr">
         <is>
-          <t>Hans-Bernd KittlausSamuel A. Fricker</t>
-        </is>
-      </c>
-      <c r="H489" t="inlineStr"/>
+          <t>Jarno Vähäniitty</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>EDSER '05: Proceedings of the seventh international workshop on Economics-driven software engineering research</t>
+        </is>
+      </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
       <c r="L489" t="inlineStr"/>
       <c r="M489" t="inlineStr">
         <is>
@@ -30543,12 +30711,32 @@
       <c r="R489" t="n">
         <v>2</v>
       </c>
-      <c r="S489" t="inlineStr"/>
+      <c r="S489" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T489" t="inlineStr"/>
-      <c r="U489" t="inlineStr"/>
-      <c r="V489" t="inlineStr"/>
-      <c r="W489" t="inlineStr"/>
-      <c r="X489" t="inlineStr"/>
+      <c r="U489" t="inlineStr">
+        <is>
+          <t>Product Planning</t>
+        </is>
+      </c>
+      <c r="V489" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/1083091.1083097</t>
+        </is>
+      </c>
+      <c r="W489" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X489" t="inlineStr">
+        <is>
+          <t>nan; Keywords; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -30844,20 +31032,36 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Quality and Testing</t>
-        </is>
-      </c>
-      <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
+          <t>Cognitive biases in software quality and testing</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Humans are an integral entity for performing software quality and testing activities. The quality is compromised when human-thought process deviates from the laws of rational thinking, referred to as cognitive biases. The work carried out so far from this perspective in software quality and testing is very scarce and is limited to one cognitive bias only. This work aims to explore the phenomenon of cognitive biases in software quality and testing in more detail. Furthermore, investigating the factors that exist in an organisational context and that trigger the biases, which in turn deteriorate the quality of software, is also the focus of this work. Acquiring the knowledge of cognitive biases and the triggering factors will help in circumventing them, thus improving software quality.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>cognitive bias; human factors; software psychology; software quality; software testing</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>Andrew Davis</t>
-        </is>
-      </c>
-      <c r="H495" t="inlineStr"/>
+          <t>Iflaah Salman</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>ICSE '16: Proceedings of the 38th International Conference on Software Engineering Companion</t>
+        </is>
+      </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>823-826</t>
+        </is>
+      </c>
       <c r="L495" t="inlineStr"/>
       <c r="M495" t="inlineStr">
         <is>
@@ -30879,12 +31083,32 @@
       <c r="R495" t="n">
         <v>2</v>
       </c>
-      <c r="S495" t="inlineStr"/>
+      <c r="S495" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T495" t="inlineStr"/>
-      <c r="U495" t="inlineStr"/>
-      <c r="V495" t="inlineStr"/>
-      <c r="W495" t="inlineStr"/>
-      <c r="X495" t="inlineStr"/>
+      <c r="U495" t="inlineStr">
+        <is>
+          <t>Quality and Testing</t>
+        </is>
+      </c>
+      <c r="V495" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/2889160.2889265</t>
+        </is>
+      </c>
+      <c r="W495" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X495" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -30952,24 +31176,36 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Refactoring Tools</t>
+          <t>Exploiting the progress of OO refactoring tools with Android code smells:RAndroid, a plugin for Android studio</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4302-2728-1_6</t>
-        </is>
-      </c>
-      <c r="F497" t="inlineStr"/>
+          <t>Mobile applications market is facing a stronger demand continuously, due to the growing popularity of mobile phones. A demand that forces developers to rush the implementation process and shorten the conception phase, leading to poor conception and implementation choices known as code smells. These smells have a negative effect on both device and application's performance, and must therefore be corrected to ensure the quality of mobile applications and the smoothness of their users' experience. This task requires the identification of the infected entities and their refactoring. Most existing refactoring approaches and techniques are focused on object-oriented applications' code smells while only a few of them are destined to Android specific code smells.</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Android; Java; code smells; mobile application; refactoring</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>Francesco TrucchiaJacopo Romei</t>
-        </is>
-      </c>
-      <c r="H497" t="inlineStr"/>
+          <t>Abderraouf Gattal; Abir Hammache; Nabila Bousbia; Adel Nassim Henniche</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>SAC '21: Proceedings of the 36th Annual ACM Symposium on Applied Computing</t>
+        </is>
+      </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>1580-1583</t>
+        </is>
+      </c>
       <c r="L497" t="inlineStr"/>
       <c r="M497" t="inlineStr">
         <is>
@@ -30991,12 +31227,32 @@
       <c r="R497" t="n">
         <v>2</v>
       </c>
-      <c r="S497" t="inlineStr"/>
+      <c r="S497" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T497" t="inlineStr"/>
-      <c r="U497" t="inlineStr"/>
-      <c r="V497" t="inlineStr"/>
-      <c r="W497" t="inlineStr"/>
-      <c r="X497" t="inlineStr"/>
+      <c r="U497" t="inlineStr">
+        <is>
+          <t>Refactoring Tools</t>
+        </is>
+      </c>
+      <c r="V497" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3412841.3442129</t>
+        </is>
+      </c>
+      <c r="W497" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X497" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -31698,20 +31954,36 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Scripting</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr"/>
+          <t>Benchmarking Runtime Scripting Performance in Wasmer</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>In this paper, we explore the use of Wasmer and WebAssembly (WASM) as a sandboxed environment for general-purpose runtime scripting. Our work differs from prior research focusing on browser-based performance or SPEC benchmarks. In particular, we use micro-benchmarks and a macro-benchmark (both written in Rust) to compare execution times between WASM and native mode. We first measure which elements of script execution have the largest performance impact, using simple micro-benchmarks. Then we consider a Web proxy caching simulator, with different cache replacement policies, as a macro-benchmark. Using this simulator, we demonstrate a 5-10x performance penalty for WASM compared to native execution.</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>benchmarking; caching; performance; scripting; webassembly</t>
+        </is>
+      </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>Gennadiy Alpaev</t>
-        </is>
-      </c>
-      <c r="H510" t="inlineStr"/>
+          <t>Devon Hockley; Carey Williamson</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>ICPE '22: Companion of the 2022 ACM/SPEC International Conference on Performance Engineering</t>
+        </is>
+      </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>97-104</t>
+        </is>
+      </c>
       <c r="L510" t="inlineStr"/>
       <c r="M510" t="inlineStr">
         <is>
@@ -31733,12 +32005,32 @@
       <c r="R510" t="n">
         <v>2</v>
       </c>
-      <c r="S510" t="inlineStr"/>
+      <c r="S510" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T510" t="inlineStr"/>
-      <c r="U510" t="inlineStr"/>
-      <c r="V510" t="inlineStr"/>
-      <c r="W510" t="inlineStr"/>
-      <c r="X510" t="inlineStr"/>
+      <c r="U510" t="inlineStr">
+        <is>
+          <t>Scripting</t>
+        </is>
+      </c>
+      <c r="V510" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3491204.3527477</t>
+        </is>
+      </c>
+      <c r="W510" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X510" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -32038,24 +32330,36 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Software Testing</t>
+          <t>Quantum Software Testing 101</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-3-030-00262-6_4</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr"/>
+          <t>Quantum software testing (QST) is an emerging research area within quantum software engineering (QSE) to ensure quantum software functional and non-functional correctness and dependability. Since quantum computers perform computations significantly differently than classical computing, testing quantum software running on these quantum computers also differs due to quantum computing's unique characteristics, e.g., entanglement and superposition. Due to the rising interest of the software engineering community in QSE, we will provide an introduction to QST. We will introduce quantum computing and its various principles, quantum software development as quantum circuits, and current QST literature, including a key set of techniques with examples. Finally, a set of future research challenges related to QST will be presented.</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>quantum computing; quantum programs; quantum software testing</t>
+        </is>
+      </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>Gordon FraserJosé Miguel Rojas</t>
-        </is>
-      </c>
-      <c r="H516" t="inlineStr"/>
+          <t>Shaukat Ali</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>ICSE-Companion '24: Proceedings of the 2024 IEEE/ACM 46th International Conference on Software Engineering: Companion Proceedings</t>
+        </is>
+      </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>426-427</t>
+        </is>
+      </c>
       <c r="L516" t="inlineStr"/>
       <c r="M516" t="inlineStr">
         <is>
@@ -32077,12 +32381,32 @@
       <c r="R516" t="n">
         <v>2</v>
       </c>
-      <c r="S516" t="inlineStr"/>
+      <c r="S516" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T516" t="inlineStr"/>
-      <c r="U516" t="inlineStr"/>
-      <c r="V516" t="inlineStr"/>
-      <c r="W516" t="inlineStr"/>
-      <c r="X516" t="inlineStr"/>
+      <c r="U516" t="inlineStr">
+        <is>
+          <t>Software Testing</t>
+        </is>
+      </c>
+      <c r="V516" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3639478.3643059</t>
+        </is>
+      </c>
+      <c r="W516" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X516" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -32096,24 +32420,36 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Specification by Example</t>
+          <t>Specification by Example for Educational Purposes</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-3-030-00262-6_4</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
+          <t>The Specification By Example (SBE) is a guideline for building theright software, a software that meets customer requirements. It is based on seven process patterns and enhances communication and collaboration and it usually is used in agile software development. The connection between education and agile software development sounds actually as an emergent topic. In this paper, we propose to structure a teaching approach in analogy to an agile software developement by transposing each process pattern of SBE to a corresponding one in the teaching domain. Moreover, we show that thanks to the emergence of a collective intelligence process, the students are more confident and more responsible. Such a course offers the opportunity to learn not only technical skills, but also some values in a new mindset.</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>agile software development; agile teaching; specification by example</t>
+        </is>
+      </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>Michael Hüttermann</t>
-        </is>
-      </c>
-      <c r="H517" t="inlineStr"/>
+          <t>Isabelle Blasquez; Hervé Leblanc</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>ITiCSE '17: Proceedings of the 2017 ACM Conference on Innovation and Technology in Computer Science Education</t>
+        </is>
+      </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>212-217</t>
+        </is>
+      </c>
       <c r="L517" t="inlineStr"/>
       <c r="M517" t="inlineStr">
         <is>
@@ -32135,12 +32471,32 @@
       <c r="R517" t="n">
         <v>2</v>
       </c>
-      <c r="S517" t="inlineStr"/>
+      <c r="S517" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T517" t="inlineStr"/>
-      <c r="U517" t="inlineStr"/>
-      <c r="V517" t="inlineStr"/>
-      <c r="W517" t="inlineStr"/>
-      <c r="X517" t="inlineStr"/>
+      <c r="U517" t="inlineStr">
+        <is>
+          <t>Specification by Example</t>
+        </is>
+      </c>
+      <c r="V517" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3059009.3059039</t>
+        </is>
+      </c>
+      <c r="W517" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X517" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -32154,24 +32510,32 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Specifications and Testing</t>
+          <t>Specifications and testing aided by a variant of the cause-effect process</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4842-1745-0_15</t>
+          <t>For many years the cause-effect process has played a role in testing [1, 2]. A simplified variation of the cause-effect process will be shown. This variation is not only effective for testing and carefully analyzing existing specifications, but is also useful for developing complete specifications. The cause-effect graph is claimed to be unnecessary.</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>Tim Brizard</t>
-        </is>
-      </c>
-      <c r="H518" t="inlineStr"/>
+          <t>Anthony Q. Baxter; J. Austin French</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>ACMSE '92: Proceedings of the 30th annual ACM Southeast Regional Conference</t>
+        </is>
+      </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>405-408</t>
+        </is>
+      </c>
       <c r="L518" t="inlineStr"/>
       <c r="M518" t="inlineStr">
         <is>
@@ -32193,12 +32557,32 @@
       <c r="R518" t="n">
         <v>2</v>
       </c>
-      <c r="S518" t="inlineStr"/>
+      <c r="S518" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T518" t="inlineStr"/>
-      <c r="U518" t="inlineStr"/>
-      <c r="V518" t="inlineStr"/>
-      <c r="W518" t="inlineStr"/>
-      <c r="X518" t="inlineStr"/>
+      <c r="U518" t="inlineStr">
+        <is>
+          <t>Specifications and Testing</t>
+        </is>
+      </c>
+      <c r="V518" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/503720.503750</t>
+        </is>
+      </c>
+      <c r="W518" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X518" t="inlineStr">
+        <is>
+          <t>nan; Keywords; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -32838,7 +33222,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Test Early, Test Often</t>
+          <t>Test early, test often:a formative usability kit for writers</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -32849,13 +33233,21 @@
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>Doug RosenbergBarry BoehmMatt StephensCharles SuscheckShobha Rani DhalipathiBo Wang</t>
-        </is>
-      </c>
-      <c r="H530" t="inlineStr"/>
+          <t>Sophie Kohn Kaminsky</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>SIGDOC '92: Proceedings of the 10th annual international conference on Systems documentation</t>
+        </is>
+      </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>47-55</t>
+        </is>
+      </c>
       <c r="L530" t="inlineStr"/>
       <c r="M530" t="inlineStr">
         <is>
@@ -32877,12 +33269,32 @@
       <c r="R530" t="n">
         <v>2</v>
       </c>
-      <c r="S530" t="inlineStr"/>
+      <c r="S530" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T530" t="inlineStr"/>
-      <c r="U530" t="inlineStr"/>
-      <c r="V530" t="inlineStr"/>
-      <c r="W530" t="inlineStr"/>
-      <c r="X530" t="inlineStr"/>
+      <c r="U530" t="inlineStr">
+        <is>
+          <t>Test Early, Test Often</t>
+        </is>
+      </c>
+      <c r="V530" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/147001.147007</t>
+        </is>
+      </c>
+      <c r="W530" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X530" t="inlineStr">
+        <is>
+          <t>nan; Abstract; Keywords; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -32954,24 +33366,36 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Test-Driven Development</t>
+          <t>Gamification in Test-Driven Development Practice</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4842-5949-8_8</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
+          <t>The challenge of effectively developing and sustaining high-performance professional development practices in software engineering education is one that must be addressed. Test-driven development (TDD), an example of a key professional practical activity, is strongly linked to these high-performance practices. To examine the effects of gamification - the use of game design elements in a non-game context - on motivating students to develop and sustain TDD practice, an experiment was conducted and utilized ordinary least squares (OLS) regression to analyze the data. This experiment showed that gamification motivates students to do high-performing TDD practice. More specifically, gamification changes the individual's TDD behavior, increases engagement in the development activity, and the effect continues for a longer period even after gamification has ceased. Furthermore, a positive association between gamification and the maintainability of the team codebase was supported by the data.</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>Engagement; Gamification; Maintainability; Software Engineering; Test-driven Development</t>
+        </is>
+      </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>Stephan Roth</t>
-        </is>
-      </c>
-      <c r="H532" t="inlineStr"/>
+          <t>Wei Ren</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Gamify 2023: Proceedings of the 2nd International Workshop on Gamification in Software Development, Verification, and Validation</t>
+        </is>
+      </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>38-46</t>
+        </is>
+      </c>
       <c r="L532" t="inlineStr"/>
       <c r="M532" t="inlineStr">
         <is>
@@ -32993,12 +33417,32 @@
       <c r="R532" t="n">
         <v>2</v>
       </c>
-      <c r="S532" t="inlineStr"/>
+      <c r="S532" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T532" t="inlineStr"/>
-      <c r="U532" t="inlineStr"/>
-      <c r="V532" t="inlineStr"/>
-      <c r="W532" t="inlineStr"/>
-      <c r="X532" t="inlineStr"/>
+      <c r="U532" t="inlineStr">
+        <is>
+          <t>Test-Driven Development</t>
+        </is>
+      </c>
+      <c r="V532" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3617553.3617889</t>
+        </is>
+      </c>
+      <c r="W532" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X532" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -33186,24 +33630,36 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Automated Testing of Networked Systems Reliability</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4842-0187-9_12</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr"/>
+          <t>The reliability of a network is a crucial requirement for systems such as IoT, client-server, or cloud-based solutions. Unfortunately, real networks cannot be assumed to be fault-free, especially when considering various hardware problems, performance issues, or malicious attacks. Testing networked systems should therefore include evaluating fault tolerance under various network conditions. The paper presents a doctoral research project on automated verification of networked systems using fault-attack injection using a derived model of network communication.</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Networked systems; fault/attack injection; network model; testing</t>
+        </is>
+      </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>Chris Northwood</t>
-        </is>
-      </c>
-      <c r="H536" t="inlineStr"/>
+          <t>Michal Rozsíval</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>ISSTA 2024: Proceedings of the 33rd ACM SIGSOFT International Symposium on Software Testing and Analysis</t>
+        </is>
+      </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>1920-1922</t>
+        </is>
+      </c>
       <c r="L536" t="inlineStr"/>
       <c r="M536" t="inlineStr">
         <is>
@@ -33225,12 +33681,32 @@
       <c r="R536" t="n">
         <v>2</v>
       </c>
-      <c r="S536" t="inlineStr"/>
+      <c r="S536" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T536" t="inlineStr"/>
-      <c r="U536" t="inlineStr"/>
-      <c r="V536" t="inlineStr"/>
-      <c r="W536" t="inlineStr"/>
-      <c r="X536" t="inlineStr"/>
+      <c r="U536" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="V536" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3650212.3685559</t>
+        </is>
+      </c>
+      <c r="W536" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X536" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -34342,24 +34818,32 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>The Basics</t>
+          <t>The basics of simulation</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4842-2638-4_1</t>
+          <t>Simulation is experimentation with a model. The behavior of the model imitates some salient aspect of the behavior of the system under study and the user experiments with the model to infer this behavior. This general framework has proven a powerful adjunct to learning, problem solving, design, and control. In this tutorial, we focus principally on discrete-event simulation - its underlying concepts, structure, and application.</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>Bala Paranj</t>
-        </is>
-      </c>
-      <c r="H556" t="inlineStr"/>
+          <t>K. Preston White; Ricki G. Ingalls</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>WSC '20: Proceedings of the Winter Simulation Conference</t>
+        </is>
+      </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>1087-1101</t>
+        </is>
+      </c>
       <c r="L556" t="inlineStr"/>
       <c r="M556" t="inlineStr">
         <is>
@@ -34381,12 +34865,32 @@
       <c r="R556" t="n">
         <v>2</v>
       </c>
-      <c r="S556" t="inlineStr"/>
+      <c r="S556" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T556" t="inlineStr"/>
-      <c r="U556" t="inlineStr"/>
-      <c r="V556" t="inlineStr"/>
-      <c r="W556" t="inlineStr"/>
-      <c r="X556" t="inlineStr"/>
+      <c r="U556" t="inlineStr">
+        <is>
+          <t>The Basics</t>
+        </is>
+      </c>
+      <c r="V556" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.5555/3466184.3466308</t>
+        </is>
+      </c>
+      <c r="W556" t="inlineStr">
+        <is>
+          <t>IEEE Press</t>
+        </is>
+      </c>
+      <c r="X556" t="inlineStr">
+        <is>
+          <t>nan; Keywords; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -35850,24 +36354,36 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Unit Testing</t>
+          <t>Engaging Developers in Exploratory Unit Testing through Gamification</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4302-3163-9_7</t>
-        </is>
-      </c>
-      <c r="F582" t="inlineStr"/>
+          <t>Exploratory testing, known for its flexibility and ability to uncover unexpected issues, often faces challenges in maintaining systematic coverage and producing reproducible results. To address these challenges, we investigate whether gamification of testing directly in the Integrated Development Environment (IDE) can guide exploratory testing. We therefore show challenges and quests generated by the Gamekins gamification system to make testing more engaging and seamlessly blend it with regular coding tasks. In a 60-minute experiment, we evaluated Gamekins' impact on test suite quality and bug detection. The results show that participants actively interacted with the tool, achieving nearly 90% line coverage and detecting 11 out of 14 bugs. Additionally, participants reported enjoying the experience, indicating that gamification can enhance developer participation in testing and improve software quality.</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>Exploratory Testing; Gamification; IDE; IntelliJ; Software Testing</t>
+        </is>
+      </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>Gary McLean Hall</t>
-        </is>
-      </c>
-      <c r="H582" t="inlineStr"/>
+          <t>Philipp Straubinger; Gordon Fraser</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>Gamify 2024: Proceedings of the 3rd ACM International Workshop on Gamification in Software Development, Verification, and Validation</t>
+        </is>
+      </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>2-9</t>
+        </is>
+      </c>
       <c r="L582" t="inlineStr"/>
       <c r="M582" t="inlineStr">
         <is>
@@ -35889,12 +36405,32 @@
       <c r="R582" t="n">
         <v>2</v>
       </c>
-      <c r="S582" t="inlineStr"/>
+      <c r="S582" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T582" t="inlineStr"/>
-      <c r="U582" t="inlineStr"/>
-      <c r="V582" t="inlineStr"/>
-      <c r="W582" t="inlineStr"/>
-      <c r="X582" t="inlineStr"/>
+      <c r="U582" t="inlineStr">
+        <is>
+          <t>Unit Testing</t>
+        </is>
+      </c>
+      <c r="V582" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3678869.3685683</t>
+        </is>
+      </c>
+      <c r="W582" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X582" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -36894,24 +37430,36 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Workflow</t>
+          <t>Secure Generic Remote Workflow Execution with TEEs</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>http://link.springer.com/chapter/10.1007/978-1-4302-6098-1_8</t>
-        </is>
-      </c>
-      <c r="F600" t="inlineStr"/>
+          <t>In scientific environments, the frequent need to process substantial volumes of data poses a common challenge. Individuals tasked with executing these computations frequently encounter a deficit in local computational resources, leading them to opt for the facilities of a Cloud Service Provider (CSP) for data processing. However, the data subjected to these calculations may be subject to confidentiality constraints. This paper introduces a proof-of-concept framework that leverages Gramine LibOS and Intel SGX, enabling the protection of generic remote workflow computations through SGX enclaves as Trusted Execution Environments (TEEs). The framework entails the delineation of user and CSP behavior and has been implemented using Bash scripts. Furthermore, an infrastructure has been designed for the Data Center Attestation Primitives (DCAP) remote attestation mechanism, wherein the user gains trust in the proper instantiation of the enclave within the CSP. To assess the framework efficacy, it has been tested on two distinct workflows, one trivial and the other involving real-world bioinformatics applications for processing DNA data. The performance study revealed that the framework incurred an acceptable overhead, ranging from a factor of x1.4 to x1.8 compared to unsafe execution practice.</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>trusted execution environment; workflow; Intel SGX; gramine; privacy-preserving; confidential computing</t>
+        </is>
+      </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>Mark E. Daggett</t>
-        </is>
-      </c>
-      <c r="H600" t="inlineStr"/>
+          <t>Lorenzo Brescia; Marco Aldinucci</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>WiDE '24: Proceedings of the 2nd Workshop on Workflows in Distributed Environments</t>
+        </is>
+      </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>8-13</t>
+        </is>
+      </c>
       <c r="L600" t="inlineStr"/>
       <c r="M600" t="inlineStr">
         <is>
@@ -36933,12 +37481,32 @@
       <c r="R600" t="n">
         <v>2</v>
       </c>
-      <c r="S600" t="inlineStr"/>
+      <c r="S600" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T600" t="inlineStr"/>
-      <c r="U600" t="inlineStr"/>
-      <c r="V600" t="inlineStr"/>
-      <c r="W600" t="inlineStr"/>
-      <c r="X600" t="inlineStr"/>
+      <c r="U600" t="inlineStr">
+        <is>
+          <t>Workflow</t>
+        </is>
+      </c>
+      <c r="V600" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3642978.3652834</t>
+        </is>
+      </c>
+      <c r="W600" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
+      <c r="X600" t="inlineStr">
+        <is>
+          <t>nan; References; Year; Bibtex; DOI</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">

--- a/Datasets/Behave/Behave.xlsx
+++ b/Datasets/Behave/Behave.xlsx
@@ -570,14 +570,10 @@
           <t>[Context &amp; Motivation] In agile development, acceptance tests are written to express the details from the conversations between customers and developers. One of the formats to express those details is BDD (Behavior-Driven Development) scenarios, which use a ubiquitous language, one that business and technical people can understand, to build an executable specification that represents a system behavior. [Question/Problem] Problems caused by bad documentation are known to cause project failure and we believe those problems apply to documentation in the format of acceptance tests as well. Thus, in the long-term, we seek to understand what would be the definition of a good BDD scenario and the criteria to define it. [Principal idea/results] To achieve that, we previously identified known requirements’ quality attributes that would be suitable to evaluate BDD scenarios’ quality. Based on that list of attributes, we now aim to validate that list with practitioners, identify their interpretation of the listed attributes, and uncover general recommendations to write BDD scenarios. [Contribution] Preliminary results from our initial set of interviews revealed practitioners’ interpretations for consistent, testable, valuable, understandable, and unambiguous attributes and some recommendations to write good BDD scenarios, such as the use of declarative form of writing. © Springer International Publishing AG, part of Springer Nature 2018.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Acceptance tests; Boolean functions; Computer software selection and evaluation; Requirements engineering; Agile development; Behavior-driven development; Empirical studies; Executable specifications; Project failures; Quality attributes; System behaviors; Quality control</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Oliveira, Gabriel; Marczak, Sabrina</t>
+          <t>Oliveira G., Marczak S.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -585,46 +581,10 @@
           <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-319-77243-1_18</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>290 – 296</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Oliveira2018290,
-    author = "Oliveira, Gabriel and Marczak, Sabrina",
-    editor = "E., Kamsties and J., Horkoff and F., Dalpiaz",
-    title = "On the understanding of BDD scenarios’ quality: Preliminary practitioners’ opinions",
-    year = "2018",
-    journal = "Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)",
-    volume = "10753 LNCS",
-    pages = "290 – 296",
-    doi = "10.1007/978-3-319-77243-1\_18",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85043392736\&amp;doi=10.1007\%2f978-3-319-77243-1\_18\&amp;partnerID=40\&amp;md5=090286ca4a05c49ba9db32b1e67f3e31",
-    affiliations = "Computer Science School, PUCRS, Porto Alegre, Brazil",
-    abstract = "[Context \&amp; Motivation] In agile development, acceptance tests are written to express the details from the conversations between customers and developers. One of the formats to express those details is BDD (Behavior-Driven Development) scenarios, which use a ubiquitous language, one that business and technical people can understand, to build an executable specification that represents a system behavior. [Question/Problem] Problems caused by bad documentation are known to cause project failure and we believe those problems apply to documentation in the format of acceptance tests as well. Thus, in the long-term, we seek to understand what would be the definition of a good BDD scenario and the criteria to define it. [Principal idea/results] To achieve that, we previously identified known requirements’ quality attributes that would be suitable to evaluate BDD scenarios’ quality. Based on that list of attributes, we now aim to validate that list with practitioners, identify their interpretation of the listed attributes, and uncover general recommendations to write BDD scenarios. [Contribution] Preliminary results from our initial set of interviews revealed practitioners’ interpretations for consistent, testable, valuable, understandable, and unambiguous attributes and some recommendations to write good BDD scenarios, such as the use of declarative form of writing. © Springer International Publishing AG, part of Springer Nature 2018.",
-    author_keywords = "Behavior-driven development; Documentation evaluation; Documentation quality; Empirical study",
-    keywords = "Acceptance tests; Boolean functions; Computer software selection and evaluation; Requirements engineering; Agile development; Behavior-driven development; Empirical studies; Executable specifications; Project failures; Quality attributes; System behaviors; Quality control",
-    correspondence_address = "G. Oliveira; Computer Science School, PUCRS, Porto Alegre, Brazil; email: gabriel.pimentel@acad.pucrs.br",
-    publisher = "Springer Verlag",
-    issn = "03029743",
-    isbn = "978-331977242-4",
-    language = "English",
-    abbrev_source_title = "Lect. Notes Comput. Sci.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 8; Conference name: 24th International Working Conference on Requirements Engineering Foundation for Software Quality, REFSQ 2018; Conference date: 19 March 2018 through 22 March 2018; Conference code: 211359"
-}</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -645,32 +605,12 @@
       <c r="R2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>On the understanding of BDD scenarios’ quality: Preliminary practitioners’ opinions</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85043392736&amp;doi=10.1007%2f978-3-319-77243-1_18&amp;partnerID=40&amp;md5=090286ca4a05c49ba9db32b1e67f3e31</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Springer Verlag</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -703,34 +643,10 @@
           <t>Balisage Series on Markup Technologies</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85049661706&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=dc7e7d21a218126cc1889a85a8dbffc1&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28testing+schematron+using+xspec%29&amp;sl=45&amp;sessionSearchId=dc7e7d21a218126cc1889a85a8dbffc1&amp;relpos=0</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{2017,
-    title = "Testing schematron using XSpec",
-    year = "2017",
-    journal = "Balisage Series on Markup Technologies",
-    volume = "19",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85049661706\&amp;partnerID=40\&amp;md5=dd53cbd0fd5197101ef5918fe76e91a5",
-    author_keywords = "Automated Testing; Behavior Driven Development; Continuous Integration; Open Source; Quality; Schematron; Test Driven Development; Unit Testing; Validating; XSpec",
-    publisher = "Mulberry Tecnologies, Inc.",
-    issn = "19472609",
-    isbn = "978-193595815-4",
-    language = "English",
-    abbrev_source_title = "Balisage Ser. Markup Technol.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 0; Conference name: 2017 Balisage: The Markup Conference; Conference date: 1 August 2017 through 4 August 2017; Conference code: 137364"
-}</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -751,32 +667,12 @@
       <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Testing schematron using XSpec</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85049661706&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=dc7e7d21a218126cc1889a85a8dbffc1&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28testing+schematron+using+xspec%29&amp;sl=45&amp;sessionSearchId=dc7e7d21a218126cc1889a85a8dbffc1&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Mulberry Tecnologies, Inc.</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>nan; Authors; Abstract; Keywords; References; Pages</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -890,17 +786,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>behavior-driven development;  checklist;  documentation;  empirical study;  quality</t>
+          <t>behavior-driven development; checklist; documentation; empirical study; quality</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Oliveira, Gabriel; Marczak, Sabrina; Moralles, Cassiano</t>
+          <t>Gabriel Oliveira; Sabrina Marczak; Cassiano Moralles</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Proceedings of the XXXIII Brazilian Symposium on Software Engineering</t>
+          <t>SBES '19: Proceedings of the XXXIII Brazilian Symposium on Software Engineering</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -911,30 +807,10 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>481–490</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3350768.3351301,
-    author = "Oliveira, Gabriel and Marczak, Sabrina and Moralles, Cassiano",
-    title = "How to Evaluate BDD Scenarios' Quality?",
-    year = "2019",
-    isbn = "9781450376518",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3350768.3351301",
-    doi = "10.1145/3350768.3351301",
-    abstract = "A scenario from the Behavior-driven development (BDD) practice is a known format to represent acceptance tests in agile methodologies, communicating assumptions and expectations by expressing the details that result from the conversations between customers and developers. We believe that this formalization of behavior need to be of good quality to avoid known requirement problems that arise from bad documentation, such as incomplete, underspecified and inconsistent requirements. However, there are only informal guidelines to guide practitioners on their BDD scenarios' elaboration and quality evaluations. To address this lack of guidance, we define a set of quality attributes and propose a question-based checklist to assist BDD scenarios' quality evaluations. [Methods] The quality attributes were identified from an interview-based study with 18 practitioners. In this study, practitioners shared their interpretations on an initial set of literature-informed quality attributes and their own personal evaluation criteria. We consolidated both in a single list of newly redefined attributes, used in the definition of our proposed checklist. We believe that our newly re-defined quality attributes and question-based checklist can enhance the existing guidelines and practitioners' ability to evaluate BDD scenario's quality by providing them with an standard guideline for scenarios' refinement conversations.",
-    booktitle = "Proceedings of the XXXIII Brazilian Symposium on Software Engineering",
-    pages = "481–490",
-    numpages = "10",
-    keywords = "behavior-driven development, checklist, documentation, empirical study, quality",
-    location = "Salvador, Brazil",
-    series = "SBES '19"
-}</t>
-        </is>
-      </c>
+          <t>481-490</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>Included</t>
@@ -955,7 +831,11 @@
       <c r="R5" t="n">
         <v>2</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
@@ -974,7 +854,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex</t>
         </is>
       </c>
     </row>
@@ -1270,14 +1150,10 @@
           <t>According to best practices of model-driven engineering, the implementation of a system should be obtained from its model through a systematic model-to-code transformation. We present in this paper a methodology supported by the Asm2C++ tool, which allows the users to generate C++ code from abstract state machine models. Thanks to Asm2C++, the implementation is generated in a seamless manner with an assurance of potential bug freeness of the generated code. Following the same approach, model-based testing suggests deriving also (unit) tests from abstract models. We extend the Asm2C++ tool such that it can automatically produce unit tests for the generated code. Abstract test sequences, either generated randomly or through model checking, are translated to concrete C++ unit tests using the Boost library. In a similar manner, also, scenarios are generated in a behavior-driven development (BDD) approach. To guarantee the correctness of the transformation process, we define a mechanism to test the correctness of the model-to-code transformation with respect to two main criteria: syntactical correctness and semantic correctness, which is based on the definition of conformance between the specification and the code. Using this approach, we have devised a process able to test the generated code by reusing unit tests. The process has been used to validate our model-to-code transformations. © 2019 John Wiley &amp; Sons, Ltd.</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Automatic programming; Automatic test pattern generation; C++ (programming language); Cesium; Cosine transforms; Semantics; Specifications; Systems analysis; Abstract state machines; Automatic code generations; Model-driven Engineering; transformation validation; Unit tests; Model checking</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bonfanti, Silvia; Gargantini, Angelo; Mashkoor, Atif</t>
+          <t>Bonfanti S., Gargantini A., Mashkoor A.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1285,40 +1161,10 @@
           <t>Journal of Software: Evolution and Process</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/smr.2205</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Bonfanti2020,
-    author = "Bonfanti, Silvia and Gargantini, Angelo and Mashkoor, Atif",
-    title = "Design and validation of a C++ code generator from Abstract State Machines specifications",
-    year = "2020",
-    journal = "Journal of Software: Evolution and Process",
-    volume = "32",
-    number = "2",
-    doi = "10.1002/smr.2205",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85075467384\&amp;doi=10.1002\%2fsmr.2205\&amp;partnerID=40\&amp;md5=604bc3ff58c979a5f9d8254716d26025",
-    affiliations = "Department of Management, Information and Production Engineering, University of Bergamo, Bergamo, Italy; Software Competence Center Hagenberg, Hagenberg, Austria; Institute for Software Systems Engineering, Johannes Kepler University, Linz, Austria",
-    abstract = "According to best practices of model-driven engineering, the implementation of a system should be obtained from its model through a systematic model-to-code transformation. We present in this paper a methodology supported by the Asm2C++ tool, which allows the users to generate C++ code from abstract state machine models. Thanks to Asm2C++, the implementation is generated in a seamless manner with an assurance of potential bug freeness of the generated code. Following the same approach, model-based testing suggests deriving also (unit) tests from abstract models. We extend the Asm2C++ tool such that it can automatically produce unit tests for the generated code. Abstract test sequences, either generated randomly or through model checking, are translated to concrete C++ unit tests using the Boost library. In a similar manner, also, scenarios are generated in a behavior-driven development (BDD) approach. To guarantee the correctness of the transformation process, we define a mechanism to test the correctness of the model-to-code transformation with respect to two main criteria: syntactical correctness and semantic correctness, which is based on the definition of conformance between the specification and the code. Using this approach, we have devised a process able to test the generated code by reusing unit tests. The process has been used to validate our model-to-code transformations. © 2019 John Wiley \&amp; Sons, Ltd.",
-    author_keywords = "abstract state machine; automatic code generation; C++; model-driven engineering; transformation validation; unit tests generation",
-    keywords = "Automatic programming; Automatic test pattern generation; C++ (programming language); Cesium; Cosine transforms; Semantics; Specifications; Systems analysis; Abstract state machines; Automatic code generations; Model-driven Engineering; transformation validation; Unit tests; Model checking",
-    correspondence_address = "S. Bonfanti; Department of Management, Information and Production Engineering, University of Bergamo, Bergamo, Italy; email: silvia.bonfanti@unibg.it",
-    publisher = "John Wiley and Sons Ltd",
-    issn = "20477481",
-    language = "English",
-    abbrev_source_title = "J. Softw. Evol. Process",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 23; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -1339,32 +1185,12 @@
       <c r="R10" t="n">
         <v>2</v>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Design and validation of a C++ code generator from Abstract State Machines specifications</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85075467384&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=57723f09ff9f392a10dfff955495a963&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28design+and+validation+of+a+c%2B%2B+code+generator+from+abstract+state+machines+specifications%29&amp;sl=104&amp;sessionSearchId=57723f09ff9f392a10dfff955495a963&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>John Wiley and Sons Ltd</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1386,14 +1212,10 @@
           <t>According to different node data access objects, and based on the idea of behavior-driven development, an interface-oriented node data access tool is designed and implemented. The tool mainly implements an executable node data access tool that is based on MFC, and writes a set of Win32 console application, which improves the node data automation access scripts and encapsulates the module interfaces, thus improving the distributed network data access speed. © (2014) Trans Tech Publications, Switzerland.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Algorithms; Distributed computer systems; Manufacture; Peer to peer networks; Cascading WPP; Distributed systems; Drive development; Node access; P2P; Digital storage</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Jiang, Wu Xue; Hu, Xuan Zi; Wang, Shi; Liang, Yan</t>
+          <t>Jiang W.X., Hu X.Z., Wang S., Liang Y.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1401,45 +1223,10 @@
           <t>Applied Mechanics and Materials</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4028/www.scientific.net/AMM.687-691.3066</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>3066 – 3069</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Jiang20143066,
-    author = "Jiang, Wu Xue and Hu, Xuan Zi and Wang, Shi and Liang, Yan",
-    editor = "Z., Lin and H., Hu and Y., Zhang and J., Qiao and J., Xu",
-    title = "An optimized algorithm on distributed network node data access path based on behavior drive model",
-    year = "2014",
-    journal = "Applied Mechanics and Materials",
-    volume = "687-691",
-    pages = "3066 – 3069",
-    doi = "10.4028/www.scientific.net/AMM.687-691.3066",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84921418651\&amp;doi=10.4028\%2fwww.scientific.net\%2fAMM.687-691.3066\&amp;partnerID=40\&amp;md5=5ce5fbc7a9a5ca303fa9ac49c61e19b0",
-    affiliations = "Department of Computer Engineering, Dongguan Polytechnic, Dongguan, 523808, Guangdong, China; Department of Computer Engineering, Maoming Polytechnic, Maoming, 525000, Guangdong, China",
-    abstract = "According to different node data access objects, and based on the idea of behavior-driven development, an interface-oriented node data access tool is designed and implemented. The tool mainly implements an executable node data access tool that is based on MFC, and writes a set of Win32 console application, which improves the node data automation access scripts and encapsulates the module interfaces, thus improving the distributed network data access speed. © (2014) Trans Tech Publications, Switzerland.",
-    author_keywords = "Behavior drive development; Cascading WPP; Distributed system; Node access; P2P",
-    keywords = "Algorithms; Distributed computer systems; Manufacture; Peer to peer networks; Cascading WPP; Distributed systems; Drive development; Node access; P2P; Digital storage",
-    publisher = "Trans Tech Publications Ltd",
-    issn = "16609336",
-    isbn = "978-303835328-7",
-    language = "English",
-    abbrev_source_title = "Appl. Mech. Mater.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 0; Conference name: 2014 International Conference on Manufacturing Technology and Electronics Applications, ICMTEA 2014; Conference date: 8 November 2014 through 9 November 2014; Conference code: 112049"
-}</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -1460,32 +1247,12 @@
       <c r="R11" t="n">
         <v>2</v>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>An optimized algorithm on distributed network node data access path based on behavior drive model</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84921418651&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=94ae8cbac1d9ae83efe2751652bbb4c7&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28an+optimized+algorithm+on+distributed+network+node+data+access+path+based+on+behavior+drive+model%29&amp;sl=112&amp;sessionSearchId=94ae8cbac1d9ae83efe2751652bbb4c7&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Trans Tech Publications Ltd</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1631,7 +1398,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Behavior-driven development benefits and challenges: reports from an industrial study</t>
+          <t>Behavior-driven development benefits and challenges:reports from an industrial study</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1641,17 +1408,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>agile development;  behavior-driven development;  empirical study;  grounded theory</t>
+          <t>agile development; behavior-driven development; empirical study; grounded theory</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pereira, Lauriane; Sharp, Helen; de Souza, Cleidson; Oliveira, Gabriel; Marczak, Sabrina; Bastos, Ricardo</t>
+          <t>Lauriane Pereira; Helen Sharp; Cleidson de Souza; Gabriel Oliveira; Sabrina Marczak; Ricardo Bastos</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Proceedings of the 19th International Conference on Agile Software Development: Companion</t>
+          <t>XP '18: Proceedings of the 19th International Conference on Agile Software Development: Companion</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1660,28 +1427,12 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3234152.3234167,
-    author = "Pereira, Lauriane and Sharp, Helen and de Souza, Cleidson and Oliveira, Gabriel and Marczak, Sabrina and Bastos, Ricardo",
-    title = "Behavior-driven development benefits and challenges: reports from an industrial study",
-    year = "2018",
-    isbn = "9781450364225",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3234152.3234167",
-    doi = "10.1145/3234152.3234167",
-    abstract = "Agile approaches arose as a way of addressing some of the main challenges in software development, such as changing requirements, lack of understanding about the system scope, and out-of-sync between code, requirements, and documentation. Studies show that agile projects still suffer from lack of customer support, resulting in difficulties to represent customer needs on requested features. Behavior-Driven Development (BDD) brings a structured way to represent user behaviors and to validate user stories by using an ubiquitous language, shared among everyone involved on the development of the software. The approach allows the creation of scenarios that can be used by the team to share information between different stakeholders, enabling all those players to successfully collaborate and coordinate their work. In this paper, we report on an empirical study conducted with 24 IT professionals with practical experience on BDD. Through this, we identify the perceived benefits and challenges of adopting BDD.",
-    booktitle = "Proceedings of the 19th International Conference on Agile Software Development: Companion",
-    articleno = "42",
-    numpages = "4",
-    keywords = "agile development, behavior-driven development, empirical study, grounded theory",
-    location = "Porto, Portugal",
-    series = "XP '18"
-}</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>Included</t>
@@ -1702,18 +1453,18 @@
       <c r="R14" t="n">
         <v>2</v>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
           <t>Behavior-Driven Development Benefits and Challenges: Reports from an Industrial Study</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3234152.3234167</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -1721,7 +1472,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Pages; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -1747,17 +1498,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Agile Development;  Behavior-Driven Development;  Domain-Specific Languages;  Software Testing;  Test Automation</t>
+          <t>Agile Development; Behavior-Driven Development; Domain-Specific Languages; Software Testing; Test Automation</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>King, Tariq M.; Nunez, Gabriel; Santiago, Dionny; Cando, Adam; Mack, Cody</t>
+          <t>Tariq M. King; Gabriel Nunez; Dionny Santiago; Adam Cando; Cody Mack</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Proceedings of the 2014 International Symposium on Software Testing and Analysis</t>
+          <t>ISSTA 2014: Proceedings of the 2014 International Symposium on Software Testing and Analysis</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1768,30 +1519,10 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>409–412</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/2610384.2628048,
-    author = "King, Tariq M. and Nunez, Gabriel and Santiago, Dionny and Cando, Adam and Mack, Cody",
-    title = "Legend: an agile DSL toolset for web acceptance testing",
-    year = "2014",
-    isbn = "9781450326452",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/2610384.2628048",
-    doi = "10.1145/2610384.2628048",
-    abstract = "Agile development emphasizes collaborations among customers, business analysts, domain experts, developers, and testers. However, the large scale and rapid pace of many agile projects presents challenges during testing activities. Large sets of test artifacts must be comprehensible and available to various stakeholders, traceable to requirements, and easily maintainable as the software evolves. In this paper we describe Legend, a toolset that leverages domain-specific language to streamline functional testing in agile projects. Some key features of the toolset include test template generation from user stories, model-based automation, test inventory synchronization, and centralized test tagging.",
-    booktitle = "Proceedings of the 2014 International Symposium on Software Testing and Analysis",
-    pages = "409–412",
-    numpages = "4",
-    keywords = "Agile Development, Behavior-Driven Development, Domain-Specific Languages, Software Testing, Test Automation",
-    location = "San Jose, CA, USA",
-    series = "ISSTA 2014"
-}</t>
-        </is>
-      </c>
+          <t>409-412</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>Included</t>
@@ -1812,18 +1543,18 @@
       <c r="R15" t="n">
         <v>2</v>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
           <t>Legend: An Agile DSL Toolset for Web Acceptance Testing</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/2610384.2628048</t>
-        </is>
-      </c>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -1831,7 +1562,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -1857,17 +1588,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>agile development;  safety verification;  safety-critical systems</t>
+          <t>agile development; safety verification; safety-critical systems</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wang, Yang; Wagner, Stefan</t>
+          <t>Yang Wang; Stefan Wagner</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings</t>
+          <t>ICSE '18: Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1878,30 +1609,10 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>286–287</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3183440.3194973,
-    author = "Wang, Yang and Wagner, Stefan",
-    title = "Combining STPA and BDD for safety analysis and verification in agile development",
-    year = "2018",
-    isbn = "9781450356633",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3183440.3194973",
-    doi = "10.1145/3183440.3194973",
-    abstract = "Agile development is in widespread use, even in safety-critical domains. However, there is a lack of an appropriate safety analysis and verification method in agile development. In this poster, we propose the use of Behavior Driven Development for safety verification with System-Theoretic Process Analysis for safety analysis in agile development. It shows a good capability on communication effectiveness through a preliminary controlled experiment.",
-    booktitle = "Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings",
-    pages = "286–287",
-    numpages = "2",
-    keywords = "agile development, safety verification, safety-critical systems",
-    location = "Gothenburg, Sweden",
-    series = "ICSE '18"
-}</t>
-        </is>
-      </c>
+          <t>286-287</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>Included</t>
@@ -1922,18 +1633,18 @@
       <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
           <t>Combining STPA and BDD for Safety Analysis and Verification in Agile Development</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3183440.3194973</t>
-        </is>
-      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -1941,7 +1652,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -1967,17 +1678,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>agile development;  safety verification;  safety-critical systems</t>
+          <t>agile development; safety verification; safety-critical systems</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Wang, Yang; Wagner, Stefan</t>
+          <t>Yang Wang; Stefan Wagner</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion)</t>
+          <t>ICSE '18: Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1988,30 +1699,10 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>286–287</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3183440.3194973,
-    author = "Wang, Yang and Wagner, Stefan",
-    title = "Combining STPA and BDD for safety analysis and verification in agile development",
-    year = "2018",
-    isbn = "9781450356633",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3183440.3194973",
-    doi = "10.1145/3183440.3194973",
-    abstract = "Agile development is in widespread use, even in safety-critical domains. However, there is a lack of an appropriate safety analysis and verification method in agile development. In this poster, we propose the use of Behavior Driven Development for safety verification with System-Theoretic Process Analysis for safety analysis in agile development. It shows a good capability on communication effectiveness through a preliminary controlled experiment.",
-    booktitle = "Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings",
-    pages = "286–287",
-    numpages = "2",
-    keywords = "agile development, safety verification, safety-critical systems",
-    location = "Gothenburg, Sweden",
-    series = "ICSE '18"
-}</t>
-        </is>
-      </c>
+          <t>286-287</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -2032,18 +1723,18 @@
       <c r="R17" t="n">
         <v>2</v>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>Poster: Combining STPA and BDD for Safety Analysis and Verification in Agile Development</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3183440.3194973</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -2051,7 +1742,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -2075,14 +1766,10 @@
           <t>Agile processes potentially ease distributed software development by demanding regular communication and self-management of virtual team members. However, being designed for collocated teams, extensions to the regular process need to be made. We investigate critical areas of improvement based on a case of distributed Scrum involving two unaffiliated Austrian IT organizations that collaborate to build software. We identified eight critical areas for improvement originating from interviews, retrospective meetings and an in-depth case analysis. Key suggestions for practice include the establishment of long-lived single-site Scrum teams and the application of Behavior Driven Development (BDD) to make implicit requirement knowledge explicit and transparent to all of the distributed parties. Copyright © 2013 SCITEPRESS.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Engineering; Industrial engineering; Agile software development; Behavior driven development; Distributed software development; Scrum; Software development process; Software design</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Vallon, Raoul; Bayrhammer, Klaus; Strobl, Stefan; Bernhart, Mario; Grechenig, Thomas</t>
+          <t>Vallon R., Bayrhammer K., Strobl S., Bernhart M., Grechenig T.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2090,41 +1777,10 @@
           <t>ENASE 2013 - Proceedings of the 8th International Conference on Evaluation of Novel Approaches to Software Engineering</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84887053861&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=25ad9de13816f2c4530c0a07ebb159e2&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28identifying+critical+areas+for+improvement+in+agile+multi+site+co+development%29&amp;sl=92&amp;sessionSearchId=25ad9de13816f2c4530c0a07ebb159e2&amp;relpos=0</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>165 – 172</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Vallon2013165,
-    author = "Vallon, Raoul and Bayrhammer, Klaus and Strobl, Stefan and Bernhart, Mario and Grechenig, Thomas",
-    title = "Identifying critical areas for improvement in agile multi-site co-development",
-    year = "2013",
-    journal = "ENASE 2013 - Proceedings of the 8th International Conference on Evaluation of Novel Approaches to Software Engineering",
-    pages = "165 – 172",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84887053861\&amp;partnerID=40\&amp;md5=3cadced8c751aef28f93e71bfddecc39",
-    affiliations = "Research Group for Industrial Software, Vienna University of Technology, Vienna, Austria",
-    abstract = "Agile processes potentially ease distributed software development by demanding regular communication and self-management of virtual team members. However, being designed for collocated teams, extensions to the regular process need to be made. We investigate critical areas of improvement based on a case of distributed Scrum involving two unaffiliated Austrian IT organizations that collaborate to build software. We identified eight critical areas for improvement originating from interviews, retrospective meetings and an in-depth case analysis. Key suggestions for practice include the establishment of long-lived single-site Scrum teams and the application of Behavior Driven Development (BDD) to make implicit requirement knowledge explicit and transparent to all of the distributed parties. Copyright © 2013 SCITEPRESS.",
-    author_keywords = "Agile software development; Behavior driven development; Distributed software development; Scrum; Software development process",
-    keywords = "Engineering; Industrial engineering; Agile software development; Behavior driven development; Distributed software development; Scrum; Software development process; Software design",
-    correspondence_address = "R. Vallon; Research Group for Industrial Software, Vienna University of Technology, Vienna, Austria; email: raoul.vallon@inso.tuwien.ac.at",
-    isbn = "978-989856562-4",
-    language = "English",
-    abbrev_source_title = "ENASE - Proc. Int. Conf. Eval. Novel Approaches Softw. Eng.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 6; Conference name: 8th International Conference on Evaluation of Novel Approaches to Software Engineering, ENASE 2013; Conference date: 4 July 2013 through 6 July 2013; Conference code: 100615"
-}</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -2145,28 +1801,12 @@
       <c r="R18" t="n">
         <v>2</v>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>Identifying critical areas for improvement in agile multi-site co-development</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84887053861&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=25ad9de13816f2c4530c0a07ebb159e2&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28identifying+critical+areas+for+improvement+in+agile+multi+site+co+development%29&amp;sl=92&amp;sessionSearchId=25ad9de13816f2c4530c0a07ebb159e2&amp;relpos=0</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>nan; References; Publisher</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2185,12 +1825,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Agile Software Development (ASD) has several limitations concerning its requirements engineering activities. Improving the quality of Software Requirements Specifications (SRSs) in ASD may help to gain a competitive advantage in the software industry. Based on the findings of a Systematic Mapping study, six industrial case studies in different contexts were conducted to investigate and characterize the requirements specification activity in ASD. Data collected from documents, observations, and interviews with software engineers were triangulated, analyzed, and synthesized using Grounded Theory and Meta-Ethnography. The analysis and cross-synthesis of the six case studies resulted in a model describing the phenomenon. This model defines the simplicity and objectivity as essential quality factors of SRSs in ASD. The main factors that affect the SRSs quality in ASD projects are related to their customer-driven nature that leads to prolix SRSs, hindering its understanding from the developer perspective. The emerged model is supported by explanations and provides a deeper understanding of the requirements specification activity in ASD. This creates opportunities for further studies and improvements in SRSs for ASD in industry. © 2018 Elsevier Inc.</t>
+          <t>Agile Software Development (ASD) has several limitations concerning its requirements engineering activities. Improving the quality of Software Requirements Specifications (SRSs) in ASD may help to gain a competitive advantage in the software industry. Based on the findings of a Systematic Mapping study, six industrial case studies in different contexts were conducted to investigate and characterize the requirements specification activity in ASD. Data collected from documents, observations, and interviews with software engineers were triangulated, analyzed, and synthesized using Grounded Theory and Meta-Ethnography. The analysis and cross-synthesis of the six case studies resulted in a model describing the phenomenon. This model defines the simplicity and objectivity as essential quality factors of SRSs in ASD. The main factors that affect the SRSs quality in ASD projects are related to their customer-driven nature that leads to prolix SRSs, hindering its understanding from the developer perspective. The emerged model is supported by explanations and provides a deeper understanding of the requirements specification activity in ASD. This creates opportunities for further studies and improvements in SRSs for ASD in industry.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Competition; Formal specification; Requirements engineering; Software design; Agile methods; Agile software development; Competitive advantage; Empirical studies; Industrial case study; Quality of softwares; Requirements specifications; Systematic mapping studies; Quality control</t>
+          <t>Requirements specification, Agile methods, Empirical study, Agile Requirements Engineering</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2203,45 +1843,10 @@
           <t>Journal of Systems and Software</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jss.2018.04.064</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>171 – 194</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Medeiros2018171,
-    author = "Medeiros, Juliana and Vasconcelos, Alexandre and Silva, Carla and Goulão, Miguel",
-    title = "Quality of software requirements specification in agile projects: A cross-case analysis of six companies",
-    year = "2018",
-    journal = "Journal of Systems and Software",
-    volume = "142",
-    pages = "171 – 194",
-    doi = "10.1016/j.jss.2018.04.064",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85046681152\&amp;doi=10.1016\%2fj.jss.2018.04.064\&amp;partnerID=40\&amp;md5=14e8f2ea07d3b4be4141066baabb83f1",
-    affiliations = "Instituto Federal de Educação, Ciência e Tecnologia da Paraíba (IFPB), Brazil; Centro de Informática, Universidade Federal de Pernambuco (UFPE), Brazil; NOVA LINCS, Faculdade de Ciências e Tecnologia, Universidade Nova de Lisboa, Portugal",
-    abstract = "Agile Software Development (ASD) has several limitations concerning its requirements engineering activities. Improving the quality of Software Requirements Specifications (SRSs) in ASD may help to gain a competitive advantage in the software industry. Based on the findings of a Systematic Mapping study, six industrial case studies in different contexts were conducted to investigate and characterize the requirements specification activity in ASD. Data collected from documents, observations, and interviews with software engineers were triangulated, analyzed, and synthesized using Grounded Theory and Meta-Ethnography. The analysis and cross-synthesis of the six case studies resulted in a model describing the phenomenon. This model defines the simplicity and objectivity as essential quality factors of SRSs in ASD. The main factors that affect the SRSs quality in ASD projects are related to their customer-driven nature that leads to prolix SRSs, hindering its understanding from the developer perspective. The emerged model is supported by explanations and provides a deeper understanding of the requirements specification activity in ASD. This creates opportunities for further studies and improvements in SRSs for ASD in industry. © 2018 Elsevier Inc.",
-    author_keywords = "Agile methods; Agile Requirements Engineering; Empirical study; Requirements specification",
-    keywords = "Competition; Formal specification; Requirements engineering; Software design; Agile methods; Agile software development; Competitive advantage; Empirical studies; Industrial case study; Quality of softwares; Requirements specifications; Systematic mapping studies; Quality control",
-    correspondence_address = "J. Medeiros; Instituto Federal de Educação, Ciência e Tecnologia da Paraíba (IFPB), Brazil; email: juliana.medeiros@ifpb.edu.br",
-    publisher = "Elsevier Inc.",
-    issn = "01641212",
-    coden = "JSSOD",
-    language = "English",
-    abbrev_source_title = "J Syst Software",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 30"
-}</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -2262,32 +1867,12 @@
       <c r="R19" t="n">
         <v>2</v>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>Quality of software requirements specification in agile projects: A cross-case analysis of six companies</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85046681152&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=567abe17164af32643ff469eb97b17d7&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28quality+of+software+requirements+specification+in+agile+projects+a+cross+case+analysis+of+six+companies%29&amp;sl=118&amp;sessionSearchId=567abe17164af32643ff469eb97b17d7&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Elsevier Inc.</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2372,56 +1957,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Agile testing approaches test-driven development (TDD), behavior-driven development (BDD); have gained popularity since the introduction of agile practices. The concept of using these approaches in software projects is to help projects succeed. The effect of TDD and BDD on Project success factors namely, cost, time, and customer satisfaction/external quality, remains an area of investigation. Therefore, this study investigates the results of previously published articles on the effect of TDD and BDD on project success factors. A systematic literature review has been conducted considering articles published between 1999 up to 2020. Thirty-one studies were selected and analyzed. 74.1% of studies are experiments, 25.8% are case studies. 67.7% of these studies were performed in an industrial setting, 29.0% were performed in an academic setting and only one study with 3.22% was mixed academic and industrial settings. The result shows that the TDD and the BDD consume more time and cost compared to traditional testing (TLD). Moreover, the TDD as TLD may not necessarily satisfy the customer unlike the BDD appears that achieve customer satisfaction. Although, when TDD compared to BDD, TDD consumed more time and lower customer acceptance than the BDD. © 2021 IEEE.</t>
+          <t>Agile testing approaches test-driven development (TDD), behavior-driven development (BDD); have gained popularity since the introduction of agile practices. The concept of using these approaches in software projects is to help projects succeed. The effect of TDD and BDD on Project success factors namely, cost, time, and customer satisfaction/external quality, remains an area of investigation. Therefore, this study investigates the results of previously published articles on the effect of TDD and BDD on project success factors. A systematic literature review has been conducted considering articles published between 1999 up to 2020. Thirty-one studies were selected and analyzed. 74.1% of studies are experiments, 25.8% are case studies. 67.7% of these studies were performed in an industrial setting, 29.0% were performed in an academic setting and only one study with 3.22% was mixed academic and industrial settings. The result shows that the TDD and the BDD consume more time and cost compared to traditional testing (TLD). Moreover, the TDD as TLD may not necessarily satisfy the customer unlike the BDD appears that achieve customer satisfaction. Although, when TDD compared to BDD, TDD consumed more time and lower customer acceptance than the BDD.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Boolean functions; Customer satisfaction; Sales; Agile practices; Agile testing; Customer acceptance; Industrial settings; Project success factors; Software project; Systematic literature review; Test driven development; Computer programming</t>
+          <t>Test Driven Development;Behavior Driven Development;Test Last Development;Systematic Literature Review;Agile Testing;Projects Success Factors</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Abushama, Hisham M.; Alassam, Hanaa Altigani; Elhaj, Fatin A.</t>
+          <t>H. M. Abushama; H. A. Alassam; F. A. Elhaj</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Proceedings of: 2020 International Conference on Computer, Control, Electrical, and Electronics Engineering, ICCCEEE 2020</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ICCCEEE49695.2021.9429593</t>
-        </is>
-      </c>
+          <t>2020 International Conference on Computer, Control, Electrical, and Electronics Engineering (ICCCEEE)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Abushama2021,
-    author = "Abushama, Hisham M. and Alassam, Hanaa Altigani and Elhaj, Fatin A.",
-    editor = "D., Mahmoud and S., Gomha and A., Osman",
-    title = "The effect of Test-Driven Development and Behavior-Driven Development on Project Success Factors: A Systematic Literature Review Based Study",
-    year = "2021",
-    journal = "Proceedings of: 2020 International Conference on Computer, Control, Electrical, and Electronics Engineering, ICCCEEE 2020",
-    doi = "10.1109/ICCCEEE49695.2021.9429593",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85107133513\&amp;doi=10.1109\%2fICCCEEE49695.2021.9429593\&amp;partnerID=40\&amp;md5=d319166df0c75cf75c65ae75f08bf3d1",
-    affiliations = "University of Khartoum, Faculty of Mathematical Science, Department of Computer Sciences, P.O.BOX 321, Khartoum, Sudan",
-    abstract = "Agile testing approaches test-driven development (TDD), behavior-driven development (BDD); have gained popularity since the introduction of agile practices. The concept of using these approaches in software projects is to help projects succeed. The effect of TDD and BDD on Project success factors namely, cost, time, and customer satisfaction/external quality, remains an area of investigation. Therefore, this study investigates the results of previously published articles on the effect of TDD and BDD on project success factors. A systematic literature review has been conducted considering articles published between 1999 up to 2020. Thirty-one studies were selected and analyzed. 74.1\% of studies are experiments, 25.8\% are case studies. 67.7\% of these studies were performed in an industrial setting, 29.0\% were performed in an academic setting and only one study with 3.22\% was mixed academic and industrial settings. The result shows that the TDD and the BDD consume more time and cost compared to traditional testing (TLD). Moreover, the TDD as TLD may not necessarily satisfy the customer unlike the BDD appears that achieve customer satisfaction. Although, when TDD compared to BDD, TDD consumed more time and lower customer acceptance than the BDD. © 2021 IEEE.",
-    author_keywords = "Agile Testing; Behavior Driven Development; Projects Success Factors; Systematic Literature Review; Test Driven Development; Test Last Development",
-    keywords = "Boolean functions; Customer satisfaction; Sales; Agile practices; Agile testing; Customer acceptance; Industrial settings; Project success factors; Software project; Systematic literature review; Test driven development; Computer programming",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-172819111-9",
-    language = "English",
-    abbrev_source_title = "Proc. of: Int. Conf. Comput., Control, Electr., Electron. Eng., ICCCEEE",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 8; Conference name: 2020 International Conference on Computer, Control, Electrical, and Electronics Engineering, ICCCEEE 2020; Conference date: 26 February 2021 through 28 February 2021; Conference code: 169057"
-}</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -2442,32 +1999,12 @@
       <c r="R21" t="n">
         <v>2</v>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>The effect of Test-Driven Development and Behavior-Driven Development on Project Success Factors: A Systematic Literature Review Based Study</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/action/doSearch?AllField=the+effect+of+test+driven+development+and+behavior+driven+development+on+project+success+factors+a+systematic+literature+review+based+study</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2489,14 +2026,10 @@
           <t>ALMA software development cycle includes well defined testing stages that involves developers, testers and scientists. We adapted Behavior Driven Development (BDD) to testing activities applied to Telescope Calibration (TELCAL) software. BDD is an agile technique that encourages communication between roles by defining test cases using natural language to specify features and scenarios, what allows participants to share a common language and provides a high level set of automated tests. This work describes how we implemented and maintain BDD testing for TELCAL, the infrastructure needed to support it and proposals to expand this technique to other subsystems. © COPYRIGHT SPIE. Downloading of the abstract is permitted for personal use only.</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Automation; Boolean functions; Calibration; High level languages; Software design; Telescopes; Agile; ALMA telescope; Automated test; Calibration softwares; Common languages; Natural languages; Software development cycles; TELCAL; Software testing</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Gil, Juan P.; Garces, Mario; Broguiere, Dominique; Shen, Tzu-Chiang</t>
+          <t>Gil J.P., Garces M., Broguiere D., Shen T.-C.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2504,42 +2037,10 @@
           <t>Proceedings of SPIE - The International Society for Optical Engineering</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1117/12.2232197</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Gil2016,
-    author = "Gil, Juan P. and Garces, Mario and Broguiere, Dominique and Shen, Tzu-Chiang",
-    editor = "G., Chiozzi and J.C., Guzman",
-    title = "Behavior driven testing in ALMA telescope calibration software",
-    year = "2016",
-    journal = "Proceedings of SPIE - The International Society for Optical Engineering",
-    volume = "9913",
-    doi = "10.1117/12.2232197",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85006401169\&amp;doi=10.1117\%2f12.2232197\&amp;partnerID=40\&amp;md5=b01b44b2871f0850ad840bdd209cc3ac",
-    affiliations = "Atacama Large Milimeter/submilimeter Array, Alonso de Cordova 3107, Santiago, Chile; Institut de Radioastronomie Millimetrique (IRAM), Grenoble, France",
-    abstract = "ALMA software development cycle includes well defined testing stages that involves developers, testers and scientists. We adapted Behavior Driven Development (BDD) to testing activities applied to Telescope Calibration (TELCAL) software. BDD is an agile technique that encourages communication between roles by defining test cases using natural language to specify features and scenarios, what allows participants to share a common language and provides a high level set of automated tests. This work describes how we implemented and maintain BDD testing for TELCAL, the infrastructure needed to support it and proposals to expand this technique to other subsystems. © COPYRIGHT SPIE. Downloading of the abstract is permitted for personal use only.",
-    author_keywords = "Agile; Automation; Behavior driven testing; TELCAL",
-    keywords = "Automation; Boolean functions; Calibration; High level languages; Software design; Telescopes; Agile; ALMA telescope; Automated test; Calibration softwares; Common languages; Natural languages; Software development cycles; TELCAL; Software testing",
-    correspondence_address = "J.P. Gil; Atacama Large Milimeter/submilimeter Array, Santiago, Alonso de Cordova 3107, Chile; email: jgil@alma.cl",
-    publisher = "SPIE",
-    issn = "0277786X",
-    isbn = "978-151060205-2",
-    coden = "PSISD",
-    language = "English",
-    abbrev_source_title = "Proc SPIE Int Soc Opt Eng",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 0; Conference name: Software and Cyberinfrastructure for Astronomy IV; Conference date: 26 June 2016 through 30 June 2016; Conference code: 125147"
-}</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>Included</t>
@@ -2560,32 +2061,12 @@
       <c r="R22" t="n">
         <v>2</v>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Behavior driven testing in ALMA telescope calibration software</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85006401169&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=6cdf37c9f4b4dda07885455c7c95690e&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28behavior+driven+testing+in+alma+telescope+calibration+software%29&amp;sl=77&amp;sessionSearchId=6cdf37c9f4b4dda07885455c7c95690e&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>SPIE</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2599,65 +2080,33 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Behavior-driven requirements traceability via automated acceptance tests</t>
+          <t>Behavior-Driven Requirements Traceability via Automated Acceptance Tests</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Although information retrieval advances significantly improved automated traceability tools, their accuracy is still far from 100% and therefore they still need human intervention. Furthermore, despite the demonstrated benefits of traceability, many practitioners find the overhead for its creation and maintenance too high. We propose the Behavior Driven Traceability Method (BDT) that takes a different standpoint on automated traceability: we establish ubiquitous traceability between user story requirements and source code by taking advantage of the automated acceptance tests that are created as part of the Behavior Driven Development process. © 2017 IEEE.</t>
+          <t>Although information retrieval advances significantly improved automated traceability tools, their accuracy is still far from 100% and therefore they still need human intervention. Furthermore, despite the demonstrated benefits of traceability, many practitioners find the overhead for its creation and maintenance too high. We propose the Behavior Driven Traceability Method (BDT) that takes a different standpoint on automated traceability: we establish ubiquitous traceability between user story requirements and source code by taking advantage of the automated acceptance tests that are created as part of the Behavior Driven Development process.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Automation; Requirements engineering; Behavior-driven development; Development process; Human intervention; Requirements; Requirements traceability; Traceability; Traceability methods; User stories; Acceptance tests</t>
+          <t>User stories;automated acceptance tests;traceability;requirements;behavior-driven development</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lucassen, Garm; Dalpiaz, Fabiano; Van Der Werf, Jan Martijn E.M.; Brinkkemper, Sjaak; Zowghi, DIdar</t>
+          <t>G. Lucassen; F. Dalpiaz; J. M. E. M. van der Werf; S. Brinkkemper; D. Zowghi</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Proceedings - 2017 IEEE 25th International Requirements Engineering Conference Workshops, REW 2017</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/REW.2017.84</t>
-        </is>
-      </c>
+          <t>2017 IEEE 25th International Requirements Engineering Conference Workshops (REW)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>431 – 434</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Lucassen2017431,
-    author = "Lucassen, Garm and Dalpiaz, Fabiano and Van Der Werf, Jan Martijn E.M. and Brinkkemper, Sjaak and Zowghi, DIdar",
-    title = "Behavior-driven requirements traceability via automated acceptance tests",
-    year = "2017",
-    journal = "Proceedings - 2017 IEEE 25th International Requirements Engineering Conference Workshops, REW 2017",
-    pages = "431 – 434",
-    doi = "10.1109/REW.2017.84",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85034638343\&amp;doi=10.1109\%2fREW.2017.84\&amp;partnerID=40\&amp;md5=55fb151a73b47cc8738f10ec74938431",
-    affiliations = "Utrecht University, Netherlands; University of Technology Sydney, Australia",
-    abstract = "Although information retrieval advances significantly improved automated traceability tools, their accuracy is still far from 100\% and therefore they still need human intervention. Furthermore, despite the demonstrated benefits of traceability, many practitioners find the overhead for its creation and maintenance too high. We propose the Behavior Driven Traceability Method (BDT) that takes a different standpoint on automated traceability: we establish ubiquitous traceability between user story requirements and source code by taking advantage of the automated acceptance tests that are created as part of the Behavior Driven Development process. © 2017 IEEE.",
-    author_keywords = "Automated acceptance tests; Behavior-driven development; Requirements; Traceability; User stories",
-    keywords = "Automation; Requirements engineering; Behavior-driven development; Development process; Human intervention; Requirements; Requirements traceability; Traceability; Traceability methods; User stories; Acceptance tests",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-153863488-2",
-    language = "English",
-    abbrev_source_title = "Proc. - IEEE Int. Requir. Eng. Conf. Workshops, REW",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 22; Conference name: 25th IEEE International Requirements Engineering Conference Workshops, REW 2017; Conference date: 4 September 2017 through 8 September 2017; Conference code: 130995"
-}</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>Included</t>
@@ -2678,32 +2127,12 @@
       <c r="R23" t="n">
         <v>2</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Behavior-Driven Requirements Traceability via Automated Acceptance Tests</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85034638343&amp;doi=10.1109%2fREW.2017.84&amp;partnerID=40&amp;md5=55fb151a73b47cc8738f10ec74938431</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2842,12 +2271,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>As a type of anti-pattern, test smells are defined as poorly designed tests and their presence may negatively affect the quality of test suites and production code. Test smells are the subject of active discussions among practitioners and researchers, and various guidelines to handle smells are constantly offered for smell prevention, smell detection, and smell correction. Since there is a vast grey literature as well as a large body of research studies in this domain, it is not practical for practitioners and researchers to locate and synthesize such a large literature. Motivated by the above need and to find out what we, as the community, know about smells in test code, we conducted a ‘multivocal’ literature mapping (classification) on both the scientific literature and also practitioners’ grey literature. By surveying all the sources on test smells in both industry (120 sources) and academia (46 sources), 166 sources in total, our review presents the largest catalogue of test smells, along with the summary of guidelines/techniques and the tools to deal with those smells. This article aims to benefit the readers (both practitioners and researchers) by serving as an “index” to the vast body of knowledge in this important area, and by helping them develop high-quality test scripts, and minimize occurrences of test smells and their negative consequences in large test automation projects. © 2017 Elsevier Inc.</t>
+          <t>As a type of anti-pattern, test smells are defined as poorly designed tests and their presence may negatively affect the quality of test suites and production code. Test smells are the subject of active discussions among practitioners and researchers, and various guidelines to handle smells are constantly offered for smell prevention, smell detection, and smell correction. Since there is a vast grey literature as well as a large body of research studies in this domain, it is not practical for practitioners and researchers to locate and synthesize such a large literature. Motivated by the above need and to find out what we, as the community, know about smells in test code, we conducted a ‘multivocal’ literature mapping (classification) on both the scientific literature and also practitioners’ grey literature. By surveying all the sources on test smells in both industry (120 sources) and academia (46 sources), 166 sources in total, our review presents the largest catalogue of test smells, along with the summary of guidelines/techniques and the tools to deal with those smells. This article aims to benefit the readers (both practitioners and researchers) by serving as an “index” to the vast body of knowledge in this important area, and by helping them develop high-quality test scripts, and minimize occurrences of test smells and their negative consequences in large test automation projects.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Automation; Codes (symbols); Design for testability; Mapping; Odors; Surveying; Surveys; Testing; Anti-patterns; Automated testing; Systematic mapping; Test Automation; Test scripts; Software testing</t>
+          <t>Software testing, Automated testing, Test automation, Test scripts, Test smells, Test anti-patterns, Multivocal literature mapping, Survey, Systematic mapping</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2860,45 +2289,10 @@
           <t>Journal of Systems and Software</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jss.2017.12.013</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>52 – 81</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Garousi201852,
-    author = "Garousi, Vahid and Küçük, Barış",
-    title = "Smells in software test code: A survey of knowledge in industry and academia",
-    year = "2018",
-    journal = "Journal of Systems and Software",
-    volume = "138",
-    pages = "52 – 81",
-    doi = "10.1016/j.jss.2017.12.013",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85039428979\&amp;doi=10.1016\%2fj.jss.2017.12.013\&amp;partnerID=40\&amp;md5=712a9941e4e4d1c5e9ecff82a16a1075",
-    affiliations = "Information Technology Group, Wageningen University, Netherlands; Atilim University, Ankara, Turkey",
-    abstract = "As a type of anti-pattern, test smells are defined as poorly designed tests and their presence may negatively affect the quality of test suites and production code. Test smells are the subject of active discussions among practitioners and researchers, and various guidelines to handle smells are constantly offered for smell prevention, smell detection, and smell correction. Since there is a vast grey literature as well as a large body of research studies in this domain, it is not practical for practitioners and researchers to locate and synthesize such a large literature. Motivated by the above need and to find out what we, as the community, know about smells in test code, we conducted a ‘multivocal’ literature mapping (classification) on both the scientific literature and also practitioners’ grey literature. By surveying all the sources on test smells in both industry (120 sources) and academia (46 sources), 166 sources in total, our review presents the largest catalogue of test smells, along with the summary of guidelines/techniques and the tools to deal with those smells. This article aims to benefit the readers (both practitioners and researchers) by serving as an “index” to the vast body of knowledge in this important area, and by helping them develop high-quality test scripts, and minimize occurrences of test smells and their negative consequences in large test automation projects. © 2017 Elsevier Inc.",
-    author_keywords = "Automated testing; Multivocal literature mapping; Software testing; Survey; Systematic mapping; Test anti-patterns; Test automation; Test scripts; Test smells",
-    keywords = "Automation; Codes (symbols); Design for testability; Mapping; Odors; Surveying; Surveys; Testing; Anti-patterns; Automated testing; Systematic mapping; Test Automation; Test scripts; Software testing",
-    correspondence_address = "V. Garousi; Information Technology Group, Wageningen University, Netherlands; email: vahid.garousi@wur.nl",
-    publisher = "Elsevier Inc.",
-    issn = "01641212",
-    coden = "JSSOD",
-    language = "English",
-    abbrev_source_title = "J Syst Software",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 114"
-}</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -2919,32 +2313,12 @@
       <c r="R26" t="n">
         <v>2</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Smells in software test code: A survey of knowledge in industry and academia</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/action/doSearch?AllField=smells+in+software+test+code+a+survey+of+knowledge+in+industry+and+academia</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Elsevier Inc.</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2963,12 +2337,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>As the number of devices and platforms gradually increased that serve as a medium for online banking services, the number of replicated services for different platforms also increase. Each service has a different representation in a different platform even though targeting the same business objectives. This situation results in the problem of re-developing similar set of requirements for different devices and services which in turn results in multiplied effort in software development and degradation in the software quality because of the replicated code. The objective of this paper is to present a device independent user interface development approach that eliminates the replicated user interface development effort of the same set of services for different platforms/devices while increasing the presentation performance. In this context, we provide a basic technique that uses a json based user interface definition format, called omni-script, to separate the representation of banking services in different platforms/devices, so called channels. Omni-script is a pioneering solution being used in a real development environment in banking software domain that is experiencing a shift towards omni-channel user experience, where users are able to seamlessly continue using banking services in different platforms and devices. As the evaluation method, we have measured the actual development effort on a representative sample development team and a set of services. Additionally, we later deployed and measured the rendering time and the amount of data communication for the proposed approach in a real production environment. Production deployment resulted in a remarkable decrease in data communication and in loading times at the client side. As importantly, the proposed approach also resulted in a nearly 75% decrease in service development time by enabling analysts to produce user interface prototypes that can be integrated to service development with minimal effort. © 2019</t>
+          <t>As the number of devices and platforms gradually increased that serve as a medium for online banking services, the number of replicated services for different platforms also increase. Each service has a different representation in a different platform even though targeting the same business objectives. This situation results in the problem of re-developing similar set of requirements for different devices and services which in turn results in multiplied effort in software development and degradation in the software quality because of the replicated code. The objective of this paper is to present a device independent user interface development approach that eliminates the replicated user interface development effort of the same set of services for different platforms/devices while increasing the presentation performance. In this context, we provide a basic technique that uses a json based user interface definition format, called omni-script, to separate the representation of banking services in different platforms/devices, so called channels. Omni-script is a pioneering solution being used in a real development environment in banking software domain that is experiencing a shift towards omni-channel user experience, where users are able to seamlessly continue using banking services in different platforms and devices. As the evaluation method, we have measured the actual development effort on a representative sample development team and a set of services. Additionally, we later deployed and measured the rendering time and the amount of data communication for the proposed approach in a real production environment. Production deployment resulted in a remarkable decrease in data communication and in loading times at the client side. As importantly, the proposed approach also resulted in a nearly 75% decrease in service development time by enabling analysts to produce user interface prototypes that can be integrated to service development with minimal effort.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Computer software selection and evaluation; Convolutional codes; Software design; Banking services; Development environment; Multimodal user interface; Production environments; Representative sample; User experience; User interface development; User interface prototypes; User interfaces</t>
+          <t>Multimodal user interface definition, Omni-channel user experience, Omni-channel banking services</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2978,48 +2352,13 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Computer Standards and Interfaces</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.csi.2019.01.003</t>
-        </is>
-      </c>
+          <t>Computer Standards &amp; Interfaces</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>106 – 116</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Ulusoy2019106,
-    author = "Ulusoy, Simge and Batıoğlu, Alper and Ovatman, Tolga",
-    title = "Omni-script: Device independent user interface development for omni-channel fintech applications",
-    year = "2019",
-    journal = "Computer Standards and Interfaces",
-    volume = "64",
-    pages = "106 – 116",
-    doi = "10.1016/j.csi.2019.01.003",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85060113921\&amp;doi=10.1016\%2fj.csi.2019.01.003\&amp;partnerID=40\&amp;md5=92904aa7c38bb6f231042b5f83ec92b1",
-    affiliations = "SoftTech Software Technologies Research and Development Inc., Turkey; İstanbul Technical University Department of Computer Engineering, Turkey",
-    abstract = "As the number of devices and platforms gradually increased that serve as a medium for online banking services, the number of replicated services for different platforms also increase. Each service has a different representation in a different platform even though targeting the same business objectives. This situation results in the problem of re-developing similar set of requirements for different devices and services which in turn results in multiplied effort in software development and degradation in the software quality because of the replicated code. The objective of this paper is to present a device independent user interface development approach that eliminates the replicated user interface development effort of the same set of services for different platforms/devices while increasing the presentation performance. In this context, we provide a basic technique that uses a json based user interface definition format, called omni-script, to separate the representation of banking services in different platforms/devices, so called channels. Omni-script is a pioneering solution being used in a real development environment in banking software domain that is experiencing a shift towards omni-channel user experience, where users are able to seamlessly continue using banking services in different platforms and devices. As the evaluation method, we have measured the actual development effort on a representative sample development team and a set of services. Additionally, we later deployed and measured the rendering time and the amount of data communication for the proposed approach in a real production environment. Production deployment resulted in a remarkable decrease in data communication and in loading times at the client side. As importantly, the proposed approach also resulted in a nearly 75\% decrease in service development time by enabling analysts to produce user interface prototypes that can be integrated to service development with minimal effort. © 2019",
-    author_keywords = "Multimodal user interface definition; Omni-channel banking services; Omni-channel user experience",
-    keywords = "Computer software selection and evaluation; Convolutional codes; Software design; Banking services; Development environment; Multimodal user interface; Production environments; Representative sample; User experience; User interface development; User interface prototypes; User interfaces",
-    correspondence_address = "T. Ovatman; İstanbul Technical University Department of Computer Engineering, Turkey; email: ovatman@itu.edu.tr",
-    publisher = "Elsevier B.V.",
-    issn = "09205489",
-    coden = "CSTIE",
-    language = "English",
-    abbrev_source_title = "Comput Stand Interfaces",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 3"
-}</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -3040,32 +2379,12 @@
       <c r="R27" t="n">
         <v>2</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Omni-script: Device independent user interface development for omni-channel fintech applications</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85060113921&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=f8e0e9a98fe625d76d4cb177c8cce928&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28omni+script+device+independent+user+interface+development+for+omni+channel+fintech+applications%29&amp;sl=110&amp;sessionSearchId=f8e0e9a98fe625d76d4cb177c8cce928&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3174,22 +2493,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Authentication is a critical security feature for confirming the identity of a system's users, typically implemented with help from frameworks like Spring Security. It is a complex feature which should be robustly tested at all stages of development. Unit testing is an effective technique for fine-grained verification of feature behaviors that is not widely-used to test authentication. Part of the problem is that resources to help developers unit test security features are limited. Most security testing guides recommend test cases in a "black box" or penetration testing perspective. These resources are not easily applicable to developers writing new unit tests, or who want a security-focused perspective on coverage.In this paper, we address these issues by applying a grounded theory-based approach to identify common (unit) test cases for token authentication through analysis of 481 JUnit tests exercising Spring Security-based authentication implementations from 53 open source Java projects. The outcome of this study is a developer-friendly unit testing guide organized as a catalog of 53 test cases for token authentication, representing unique combinations of 17 scenarios, 40 conditions, and 30 expected outcomes learned from the data set in our analysis. We supplement the test guide with common test smells to avoid. To verify the accuracy and usefulness of our testing guide, we sought feedback from selected developers, some of whom authored unit tests in our dataset.</t>
+          <t>Authentication is a critical security feature for confirming the identity of a system's users, typically implemented with help from frameworks like Spring Security. It is a complex feature which should be robustly tested at all stages of development. Unit testing is an effective technique for fine-grained verification of feature behaviors that is not widely-used to test authentication. Part of the problem is that resources to help developers unit test security features are limited. Most security testing guides recommend test cases in a "black box" or penetration testing perspective. These resources are not easily applicable to developers writing new unit tests, or who want a security-focused perspective on coverage.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Unit Test;  Security Test;  Repository Mining;  Java;  Authentication</t>
+          <t>Authentication; Java; Repository Mining; Security Test; Unit Test</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Gonzalez, Danielle; Rath, Michael; Mirakhorli, Mehdi</t>
+          <t>Danielle Gonzalez; Michael Rath; Mehdi Mirakhorli</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Proceedings of the 17th International Conference on Mining Software Repositories</t>
+          <t>MSR '20: Proceedings of the 17th International Conference on Mining Software Repositories</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3200,30 +2519,10 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>232–242</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3379597.3387471,
-    author = "Gonzalez, Danielle and Rath, Michael and Mirakhorli, Mehdi",
-    title = "Did You Remember To Test Your Tokens?",
-    year = "2020",
-    isbn = "9781450375177",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3379597.3387471",
-    doi = "10.1145/3379597.3387471",
-    abstract = {Authentication is a critical security feature for confirming the identity of a system's users, typically implemented with help from frameworks like Spring Security. It is a complex feature which should be robustly tested at all stages of development. Unit testing is an effective technique for fine-grained verification of feature behaviors that is not widely-used to test authentication. Part of the problem is that resources to help developers unit test security features are limited. Most security testing guides recommend test cases in a "black box" or penetration testing perspective. These resources are not easily applicable to developers writing new unit tests, or who want a security-focused perspective on coverage.In this paper, we address these issues by applying a grounded theory-based approach to identify common (unit) test cases for token authentication through analysis of 481 JUnit tests exercising Spring Security-based authentication implementations from 53 open source Java projects. The outcome of this study is a developer-friendly unit testing guide organized as a catalog of 53 test cases for token authentication, representing unique combinations of 17 scenarios, 40 conditions, and 30 expected outcomes learned from the data set in our analysis. We supplement the test guide with common test smells to avoid. To verify the accuracy and usefulness of our testing guide, we sought feedback from selected developers, some of whom authored unit tests in our dataset.},
-    booktitle = "Proceedings of the 17th International Conference on Mining Software Repositories",
-    pages = "232–242",
-    numpages = "11",
-    keywords = "Unit Test, Security Test, Repository Mining, Java, Authentication",
-    location = "Seoul, Republic of Korea",
-    series = "MSR '20"
-}</t>
-        </is>
-      </c>
+          <t>232-242</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -3244,7 +2543,11 @@
       <c r="R29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -3263,7 +2566,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex</t>
         </is>
       </c>
     </row>
@@ -3529,14 +2832,10 @@
           <t>Behavior Driven Development (BDD) is a test driven development approach which aims at bridging the gap between the end-user and the software development. It promotes a semi-formal ubiquitous language for executable behavior specification and automated acceptance testing. The BDD infrastructure Cucumber and the language Gherkin have been established in many application domains. This paper discusses their utilization for airborne software engineering with an example application, Class C Terrain Awareness and Warning System, being developed using Rust language with Rust BDD infrastructure. © 2021, American Institute of Aeronautics and Astronautics Inc, AIAA. All rights reserved.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Acceptance tests; Application programs; Boolean functions; C (programming language); Software testing; Airborne software; Applications domains; Automated acceptance testing; Behavior specifications; Development approach; Development infrastructure; End-users; Executables; Terrain Awareness and Warning System; Test driven development; Software design</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Zaeske, Wanja; Beck, Janick; Torrens, Christoph; Durak, Umut</t>
+          <t>Zaeske W., Beck J., Torrens C., Durak U.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3544,40 +2843,10 @@
           <t>AIAA Scitech 2021 Forum</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85099811159&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=916dc0070b1239390a0926ef6d01455f&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28behavior+driven+development+for+airborne+software+engineering%29&amp;sl=76&amp;sessionSearchId=916dc0070b1239390a0926ef6d01455f&amp;relpos=0</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>1 – 10</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Zaeske20211,
-    author = "Zaeske, Wanja and Beck, Janick and Torrens, Christoph and Durak, Umut",
-    title = "Behavior driven development for airborne software engineering",
-    year = "2021",
-    journal = "AIAA Scitech 2021 Forum",
-    pages = "1 – 10",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85099811159\&amp;partnerID=40\&amp;md5=903e28f166fa5c9cb35d1106f40f039c",
-    affiliations = "Clausthal University of Technology, Institute of Informatics, Clausthal-Zellerfeld, 38678, Germany; German Aerospace Center (DLR), Institute of Flight Systems, Braunschweig, 38108, Germany",
-    abstract = "Behavior Driven Development (BDD) is a test driven development approach which aims at bridging the gap between the end-user and the software development. It promotes a semi-formal ubiquitous language for executable behavior specification and automated acceptance testing. The BDD infrastructure Cucumber and the language Gherkin have been established in many application domains. This paper discusses their utilization for airborne software engineering with an example application, Class C Terrain Awareness and Warning System, being developed using Rust language with Rust BDD infrastructure. © 2021, American Institute of Aeronautics and Astronautics Inc, AIAA. All rights reserved.",
-    keywords = "Acceptance tests; Application programs; Boolean functions; C (programming language); Software testing; Airborne software; Applications domains; Automated acceptance testing; Behavior specifications; Development approach; Development infrastructure; End-users; Executables; Terrain Awareness and Warning System; Test driven development; Software design",
-    publisher = "American Institute of Aeronautics and Astronautics Inc, AIAA",
-    isbn = "978-162410609-5",
-    language = "English",
-    abbrev_source_title = "AIAA Scitech Forum",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 4; Conference name: AIAA Science and Technology Forum and Exposition, AIAA SciTech Forum 2021; Conference date: 11 January 2021 through 15 January 2021; Conference code: 253579"
-}</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>Included</t>
@@ -3598,32 +2867,12 @@
       <c r="R33" t="n">
         <v>2</v>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Behavior driven development for airborne software engineering</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85099811159&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=916dc0070b1239390a0926ef6d01455f&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28behavior+driven+development+for+airborne+software+engineering%29&amp;sl=76&amp;sessionSearchId=916dc0070b1239390a0926ef6d01455f&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>American Institute of Aeronautics and Astronautics Inc, AIAA</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3642,22 +2891,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Behavior Driven Development (BDD) is an agile approach that uses .feature files to describe the functionalities of a software system using natural language constructs (English-like phrases). Because of the English-like structure of .feature files, BDD specifications become an evolving documentation that helps all (even non-technical) stakeholders to understand and contribute to a software project. After specifying a .feature files, developers can use a BDD tool (e.g., Cucumber) to automatically generate test cases and implement the code of the specified functionality. However, maintaining traceability between .feature files and source code requires human efforts. Therefore, .feature files can be out-of-date, reducing the advantages of using BDD. Furthermore, existing research do not attempt to improve the traceability between .feature files and source code files. In this paper, we study the co-changes between .feature files and source code files to improve the traceability between .feature files and source code files. Due to the English-like syntax of .feature files, we use natural language processing to identify co-changes, with an accuracy of 79\%. We study the characteristics of BDD co-changes and build random forest models to predict when a .feature files should be modified before committing a code change. The random forest model obtains an AUC of 0.77. The model can assist developers in identifying when a .feature files should be modified in code commits. Once the traceability is up-to-date, BDD developers can write test code more efficiently and keep the software documentation up-to-date.</t>
+          <t>Behavior Driven Development (BDD) is an agile approach that uses.featurefiles to describe the functionalities of a software system using natural language constructs (English-like phrases). Because of the English-like structure of.featurefiles, BDD specifications become an evolving documentation that helps all (even non-technical) stakeholders to understand and contribute to a software project. After specifying a.featurefiles, developers can use a BDD tool (e.g., Cucumber) to automatically generate test cases and implement the code of the specified functionality. However, maintaining traceability between.featurefiles and source code requires human efforts. Therefore,.featurefiles can be out-of-date, reducing the advantages of using BDD. Furthermore, existing research do not attempt to improve the traceability between.featurefiles and source code files. In this paper, we study the co-changes between.featurefiles and source code files to improve the traceability between.featurefiles and source code files. Due to the English-like syntax of.featurefiles, we use natural language processing to identify co-changes, with an accuracy of 79%. We study the characteristics of BDD co-changes and build random forest models to predict when a.featurefiles should be modified before committing a code change. The random forest model obtains an AUC of 0.77. The model can assist developers in identifying when a.featurefiles should be modified in code commits. Once the traceability is up-to-date, BDD developers can write test code more efficiently and keep the software documentation up-to-date.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>traceability;  empirical software engineering;  co-changes;  behavior driven development</t>
+          <t>behavior driven development; co-changes; empirical software engineering; traceability</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Yang, Aidan Z. H.; da Costa, Daniel Alencar; Zou, Ying</t>
+          <t>Aidan Z. H. Yang; Daniel Alencar da Costa; Ying Zou</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Proceedings of the 16th International Conference on Mining Software Repositories</t>
+          <t>MSR '19: Proceedings of the 16th International Conference on Mining Software Repositories</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3668,28 +2917,10 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>534–544</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1109/MSR.2019.00080,
-    author = "Yang, Aidan Z. H. and da Costa, Daniel Alencar and Zou, Ying",
-    title = "Predicting co-changes between functionality specifications and source code in behavior driven development",
-    year = "2019",
-    publisher = "IEEE Press",
-    url = "https://doi.org/10.1109/MSR.2019.00080",
-    doi = "10.1109/MSR.2019.00080",
-    abstract = "Behavior Driven Development (BDD) is an agile approach that uses .feature files to describe the functionalities of a software system using natural language constructs (English-like phrases). Because of the English-like structure of .feature files, BDD specifications become an evolving documentation that helps all (even non-technical) stakeholders to understand and contribute to a software project. After specifying a .feature files, developers can use a BDD tool (e.g., Cucumber) to automatically generate test cases and implement the code of the specified functionality. However, maintaining traceability between .feature files and source code requires human efforts. Therefore, .feature files can be out-of-date, reducing the advantages of using BDD. Furthermore, existing research do not attempt to improve the traceability between .feature files and source code files. In this paper, we study the co-changes between .feature files and source code files to improve the traceability between .feature files and source code files. Due to the English-like syntax of .feature files, we use natural language processing to identify co-changes, with an accuracy of 79\\%. We study the characteristics of BDD co-changes and build random forest models to predict when a .feature files should be modified before committing a code change. The random forest model obtains an AUC of 0.77. The model can assist developers in identifying when a .feature files should be modified in code commits. Once the traceability is up-to-date, BDD developers can write test code more efficiently and keep the software documentation up-to-date.",
-    booktitle = "Proceedings of the 16th International Conference on Mining Software Repositories",
-    pages = "534–544",
-    numpages = "11",
-    keywords = "traceability, empirical software engineering, co-changes, behavior driven development",
-    location = "Montreal, Quebec, Canada",
-    series = "MSR '19"
-}</t>
-        </is>
-      </c>
+          <t>534-544</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>Included</t>
@@ -3710,18 +2941,18 @@
       <c r="R34" t="n">
         <v>2</v>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
           <t>Predicting Co-Changes between Functionality Specifications and Source Code in Behavior Driven Development</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/MSR.2019.00080</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
           <t>IEEE Press</t>
@@ -3729,7 +2960,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -3745,66 +2976,33 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Theoretical verification of test cases for behavior driven development</t>
+          <t>Theoretical Verification of Test Cases for Behavior Driven Development</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Behavior Driven Development insists on generation of early test cases during requirements elicitation. These would form the basis for pseudo use cases in TDD. These early test cases for BDD, aka theoretical test cases, are developed using Named Entity Recognition approaches over expanded use cases. This paper proposes the algorithm for theoretical verification of obtaining the original reduced use case sequences from the obtained BDD test cases. © 2017 IEEE.</t>
+          <t>Behavior Driven Development insists on generation of early test cases during requirements elicitation. These would form the basis for pseudo use cases in TDD. These early test cases for BDD, aka theoretical test cases, are developed using Named Entity Recognition approaches over expanded use cases. This paper proposes the algorithm for theoretical verification of obtaining the original reduced use case sequences from the obtained BDD test cases.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Boolean functions; Computation theory; Computational methods; Dependency graphs; Named entity recognition; Reduced UC Sequence; Requirements elicitation; Test case; Testing</t>
+          <t>Reduced UC Sequence;Test cases;Usecase Dependency Graph</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Mahalakshmi, G.S.; Vani, V.</t>
+          <t>G. S. Mahalakshmi; V. Vani</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Proceedings - 2017 2nd International Conference on Recent Trends and Challenges in Computational Models, ICRTCCM 2017</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ICRTCCM.2017.83</t>
-        </is>
-      </c>
+          <t>2017 Second International Conference on Recent Trends and Challenges in Computational Models (ICRTCCM)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>309 – 314</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Mahalakshmi2017309,
-    author = "Mahalakshmi, G.S. and Vani, V.",
-    editor = "L.J., Deborah and P., Vijayakumar",
-    title = "Theoretical verification of test cases for behavior driven development",
-    year = "2017",
-    journal = "Proceedings - 2017 2nd International Conference on Recent Trends and Challenges in Computational Models, ICRTCCM 2017",
-    pages = "309 – 314",
-    doi = "10.1109/ICRTCCM.2017.83",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85034644893\&amp;doi=10.1109\%2fICRTCCM.2017.83\&amp;partnerID=40\&amp;md5=a39e4c607bde6ce6c276ebf24fe6b3ba",
-    affiliations = "Department of Computer Science and Engineering, Anna University, Chennai, India; Department of Information Technology, Eswari Engineering College, Anna University, Chennai Tamilnadu, India",
-    abstract = "Behavior Driven Development insists on generation of early test cases during requirements elicitation. These would form the basis for pseudo use cases in TDD. These early test cases for BDD, aka theoretical test cases, are developed using Named Entity Recognition approaches over expanded use cases. This paper proposes the algorithm for theoretical verification of obtaining the original reduced use case sequences from the obtained BDD test cases. © 2017 IEEE.",
-    author_keywords = "Reduced UC Sequence; Test cases; Usecase Dependency Graph",
-    keywords = "Boolean functions; Computation theory; Computational methods; Dependency graphs; Named entity recognition; Reduced UC Sequence; Requirements elicitation; Test case; Testing",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-150904799-4",
-    language = "English",
-    abbrev_source_title = "Proc. - Int. Conf. Recent Trends Chall. Comput. Model., ICRTCCM",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 2; Conference name: 2nd International Conference on Recent Trends and Challenges in Computational Models, ICRTCCM 2017; Conference date: 3 February 2017 through 4 February 2017; Conference code: 131021"
-}</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>Included</t>
@@ -3825,32 +3023,12 @@
       <c r="R35" t="n">
         <v>2</v>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Theoretical Verification of Test Cases for Behavior Driven Development</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85034644893&amp;doi=10.1109%2fICRTCCM.2017.83&amp;partnerID=40&amp;md5=a39e4c607bde6ce6c276ebf24fe6b3ba</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3869,22 +3047,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Behavior-driven development (BDD) brings requirement specifications and their test cases closer together by using a ubiquitous language to describe requirements that are automatically mapped to test methods. Although industry-proven tools support this automated requirement mapping, the test methods need to be implemented manually. The approach presented in this paper transforms BDD-like requirement specifications and low fidelity graphical user interface (GUI) descriptions in the format of wireframes into automatically executable graphical user interface test cases. The requirement descriptions are defined in a domain-specific language (DSL) that obeys the rules of the ubiquitous language enhanced by references to screens and widgets in a graphical user interface model. The paper reports on a controlled AB/BA crossover experiment comparing the efficiency of our approach to the industry-proven JBehave tooling. The results show that the introduced approach on average takes 63\% less time to specify automated tests and thereby diminishes the problem of graphical user interface test cases being expensive to write. The experimental results were supported by experience made applying the approach in three differently sized components at a large Swiss bank.</t>
+          <t>Behavior-driven development (BDD) brings requirement specifications and their test cases closer together by using a ubiquitous language to describe requirements that are automatically mapped to test methods. Although industry-proven tools support this automated requirement mapping, the test methods need to be implemented manually. The approach presented in this paper transforms BDD-like requirement specifications and low fidelity graphical user interface (GUI) descriptions in the format of wireframes into automatically executable graphical user interface test cases. The requirement descriptions are defined in a domain-specific language (DSL) that obeys the rules of the ubiquitous language enhanced by references to screens and widgets in a graphical user interface model. The paper reports on a controlled AB/BA crossover experiment comparing the efficiency of our approach to the industry-proven JBehave tooling. The results show that the introduced approach on average takes 63% less time to specify automated tests and thereby diminishes the problem of graphical user interface test cases being expensive to write. The experimental results were supported by experience made applying the approach in three differently sized components at a large Swiss bank.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>model-driven engineering;  domain-specific language;  behavior-driven development;  GUI test case generation</t>
+          <t>GUI test case generation; behavior-driven development; domain-specific language; model-driven engineering</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>B\"{u}nder, Hendrik; Kuchen, Herbert</t>
+          <t>Hendrik Bunder; Herbert Kuchen</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Proceedings of the 34th ACM/SIGAPP Symposium on Applied Computing</t>
+          <t>SAC '19: Proceedings of the 34th ACM/SIGAPP Symposium on Applied Computing</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3895,30 +3073,10 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1742–1751</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3297280.3297450,
-    author = {B\"{u}nder, Hendrik and Kuchen, Herbert},
-    title = "A model-driven approach for behavior-driven GUI testing",
-    year = "2019",
-    isbn = "9781450359337",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3297280.3297450",
-    doi = "10.1145/3297280.3297450",
-    abstract = "Behavior-driven development (BDD) brings requirement specifications and their test cases closer together by using a ubiquitous language to describe requirements that are automatically mapped to test methods. Although industry-proven tools support this automated requirement mapping, the test methods need to be implemented manually. The approach presented in this paper transforms BDD-like requirement specifications and low fidelity graphical user interface (GUI) descriptions in the format of wireframes into automatically executable graphical user interface test cases. The requirement descriptions are defined in a domain-specific language (DSL) that obeys the rules of the ubiquitous language enhanced by references to screens and widgets in a graphical user interface model. The paper reports on a controlled AB/BA crossover experiment comparing the efficiency of our approach to the industry-proven JBehave tooling. The results show that the introduced approach on average takes 63\\% less time to specify automated tests and thereby diminishes the problem of graphical user interface test cases being expensive to write. The experimental results were supported by experience made applying the approach in three differently sized components at a large Swiss bank.",
-    booktitle = "Proceedings of the 34th ACM/SIGAPP Symposium on Applied Computing",
-    pages = "1742–1751",
-    numpages = "10",
-    keywords = "model-driven engineering, domain-specific language, behavior-driven development, GUI test case generation",
-    location = "Limassol, Cyprus",
-    series = "SAC '19"
-}</t>
-        </is>
-      </c>
+          <t>1742-1751</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>Included</t>
@@ -3939,18 +3097,18 @@
       <c r="R36" t="n">
         <v>2</v>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
           <t>A Model-Driven Approach for Behavior-Driven GUI Testing</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3297280.3297450</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -3958,7 +3116,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -4036,65 +3194,33 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>On the empirical evaluation of BDD scenarios quality: Preliminary findings of an empirical study</t>
+          <t>On the Empirical Evaluation of BDD Scenarios Quality: Preliminary Findings of an Empirical Study</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Behavior-Driven Development (BDD) is a set of software engineering practices which uses a ubiquitous language, one that business and technical people can understand, to describe and model a system by a series of textual scenarios. However, we believe that the value of those textual scenarios is connected with how well they convey and document the details discussed by the team about the behaviors needed to fulfill customer needs. Thus, there is the need to define what would be a "good" BDD scenario and how to evaluate scenarios. On this research design paper, we describe a study designed to understand how known quality attributes from other types of requirements specifications (like use cases or user stories) can be used with BDD scenarios. We also report our preliminary findings after performing it with novice evaluators. Those findings indicate that some of those attributes can be used to support BDD scenarios assessments. © 2017 IEEE.</t>
+          <t>Behavior-Driven Development (BDD) is a set of software engineering practices which uses a ubiquitous language, one that business and technical people can understand, to describe and model a system by a series of textual scenarios. However, we believe that the value of those textual scenarios is connected with how well they convey and document the details discussed by the team about the behaviors needed to fulfill customer needs. Thus, there is the need to define what would be a "good" BDD scenario and how to evaluate scenarios. On this research design paper, we describe a study designed to understand how known quality attributes from other types of requirements specifications (like use cases or user stories) can be used with BDD scenarios. We also report our preliminary findings after performing it with novice evaluators. Those findings indicate that some of those attributes can be used to support BDD scenarios assessments.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Boolean functions; Requirements engineering; Software engineering; Behavior-driven development; Empirical evaluations; Empirical studies; Quality attributes; Requirements specifications; Research designs; Scenarios assessment; Software engineering practices; Quality control</t>
+          <t>documentation quality;documentation evaluation;behavior-driven development;empirical study</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Oliveira, Gabriel; Marczak, Sabrina</t>
+          <t>G. Oliveira; S. Marczak</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Proceedings - 2017 IEEE 25th International Requirements Engineering Conference Workshops, REW 2017</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/REW.2017.62</t>
-        </is>
-      </c>
+          <t>2017 IEEE 25th International Requirements Engineering Conference Workshops (REW)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>299 – 302</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Oliveira2017299,
-    author = "Oliveira, Gabriel and Marczak, Sabrina",
-    title = "On the empirical evaluation of BDD scenarios quality: Preliminary findings of an empirical study",
-    year = "2017",
-    journal = "Proceedings - 2017 IEEE 25th International Requirements Engineering Conference Workshops, REW 2017",
-    pages = "299 – 302",
-    doi = "10.1109/REW.2017.62",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85034661005\&amp;doi=10.1109\%2fREW.2017.62\&amp;partnerID=40\&amp;md5=e05cad68558aa8c1c7e41c54a4e9123e",
-    affiliations = "Computer Science School, PUCRS, Porto Alegre, Brazil",
-    abstract = {Behavior-Driven Development (BDD) is a set of software engineering practices which uses a ubiquitous language, one that business and technical people can understand, to describe and model a system by a series of textual scenarios. However, we believe that the value of those textual scenarios is connected with how well they convey and document the details discussed by the team about the behaviors needed to fulfill customer needs. Thus, there is the need to define what would be a "good" BDD scenario and how to evaluate scenarios. On this research design paper, we describe a study designed to understand how known quality attributes from other types of requirements specifications (like use cases or user stories) can be used with BDD scenarios. We also report our preliminary findings after performing it with novice evaluators. Those findings indicate that some of those attributes can be used to support BDD scenarios assessments. © 2017 IEEE.},
-    author_keywords = "Behavior-driven development; Documentation evaluation; Documentation quality; Empirical study",
-    keywords = "Boolean functions; Requirements engineering; Software engineering; Behavior-driven development; Empirical evaluations; Empirical studies; Quality attributes; Requirements specifications; Research designs; Scenarios assessment; Software engineering practices; Quality control",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-153863488-2",
-    language = "English",
-    abbrev_source_title = "Proc. - IEEE Int. Requir. Eng. Conf. Workshops, REW",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 8; Conference name: 25th IEEE International Requirements Engineering Conference Workshops, REW 2017; Conference date: 4 September 2017 through 8 September 2017; Conference code: 130995"
-}</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>Included</t>
@@ -4115,32 +3241,12 @@
       <c r="R38" t="n">
         <v>2</v>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>On the Empirical Evaluation of BDD Scenarios Quality: Preliminary Findings of an Empirical Study</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85034661005&amp;doi=10.1109%2fREW.2017.62&amp;partnerID=40&amp;md5=e05cad68558aa8c1c7e41c54a4e9123e</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4154,7 +3260,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>On the applicability of BDD in a Business Intelligence project: experience report</t>
+          <t>On the applicability of BDD in a Business Intelligence project:experience report</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4164,17 +3270,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Software quality;  behavior-driven development;  business intelligence.</t>
+          <t>Software quality; behavior-driven development; business intelligence.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mello, Patr\'{\i}cia; Ximenes, Pablo; Lemos, Rousiany; Bessa, Ana Lu\'{\i}za; Cort\'{e}s, Mariela I.; Rocha, Cleilton Lima</t>
+          <t>Patricia Mello; Pablo Ximenes; Rousiany Lemos; Ana Luiza Bessa; Mariela I. Cortes; Cleilton Lima Rocha</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Proceedings of the 17th Brazilian Symposium on Software Quality</t>
+          <t>SBQS '18: Proceedings of the XVII Brazilian Symposium on Software Quality</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4185,30 +3291,10 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>296–304</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3275245.3275276,
-    author = "Mello, Patr\'{\i}cia and Ximenes, Pablo and Lemos, Rousiany and Bessa, Ana Lu\'{\i}za and Cort\'{e}s, Mariela I. and Rocha, Cleilton Lima",
-    title = "On the applicability of BDD in a Business Intelligence project: experience report",
-    year = "2018",
-    isbn = "9781450365659",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3275245.3275276",
-    doi = "10.1145/3275245.3275276",
-    abstract = "Behavior-driven development (BDD) is a software development technique that in order to succeed relies heavily on the definition of clear acceptance criteria by software developers in the form of behavioral scenarios, later translated into acceptance tests. The adoption of BDD in Business Intelligence (BI) projects requires developers to have a broad acquaintance to business that often even customers themselves do not possess. This article presents an experience report on the use of BDD in the development of a large public health related BI project. Experience suggests that the use of BDD may not be appropriate for BI projects, especially during the early stages of development, when there is still insufficient clarity about business acceptance criteria. The need for broad maturity towards business understanding makes it complex to adopt the behavioral approach within the development process in projects of this nature.",
-    booktitle = "Proceedings of the XVII Brazilian Symposium on Software Quality",
-    pages = "296–304",
-    numpages = "9",
-    keywords = "Software quality, behavior-driven development, business intelligence.",
-    location = "Curitiba, Brazil",
-    series = "SBQS '18"
-}</t>
-        </is>
-      </c>
+          <t>296-304</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>Included</t>
@@ -4229,18 +3315,18 @@
       <c r="R39" t="n">
         <v>2</v>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
           <t>On the Applicability of BDD in a Business Intelligence Project: Experience Report</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3275245.3275276</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -4248,7 +3334,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -4272,14 +3358,10 @@
           <t>Behavior-Driven Development (BDD) is an “outside-in” approach to software development built upon semi-formal mediums for specifying the behavior of a system as it would be observed externally. Through the representation of a system as a collection of user stories and scenarios using BDD’s notation, practitioners automate acceptance tests using examples of desired behavior for the envisioned system. A formal model created in concert with BDD tests would provide valuable insight into test validity and enhance the visibility of the problem domain. This work called BHive builds upon the formal underpinnings of BDD scenarios by mapping their “Given,” “When,” and “Then” statements to “Precondition,” “Command,” and “Postcondition” constructs as introduced by Floyd-Hoare logic. We posit that this mapping allows for a B-Method representation to be created and that such a model is useful for exploring system behavior and exposing gaps in requirements and test plans. In this extension of previous work, we outline recent additions to BDD tooling required for the described integration, present a new strategy for test case generation from our approach, and expand on the benefits of the BHive approach to integrating formalism within a BDD project. © 2018, Springer International Publishing AG.</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Boolean functions; Formal methods; Mapping; Software design; Testing; Agile; B method; Behaviour-Driven development; Floyd-hoare logic; Problem domain; System behaviors; Test case generation; Test generations; Acceptance tests</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carter, John Douglas; Gardner, William Bennett</t>
+          <t>Carter J.D., Gardner W.B.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4287,44 +3369,10 @@
           <t>Advances in Intelligent Systems and Computing</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-319-56157-8_11</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>232 – 255</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Carter2018232,
-    author = "Carter, John Douglas and Gardner, William Bennett",
-    title = "BHive: Behavior-Driven development meets B-Method",
-    year = "2018",
-    journal = "Advances in Intelligent Systems and Computing",
-    volume = "561",
-    pages = "232 – 255",
-    doi = "10.1007/978-3-319-56157-8\_11",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85027834905\&amp;doi=10.1007\%2f978-3-319-56157-8\_11\&amp;partnerID=40\&amp;md5=cc56ee1095813b94d042d58a10c32fbc",
-    affiliations = "School of Computer Science, University of Guelph, Guelph, ON, Canada",
-    abstract = "Behavior-Driven Development (BDD) is an “outside-in” approach to software development built upon semi-formal mediums for specifying the behavior of a system as it would be observed externally. Through the representation of a system as a collection of user stories and scenarios using BDD’s notation, practitioners automate acceptance tests using examples of desired behavior for the envisioned system. A formal model created in concert with BDD tests would provide valuable insight into test validity and enhance the visibility of the problem domain. This work called BHive builds upon the formal underpinnings of BDD scenarios by mapping their “Given,” “When,” and “Then” statements to “Precondition,” “Command,” and “Postcondition” constructs as introduced by Floyd-Hoare logic. We posit that this mapping allows for a B-Method representation to be created and that such a model is useful for exploring system behavior and exposing gaps in requirements and test plans. In this extension of previous work, we outline recent additions to BDD tooling required for the described integration, present a new strategy for test case generation from our approach, and expand on the benefits of the BHive approach to integrating formalism within a BDD project. © 2018, Springer International Publishing AG.",
-    author_keywords = "Agile; B-Method; BDD; Behaviour-Driven development; Test generation",
-    keywords = "Boolean functions; Formal methods; Mapping; Software design; Testing; Agile; B method; Behaviour-Driven development; Floyd-hoare logic; Problem domain; System behaviors; Test case generation; Test generations; Acceptance tests",
-    correspondence_address = "J.D. Carter; School of Computer Science, University of Guelph, Guelph, Canada; email: jcarter@uoguelph.ca",
-    publisher = "Springer Verlag",
-    issn = "21945357",
-    language = "English",
-    abbrev_source_title = "Adv. Intell. Sys. Comput.",
-    type = "Book chapter",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 1"
-}</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>Included</t>
@@ -4345,32 +3393,12 @@
       <c r="R40" t="n">
         <v>2</v>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>BHive: Behavior-Driven development meets B-Method</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85027834905&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=445507d9977fa23ce6754b9de7250330&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28bhive+behavior+driven+development+meets+b+method%29&amp;sl=63&amp;sessionSearchId=445507d9977fa23ce6754b9de7250330&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Springer Verlag</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4392,14 +3420,10 @@
           <t>Behavior-Driven Development (BDD) is an emerging agile development approach where all stakeholders (including developers and customers) work together to write user stories in structured natural language to capture a software application's functionality in terms of required "behaviors." Developers can then manually write "glue" code so that these scenarios can be translated into executable software tests. This glue code represents individual steps within unit and acceptance test cases, and tools exist that automate the mapping from scenario descriptions to manually written code steps (typically using regular expressions). This paper takes the position that, instead of requiring programmers to write manual glue code, it is practical to convert natural language scenario descriptions into executable software tests fully automatically. To show feasibility, this paper presents preliminary results from a tool called Kirby that uses natural language processing techniques to automatically generate executable software tests from structured English scenario descriptions. Kirby relieves the developer from the laborious work of writing code for the individual steps described in scenarios, so that both developers and customers can both focus on the scenarios as pure behavior descriptions (understandable to all, not just programmers). Preliminary results from assessing the performance and accuracy of this technique are presented. Copyright © 2013 SCITEPRESS.</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Acceptance tests; Application programs; Automatic test pattern generation; Glues; Gluing; Natural language processing systems; Pattern matching; Software engineering; Tools; Agile methods; Automated code generation; Automated testing; Behavior-driven development; Feature description; NAtural language processing; Probabilistic analysis; Test driven development; Software testing</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Kamalakar, Sunil; Edwards, Stephen H.; Dao, Tung M.</t>
+          <t>Kamalakar S., Edwards S.H., Dao T.M.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4407,40 +3431,10 @@
           <t>ENASE 2013 - Proceedings of the 8th International Conference on Evaluation of Novel Approaches to Software Engineering</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/action/doSearch?AllField=automatically+generating+tests+from+natural+language+descriptions+of+software+behavior</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>238 – 245</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Kamalakar2013238,
-    author = "Kamalakar, Sunil and Edwards, Stephen H. and Dao, Tung M.",
-    title = "Automatically generating tests from natural language descriptions of software behavior",
-    year = "2013",
-    journal = "ENASE 2013 - Proceedings of the 8th International Conference on Evaluation of Novel Approaches to Software Engineering",
-    pages = "238 – 245",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84887061776\&amp;partnerID=40\&amp;md5=6159a06fc6995d15a944ba55917b2a55",
-    affiliations = "Department of Computer Science, Virginia Tech, Blacksburg, VA, 2202 Kraft Drive (0902), United States",
-    abstract = {Behavior-Driven Development (BDD) is an emerging agile development approach where all stakeholders (including developers and customers) work together to write user stories in structured natural language to capture a software application's functionality in terms of required "behaviors." Developers can then manually write "glue" code so that these scenarios can be translated into executable software tests. This glue code represents individual steps within unit and acceptance test cases, and tools exist that automate the mapping from scenario descriptions to manually written code steps (typically using regular expressions). This paper takes the position that, instead of requiring programmers to write manual glue code, it is practical to convert natural language scenario descriptions into executable software tests fully automatically. To show feasibility, this paper presents preliminary results from a tool called Kirby that uses natural language processing techniques to automatically generate executable software tests from structured English scenario descriptions. Kirby relieves the developer from the laborious work of writing code for the individual steps described in scenarios, so that both developers and customers can both focus on the scenarios as pure behavior descriptions (understandable to all, not just programmers). Preliminary results from assessing the performance and accuracy of this technique are presented. Copyright © 2013 SCITEPRESS.},
-    author_keywords = "Agile methods; Automated code generation; Automated testing; Behavior-driven development; Feature description; Natural language processing; Probabilistic analysis; Software testing; Test-driven development",
-    keywords = "Acceptance tests; Application programs; Automatic test pattern generation; Glues; Gluing; Natural language processing systems; Pattern matching; Software engineering; Tools; Agile methods; Automated code generation; Automated testing; Behavior-driven development; Feature description; NAtural language processing; Probabilistic analysis; Test driven development; Software testing",
-    isbn = "978-989856562-4",
-    language = "English",
-    abbrev_source_title = "ENASE - Proc. Int. Conf. Eval. Novel Approaches Softw. Eng.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 9; Conference name: 8th International Conference on Evaluation of Novel Approaches to Software Engineering, ENASE 2013; Conference date: 4 July 2013 through 6 July 2013; Conference code: 100615"
-}</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>Included</t>
@@ -4461,28 +3455,12 @@
       <c r="R41" t="n">
         <v>2</v>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>Automatically generating tests from natural language descriptions of software behavior</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/action/doSearch?AllField=automatically+generating+tests+from+natural+language+descriptions+of+software+behavior</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>nan; References; Publisher</t>
-        </is>
-      </c>
+      <c r="X41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4506,17 +3484,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BDD Adoption;  Behavior-Driven Development;  Benefits;  Grey Literature Review;  Quality Measurement</t>
+          <t>BDD Adoption; Behavior-Driven Development; Benefits; Grey Literature Review; Quality Measurement</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Couto, Thiciane; Marczak, Sabrina; Gomes, Fabio</t>
+          <t>Thiciane Couto; Sabrina Marczak; Fabio Gomes</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>19th Brazilian Symposium on Software Quality</t>
+          <t>SBQS '20: Proceedings of the XIX Brazilian Symposium on Software Quality</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4525,28 +3503,12 @@
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3439961.3440000,
-    author = "Couto, Thiciane and Marczak, Sabrina and Gomes, Fabio",
-    title = "On the Understanding of How to Measure the Benefits of Behavior-Driven Development Adoption: Preliminary Literature Results from a Grey Literature Study",
-    year = "2021",
-    isbn = "9781450389235",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3439961.3440000",
-    doi = "10.1145/3439961.3440000",
-    abstract = "Behavior-Driven Development (BDD) is the integration of a ubiquitous language with Test-Driven Development and Automated Testing. From this integration, BDD supports software teams to build and deliver software. Although the perceived arguments of better results and of a more efficient development process, we still have no consolidated evidence of such benefits and how to measure them. Therefore, this long-term research aims to characterize how BDD adoption benefits can be measured. To do so, our research design includes a Multivocal Literature Review, composed of a Grey Literature to explore how industry tackles the topic and a Systematic Review to gather scientific evidences, followed of a Snowballing Review to supplement the search. Next, we will conduct empirical studies to characterize the topic from practice. This paper introduces our research and presents the results from our exploratory Grey Literature. We learned from these preliminary results that there are no models or frameworks defined to measure BDD adoption benefits but that teams indeed perceive improvements in software quality, communication, rework rates, among others. We also found that these teams also perceive that team engagement improves with the adoption of BDD and that although there is a certain cost (e.g., time and financial) involved, the investment pays off in the end. These results will inform the design of our Systematic Review and of our downstream empirical studies.",
-    booktitle = "Proceedings of the XIX Brazilian Symposium on Software Quality",
-    articleno = "39",
-    numpages = "7",
-    keywords = "BDD Adoption, Behavior-Driven Development, Benefits, Grey Literature Review, Quality Measurement",
-    location = "S\\textasciitilde {a}o Lu\'{\i}s, Brazil",
-    series = "SBQS '20"
-}</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1-7</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -4567,7 +3529,11 @@
       <c r="R42" t="n">
         <v>2</v>
       </c>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -4586,7 +3552,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Pages; Source</t>
+          <t>nan; References; Year; Bibtex</t>
         </is>
       </c>
     </row>
@@ -4602,7 +3568,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Behavior-driven development: conference tutorial</t>
+          <t>Behavior-driven development:conference tutorial</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4613,41 +3579,22 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Kart, Michael</t>
+          <t>Michael Kart</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>J. Comput. Sci. Coll.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>Journal of Computing Sciences in Colleges</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/2167431.2167445</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>@article{10.5555/2167431.2167445,
-    author = "Kart, Michael",
-    title = "Behavior-driven development: conference tutorial",
-    year = "2012",
-    issue_date = "April 2012",
-    publisher = "Consortium for Computing Sciences in Colleges",
-    address = "Evansville, IN, USA",
-    volume = "27",
-    number = "4",
-    issn = "1937-4771",
-    abstract = "Behavior-driven development is a software development technique in which system behaviors are determined and made into test cases before the software itself is written. Benefits can include a richer and deeper understanding of system requirements in addition to making these requirements executable. Moreover, this technique helps guide software developers in knowing what to test as well as knowing how much to test. In this tutorial, we introduce the fundamentals of this approach, a language for expressing system behaviors, and explain how to use this technique effectively in the undergraduate computer science curriculum.",
-    journal = "J. Comput. Sci. Coll.",
-    month = "apr",
-    pages = "75",
-    numpages = "1"
-}</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -4668,7 +3615,11 @@
       <c r="R43" t="n">
         <v>2</v>
       </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -4683,7 +3634,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; DOI; Source; Link</t>
+          <t>nan; Keywords; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -4909,67 +3860,33 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Behaviour-driven development of foundational UML components</t>
+          <t>Behaviour-Driven Development of Foundational UML Components</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Behaviour-Driven Development (BDD) focuses all development activities on the delivery of behaviours - what a system should do, described such that developers and domain experts speak the same language. BDD frameworks allow users to represent the required system behaviour as executable user stories and the acceptance criteria as executable scenarios attached to user stories. In this paper we define a UML profile that allows users to create executable Foundational UML (fUML) stories and scenarios. In order to easily construct scenarios we introduce a BDD model library which contains fUML activities for testing equalities and inclusions. We also present an Eclipse-based development tool that supports a BDD approach for developing fUML components. The tool provides developers a concrete syntax for defining executable scenarios, and automatically updates the project status based on verified delivered behaviorus. © 2010 Elsevier B.V.</t>
+          <t>Behaviour-Driven Development (BDD) focuses all development activities on the delivery of behaviours - what a system should do, described such that developers and domain experts speak the same language. BDD frameworks allow users to represent the required system behaviour as executable user stories and the acceptance criteria as executable scenarios attached to user stories. In this paper we define a UML profile that allows users to create executable Foundational UML (fUML) stories and scenarios. In order to easily construct scenarios we introduce a BDD model library which contains fUML activities for testing equalities and inclusions. We also present an Eclipse-based development tool that supports a BDD approach for developing fUML components. The tool provides developers a concrete syntax for defining executable scenarios, and automatically updates the project status based on verified delivered behaviorus.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Specifications; Acceptance criteria; behaviour-driven development; Executable specifications; Executable UML; User stories; Formal logic</t>
+          <t>acceptance criteria; behaviour-driven development; executable specification; executable UML; user story</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lazǎr, Ioan; Motogna, Simona; Pârv, Bazil</t>
+          <t>Lazr, Ioan; Motogna, Simona; Pírv, Bazil</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Electronic Notes in Theoretical Computer Science</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.entcs.2010.07.007</t>
-        </is>
-      </c>
+          <t>Electron. Notes Theor. Comput. Sci.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>91 – 105</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Lazǎr201091,
-    author = "Lazǎr, Ioan and Motogna, Simona and Pârv, Bazil",
-    title = "Behaviour-driven development of foundational UML components",
-    year = "2010",
-    journal = "Electronic Notes in Theoretical Computer Science",
-    volume = "264",
-    number = "1",
-    pages = "91 – 105",
-    doi = "10.1016/j.entcs.2010.07.007",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-77955705236\&amp;doi=10.1016\%2fj.entcs.2010.07.007\&amp;partnerID=40\&amp;md5=f60d0321c5d64335bfed145a66821f27",
-    affiliations = "Department of Computer Science, Babeş-Bolyai University, Cluj-Napoca, Romania",
-    abstract = "Behaviour-Driven Development (BDD) focuses all development activities on the delivery of behaviours - what a system should do, described such that developers and domain experts speak the same language. BDD frameworks allow users to represent the required system behaviour as executable user stories and the acceptance criteria as executable scenarios attached to user stories. In this paper we define a UML profile that allows users to create executable Foundational UML (fUML) stories and scenarios. In order to easily construct scenarios we introduce a BDD model library which contains fUML activities for testing equalities and inclusions. We also present an Eclipse-based development tool that supports a BDD approach for developing fUML components. The tool provides developers a concrete syntax for defining executable scenarios, and automatically updates the project status based on verified delivered behaviorus. © 2010 Elsevier B.V.",
-    author_keywords = "acceptance criteria; behaviour-driven development; executable specification; executable UML; user story",
-    keywords = "Specifications; Acceptance criteria; behaviour-driven development; Executable specifications; Executable UML; User stories; Formal logic",
-    correspondence_address = "I. Lazǎr; Department of Computer Science, Babeş-Bolyai University, Cluj-Napoca, Romania; email: ilazar@cs.ubbcluj.ro",
-    issn = "15710661",
-    language = "English",
-    abbrev_source_title = "Electron. Notes Theor. Comput. Sci.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 34; All Open Access, Gold Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>Included</t>
@@ -4990,28 +3907,12 @@
       <c r="R47" t="n">
         <v>2</v>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Behaviour-Driven Development of Foundational UML Components</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-77955705236&amp;doi=10.1016%2fj.entcs.2010.07.007&amp;partnerID=40&amp;md5=f60d0321c5d64335bfed145a66821f27</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>nan; References; Publisher</t>
-        </is>
-      </c>
+      <c r="X47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5121,17 +4022,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>User Stories;  User Requirements;  Software Artifacts.;  Consistency Assurance;  Behaviour-Driven Development</t>
+          <t>Behaviour-Driven Development; Consistency Assurance; Software Artifacts.; User Requirements; User Stories</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Silva, Thiago Rocha; Fitzgerald, Brian</t>
+          <t>Thiago Rocha Silva; Brian Fitzgerald</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Evaluation and Assessment in Software Engineering</t>
+          <t>EASE '21: Proceedings of the 25th International Conference on Evaluation and Assessment in Software Engineering</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5142,30 +4043,10 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>266–271</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3463274.3463807,
-    author = "Silva, Thiago Rocha and Fitzgerald, Brian",
-    title = "Empirical Findings on BDD Story Parsing to Support Consistency Assurance between Requirements and Artifacts",
-    year = "2021",
-    isbn = "9781450390538",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3463274.3463807",
-    doi = "10.1145/3463274.3463807",
-    abstract = "Behaviour-Driven Development (BDD) stories have gained considerable attention in recent years as an effective way to specify and test user requirements in agile software development projects. External testing frameworks also allow developers to automate the execution of BDD stories and check whether a fully functional software system behaves as expected. However, other software artifacts may quite often lose synchronization with the stories, and many inconsistencies can arise with respect to requirements representation. This paper reports on preliminary empirical findings regarding the performance of two existing approaches in the literature intended to support consistency assurance between BDD stories and software artifacts. The first approach involves the parsing of BDD stories in order to identify conceptual elements to automatically generate consistent class diagrams, while the second approach seeks to identify interaction elements to automatically assess the consistency of task models and GUI prototypes. We report on the precision of these approaches when applied to a study with BDD stories previously written by Product Owners (POs). Based on the results, we also identify a set of challenges and opportunities for BDD stories in the consistency assurance of such artifacts.",
-    booktitle = "Proceedings of the 25th International Conference on Evaluation and Assessment in Software Engineering",
-    pages = "266–271",
-    numpages = "6",
-    keywords = "User Stories, User Requirements, Software Artifacts., Consistency Assurance, Behaviour-Driven Development",
-    location = "Trondheim, Norway",
-    series = "EASE '21"
-}</t>
-        </is>
-      </c>
+          <t>266-271</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>Included</t>
@@ -5186,7 +4067,11 @@
       <c r="R49" t="n">
         <v>2</v>
       </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -5205,7 +4090,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex</t>
         </is>
       </c>
     </row>
@@ -5226,12 +4111,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Blockchain as a distributed computing platform enables users to deploy pieces of software (known as smart contracts) for a wealth of next-generation decentralized applications without involving a trusted third-party. The advantages of smart contracts do, however, come at a price. As with most technologies, there are potential security threats, vulnerabilities and various other issues associated with smart contracts. Writing secure and safe smart contracts can be extremely difficult due to various business logics, as well as platform vulnerabilities and limitations. Formal methods have recently been advocated to mitigate these vulnerabilities. This paper aims to provide a first-time study on current formalization research on all smart contract-related platforms on blockchains, which is scarce in the literature. To this end, a timely and rigorous systematic review to examine the state-of-the-art research and achievements published between 2015 and July 2019 is provided. This study is based on a comprehensive review of a set of 35 research papers that have been extracted from eight major online digital databases. The results indicate that the most common formalization technique is theorem proving, which is most often used to verify security properties relating to smart contracts, while other techniques such as symbolic execution and model checking were also frequently used. These techniques were most commonly used to verify the functional correctness of smart contracts. From the language and automation point of views, there were 12 languages (domain specific/specification/general purpose) proposed or used for the formalization of smart contracts on blockchains, while 15 formal method-specific automated tools/frameworks were identified for mitigating various vulnerabilities of smart contracts. From the results of this work, we further highlight three open issues for future research in this emerging domain including: formal testing, automated verification of smart contracts, and domain specific languages (DSLs) for Ethereum. These issues suggest the need for additional, in-depth research. Our study also provides possible future research directions. © 2019</t>
+          <t>Blockchain as a distributed computing platform enables users to deploy pieces of software (known as smart contracts) for a wealth of next-generation decentralized applications without involving a trusted third-party. The advantages of smart contracts do, however, come at a price. As with most technologies, there are potential security threats, vulnerabilities and various other issues associated with smart contracts. Writing secure and safe smart contracts can be extremely difficult due to various business logics, as well as platform vulnerabilities and limitations. Formal methods have recently been advocated to mitigate these vulnerabilities. This paper aims to provide a first-time study on current formalization research on all smart contract-related platforms on blockchains, which is scarce in the literature. To this end, a timely and rigorous systematic review to examine the state-of-the-art research and achievements published between 2015 and July 2019 is provided. This study is based on a comprehensive review of a set of 35 research papers that have been extracted from eight major online digital databases. The results indicate that the most common formalization technique is theorem proving, which is most often used to verify security properties relating to smart contracts, while other techniques such as symbolic execution and model checking were also frequently used. These techniques were most commonly used to verify the functional correctness of smart contracts. From the language and automation point of views, there were 12 languages (domain specific/specification/general purpose) proposed or used for the formalization of smart contracts on blockchains, while 15 formal method-specific automated tools/frameworks were identified for mitigating various vulnerabilities of smart contracts. From the results of this work, we further highlight three open issues for future research in this emerging domain including: formal testing, automated verification of smart contracts, and domain specific languages (DSLs) for Ethereum. These issues suggest the need for additional, in-depth research. Our study also provides possible future research directions.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Application programs; Automation; Formal methods; Formal verification; Model checking; Problem oriented languages; Verification; Automated verification; Distributed computing platform; Domain specific languages; Functional correctness; Security properties; Symbolic execution; Systematic Review; Trusted third parties; Blockchain</t>
+          <t>Blockchain, Smart contracts, Formal methods, Verification, Systematic review</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5241,43 +4126,13 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Computers and Security</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.cose.2019.101654</t>
-        </is>
-      </c>
+          <t>Computers &amp; Security</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Singh2020,
-    author = "Singh, Amritraj and Parizi, Reza M. and Zhang, Qi and Choo, Kim-Kwang Raymond and Dehghantanha, Ali",
-    title = "Blockchain smart contracts formalization: Approaches and challenges to address vulnerabilities",
-    year = "2020",
-    journal = "Computers and Security",
-    volume = "88",
-    doi = "10.1016/j.cose.2019.101654",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85074192785\&amp;doi=10.1016\%2fj.cose.2019.101654\&amp;partnerID=40\&amp;md5=62cd9ec151a449f7acf2b5b06c09e75c",
-    affiliations = "Department of Software Engineering and Game Development, Kennesaw State University, 30060, GA, United States; IBM Thomas J. Research Center, Yorktown Heights, 10598, NY, United States; Department of Information Systems and Cyber Security, University of Texas at San Antonio, TX, United States; Cyber Science Lab, School of Computer Science, University of Guelph, Ontario, Canada",
-    abstract = "Blockchain as a distributed computing platform enables users to deploy pieces of software (known as smart contracts) for a wealth of next-generation decentralized applications without involving a trusted third-party. The advantages of smart contracts do, however, come at a price. As with most technologies, there are potential security threats, vulnerabilities and various other issues associated with smart contracts. Writing secure and safe smart contracts can be extremely difficult due to various business logics, as well as platform vulnerabilities and limitations. Formal methods have recently been advocated to mitigate these vulnerabilities. This paper aims to provide a first-time study on current formalization research on all smart contract-related platforms on blockchains, which is scarce in the literature. To this end, a timely and rigorous systematic review to examine the state-of-the-art research and achievements published between 2015 and July 2019 is provided. This study is based on a comprehensive review of a set of 35 research papers that have been extracted from eight major online digital databases. The results indicate that the most common formalization technique is theorem proving, which is most often used to verify security properties relating to smart contracts, while other techniques such as symbolic execution and model checking were also frequently used. These techniques were most commonly used to verify the functional correctness of smart contracts. From the language and automation point of views, there were 12 languages (domain specific/specification/general purpose) proposed or used for the formalization of smart contracts on blockchains, while 15 formal method-specific automated tools/frameworks were identified for mitigating various vulnerabilities of smart contracts. From the results of this work, we further highlight three open issues for future research in this emerging domain including: formal testing, automated verification of smart contracts, and domain specific languages (DSLs) for Ethereum. These issues suggest the need for additional, in-depth research. Our study also provides possible future research directions. © 2019",
-    author_keywords = "Blockchain; Formal methods; Smart contracts; Systematic review; Verification",
-    keywords = "Application programs; Automation; Formal methods; Formal verification; Model checking; Problem oriented languages; Verification; Automated verification; Distributed computing platform; Domain specific languages; Functional correctness; Security properties; Symbolic execution; Systematic Review; Trusted third parties; Blockchain",
-    correspondence_address = "K.-K.R. Choo; Department of Information Systems and Cyber Security, University of Texas at San Antonio, United States; email: raymond.choo@fulbrightmail.org",
-    publisher = "Elsevier Ltd",
-    issn = "01674048",
-    coden = "CPSED",
-    language = "English",
-    abbrev_source_title = "Comput Secur",
-    type = "Review",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 157"
-}</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -5298,32 +4153,12 @@
       <c r="R50" t="n">
         <v>2</v>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>Blockchain smart contracts formalization: Approaches and challenges to address vulnerabilities</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/action/doSearch?AllField=blockchain+smart+contracts+formalization+approaches+and+challenges+to+address+vulnerabilities</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Elsevier Ltd</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5567,14 +4402,10 @@
           <t>Cloud Computing and Mobile Cloud Computing are reshaping the way applications are being developed and deployed due to their unique needs such as massive scalability, guaranteed fault tolerance, near zero downtime, etc. and also daunting challenges such as security, reliability, continuous deployment and update capability. Microservices architecture, where application is composed of a set of independently deployable services, is increasingly becoming popular due to its capability to address most of these needs and challenges. In recent years, the Behavior-Driven Development (BDD) has become one of the most popular agile software development processes, and frequently used in microservices development. The key to success of BDD is the executable acceptance tests that describe the expected behavior of a feature and its acceptance criteria in the form of scenarios using simple and business people readable syntax. The reusability, auditability, and maintainability become some of the major concerns when BDD test framework is applied for each microservice repository and no previous research addresses these concerns. In this paper, we present a reusable automated acceptance testing architecture to address all these concerns. © 2015 IEEE.</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Automation; Boolean functions; Cloud computing; Computer software reusability; Fault tolerance; Mobile cloud computing; Reusability; Software design; Software engineering; Systems engineering; Automated acceptance testing; Behavior-driven development; Functional testing; Gherkin; Microservice; Acceptance tests</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rahman, Mazedur; Gao, Jerry</t>
+          <t>Rahman M., Gao J.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5582,43 +4413,10 @@
           <t>Proceedings - 9th IEEE International Symposium on Service-Oriented System Engineering, IEEE SOSE 2015</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/SOSE.2015.55</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>321 – 325</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Rahman2015321,
-    author = "Rahman, Mazedur and Gao, Jerry",
-    title = "A reusable automated acceptance testing architecture for microservices in behavior-driven development",
-    year = "2015",
-    journal = "Proceedings - 9th IEEE International Symposium on Service-Oriented System Engineering, IEEE SOSE 2015",
-    volume = "30",
-    pages = "321 – 325",
-    doi = "10.1109/SOSE.2015.55",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84990950599\&amp;doi=10.1109\%2fSOSE.2015.55\&amp;partnerID=40\&amp;md5=fd8ac0b9d3c45d4f7f08aed564876ab2",
-    affiliations = "San Jose State University, United States",
-    abstract = "Cloud Computing and Mobile Cloud Computing are reshaping the way applications are being developed and deployed due to their unique needs such as massive scalability, guaranteed fault tolerance, near zero downtime, etc. and also daunting challenges such as security, reliability, continuous deployment and update capability. Microservices architecture, where application is composed of a set of independently deployable services, is increasingly becoming popular due to its capability to address most of these needs and challenges. In recent years, the Behavior-Driven Development (BDD) has become one of the most popular agile software development processes, and frequently used in microservices development. The key to success of BDD is the executable acceptance tests that describe the expected behavior of a feature and its acceptance criteria in the form of scenarios using simple and business people readable syntax. The reusability, auditability, and maintainability become some of the major concerns when BDD test framework is applied for each microservice repository and no previous research addresses these concerns. In this paper, we present a reusable automated acceptance testing architecture to address all these concerns. © 2015 IEEE.",
-    author_keywords = "Behavior-driven development; Executable automated acceptance testing; Functional testing; Gherkin; Microservice",
-    keywords = "Automation; Boolean functions; Cloud computing; Computer software reusability; Fault tolerance; Mobile cloud computing; Reusability; Software design; Software engineering; Systems engineering; Automated acceptance testing; Behavior-driven development; Functional testing; Gherkin; Microservice; Acceptance tests",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-147998355-1",
-    language = "English",
-    abbrev_source_title = "Proc. - IEEE Int. Symp. Serv.-Oriented Syst. Eng., IEEE SOSE",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 60; Conference name: 9th IEEE International Symposium on Service-Oriented System Engineering, IEEE SOSE 2015; Conference date: 30 March 2015 through 3 April 2015; Conference code: null"
-}</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>Included</t>
@@ -5639,32 +4437,12 @@
       <c r="R54" t="n">
         <v>2</v>
       </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>A reusable automated acceptance testing architecture for microservices in behavior-driven development</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/document/7133548</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5683,12 +4461,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Commercial mobile devices vary in brand, size, and functionalities, but they all allow people to interact with educational applications. In software engineering, application development techniques, approaches, methodologies, and processes (e.g., BBD, FDD, RAD, DDD) are often time consuming, costly, or aim at expert developers – which implies that users outside the software development field (e.g., teachers) need great practice to become experienced application developers. This work proposes an artificial-intelligence-based process for generating educational mobile apps from freehand-generated images. The images’ design is based on User Interface Design Pattern (UIDP) representations. As a proof of concept, we introduce EduMatic, an application development tool. To test our process, we assessed Wiki-Comp, an application built with EduMatic, along with three other external educational applications: Khan Academy, Wiki encyclopedia, and Kiwix. According to the evaluation results, Wiki-Comp outstands in functionality, usability, and performance aspects. © 2019 Elsevier B.V.</t>
+          <t>Commercial mobile devices vary in brand, size, and functionalities, but they all allow people to interact with educational applications. In software engineering, application development techniques, approaches, methodologies, and processes (e.g., BBD, FDD, RAD, DDD) are often time consuming, costly, or aim at expert developers – which implies that users outside the software development field (e.g., teachers) need great practice to become experienced application developers. This work proposes an artificial-intelligence-based process for generating educational mobile apps from freehand-generated images. The images’ design is based on User Interface Design Pattern (UIDP) representations. As a proof of concept, we introduce EduMatic, an application development tool. To test our process, we assessed Wiki-Comp, an application built with EduMatic, along with three other external educational applications: Khan Academy, Wiki encyclopedia, and Kiwix. According to the evaluation results, Wiki-Comp outstands in functionality, usability, and performance aspects.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Application programs; Artificial intelligence; Automatic programming; Cost engineering; Image processing; Software design; Application developers; Application development; Application development tools; Artificial intelligence techniques; Automatic code generations; Educational Applications; Mobile development; User interface design patterns; User interfaces</t>
+          <t>Mobile development, Automatic code generation, Image processing, Educational apps, User interface design pattern</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5698,43 +4476,13 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Computer Standards and Interfaces</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.csi.2019.103407</t>
-        </is>
-      </c>
+          <t>Computer Standards &amp; Interfaces</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Sánchez-Morales2020,
-    author = "Sánchez-Morales, Laura Nely and Alor-Hernández, Giner and Rosales-Morales, Viviana Yarel and Cortes-Camarillo, Cesar Augusto and Sánchez-Cervantes, José Luis",
-    title = "Generating educational mobile applications using UIDPs identified by artificial intelligence techniques",
-    year = "2020",
-    journal = "Computer Standards and Interfaces",
-    volume = "70",
-    doi = "10.1016/j.csi.2019.103407",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85077512434\&amp;doi=10.1016\%2fj.csi.2019.103407\&amp;partnerID=40\&amp;md5=69ec97202b618a7b84c5ed09da7224ed",
-    affiliations = "Tecnológico Nacional de México/I.T. Orizaba, Oriente 9 \#852 Col. Emiliano Zapata, Orizaba, 94320, Veracruz, Mexico; Centro de Investigación en Inteligencia Artificial, Universidad Veracruzana, Xalapa, Veracruz, Mexico; CONACYT-Tecnológico Nacional de México/I.T. Orizaba, Mexico",
-    abstract = "Commercial mobile devices vary in brand, size, and functionalities, but they all allow people to interact with educational applications. In software engineering, application development techniques, approaches, methodologies, and processes (e.g., BBD, FDD, RAD, DDD) are often time consuming, costly, or aim at expert developers – which implies that users outside the software development field (e.g., teachers) need great practice to become experienced application developers. This work proposes an artificial-intelligence-based process for generating educational mobile apps from freehand-generated images. The images’ design is based on User Interface Design Pattern (UIDP) representations. As a proof of concept, we introduce EduMatic, an application development tool. To test our process, we assessed Wiki-Comp, an application built with EduMatic, along with three other external educational applications: Khan Academy, Wiki encyclopedia, and Kiwix. According to the evaluation results, Wiki-Comp outstands in functionality, usability, and performance aspects. © 2019 Elsevier B.V.",
-    author_keywords = "Automatic code generation; Educational apps; Image processing; Mobile development; User interface design pattern",
-    keywords = "Application programs; Artificial intelligence; Automatic programming; Cost engineering; Image processing; Software design; Application developers; Application development; Application development tools; Artificial intelligence techniques; Automatic code generations; Educational Applications; Mobile development; User interface design patterns; User interfaces",
-    correspondence_address = "G. Alor-Hernández; Tecnológico Nacional de México/I.T. Orizaba, Orizaba, Oriente 9 \#852 Col. Emiliano Zapata, 94320, Mexico; email: galor@ito-depi.edu.mx",
-    publisher = "Elsevier B.V.",
-    issn = "09205489",
-    coden = "CSTIE",
-    language = "English",
-    abbrev_source_title = "Comput Stand Interfaces",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 11"
-}</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -5755,32 +4503,12 @@
       <c r="R55" t="n">
         <v>2</v>
       </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>Generating educational mobile applications using UIDPs identified by artificial intelligence techniques</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85077512434&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=0f5a45986a501fd77d504c7f3a7b4f9c&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28generating+educational+mobile+applications+using+uidps+identified+by+artificial+intelligence+techniques%29&amp;sl=118&amp;sessionSearchId=0f5a45986a501fd77d504c7f3a7b4f9c&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5799,17 +4527,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Communication systems are adopting all-software architectures, because of their scalability, extensibility, flexibility, and cost-effectiveness. This paper introduces a concurrent approach to the development and verification of baseband systems for satellite ground operations based on the behaviour-driven development methodology. The open-source GNU Radio development kit is used for developing the software-defined radio baseband signal processing, as well as simulating the satellite and realistic channel impairments. The system performance at the end shows deviations of less than 1 dB with respect to the ideal performance and the Green Book standards specified by the Consultative Committee for Space Data Systems. © 2019 John Wiley &amp; Sons, Ltd.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Analog circuits; C (programming language); Cost effectiveness; Ground operations; Open systems; Radio; Radio receivers; Satellites; Signal processing; Software radio; Verification; Base bands; behaviour-driven development; CCSDS; GNU radio; Software-defined radios; Open source software</t>
-        </is>
-      </c>
+          <t>Communication systems are adopting all-software architectures, because of their scalability, extensibility, flexibility, and cost-effectiveness. This paper introduces a concurrent approach to the development and verification of baseband systems for satellite ground operations based on the behaviour-driven development methodology. The open-source GNU Radio development kit is used for developing the software-defined radio baseband signal processing, as well as simulating the satellite and realistic channel impairments. The system performance at the end shows deviations of less than 1 dB with respect to the ideal performance and the Green Book standards specified by the Consultative Committee for Space Data Systems. © 2019 John Wiley &amp; Sons, Ltd.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Mwakyanjala, Moses B.; Nieto-Peroy, Cristóbal; Emami, M. Reza; van de Beek, Jaap</t>
+          <t>Mwakyanjala M.B., Nieto-Peroy C., Emami M.R., van de Beek J.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5817,45 +4541,10 @@
           <t>International Journal of Satellite Communications and Networking</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/sat.1336</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>209 – 227</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Mwakyanjala2020209,
-    author = "Mwakyanjala, Moses B. and Nieto-Peroy, Cristóbal and Emami, M. Reza and van de Beek, Jaap",
-    title = "Concurrent development and verification of an all-software baseband for satellite ground operations",
-    year = "2020",
-    journal = "International Journal of Satellite Communications and Networking",
-    volume = "38",
-    number = "2",
-    pages = "209 – 227",
-    doi = "10.1002/sat.1336",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85077909388\&amp;doi=10.1002\%2fsat.1336\&amp;partnerID=40\&amp;md5=1bd6c26ba4ded16ceda75297f7ee2bdc",
-    affiliations = "Onboard Space Systems, Department of Computer Science, Electrical and Space Engineering, Luleå University of Technology, Norrbotten, Sweden; Institute for Aerospace Studies,University of Toronto, ON, Canada; Signals and Systems, Department of Computer Science, Electrical and Space Engineering, Luleå University of Technology, Norrbotten, Sweden",
-    abstract = "Communication systems are adopting all-software architectures, because of their scalability, extensibility, flexibility, and cost-effectiveness. This paper introduces a concurrent approach to the development and verification of baseband systems for satellite ground operations based on the behaviour-driven development methodology. The open-source GNU Radio development kit is used for developing the software-defined radio baseband signal processing, as well as simulating the satellite and realistic channel impairments. The system performance at the end shows deviations of less than 1 dB with respect to the ideal performance and the Green Book standards specified by the Consultative Committee for Space Data Systems. © 2019 John Wiley \&amp; Sons, Ltd.",
-    author_keywords = "baseband; behaviour-driven development; CCSDS; GNU radio; satellite TT\&amp;C; software-defined radio",
-    keywords = "Analog circuits; C (programming language); Cost effectiveness; Ground operations; Open systems; Radio; Radio receivers; Satellites; Signal processing; Software radio; Verification; Base bands; behaviour-driven development; CCSDS; GNU radio; Software-defined radios; Open source software",
-    correspondence_address = "M.R. Emami; Onboard Space Systems, Department of Computer Science, Electrical and Space Engineering, Luleå University of Technology, Sweden; email: emami@utias.utoronto.ca",
-    publisher = "John Wiley and Sons Ltd",
-    issn = "15420973",
-    language = "English",
-    abbrev_source_title = "Int. J. Satell. Commun. Networking",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 3"
-}</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>Included</t>
@@ -5876,32 +4565,12 @@
       <c r="R56" t="n">
         <v>2</v>
       </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>Concurrent development and verification of an all-software baseband for satellite ground operations</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85077909388&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=d8273dd7d69762fd4eb1b403c528d51b&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28concurrent+development+and+verification+of+an+all+software+baseband+for+satellite+ground+operations%29&amp;sl=114&amp;sessionSearchId=d8273dd7d69762fd4eb1b403c528d51b&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>John Wiley and Sons Ltd</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6052,7 +4721,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Considering that stock assessment requires iterative work including exploratory calculations and discussion, efficiency in completing projects is the key to a successful contribution to stock management. However, if the production speed of each process of the project is inconsistent, a faster process may be worse than a slower process because a large amount of information produced by a faster process induces human error. To coordinate the production speed of each process, we applied software development methodology to the whole assessment project, including small important tasks such as scenario selection, debugging, and yearly updates. First, we established a continuously integrated (CI) document system that monitors project files and triggers report generation when they are updated. The system is composed of four cloud services: a code hosting service, a cloud computing service, cloud storage, and a website hosting service. Because of the CI document system, all the following iterative work was reflected in the report without creating any unused output. The workflow benefited not only from the collaboration but also from the maintainability of the project because work progress and the discussion remained visible for all collaborators. We discuss the effectiveness of a workflow by Lean manufacturing that allows us to focus on the essential problem of the assessment project. © 2021 Elsevier B.V.</t>
+          <t>Considering that stock assessment requires iterative work including exploratory calculations and discussion, efficiency in completing projects is the key to a successful contribution to stock management. However, if the production speed of each process of the project is inconsistent, a faster process may be worse than a slower process because a large amount of information produced by a faster process induces human error. To coordinate the production speed of each process, we applied software development methodology to the whole assessment project, including small important tasks such as scenario selection, debugging, and yearly updates. First, we established a continuously integrated (CI) document system that monitors project files and triggers report generation when they are updated. The system is composed of four cloud services: a code hosting service, a cloud computing service, cloud storage, and a website hosting service. Because of the CI document system, all the following iterative work was reflected in the report without creating any unused output. The workflow benefited not only from the collaboration but also from the maintainability of the project because work progress and the discussion remained visible for all collaborators. We discuss the effectiveness of a workflow by Lean manufacturing that allows us to focus on the essential problem of the assessment project.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6070,39 +4739,10 @@
           <t>Fisheries Research</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.fishres.2021.106108</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Hayashi2021,
-    author = "Hayashi, Akira and Ichinokawa, Momoko and Kinoshita, Junji and Manabe, Akihiro",
-    title = "Optimizing stock assessment workflows by applying software development methodology",
-    year = "2021",
-    journal = "Fisheries Research",
-    volume = "244",
-    doi = "10.1016/j.fishres.2021.106108",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85118781565\&amp;doi=10.1016\%2fj.fishres.2021.106108\&amp;partnerID=40\&amp;md5=2036c71aae79d8808127392e46fcd711",
-    affiliations = "Fisheries Resources Institute, Japan Fisheries Research and Education Agency, 2-12-4 Fuku-ura, Kanazawa ward Yokohama, Kanagawa, Japan",
-    abstract = "Considering that stock assessment requires iterative work including exploratory calculations and discussion, efficiency in completing projects is the key to a successful contribution to stock management. However, if the production speed of each process of the project is inconsistent, a faster process may be worse than a slower process because a large amount of information produced by a faster process induces human error. To coordinate the production speed of each process, we applied software development methodology to the whole assessment project, including small important tasks such as scenario selection, debugging, and yearly updates. First, we established a continuously integrated (CI) document system that monitors project files and triggers report generation when they are updated. The system is composed of four cloud services: a code hosting service, a cloud computing service, cloud storage, and a website hosting service. Because of the CI document system, all the following iterative work was reflected in the report without creating any unused output. The workflow benefited not only from the collaboration but also from the maintainability of the project because work progress and the discussion remained visible for all collaborators. We discuss the effectiveness of a workflow by Lean manufacturing that allows us to focus on the essential problem of the assessment project. © 2021 Elsevier B.V.",
-    author_keywords = "Continuous integration; Lean manufacturing; Open science; Reproducible research",
-    correspondence_address = "A. Hayashi; Fisheries Resources Institute, Japan Fisheries Research and Education Agency, Kanazawa ward Yokohama, 2-12-4 Fuku-ura, Japan; email: hayashi@fixpoint.co.jp",
-    publisher = "Elsevier B.V.",
-    issn = "01657836",
-    coden = "FISRD",
-    language = "English",
-    abbrev_source_title = "Fish. Res.",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 2"
-}</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -6123,32 +4763,12 @@
       <c r="R59" t="n">
         <v>2</v>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>Optimizing stock assessment workflows by applying software development methodology</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85118781565&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=09de4a8d28b835e0cea1be205a31eaa7&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28optimizing+stock+assessment+workflows+by+applying+software+development+methodology%29&amp;sl=97&amp;sessionSearchId=09de4a8d28b835e0cea1be205a31eaa7&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>nan; Keywords; References; Pages</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6233,12 +4853,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Context Coderetreats are reflective communities of practice, where participants congregate informally to apply their coding abilities to a clearly defined problem setting with the aim of developing their software design skills. One of these events is the global day of coderetreat (GDCR) involving more than two thousand software developers worldwide. Objective The GDCR provided an opportunity to explore the ways that the coderetreat activity is perceived by its participants as a medium for reflective practice, and to suggest ways that we can enhance the design of coderetreats for improving both the experience and learning outcomes. Method We conducted both quantitative and qualitative surveys from a number of participants in the GDCR to understand how software developers hone their craft in the context of a coderetreat. Results Our study indicates that future coderetreats, particularly those that are likely to attract less experienced developers, should consider providing more structural scaffolding to the initial processes of test driven development. Conclusion We believe that all coderetreats should more explicitly encourage practice and reflection on the four elements of simple design. We suggest a more sustained approach throughout the coderetreat with provision of more structural scaffolding. Accordingly, we have derived a set of recommended practices to make the coderetreat more effective for less experienced developers. © 2016 Published by Elsevier B.V.</t>
+          <t>Context Coderetreats are reflective communities of practice, where participants congregate informally to apply their coding abilities to a clearly defined problem setting with the aim of developing their software design skills. One of these events is the global day of coderetreat (GDCR) involving more than two thousand software developers worldwide. Objective The GDCR provided an opportunity to explore the ways that the coderetreat activity is perceived by its participants as a medium for reflective practice, and to suggest ways that we can enhance the design of coderetreats for improving both the experience and learning outcomes. Method We conducted both quantitative and qualitative surveys from a number of participants in the GDCR to understand how software developers hone their craft in the context of a coderetreat. Results Our study indicates that future coderetreats, particularly those that are likely to attract less experienced developers, should consider providing more structural scaffolding to the initial processes of test driven development. Conclusion We believe that all coderetreats should more explicitly encourage practice and reflection on the four elements of simple design. We suggest a more sustained approach throughout the coderetreat with provision of more structural scaffolding. Accordingly, we have derived a set of recommended practices to make the coderetreat more effective for less experienced developers.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Scaffolds; Surveying; Surveys; Communities of Practice; Global day of coderetreat; Legacy coderetreat; Qualitative surveys; Recommended practice; Reflective practices; Software developer; Test driven development; Software design</t>
+          <t>Global day of coderetreat, Survey, Simple design, Test driven development, Legacy coderetreat</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -6251,45 +4871,10 @@
           <t>Information and Software Technology</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.infsof.2016.03.005</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>39 – 55</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Parsons201639,
-    author = "Parsons, David and Susnjak, Teo and Mathrani, Anuradha",
-    title = "Design from detail: Analyzing data from a global day of coderetreat",
-    year = "2016",
-    journal = "Information and Software Technology",
-    volume = "75",
-    pages = "39 – 55",
-    doi = "10.1016/j.infsof.2016.03.005",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84963972098\&amp;doi=10.1016\%2fj.infsof.2016.03.005\&amp;partnerID=40\&amp;md5=e7999355a83fff09750d1b76bd06ffe0",
-    affiliations = "Mind Lab by Unitec, 69 Carlton Gore Road, Auckland, 1023, New Zealand; School of Engineering and Advanced Technology, Massey University, Auckland, 102904, New Zealand",
-    abstract = "Context Coderetreats are reflective communities of practice, where participants congregate informally to apply their coding abilities to a clearly defined problem setting with the aim of developing their software design skills. One of these events is the global day of coderetreat (GDCR) involving more than two thousand software developers worldwide. Objective The GDCR provided an opportunity to explore the ways that the coderetreat activity is perceived by its participants as a medium for reflective practice, and to suggest ways that we can enhance the design of coderetreats for improving both the experience and learning outcomes. Method We conducted both quantitative and qualitative surveys from a number of participants in the GDCR to understand how software developers hone their craft in the context of a coderetreat. Results Our study indicates that future coderetreats, particularly those that are likely to attract less experienced developers, should consider providing more structural scaffolding to the initial processes of test driven development. Conclusion We believe that all coderetreats should more explicitly encourage practice and reflection on the four elements of simple design. We suggest a more sustained approach throughout the coderetreat with provision of more structural scaffolding. Accordingly, we have derived a set of recommended practices to make the coderetreat more effective for less experienced developers. © 2016 Published by Elsevier B.V.",
-    author_keywords = "Global day of coderetreat; Legacy coderetreat; Simple design; Survey; Test driven development",
-    keywords = "Scaffolds; Surveying; Surveys; Communities of Practice; Global day of coderetreat; Legacy coderetreat; Qualitative surveys; Recommended practice; Reflective practices; Software developer; Test driven development; Software design",
-    correspondence_address = "A. Mathrani; School of Engineering and Advanced Technology, Massey University, Auckland, 102904, New Zealand; email: A.S.Mathrani@massey.ac.nz",
-    publisher = "Elsevier B.V.",
-    issn = "09505849",
-    coden = "ISOTE",
-    language = "English",
-    abbrev_source_title = "Inf Software Technol",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 3"
-}</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -6310,32 +4895,12 @@
       <c r="R61" t="n">
         <v>2</v>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>Design from detail: Analyzing data from a global day of coderetreat</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84963972098&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=dd4306a4b0a56472e548146a01d3ed52&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28design+from+detail+analyzing+data+from+a+global+day+of+coderetreat%29&amp;sl=81&amp;sessionSearchId=dd4306a4b0a56472e548146a01d3ed52&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6416,12 +4981,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Context: To reduce manual effort of extracting test cases from natural-language requirements, many approaches based on Natural Language Processing (NLP) have been proposed in the literature. Given the large amount of approaches in this area, and since many practitioners are eager to utilize such techniques, it is important to synthesize and provide an overview of the state-of-the-art in this area. Objective: Our objective is to summarize the state-of-the-art in NLP-assisted software testing which could benefit practitioners to potentially utilize those NLP-based techniques. Moreover, this can benefit researchers in providing an overview of the research landscape. Method: To address the above need, we conducted a survey in the form of a systematic literature mapping (classification). After compiling an initial pool of 95 papers, we conducted a systematic voting, and our final pool included 67 technical papers. Results: This review paper provides an overview of the contribution types presented in the papers, types of NLP approaches used to assist software testing, types of required input requirements, and a review of tool support in this area. Some key results we have detected are: (1) only four of the 38 tools (11%) presented in the papers are available for download; (2) a larger ratio of the papers (30 of 67) provided a shallow exposure to the NLP aspects (almost no details). Conclusion: This paper would benefit both practitioners and researchers by serving as an “index” to the body of knowledge in this area. The results could help practitioners utilizing the existing NLP-based techniques; this in turn reduces the cost of test-case design and decreases the amount of human resources spent on test activities. After sharing this review with some of our industrial collaborators, initial insights show that this review can indeed be useful and beneficial to practitioners. © 2020 Elsevier B.V.</t>
+          <t>Context To reduce manual effort of extracting test cases from natural-language requirements, many approaches based on Natural Language Processing (NLP) have been proposed in the literature. Given the large amount of approaches in this area, and since many practitioners are eager to utilize such techniques, it is important to synthesize and provide an overview of the state-of-the-art in this area. Objective Our objective is to summarize the state-of-the-art in NLP-assisted software testing which could benefit practitioners to potentially utilize those NLP-based techniques. Moreover, this can benefit researchers in providing an overview of the research landscape. Method To address the above need, we conducted a survey in the form of a systematic literature mapping (classification). After compiling an initial pool of 95 papers, we conducted a systematic voting, and our final pool included 67 technical papers. Results This review paper provides an overview of the contribution types presented in the papers, types of NLP approaches used to assist software testing, types of required input requirements, and a review of tool support in this area. Some key results we have detected are: (1) only four of the 38 tools (11%) presented in the papers are available for download; (2) a larger ratio of the papers (30 of 67) provided a shallow exposure to the NLP aspects (almost no details). Conclusion This paper would benefit both practitioners and researchers by serving as an “index” to the body of knowledge in this area. The results could help practitioners utilizing the existing NLP-based techniques; this in turn reduces the cost of test-case design and decreases the amount of human resources spent on test activities. After sharing this review with some of our industrial collaborators, initial insights show that this review can indeed be useful and beneficial to practitioners.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mapping; Natural language processing systems; Body of knowledge; Industrial collaborators; Large amounts; NAtural language processing; Natural language requirements; Review papers; State of the art; Systematic mapping; Software testing</t>
+          <t>Software testing, Natural Language Processing (NLP), Systematic literature mapping, Systematic literature review</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -6434,40 +4999,10 @@
           <t>Information and Software Technology</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.infsof.2020.106321</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Garousi2020,
-    author = "Garousi, Vahid and Bauer, Sara and Felderer, Michael",
-    title = "NLP-assisted software testing: A systematic mapping of the literature",
-    year = "2020",
-    journal = "Information and Software Technology",
-    volume = "126",
-    doi = "10.1016/j.infsof.2020.106321",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85084949953\&amp;doi=10.1016\%2fj.infsof.2020.106321\&amp;partnerID=40\&amp;md5=0ff581bcf04c671a8156eb239a1d8a58",
-    affiliations = "Queen's University Belfast, Northern Ireland, United Kingdom; University of Innsbruck, Austria; Blekinge Institute of Technology, Sweden",
-    abstract = "Context: To reduce manual effort of extracting test cases from natural-language requirements, many approaches based on Natural Language Processing (NLP) have been proposed in the literature. Given the large amount of approaches in this area, and since many practitioners are eager to utilize such techniques, it is important to synthesize and provide an overview of the state-of-the-art in this area. Objective: Our objective is to summarize the state-of-the-art in NLP-assisted software testing which could benefit practitioners to potentially utilize those NLP-based techniques. Moreover, this can benefit researchers in providing an overview of the research landscape. Method: To address the above need, we conducted a survey in the form of a systematic literature mapping (classification). After compiling an initial pool of 95 papers, we conducted a systematic voting, and our final pool included 67 technical papers. Results: This review paper provides an overview of the contribution types presented in the papers, types of NLP approaches used to assist software testing, types of required input requirements, and a review of tool support in this area. Some key results we have detected are: (1) only four of the 38 tools (11\%) presented in the papers are available for download; (2) a larger ratio of the papers (30 of 67) provided a shallow exposure to the NLP aspects (almost no details). Conclusion: This paper would benefit both practitioners and researchers by serving as an “index” to the body of knowledge in this area. The results could help practitioners utilizing the existing NLP-based techniques; this in turn reduces the cost of test-case design and decreases the amount of human resources spent on test activities. After sharing this review with some of our industrial collaborators, initial insights show that this review can indeed be useful and beneficial to practitioners. © 2020 Elsevier B.V.",
-    author_keywords = "Natural Language Processing (NLP); Software testing; Systematic literature mapping; Systematic literature review",
-    keywords = "Mapping; Natural language processing systems; Body of knowledge; Industrial collaborators; Large amounts; NAtural language processing; Natural language requirements; Review papers; State of the art; Systematic mapping; Software testing",
-    correspondence_address = "V. Garousi; Queen's University Belfast, Northern Ireland, United Kingdom; email: v.garousi@qub.ac.uk",
-    publisher = "Elsevier B.V.",
-    issn = "09505849",
-    coden = "ISOTE",
-    language = "English",
-    abbrev_source_title = "Inf Software Technol",
-    type = "Review",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 48; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -6488,32 +5023,12 @@
       <c r="R63" t="n">
         <v>2</v>
       </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>NLP-assisted software testing: A systematic mapping of the literature</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/action/doSearch?AllField=nlp+assisted+software+testing+a+systematic+mapping+of+the+literature</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6527,27 +5042,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Speed up BDD for safety verification in agile development: a partially replicated controlled experiment</t>
+          <t>Speed up BDD for safety verification in agile development:a partially replicated controlled experiment</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Context: Agile development has aroused interest in developing safety-critical systems. Problem statement: However, an increasingly changing architecture makes traditional safety assurance, especially safety analysis and verification, difficult to work. Recently, we proposed STPA-BDD (System-Theoretic Process Analysis-Behaviour Driven Development) for safety analysis and verification in agile development. It showed a good communication effectiveness in a controlled experiment with 44 undergraduate students. However, productivity, test thoroughness and fault detection effectiveness show no statistically significant difference in comparison with UAT (User Acceptance Testing). Objective: In this article, we aim to speed up STPA-BDD through improving productivity, test thoroughness and fault detection effectiveness of STPA-BDD. We develop a semi-automated tool to speed up BDD for safety verification. Method: We evaluate the semi-automated tool concerning productivity, test thoroughness and fault detection effectiveness in a replicated experiment with 11 additional undergraduate students by comparing them with the results from 22 students in the original experiment. Results: The results turn out that productivity is more than 7 times greater, while test thoroughness is more than 1.5 times greater and fault detection effectiveness is more than 2 times greater by using this semi-automated tool than without using it. Conclusion: BDD for safety verification has beed sped up by using this semi-automated tool. Using professionals instead of students as subjects might provide a clearer impact.</t>
+          <t>Context: Agile development has aroused interest in developing safety-critical systems.Problem statement:However, an increasingly changing architecture makes traditional safety assurance, especially safety analysis and verification, difficult to work. Recently, we proposed STPA-BDD (System-Theoretic Process Analysis-Behaviour Driven Development) for safety analysis and verification in agile development. It showed a good communication effectiveness in a controlled experiment with 44 undergraduate students. However, productivity, test thoroughness and fault detection effectiveness show no statistically significant difference in comparison with UAT (User Acceptance Testing).Objective: In this article, we aim to speed up STPA-BDD through improving productivity, test thoroughness and fault detection effectiveness of STPA-BDD. We develop a semi-automated tool to speed up BDD for safety verification.Method: We evaluate the semi-automated tool concerning productivity, test thoroughness and fault detection effectiveness in a replicated experiment with 11 additional undergraduate students by comparing them with the results from 22 students in the original experiment.Results: The results turn out that productivity is more than 7 times greater, while test thoroughness is more than 1.5 times greater and fault detection effectiveness is more than 2 times greater by using this semi-automated tool than without using it.Conclusion:BDD for safety verification has beed sped up by using this semi-automated tool. Using professionals instead of students as subjects might provide a clearer impact.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>agile development;  controlled experiment;  safety verification</t>
+          <t>agile development; controlled experiment; safety verification</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Wang, Yang; Degutis, Daniel Ryan; Wagner, Stefan</t>
+          <t>Yang Wang; Daniel Ryan Degutis; Stefan Wagner</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Proceedings of the 19th International Conference on Agile Software Development: Companion</t>
+          <t>XP '18: Proceedings of the 19th International Conference on Agile Software Development: Companion</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6556,28 +5071,12 @@
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3234152.3234181,
-    author = "Wang, Yang and Degutis, Daniel Ryan and Wagner, Stefan",
-    title = "Speed up BDD for safety verification in agile development: a partially replicated controlled experiment",
-    year = "2018",
-    isbn = "9781450364225",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3234152.3234181",
-    doi = "10.1145/3234152.3234181",
-    abstract = "Context: Agile development has aroused interest in developing safety-critical systems. Problem statement: However, an increasingly changing architecture makes traditional safety assurance, especially safety analysis and verification, difficult to work. Recently, we proposed STPA-BDD (System-Theoretic Process Analysis-Behaviour Driven Development) for safety analysis and verification in agile development. It showed a good communication effectiveness in a controlled experiment with 44 undergraduate students. However, productivity, test thoroughness and fault detection effectiveness show no statistically significant difference in comparison with UAT (User Acceptance Testing). Objective: In this article, we aim to speed up STPA-BDD through improving productivity, test thoroughness and fault detection effectiveness of STPA-BDD. We develop a semi-automated tool to speed up BDD for safety verification. Method: We evaluate the semi-automated tool concerning productivity, test thoroughness and fault detection effectiveness in a replicated experiment with 11 additional undergraduate students by comparing them with the results from 22 students in the original experiment. Results: The results turn out that productivity is more than 7 times greater, while test thoroughness is more than 1.5 times greater and fault detection effectiveness is more than 2 times greater by using this semi-automated tool than without using it. Conclusion: BDD for safety verification has beed sped up by using this semi-automated tool. Using professionals instead of students as subjects might provide a clearer impact.",
-    booktitle = "Proceedings of the 19th International Conference on Agile Software Development: Companion",
-    articleno = "12",
-    numpages = "8",
-    keywords = "agile development, controlled experiment, safety verification",
-    location = "Porto, Portugal",
-    series = "XP '18"
-}</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>Included</t>
@@ -6598,18 +5097,18 @@
       <c r="R64" t="n">
         <v>2</v>
       </c>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
           <t>Speed up BDD for Safety Verification in Agile Development: A Partially Replicated Controlled Experiment</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3234152.3234181</t>
-        </is>
-      </c>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -6617,7 +5116,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Pages; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -6643,17 +5142,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>agile development;  safety verification;  safety-critical systems</t>
+          <t>agile development; safety verification; safety-critical systems</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Wang, Yang; Wagner, Stefan</t>
+          <t>Yang Wang; Stefan Wagner</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Lecture Notes in Business Information Processing</t>
+          <t>ICSE '18: Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6664,30 +5163,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>286–287</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3183440.3194973,
-    author = "Wang, Yang and Wagner, Stefan",
-    title = "Combining STPA and BDD for safety analysis and verification in agile development",
-    year = "2018",
-    isbn = "9781450356633",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3183440.3194973",
-    doi = "10.1145/3183440.3194973",
-    abstract = "Agile development is in widespread use, even in safety-critical domains. However, there is a lack of an appropriate safety analysis and verification method in agile development. In this poster, we propose the use of Behavior Driven Development for safety verification with System-Theoretic Process Analysis for safety analysis in agile development. It shows a good capability on communication effectiveness through a preliminary controlled experiment.",
-    booktitle = "Proceedings of the 40th International Conference on Software Engineering: Companion Proceeedings",
-    pages = "286–287",
-    numpages = "2",
-    keywords = "agile development, safety verification, safety-critical systems",
-    location = "Gothenburg, Sweden",
-    series = "ICSE '18"
-}</t>
-        </is>
-      </c>
+          <t>286-287</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>Included</t>
@@ -6708,18 +5187,18 @@
       <c r="R65" t="n">
         <v>2</v>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
           <t>Combining STPA and BDD for safety analysis and verification in agile development: A controlled experiment</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3183440.3194973</t>
-        </is>
-      </c>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -6727,7 +5206,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>nan; Venue; References; Source</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -6748,12 +5227,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Context: Behavior Driven Development (BDD), widely used in modern software development, enables easy creation of acceptance test case specifications and serves as a communication basis between business- and technical-oriented stakeholders. BDD is largely facilitated through simple domain specific languages (DSL) and usually restricted to technical test domain concepts. Integrating business domain concepts to implement a ubiquitous language for all members of the development team is an appealing test language improvement issue. But the integration of business domain concepts into BDD toolkits has so far not been investigated. Objective: The objective of the study presented in this paper is to examine whether supporting the ubiquitous language features inside a DSL, by extending a DSL with business domain concepts, is beneficial over using a DSL without those concepts. In the context of the study, benefit is measured in terms of perceived quality, creation time and length of the created test case specifications. In addition, we analyze if participants feel supported when using predefined business domain concepts. Method: We investigate the creation of test case specifications, similar to BDD, in a controlled student experiment performed with graduate students based on a novel platform for DSL experimentation. The experiment was carried out by two groups, each solving a similar comparable test case, one with the simple DSL, the other one with the DSL that includes business domain concepts. A crossover design was chosen for evaluating the perceived quality of the resulting specifications. Results: Our experiment indicates that a business domain aware language allows significant faster creation of documents without lowering the perceived quality. Subjects felt better supported by the DSL with business concepts. Conclusion: Based on our findings we propose that existing BDD toolkits could be further improved by integrating business domain concepts. © 2016 Elsevier B.V.</t>
+          <t>Context: Behavior Driven Development (BDD), widely used in modern software development, enables easy creation of acceptance test case specifications and serves as a communication basis between business- and technical-oriented stakeholders. BDD is largely facilitated through simple domain specific languages (DSL) and usually restricted to technical test domain concepts. Integrating business domain concepts to implement a ubiquitous language for all members of the development team is an appealing test language improvement issue. But the integration of business domain concepts into BDD toolkits has so far not been investigated. Objective: The objective of the study presented in this paper is to examine whether supporting the ubiquitous language features inside a DSL, by extending a DSL with business domain concepts, is beneficial over using a DSL without those concepts. In the context of the study, benefit is measured in terms of perceived quality, creation time and length of the created test case specifications. In addition, we analyze if participants feel supported when using predefined business domain concepts. Method: We investigate the creation of test case specifications, similar to BDD, in a controlled student experiment performed with graduate students based on a novel platform for DSL experimentation. The experiment was carried out by two groups, each solving a similar comparable test case, one with the simple DSL, the other one with the DSL that includes business domain concepts. A crossover design was chosen for evaluating the perceived quality of the resulting specifications. Results: Our experiment indicates that a business domain aware language allows significant faster creation of documents without lowering the perceived quality. Subjects felt better supported by the DSL with business concepts. Conclusion: Based on our findings we propose that existing BDD toolkits could be further improved by integrating business domain concepts.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Boolean functions; Computer programming languages; Problem oriented languages; Software design; Software testing; Specifications; Students; Testing; Behavior driven development; Controlled experiment; Development teams; Domain specific languages; Language features; Perceived quality; Student experiments; Test case specifications; Acceptance tests</t>
+          <t>Domain Specific Languages (DSL), Behavior driven development, Controlled experiment, Software testing, Student experiment</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6766,45 +5245,10 @@
           <t>Information and Software Technology</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.infsof.2016.07.001</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>52 – 62</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Häser201652,
-    author = "Häser, Florian and Felderer, Michael and Breu, Ruth",
-    title = "Is business domain language support beneficial for creating test case specifications: A controlled experiment",
-    year = "2016",
-    journal = "Information and Software Technology",
-    volume = "79",
-    pages = "52 – 62",
-    doi = "10.1016/j.infsof.2016.07.001",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84990036753\&amp;doi=10.1016\%2fj.infsof.2016.07.001\&amp;partnerID=40\&amp;md5=23042425f7a84d0ada295d7b9e0547d3",
-    affiliations = "University of Innsbruck, Technikerstr. 21a, A-6020 Innsbruck, Austria",
-    abstract = "Context: Behavior Driven Development (BDD), widely used in modern software development, enables easy creation of acceptance test case specifications and serves as a communication basis between business- and technical-oriented stakeholders. BDD is largely facilitated through simple domain specific languages (DSL) and usually restricted to technical test domain concepts. Integrating business domain concepts to implement a ubiquitous language for all members of the development team is an appealing test language improvement issue. But the integration of business domain concepts into BDD toolkits has so far not been investigated. Objective: The objective of the study presented in this paper is to examine whether supporting the ubiquitous language features inside a DSL, by extending a DSL with business domain concepts, is beneficial over using a DSL without those concepts. In the context of the study, benefit is measured in terms of perceived quality, creation time and length of the created test case specifications. In addition, we analyze if participants feel supported when using predefined business domain concepts. Method: We investigate the creation of test case specifications, similar to BDD, in a controlled student experiment performed with graduate students based on a novel platform for DSL experimentation. The experiment was carried out by two groups, each solving a similar comparable test case, one with the simple DSL, the other one with the DSL that includes business domain concepts. A crossover design was chosen for evaluating the perceived quality of the resulting specifications. Results: Our experiment indicates that a business domain aware language allows significant faster creation of documents without lowering the perceived quality. Subjects felt better supported by the DSL with business concepts. Conclusion: Based on our findings we propose that existing BDD toolkits could be further improved by integrating business domain concepts. © 2016 Elsevier B.V.",
-    author_keywords = "Behavior driven development; Controlled experiment; Domain Specific Languages (DSL); Software testing; Student experiment",
-    keywords = "Boolean functions; Computer programming languages; Problem oriented languages; Software design; Software testing; Specifications; Students; Testing; Behavior driven development; Controlled experiment; Development teams; Domain specific languages; Language features; Perceived quality; Student experiments; Test case specifications; Acceptance tests",
-    correspondence_address = "F. Häser; University of Innsbruck, Technikerstr. 21a, A-6020 Innsbruck, Austria; email: florian.haeser@uibk.ac.at",
-    publisher = "Elsevier B.V.",
-    issn = "09505849",
-    coden = "ISOTE",
-    language = "English",
-    abbrev_source_title = "Inf Software Technol",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 20"
-}</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>Included</t>
@@ -6825,32 +5269,12 @@
       <c r="R66" t="n">
         <v>2</v>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>Is business domain language support beneficial for creating test case specifications: A controlled experiment</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84990036753&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=37678de4fe1a574ec5170c2037ac93b1&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28is+business+domain+language+support+beneficial+for+creating+test+case+specifications+a+controlled+experiment%29&amp;sl=123&amp;sessionSearchId=37678de4fe1a574ec5170c2037ac93b1&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6869,12 +5293,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Context: Behavior-driven development (BDD) is a variant of test-driven development where specifications are described in a structured domain-specific natural language. Although refactoring is a crucial activity of BDD, little research is available on the topic. Objective: To support practitioners in refactoring BDD specifications by (1) proposing semi-automated approaches to identify refactoring candidates; (2) defining refactoring techniques for BDD specifications; and (3) evaluating the proposed identification approaches in an industry context. Method: Using Action Research, we have developed an approach for identifying refactoring candidates in BDD specifications based on two measures of similarity and applied the approach in two projects of a large software organization. The accuracy of the measures for identifying refactoring candidates was then evaluated against an approach based on machine learning and a manual approach based on practitioner perception. Results: We proposed two measures of similarity to support the identification of refactoring candidates in a BDD specification base; (1) normalized compression similarity (NCS) and (2) similarity ratio (SR). A semi-automated approach based on NCS and SR was developed and applied to two industrial cases to identify refactoring candidates. Our results show that our approach can identify candidates for refactoring 6o times faster than a manual approach. Our results furthermore showed that our measures accurately identified refactoring candidates compared with a manual identification by software practitioners and outperformed an ML-based text classification approach. We also described four types of refactoring techniques applicable to BDD specifications; merging candidates, restructuring candidates, deleting duplicates, and renaming specification titles. Conclusion: Our results show that NCS and SR can help practitioners in accurately identifying BDD specifications that are suitable candidates for refactoring, which also decreases the time for identifying refactoring candidates. © 2021 The Authors</t>
+          <t>Context: Behavior-driven development (BDD) is a variant of test-driven development where specifications are described in a structured domain-specific natural language. Although refactoring is a crucial activity of BDD, little research is available on the topic. Objective: To support practitioners in refactoring BDD specifications by (1) proposing semi-automated approaches to identify refactoring candidates; (2) defining refactoring techniques for BDD specifications; and (3) evaluating the proposed identification approaches in an industry context. Method: Using Action Research, we have developed an approach for identifying refactoring candidates in BDD specifications based on two measures of similarity and applied the approach in two projects of a large software organization. The accuracy of the measures for identifying refactoring candidates was then evaluated against an approach based on machine learning and a manual approach based on practitioner perception. Results: We proposed two measures of similarity to support the identification of refactoring candidates in a BDD specification base; (1) normalized compression similarity (NCS) and (2) similarity ratio (SR). A semi-automated approach based on NCS and SR was developed and applied to two industrial cases to identify refactoring candidates. Our results show that our approach can identify candidates for refactoring 6o times faster than a manual approach. Our results furthermore showed that our measures accurately identified refactoring candidates compared with a manual identification by software practitioners and outperformed an ML-based text classification approach. We also described four types of refactoring techniques applicable to BDD specifications; merging candidates, restructuring candidates, deleting duplicates, and renaming specification titles. Conclusion: Our results show that NCS and SR can help practitioners in accurately identifying BDD specifications that are suitable candidates for refactoring, which also decreases the time for identifying refactoring candidates.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Automation; Boolean functions; Classification (of information); Natural language processing systems; Text processing; Automated approach; Empirical studies; Identification approach; Manual identification; Software organization; Software practitioners; Test driven development; Text classification; Specifications</t>
+          <t>Refactoring, Normalized Compression Distance (NCD), Normalized Compression Similarity (NCS), Reuse, Similarity ratio (SR), BDD, Behavior-driven development, Specifications, Testing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6887,40 +5311,10 @@
           <t>Information and Software Technology</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.infsof.2021.106717</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Irshad2022,
-    author = "Irshad, Mohsin and Börstler, Jürgen and Petersen, Kai",
-    title = "Supporting refactoring of BDD specifications—An empirical study",
-    year = "2022",
-    journal = "Information and Software Technology",
-    volume = "141",
-    doi = "10.1016/j.infsof.2021.106717",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85113689195\&amp;doi=10.1016\%2fj.infsof.2021.106717\&amp;partnerID=40\&amp;md5=239cf67a7d78813f33693a1702143169",
-    affiliations = "Blekinge Institute of Technology, Karlskrona, Sweden; Ericsson AB, Karlskrona, Sweden",
-    abstract = "Context: Behavior-driven development (BDD) is a variant of test-driven development where specifications are described in a structured domain-specific natural language. Although refactoring is a crucial activity of BDD, little research is available on the topic. Objective: To support practitioners in refactoring BDD specifications by (1) proposing semi-automated approaches to identify refactoring candidates; (2) defining refactoring techniques for BDD specifications; and (3) evaluating the proposed identification approaches in an industry context. Method: Using Action Research, we have developed an approach for identifying refactoring candidates in BDD specifications based on two measures of similarity and applied the approach in two projects of a large software organization. The accuracy of the measures for identifying refactoring candidates was then evaluated against an approach based on machine learning and a manual approach based on practitioner perception. Results: We proposed two measures of similarity to support the identification of refactoring candidates in a BDD specification base; (1) normalized compression similarity (NCS) and (2) similarity ratio (SR). A semi-automated approach based on NCS and SR was developed and applied to two industrial cases to identify refactoring candidates. Our results show that our approach can identify candidates for refactoring 6o times faster than a manual approach. Our results furthermore showed that our measures accurately identified refactoring candidates compared with a manual identification by software practitioners and outperformed an ML-based text classification approach. We also described four types of refactoring techniques applicable to BDD specifications; merging candidates, restructuring candidates, deleting duplicates, and renaming specification titles. Conclusion: Our results show that NCS and SR can help practitioners in accurately identifying BDD specifications that are suitable candidates for refactoring, which also decreases the time for identifying refactoring candidates. © 2021 The Authors",
-    author_keywords = "BDD; Behavior-driven development; Normalized Compression Distance (NCD); Normalized Compression Similarity (NCS); Refactoring; Reuse; Similarity ratio (SR); Specifications; Testing",
-    keywords = "Automation; Boolean functions; Classification (of information); Natural language processing systems; Text processing; Automated approach; Empirical studies; Identification approach; Manual identification; Software organization; Software practitioners; Test driven development; Text classification; Specifications",
-    correspondence_address = "M. Irshad; Blekinge Institute of Technology, Karlskrona, Sweden; email: mohsin.irshad@bth.se",
-    publisher = "Elsevier B.V.",
-    issn = "09505849",
-    coden = "ISOTE",
-    language = "English",
-    abbrev_source_title = "Inf Software Technol",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 4; All Open Access, Green Open Access, Hybrid Gold Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -6941,32 +5335,12 @@
       <c r="R67" t="n">
         <v>2</v>
       </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>Supporting refactoring of BDD specifications—An empirical study</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85113689195&amp;doi=10.1016%2fj.infsof.2021.106717&amp;partnerID=40&amp;md5=239cf67a7d78813f33693a1702143169</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6985,14 +5359,10 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Context: Developers design test suites to verify that software meets its expected behaviors. Many dynamic analysis techniques are performed on the exploitation of execution traces from test cases. In practice, one test case may imply various behaviors. However, the execution of a test case only yields one trace, which can hide the others. Objective: In this article, we propose a new technique of test code refactoring, called B-Refactoring. The idea behind B-Refactoring is to split a test case into small test fragments, which cover a simpler part of the control flow to provide better support for dynamic analysis. Method: For a given dynamic analysis technique, B-Refactoring monitors the execution of test cases and constructs small test cases without loss of the testability. We apply B-Refactoring to assist two existing analysis tasks: automatic repair of if-condition bugs and automatic analysis of exception contracts. Results: Experimental results show that B-Refactoring can effectively improve the execution traces of the test suite. Real-world bugs that could not be previously fixed with the original test suites are fixed after applying B-Refactoring; meanwhile, exception contracts are better verified via applying B-Refactoring to original test suites. Conclusions: We conclude that applying B-Refactoring improves the execution traces of test cases for dynamic analysis. This improvement can enhance existing dynamic analysis tasks. © 2016 Elsevier B.V. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Information systems; Software engineering; Automatic analysis; Control flows; Design tests; Dynamic analysis techniques; Execution trace; Real-world; Refactorings; Testability; Software testing</t>
-        </is>
-      </c>
+          <t>Context: Developers design test suites to verify that software meets its expected behaviors. Many dynamic analysis techniques are performed on the exploitation of execution traces from test cases. In practice, one test case may imply various behaviors. However, the execution of a test case only yields one trace, which can hide the others. Objective: In this article, we propose a new technique of test code refactoring, called B-Refactoring. The idea behind B-Refactoring is to split a test case into small test fragments, which cover a simpler part of the control flow to provide better support for dynamic analysis. Method: For a given dynamic analysis technique, B-Refactoring monitors the execution of test cases and constructs small test cases without loss of the testability. We apply B-Refactoring to assist two existing analysis tasks: automatic repair of if-condition bugs and automatic analysis of exception contracts. Results: Experimental results show that B-Refactoring can effectively improve the execution traces of the test suite. Real-world bugs that could not be previously fixed with the original test suites are fixed after applying B-Refactoring; meanwhile, exception contracts are better verified via applying B-Refactoring to original test suites. Conclusions: We conclude that applying B-Refactoring improves the execution traces of test cases for dynamic analysis. This improvement can enhance existing dynamic analysis tasks.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>Xuan, Jifeng; Cornu, Benoit; Martinez, Matias; Baudry, Benoit; Seinturier, Lionel; Monperrus, Martin</t>
@@ -7003,44 +5373,10 @@
           <t>Information and Software Technology</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.infsof.2016.04.016</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>65 – 80</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Xuan201665,
-    author = "Xuan, Jifeng and Cornu, Benoit and Martinez, Matias and Baudry, Benoit and Seinturier, Lionel and Monperrus, Martin",
-    title = "B-Refactoring: Automatic test code refactoring to improve dynamic analysis",
-    year = "2016",
-    journal = "Information and Software Technology",
-    volume = "76",
-    pages = "65 – 80",
-    doi = "10.1016/j.infsof.2016.04.016",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84965136564\&amp;doi=10.1016\%2fj.infsof.2016.04.016\&amp;partnerID=40\&amp;md5=7f80f2bb795e4b7ba2c1f6d6e0978c89",
-    affiliations = "State Key Lab. of Software Engineering, Wuhan University, China; University of Lille, France; INRIA, France",
-    abstract = "Context: Developers design test suites to verify that software meets its expected behaviors. Many dynamic analysis techniques are performed on the exploitation of execution traces from test cases. In practice, one test case may imply various behaviors. However, the execution of a test case only yields one trace, which can hide the others. Objective: In this article, we propose a new technique of test code refactoring, called B-Refactoring. The idea behind B-Refactoring is to split a test case into small test fragments, which cover a simpler part of the control flow to provide better support for dynamic analysis. Method: For a given dynamic analysis technique, B-Refactoring monitors the execution of test cases and constructs small test cases without loss of the testability. We apply B-Refactoring to assist two existing analysis tasks: automatic repair of if-condition bugs and automatic analysis of exception contracts. Results: Experimental results show that B-Refactoring can effectively improve the execution traces of the test suite. Real-world bugs that could not be previously fixed with the original test suites are fixed after applying B-Refactoring; meanwhile, exception contracts are better verified via applying B-Refactoring to original test suites. Conclusions: We conclude that applying B-Refactoring improves the execution traces of test cases for dynamic analysis. This improvement can enhance existing dynamic analysis tasks. © 2016 Elsevier B.V. All rights reserved.",
-    keywords = "Information systems; Software engineering; Automatic analysis; Control flows; Design tests; Dynamic analysis techniques; Execution trace; Real-world; Refactorings; Testability; Software testing",
-    correspondence_address = "J. Xuan; State Key Lab. of Software Engineering, Wuhan University, China; email: jxuan@whu.edu.cn",
-    publisher = "Elsevier B.V.",
-    issn = "09505849",
-    coden = "ISOTE",
-    language = "English",
-    abbrev_source_title = "Inf Software Technol",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 25; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -7061,32 +5397,12 @@
       <c r="R68" t="n">
         <v>2</v>
       </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>B-Refactoring: Automatic test code refactoring to improve dynamic analysis</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/action/doSearch?AllField=b+refactoring+automatic+test+code+refactoring+to+improve+dynamic+analysis</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7171,12 +5487,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Context: Microservices Architecture (MSA) has received significant attention in the software industry. However, little empirical evidence exists on design, monitoring, and testing of microservices systems. Objective: This research aims to gain a deep understanding of how microservices systems are designed, monitored, and tested in the industry. Methods: A mixed-methods study was conducted with 106 survey responses and 6 interviews from microservices practitioners. Results: The main findings are: (1) a combination of domain-driven design and business capability is the most used strategy to decompose an application into microservices, (2) over half of the participants used architecture evaluation and architecture implementation when designing microservices systems, (3) API gateway and Backend for frontend patterns are the most used MSA patterns, (4) resource usage and load balancing as monitoring metrics, log management and exception tracking as monitoring practices are widely used, (5) unit and end-to-end testing are the most used testing strategies, and (6) the complexity of microservices systems poses challenges for their design, monitoring, and testing, for which there are no dedicated solutions. Conclusions: Our findings reveal that more research is needed to (1) deal with microservices complexity at the design level, (2) handle security in microservices systems, and (3) address the monitoring and testing challenges through dedicated solutions. © 2021 Elsevier Inc.</t>
+          <t>Context: Microservices Architecture (MSA) has received significant attention in the software industry. However, little empirical evidence exists on design, monitoring, and testing of microservices systems. Objective: This research aims to gain a deep understanding of how microservices systems are designed, monitored, and tested in the industry. Methods: A mixed-methods study was conducted with 106 survey responses and 6 interviews from microservices practitioners. Results: The main findings are: (1) a combination of domain-driven design and business capability is the most used strategy to decompose an application into microservices, (2) over half of the participants used architecture evaluation and architecture implementation when designing microservices systems, (3) API gateway and Backend for frontend patterns are the most used MSA patterns, (4) resource usage and load balancing as monitoring metrics, log management and exception tracking as monitoring practices are widely used, (5) unit and end-to-end testing are the most used testing strategies, and (6) the complexity of microservices systems poses challenges for their design, monitoring, and testing, for which there are no dedicated solutions. Conclusions: Our findings reveal that more research is needed to (1) deal with microservices complexity at the design level, (2) handle security in microservices systems, and (3) address the monitoring and testing challenges through dedicated solutions.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Application programming interfaces (API); Software engineering; Architecture evaluation; Design levels; Domain-driven designs; Log managements; Monitoring metrics; Resource usage; Software industry; Testing strategies; Monitoring</t>
+          <t>Microservices architecture, Design, Monitoring, Testing, Industrial survey</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -7189,40 +5505,10 @@
           <t>Journal of Systems and Software</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jss.2021.111061</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Waseem2021,
-    author = "Waseem, Muhammad and Liang, Peng and Shahin, Mojtaba and Di Salle, Amleto and Márquez, Gastón",
-    title = "Design, monitoring, and testing of microservices systems: The practitioners’ perspective",
-    year = "2021",
-    journal = "Journal of Systems and Software",
-    volume = "182",
-    doi = "10.1016/j.jss.2021.111061",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85114322403\&amp;doi=10.1016\%2fj.jss.2021.111061\&amp;partnerID=40\&amp;md5=5bf38769ad133522debb4edb71725408",
-    affiliations = "School of Computer Science, Wuhan University, Wuhan, 430072, China; Department of Software Systems and Cybersecurity, Faculty of Information Technology, Monash University, Melbourne, 3800, Australia; Department of Information Engineering, Computer Science and Mathematics, University of L'Aquila, I-67100 L'Aquila, Italy; Department of Electronics and Informatics, Federico Santa María Technical University, 4030000 Concepción, Chile",
-    abstract = "Context: Microservices Architecture (MSA) has received significant attention in the software industry. However, little empirical evidence exists on design, monitoring, and testing of microservices systems. Objective: This research aims to gain a deep understanding of how microservices systems are designed, monitored, and tested in the industry. Methods: A mixed-methods study was conducted with 106 survey responses and 6 interviews from microservices practitioners. Results: The main findings are: (1) a combination of domain-driven design and business capability is the most used strategy to decompose an application into microservices, (2) over half of the participants used architecture evaluation and architecture implementation when designing microservices systems, (3) API gateway and Backend for frontend patterns are the most used MSA patterns, (4) resource usage and load balancing as monitoring metrics, log management and exception tracking as monitoring practices are widely used, (5) unit and end-to-end testing are the most used testing strategies, and (6) the complexity of microservices systems poses challenges for their design, monitoring, and testing, for which there are no dedicated solutions. Conclusions: Our findings reveal that more research is needed to (1) deal with microservices complexity at the design level, (2) handle security in microservices systems, and (3) address the monitoring and testing challenges through dedicated solutions. © 2021 Elsevier Inc.",
-    author_keywords = "Design; Industrial survey; Microservices architecture; Monitoring; Testing",
-    keywords = "Application programming interfaces (API); Software engineering; Architecture evaluation; Design levels; Domain-driven designs; Log managements; Monitoring metrics; Resource usage; Software industry; Testing strategies; Monitoring",
-    correspondence_address = "P. Liang; School of Computer Science, Wuhan University, China; email: liangp@whu.edu.cn",
-    publisher = "Elsevier Inc.",
-    issn = "01641212",
-    coden = "JSSOD",
-    language = "English",
-    abbrev_source_title = "J Syst Software",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 62; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -7243,32 +5529,12 @@
       <c r="R70" t="n">
         <v>2</v>
       </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>Design, monitoring, and testing of microservices systems: The practitioners’ perspective</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85114322403&amp;doi=10.1016%2fj.jss.2021.111061&amp;partnerID=40&amp;md5=5bf38769ad133522debb4edb71725408</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Elsevier Inc.</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7287,12 +5553,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Context: Over the last decade, Agile methods have changed the software development process in an unparalleled way and with the increasing popularity of Big Data, optimizing development cycles through data analytics is becoming a commodity. Objective: Although a myriad of research exists on software analytics as well as on Agile software development (ASD) practice on itself, there exists no systematic overview of the research done on ASD from a data analytics perspective. Therefore, the objective of this work is to make progress by linking ASD with Big Data analytics (BDA). Method: As the primary method to find relevant literature on the topic, we performed manual search and snowballing on papers published between 2011 and 2019. Results: In total, 88 primary studies were selected and analyzed. Our results show that BDA is employed throughout the whole ASD lifecycle. The results reveal that data-driven software development is focused on the following areas: code repository analytics, defects/bug fixing, testing, project management analytics, and application usage analytics. Conclusions: As BDA and ASD are fast-developing areas, improving the productivity of software development teams is one of the most important objectives BDA is facing in the industry. This study provides scholars with information about the state of software analytics research and the current trends as well as applications in the business environment. Whereas, thanks to this literature review, practitioners should be able to understand better how to obtain actionable insights from their software artifacts and on which aspects of data analytics to focus when investing in such initiatives. © 2020 Elsevier B.V.</t>
+          <t>Context: Over the last decade, Agile methods have changed the software development process in an unparalleled way and with the increasing popularity of Big Data, optimizing development cycles through data analytics is becoming a commodity. Objective: Although a myriad of research exists on software analytics as well as on Agile software development (ASD) practice on itself, there exists no systematic overview of the research done on ASD from a data analytics perspective. Therefore, the objective of this work is to make progress by linking ASD with Big Data analytics (BDA). Method: As the primary method to find relevant literature on the topic, we performed manual search and snowballing on papers published between 2011 and 2019. Results: In total, 88 primary studies were selected and analyzed. Our results show that BDA is employed throughout the whole ASD lifecycle. The results reveal that data-driven software development is focused on the following areas: code repository analytics, defects/bug fixing, testing, project management analytics, and application usage analytics. Conclusions: As BDA and ASD are fast-developing areas, improving the productivity of software development teams is one of the most important objectives BDA is facing in the industry. This study provides scholars with information about the state of software analytics research and the current trends as well as applications in the business environment. Whereas, thanks to this literature review, practitioners should be able to understand better how to obtain actionable insights from their software artifacts and on which aspects of data analytics to focus when investing in such initiatives.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Advanced Analytics; Application programs; Big data; Data Analytics; Life cycle; Project management; Software testing; Agile software development; Business environments; Development cycle; Literature reviews; Software artifacts; Software development process; Software development teams; Systematic mapping studies; Software design</t>
+          <t>Agile software development, Software analytics, Data analytics, Machine learning, Artificial intelligence, Literature review</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -7305,40 +5571,10 @@
           <t>Information and Software Technology</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.infsof.2020.106448</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Biesialska2021,
-    author = "Biesialska, Katarzyna and Franch, Xavier and Muntés-Mulero, Victor",
-    title = "Big Data analytics in Agile software development: A systematic mapping study",
-    year = "2021",
-    journal = "Information and Software Technology",
-    volume = "132",
-    doi = "10.1016/j.infsof.2020.106448",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85095581407\&amp;doi=10.1016\%2fj.infsof.2020.106448\&amp;partnerID=40\&amp;md5=606562623febf85aeca120d861b6ae20",
-    affiliations = "Universitat Politècnica de Catalunya, Barcelona, Spain; Beawre Digital S.L., Barcelona, Spain",
-    abstract = "Context: Over the last decade, Agile methods have changed the software development process in an unparalleled way and with the increasing popularity of Big Data, optimizing development cycles through data analytics is becoming a commodity. Objective: Although a myriad of research exists on software analytics as well as on Agile software development (ASD) practice on itself, there exists no systematic overview of the research done on ASD from a data analytics perspective. Therefore, the objective of this work is to make progress by linking ASD with Big Data analytics (BDA). Method: As the primary method to find relevant literature on the topic, we performed manual search and snowballing on papers published between 2011 and 2019. Results: In total, 88 primary studies were selected and analyzed. Our results show that BDA is employed throughout the whole ASD lifecycle. The results reveal that data-driven software development is focused on the following areas: code repository analytics, defects/bug fixing, testing, project management analytics, and application usage analytics. Conclusions: As BDA and ASD are fast-developing areas, improving the productivity of software development teams is one of the most important objectives BDA is facing in the industry. This study provides scholars with information about the state of software analytics research and the current trends as well as applications in the business environment. Whereas, thanks to this literature review, practitioners should be able to understand better how to obtain actionable insights from their software artifacts and on which aspects of data analytics to focus when investing in such initiatives. © 2020 Elsevier B.V.",
-    author_keywords = "Agile software development; Artificial intelligence; Data analytics; Literature review; Machine learning; Software analytics",
-    keywords = "Advanced Analytics; Application programs; Big data; Data Analytics; Life cycle; Project management; Software testing; Agile software development; Business environments; Development cycle; Literature reviews; Software artifacts; Software development process; Software development teams; Systematic mapping studies; Software design",
-    correspondence_address = "K. Biesialska; Universitat Politècnica de Catalunya, Barcelona, Spain; email: katarzyna.biesialska@upc.edu",
-    publisher = "Elsevier B.V.",
-    issn = "09505849",
-    coden = "ISOTE",
-    language = "English",
-    abbrev_source_title = "Inf Software Technol",
-    type = "Review",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 30; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -7359,32 +5595,12 @@
       <c r="R71" t="n">
         <v>2</v>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>Big Data analytics in Agile software development: A systematic mapping study</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85095581407&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=2e12d08689a0ccba346941cc65fe0cc8&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28big+data+analytics+in+agile+software+development+a+systematic+mapping+study%29&amp;sl=90&amp;sessionSearchId=2e12d08689a0ccba346941cc65fe0cc8&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>nan; References; Pages</t>
-        </is>
-      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7423,7 +5639,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3383219.3383245</t>
+          <t>https://doi.org/10.1145/3383219.3383245</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -7497,12 +5713,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Context: Software companies seek to gain benefit from agile development approaches in order to meet evolving market needs without losing their innovative edge. Agile practices emphasize frequent releases with the help of an automated toolchain from code to delivery. Objective: We investigate, which tools are used in software delivery, what are the reasons omitting certain parts of the toolchain and what implications toolchains have on how rapidly software gets delivered to customers. Method: We present a multiple-case study of the toolchains currently in use in Finnish software-intensive organizations interested in improving their delivery frequency. We conducted qualitative semi-structured interviews in 18 case organizations from various software domains. The interviewees were key representatives of their organization, considering delivery activities. Results: Commodity tools, such as version control and continuous integration, were used in almost every organization. Modestly used tools, such as UI testing and performance testing, were more distinctly missing from some organizations. Uncommon tools, such as artifact repository and acceptance testing, were used only in a minority of the organizations. Tool usage is affected by the state of current workflows, manual work and relevancy of tools. Organizations whose toolchains were more automated and contained fewer manual steps were able to deploy software more rapidly. Conclusions: There is variety in the need for tool support in different development steps as there are domain-specific differences in the goals of the case organizations. Still, a well-founded toolchain supports speedy delivery of new software. © 2016 Elsevier B.V.</t>
+          <t>Context: Software companies seek to gain benefit from agile development approaches in order to meet evolving market needs without losing their innovative edge. Agile practices emphasize frequent releases with the help of an automated toolchain from code to delivery. Objective: We investigate, which tools are used in software delivery, what are the reasons omitting certain parts of the toolchain and what implications toolchains have on how rapidly software gets delivered to customers. Method: We present a multiple-case study of the toolchains currently in use in Finnish software-intensive organizations interested in improving their delivery frequency. We conducted qualitative semi-structured interviews in 18 case organizations from various software domains. The interviewees were key representatives of their organization, considering delivery activities. Results: Commodity tools, such as version control and continuous integration, were used in almost every organization. Modestly used tools, such as UI testing and performance testing, were more distinctly missing from some organizations. Uncommon tools, such as artifact repository and acceptance testing, were used only in a minority of the organizations. Tool usage is affected by the state of current workflows, manual work and relevancy of tools. Organizations whose toolchains were more automated and contained fewer manual steps were able to deploy software more rapidly. Conclusions: There is variety in the need for tool support in different development steps as there are domain-specific differences in the goals of the case organizations. Still, a well-founded toolchain supports speedy delivery of new software.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Acceptance tests; Agile software development; Artifact repositories; Continuous deliveries; Continuous deployment; Continuous integrations; Performance testing; Semi structured interviews; Software development tools; Software design</t>
+          <t>Continuous deployment, Continuous delivery, Software development tools, Deployment pipeline, Agile software development</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -7515,45 +5731,10 @@
           <t>Information and Software Technology</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.infsof.2016.09.001</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>175 – 194</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Mäkinen2016175,
-    author = "Mäkinen, Simo and Leppänen, Marko and Kilamo, Terhi and Mattila, Anna-Liisa and Laukkanen, Eero and Pagels, Max and Männistö, Tomi",
-    title = "Improving the delivery cycle: A multiple-case study of the toolchains in Finnish software intensive enterprises",
-    year = "2016",
-    journal = "Information and Software Technology",
-    volume = "80",
-    pages = "175 – 194",
-    doi = "10.1016/j.infsof.2016.09.001",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84988001567\&amp;doi=10.1016\%2fj.infsof.2016.09.001\&amp;partnerID=40\&amp;md5=c5f6390da014c8c6a3455288a0bb279a",
-    affiliations = "Department of Computer Science, University of Helsinki, P.O. 68 (Gustaf Hällströmin katu 2b), FI-00014 University of Helsinki, Finland; Department of Pervasive Computing, Tampere University of Technology, Korkeakoulunkatu 1, FI-33720 Tampere, Finland; Department of Computer Science and Engineering, Aalto University School of Science, P.O. Box 19210, FI-00076 Aalto, Finland",
-    abstract = "Context: Software companies seek to gain benefit from agile development approaches in order to meet evolving market needs without losing their innovative edge. Agile practices emphasize frequent releases with the help of an automated toolchain from code to delivery. Objective: We investigate, which tools are used in software delivery, what are the reasons omitting certain parts of the toolchain and what implications toolchains have on how rapidly software gets delivered to customers. Method: We present a multiple-case study of the toolchains currently in use in Finnish software-intensive organizations interested in improving their delivery frequency. We conducted qualitative semi-structured interviews in 18 case organizations from various software domains. The interviewees were key representatives of their organization, considering delivery activities. Results: Commodity tools, such as version control and continuous integration, were used in almost every organization. Modestly used tools, such as UI testing and performance testing, were more distinctly missing from some organizations. Uncommon tools, such as artifact repository and acceptance testing, were used only in a minority of the organizations. Tool usage is affected by the state of current workflows, manual work and relevancy of tools. Organizations whose toolchains were more automated and contained fewer manual steps were able to deploy software more rapidly. Conclusions: There is variety in the need for tool support in different development steps as there are domain-specific differences in the goals of the case organizations. Still, a well-founded toolchain supports speedy delivery of new software. © 2016 Elsevier B.V.",
-    author_keywords = "Agile software development; Continuous delivery; Continuous deployment; Deployment pipeline; Software development tools",
-    keywords = "Acceptance tests; Agile software development; Artifact repositories; Continuous deliveries; Continuous deployment; Continuous integrations; Performance testing; Semi structured interviews; Software development tools; Software design",
-    correspondence_address = "S. Mäkinen; Department of Computer Science, University of Helsinki, P.O. 68 (Gustaf Hällströmin katu 2b), FI-00014 University of Helsinki, Finland; email: simo.v.makinen@helsinki.fi",
-    publisher = "Elsevier B.V.",
-    issn = "09505849",
-    coden = "ISOTE",
-    language = "English",
-    abbrev_source_title = "Inf Software Technol",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 29"
-}</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -7574,32 +5755,12 @@
       <c r="R73" t="n">
         <v>2</v>
       </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>Improving the delivery cycle: A multiple-case study of the toolchains in Finnish software intensive enterprises</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84988001567&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=19277feddfbb1bf364e78ff5470efc8f&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28improving+the+delivery+cycle+a+multiple+case+study+of+the+toolchains+in+finnish+software+intensive+enterprises%29&amp;sl=125&amp;sessionSearchId=19277feddfbb1bf364e78ff5470efc8f&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>Elsevier B.V.</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7834,7 +5995,11 @@
           <t>ICSE-SEIP '19: Proceedings of the 41st International Conference on Software Engineering: Software Engineering in Practice</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ICSE-SEIP.2019.00035</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -7881,7 +6046,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -8044,7 +6209,11 @@
           <t>SAST '16: Proceedings of the 1st Brazilian Symposium on Systematic and Automated Software Testing</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2993288.2993296</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -8091,7 +6260,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -8197,65 +6366,33 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3DEvent: A framework using event-sourcing approach for 3D web-based collaborative design in P2P</t>
+          <t>3DEvent: A Framework Using Event-Sourcing Approach for 3D Web-Based Collaborative Design in P2P</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Despite recent advances, especially in web-based Collaborative Virtual Environments (CVEs) using real-Time 3D content, Web technology still requires an efficient way to distribute and stream large-scale 3D data. In this paper, we present 3DEvent: An eventdriven framework to collaboratively manipulate predesigned 3D content in real-Time on a web-based platform. This work introduces a new approach in achieving 3D object manipulation tasks during collaborative design stages using event-sourcing. Usually, a clientserver architecture supports updates to the 3D environment state. Peer-To-peer (P2P) allows direct communication between teammates reducing response times during collaboration and decreasing server load, reducing the costs of providers. 3DEvent enables P2Passisted delivery of 3D dynamic content in a web browser viaWeb-RTC. By combining concepts from distributed event-processing and mesh-processing, 3D independent rendering and event-based synchronization, we present 3DEvent framework and potential uses associated that support history-Aware 3D applications into a unified distributed processing solution for 3D web-based CVEs. © 2016 ACM.</t>
+          <t>Despite recent advances, especially in web-based Collaborative Virtual Environments (CVEs) using real-time 3D content, Web technology still requires an efficient way to distribute and stream large-scale 3D data. In this paper, we present 3DEvent: an event-driven framework to collaboratively manipulate predesigned 3D content in real-time on a web-based platform. This work introduces a new approach in achieving 3D object manipulation tasks during collaborative design stages using event-sourcing. Usually, a client-server architecture supports updates to the 3D environment state. Peer-to-peer (P2P) allows direct communication between teammates reducing response times during collaboration and decreasing server load, reducing the costs of providers. 3DEvent enables P2P-assisted delivery of 3D dynamic content in a web browser via WebRTC. By combining concepts from distributed event-processing and mesh-processing, 3D independent rendering and event-based synchronization, we present 3DEvent framework and potential uses associated that support history-aware 3D applications into a unified distributed processing solution for 3D web-based CVEs.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Distributed computer systems; Virtual reality; Web services; Websites; Client-server architectures; Collaborative manipulation; Collaborative virtual environment; Distributed applications; Distributed event processing; Event-based synchronization; Event-driven architectures; WebRTC; Three dimensional computer graphics</t>
+          <t>collaborative manipulation; distributed application; event-driven architecture; Web 3D; WebRTC</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Desprat, Caroline; Jessel, Jean-Pierre; Luga, Herve</t>
+          <t>Desprat, Caroline; Jessel, Jean-Pierre; Luga, Hervé</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Proceedings of the 21st International Conference on Web3D Technology, Web3D 2016</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/2945292.2945310</t>
-        </is>
-      </c>
+          <t>Proceedings of the 21st International Conference on Web3D Technology</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>73 – 76</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Desprat201673,
-    author = "Desprat, Caroline and Jessel, Jean-Pierre and Luga, Herve",
-    title = "3DEvent: A framework using event-sourcing approach for 3D web-based collaborative design in P2P",
-    year = "2016",
-    journal = "Proceedings of the 21st International Conference on Web3D Technology, Web3D 2016",
-    pages = "73 – 76",
-    doi = "10.1145/2945292.2945310",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84983542219\&amp;doi=10.1145\%2f2945292.2945310\&amp;partnerID=40\&amp;md5=260dc9d827d285fedc41364b0c2d0853",
-    affiliations = "University of Toulouse, France",
-    abstract = "Despite recent advances, especially in web-based Collaborative Virtual Environments (CVEs) using real-Time 3D content, Web technology still requires an efficient way to distribute and stream large-scale 3D data. In this paper, we present 3DEvent: An eventdriven framework to collaboratively manipulate predesigned 3D content in real-Time on a web-based platform. This work introduces a new approach in achieving 3D object manipulation tasks during collaborative design stages using event-sourcing. Usually, a clientserver architecture supports updates to the 3D environment state. Peer-To-peer (P2P) allows direct communication between teammates reducing response times during collaboration and decreasing server load, reducing the costs of providers. 3DEvent enables P2Passisted delivery of 3D dynamic content in a web browser viaWeb-RTC. By combining concepts from distributed event-processing and mesh-processing, 3D independent rendering and event-based synchronization, we present 3DEvent framework and potential uses associated that support history-Aware 3D applications into a unified distributed processing solution for 3D web-based CVEs. © 2016 ACM.",
-    author_keywords = "Collaborative manipulation; Distributed application; Event-driven architecture; Web 3D; WebRTC",
-    keywords = "Distributed computer systems; Virtual reality; Web services; Websites; Client-server architectures; Collaborative manipulation; Collaborative virtual environment; Distributed applications; Distributed event processing; Event-based synchronization; Event-driven architectures; WebRTC; Three dimensional computer graphics",
-    publisher = "Association for Computing Machinery, Inc",
-    isbn = "978-145034428-9",
-    language = "English",
-    abbrev_source_title = "Proc. Int. Conf. Web3D Technol., Web3D",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 4; Conference name: 21st International Conference on Web3D Technology, Web3D 2016; Conference date: 22 July 2016 through 24 July 2016; Conference code: 122890; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -8276,32 +6413,12 @@
       <c r="R82" t="n">
         <v>2</v>
       </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>3DEvent: A Framework Using Event-Sourcing Approach for 3D Web-Based Collaborative Design in P2P</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84983542219&amp;doi=10.1145%2f2945292.2945310&amp;partnerID=40&amp;md5=260dc9d827d285fedc41364b0c2d0853</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery, Inc</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8472,7 +6589,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3210459.3210479</t>
+          <t>https://doi.org/10.1145/3210459.3210479</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -8541,17 +6658,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Reproducing failures based on semiformal failure scenario descriptions</t>
+          <t>Reproducing Failures Based on Semiformal Failure Scenario Descriptions</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Due to the increasing size and complexity of software systems, it becomes hard to test these systems exhaustively. As a result, some faults can be left undetected. Undetected faults can lead to failures in deployed systems. Such failures are usually reported by the users from the field or test engineers back to developers. It requires considerable time and effort to analyze and reproduce the reported failures because their descriptions are not always complete, structured and formal. In this paper, we introduce a novel approach for automatically reproducing failures to aid their debugging. Our approach relies on semi-structured failure scenario descriptions that employ a set of keywords. These descriptions are preprocessed and mapped to a set of predefined test case templates with valid input sets. Then, test cases are generated and executed to reproduce the reported failure scenarios. The approach is evaluated with an industrial case study performed in a company from the telecommunications domain. Several failures were successfully reproduced. The approach is also adopted in the quality assurance process of the company. After one-time preparation of reusable test case templates and training of test engineers, 24.9 % of the reported failures (and 40 % of those that were manually reproducible) could be reproduced without any manual effort. © 2016, Springer Science+Business Media New York.</t>
+          <t>Due to the increasing size and complexity of software systems, it becomes hard to test these systems exhaustively. As a result, some faults can be left undetected. Undetected faults can lead to failures in deployed systems. Such failures are usually reported by the users from the field or test engineers back to developers. It requires considerable time and effort to analyze and reproduce the reported failures because their descriptions are not always complete, structured and formal. In this paper, we introduce a novel approach for automatically reproducing failures to aid their debugging. Our approach relies on semi-structured failure scenario descriptions that employ a set of keywords. These descriptions are preprocessed and mapped to a set of predefined test case templates with valid input sets. Then, test cases are generated and executed to reproduce the reported failure scenarios. The approach is evaluated with an industrial case study performed in a company from the telecommunications domain. Several failures were successfully reproduced. The approach is also adopted in the quality assurance process of the company. After one-time preparation of reusable test case templates and training of test engineers, 24.9 % of the reported failures (and 40 % of those that were manually reproducible) could be reproduced without any manual effort.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Personnel training; Quality assurance; Testing; Automated test case generation; Behavior-driven development; Deployed systems; Failure scenarios; Industrial case study; Quality assurance process; Reusable test case; Software systems; Software testing</t>
+          <t>Behavior-driven development; Automated test case generation; Failure reproduction; Industrial case study</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -8564,45 +6681,10 @@
           <t>Software Quality Journal</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s11219-016-9310-1</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>111 – 129</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Karagöz2017111,
-    author = "Karagöz, Gün and Sözer, Hasan",
-    title = "Reproducing failures based on semiformal failure scenario descriptions",
-    year = "2017",
-    journal = "Software Quality Journal",
-    volume = "25",
-    number = "1",
-    pages = "111 – 129",
-    doi = "10.1007/s11219-016-9310-1",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84957658578\&amp;doi=10.1007\%2fs11219-016-9310-1\&amp;partnerID=40\&amp;md5=00a2b80a254a1785452411a0d6442c65",
-    affiliations = "P.I.Works HQ, Teknopark İstanbul Sanayi Mah. Teknopark Bul. No: 1/3A 103, Pendik, Istanbul, 34906, Turkey; School of Engineering, Ozyegin University, Nişantepe Mah. Orman Sk. No: 34-36, Alemdağ, Çekmeköy, Istanbul, 34794, Turkey",
-    abstract = "Due to the increasing size and complexity of software systems, it becomes hard to test these systems exhaustively. As a result, some faults can be left undetected. Undetected faults can lead to failures in deployed systems. Such failures are usually reported by the users from the field or test engineers back to developers. It requires considerable time and effort to analyze and reproduce the reported failures because their descriptions are not always complete, structured and formal. In this paper, we introduce a novel approach for automatically reproducing failures to aid their debugging. Our approach relies on semi-structured failure scenario descriptions that employ a set of keywords. These descriptions are preprocessed and mapped to a set of predefined test case templates with valid input sets. Then, test cases are generated and executed to reproduce the reported failure scenarios. The approach is evaluated with an industrial case study performed in a company from the telecommunications domain. Several failures were successfully reproduced. The approach is also adopted in the quality assurance process of the company. After one-time preparation of reusable test case templates and training of test engineers, 24.9 \% of the reported failures (and 40 \% of those that were manually reproducible) could be reproduced without any manual effort. © 2016, Springer Science+Business Media New York.",
-    author_keywords = "Automated test case generation; Behavior-driven development; Failure reproduction; Industrial case study",
-    keywords = "Personnel training; Quality assurance; Testing; Automated test case generation; Behavior-driven development; Deployed systems; Failure scenarios; Industrial case study; Quality assurance process; Reusable test case; Software systems; Software testing",
-    correspondence_address = "G. Karagöz; P.I.Works HQ, Pendik, Istanbul, Teknopark İstanbul Sanayi Mah. Teknopark Bul. No: 1/3A 103, 34906, Turkey; email: gun.karagoz@piworks.net",
-    publisher = "Springer New York LLC",
-    issn = "09639314",
-    language = "English",
-    abbrev_source_title = "Softw. Qual. J.",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 5"
-}</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>Included</t>
@@ -8623,32 +6705,12 @@
       <c r="R86" t="n">
         <v>2</v>
       </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>Reproducing Failures Based on Semiformal Failure Scenario Descriptions</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84957658578&amp;doi=10.1007%2fs11219-016-9310-1&amp;partnerID=40&amp;md5=00a2b80a254a1785452411a0d6442c65</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Springer New York LLC</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8724,17 +6786,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>From requirements to source code: a Model-Driven Engineering approach for RESTful web services</t>
+          <t>From Requirements to Source Code: A Model-Driven Engineering Approach for RESTful Web Services</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>During the last few years, the REST architectural style has drastically changed the way web services are developed. Due to its transparent resource-oriented model, the RESTful paradigm has been incorporated into several development frameworks that allow rapid development and aspire to automate parts of the development process. However, most of the frameworks lack automation of essential web service functionality, such as authentication or database searching, while the end product is usually not fully compliant to REST. Furthermore, most frameworks rely heavily on domain specific modeling and require developers to be familiar with the employed modeling technologies. In this paper, we present a Model-Driven Engineering (MDE) engine that supports fast design and implementation of web services with advanced functionality. Our engine provides a front-end interface that allows developers to design their envisioned system through software requirements in multimodal formats. Input in the form of textual requirements and graphical storyboards is analyzed using natural language processing techniques and semantics, to semi-automatically construct the input model for the MDE engine. The engine subsequently applies model-to-model transformations to produce a RESTful, ready-to-deploy web service. The procedure is traceable, ensuring that changes in software requirements propagate to the underlying software artefacts and models. Upon assessing our methodology through a case study and measuring the effort reduction of using our tools, we conclude that our system can be effective for the fast design and implementation of web services, while it allows easy wrapping of services that have been engineered with traditional methods to the MDE realm. © 2016, Springer Science+Business Media New York.</t>
+          <t>During the last few years, the REST architectural style has drastically changed the way web services are developed. Due to its transparent resource-oriented model, the RESTful paradigm has been incorporated into several development frameworks that allow rapid development and aspire to automate parts of the development process. However, most of the frameworks lack automation of essential web service functionality, such as authentication or database searching, while the end product is usually not fully compliant to REST. Furthermore, most frameworks rely heavily on domain specific modeling and require developers to be familiar with the employed modeling technologies. In this paper, we present a Model-Driven Engineering (MDE) engine that supports fast design and implementation of web services with advanced functionality. Our engine provides a front-end interface that allows developers to design their envisioned system through software requirements in multimodal formats. Input in the form of textual requirements and graphical storyboards is analyzed using natural language processing techniques and semantics, to semi-automatically construct the input model for the MDE engine. The engine subsequently applies model-to-model transformations to produce a RESTful, ready-to-deploy web service. The procedure is traceable, ensuring that changes in software requirements propagate to the underlying software artefacts and models. Upon assessing our methodology through a case study and measuring the effort reduction of using our tools, we conclude that our system can be effective for the fast design and implementation of web services, while it allows easy wrapping of services that have been engineered with traditional methods to the MDE realm.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Design; Engines; Natural language processing systems; Requirements engineering; Search engines; Semantics; Software engineering; Websites; World Wide Web; Development frameworks; Domain specific modeling; Model to model transformation; Model-driven Engineering; NAtural language processing; RESTful Web services; Service functionalities; Software requirements; Web services</t>
+          <t>Automated Software Engineering; Model-Driven Engineering; RESTful web services; Software requirements</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -8744,49 +6806,13 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Automated Software Engineering</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s10515-016-0206-x</t>
-        </is>
-      </c>
+          <t>Automated Software Engg.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>791 – 838</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Zolotas2017791,
-    author = "Zolotas, Christoforos and Diamantopoulos, Themistoklis and Chatzidimitriou, Kyriakos C. and Symeonidis, Andreas L.",
-    title = "From requirements to source code: a Model-Driven Engineering approach for RESTful web services",
-    year = "2017",
-    journal = "Automated Software Engineering",
-    volume = "24",
-    number = "4",
-    pages = "791 – 838",
-    doi = "10.1007/s10515-016-0206-x",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84984844780\&amp;doi=10.1007\%2fs10515-016-0206-x\&amp;partnerID=40\&amp;md5=8bd9650aa74d0c817f0c41b23e2e3cd0",
-    affiliations = "Electrical and Computer Engineering Department, Aristotle University of Thessaloniki, Thessaloniki, GR54124, Greece",
-    abstract = "During the last few years, the REST architectural style has drastically changed the way web services are developed. Due to its transparent resource-oriented model, the RESTful paradigm has been incorporated into several development frameworks that allow rapid development and aspire to automate parts of the development process. However, most of the frameworks lack automation of essential web service functionality, such as authentication or database searching, while the end product is usually not fully compliant to REST. Furthermore, most frameworks rely heavily on domain specific modeling and require developers to be familiar with the employed modeling technologies. In this paper, we present a Model-Driven Engineering (MDE) engine that supports fast design and implementation of web services with advanced functionality. Our engine provides a front-end interface that allows developers to design their envisioned system through software requirements in multimodal formats. Input in the form of textual requirements and graphical storyboards is analyzed using natural language processing techniques and semantics, to semi-automatically construct the input model for the MDE engine. The engine subsequently applies model-to-model transformations to produce a RESTful, ready-to-deploy web service. The procedure is traceable, ensuring that changes in software requirements propagate to the underlying software artefacts and models. Upon assessing our methodology through a case study and measuring the effort reduction of using our tools, we conclude that our system can be effective for the fast design and implementation of web services, while it allows easy wrapping of services that have been engineered with traditional methods to the MDE realm. © 2016, Springer Science+Business Media New York.",
-    author_keywords = "Automated Software Engineering; Model-Driven Engineering; RESTful web services; Software requirements",
-    keywords = "Design; Engines; Natural language processing systems; Requirements engineering; Search engines; Semantics; Software engineering; Websites; World Wide Web; Development frameworks; Domain specific modeling; Model to model transformation; Model-driven Engineering; NAtural language processing; RESTful Web services; Service functionalities; Software requirements; Web services",
-    correspondence_address = "T. Diamantopoulos; Electrical and Computer Engineering Department, Aristotle University of Thessaloniki, Thessaloniki, GR54124, Greece; email: thdiaman@issel.ee.auth.gr",
-    publisher = "Springer New York LLC",
-    issn = "09288910",
-    coden = "ASOEE",
-    language = "English",
-    abbrev_source_title = "Autom Software Eng",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 19"
-}</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -8807,32 +6833,12 @@
       <c r="R88" t="n">
         <v>2</v>
       </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>From Requirements to Source Code: A Model-Driven Engineering Approach for RESTful Web Services</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84984844780&amp;doi=10.1007%2fs10515-016-0206-x&amp;partnerID=40&amp;md5=8bd9650aa74d0c817f0c41b23e2e3cd0</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Springer New York LLC</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8869,7 +6875,11 @@
           <t>SBES '17: Proceedings of the XXXI Brazilian Symposium on Software Engineering</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3131151.3131166</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -8916,7 +6926,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -8937,61 +6947,28 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Eliciting requirements in their real-world contexts and creating and transforming visual models which can help lead to early designs of software is a challenging and time-consuming step in software engineering processes. In order to support the creation of these models and generate artifacts useful for software designs, we have developed the Problem-to-Design tool (PROD) based on Jackson's Problem Frames approach. The tool has been inspired by the work in the behavior-driven development community, which recommends that testing codes be generated as early as in the requirements engineering phase. The tool provides an open portal where multiple stakeholders can draw their own problem diagrams online, which can be used to generate use case narratives and testing codes for further behavior-driven development. © 2016 IEEE.</t>
+          <t>Eliciting requirements in their real-world contexts and creating and transforming visual models which can help lead to early designs of software is a challenging and time-consuming step in software engineering processes. In order to support the creation of these models and generate artifacts useful for software designs, we have developed the Problem-to-Design tool (PROD) based on Jackson's Problem Frames approach. The tool has been inspired by the work in the behavior-driven development community, which recommends that testing codes be generated as early as in the requirements engineering phase. The tool provides an open portal where multiple stakeholders can draw their own problem diagrams online, which can be used to generate use case narratives and testing codes for further behavior-driven development.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Codes (symbols); Requirements engineering; Software engineering; behavior-driven development; Development community; Multiple stakeholders; Problem Frames; Problem Frames approach; Problem progression; Software engineering process; Testing codes; Software design</t>
+          <t>Problem Frames;problem progression;behavior-driven development</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Gao, Ning; Li, Zhi</t>
+          <t>N. Gao; Z. Li</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Proceedings - 2016 IEEE 24th International Requirements Engineering Conference, RE 2016</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/RE.2016.54</t>
-        </is>
-      </c>
+          <t>2016 IEEE 24th International Requirements Engineering Conference (RE)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>399 – 400</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Gao2016399,
-    author = "Gao, Ning and Li, Zhi",
-    title = "Generating Testing Codes for Behavior-Driven Development from Problem Diagrams: A Tool-Based Approach",
-    year = "2016",
-    journal = "Proceedings - 2016 IEEE 24th International Requirements Engineering Conference, RE 2016",
-    pages = "399 – 400",
-    doi = "10.1109/RE.2016.54",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85007170291\&amp;doi=10.1109\%2fRE.2016.54\&amp;partnerID=40\&amp;md5=60b91fda6611567dbeebf5d74548fbe1",
-    affiliations = "Dept. of Software Engineering, College of Computer Science and Information Technology, No. 15 YuCai Road, Guilin, Guangxi, 541004, China",
-    abstract = "Eliciting requirements in their real-world contexts and creating and transforming visual models which can help lead to early designs of software is a challenging and time-consuming step in software engineering processes. In order to support the creation of these models and generate artifacts useful for software designs, we have developed the Problem-to-Design tool (PROD) based on Jackson's Problem Frames approach. The tool has been inspired by the work in the behavior-driven development community, which recommends that testing codes be generated as early as in the requirements engineering phase. The tool provides an open portal where multiple stakeholders can draw their own problem diagrams online, which can be used to generate use case narratives and testing codes for further behavior-driven development. © 2016 IEEE.",
-    author_keywords = "behavior-driven development; Problem Frames; problem progression",
-    keywords = "Codes (symbols); Requirements engineering; Software engineering; behavior-driven development; Development community; Multiple stakeholders; Problem Frames; Problem Frames approach; Problem progression; Software engineering process; Testing codes; Software design",
-    correspondence_address = "Z. Li; Dept. of Software Engineering, College of Computer Science and Information Technology, Guilin, Guangxi, No. 15 YuCai Road, 541004, China; email: zhili@gxnu.edu.cn",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-150904121-3",
-    language = "English",
-    abbrev_source_title = "Proc. - IEEE Int. Requir. Eng. Conf., RE",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 3; Conference name: 24th IEEE International Requirements Engineering Conference, RE 2016; Conference date: 12 September 2016 through 16 September 2016; Conference code: 125191"
-}</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
           <t>Included</t>
@@ -9012,32 +6989,12 @@
       <c r="R90" t="n">
         <v>2</v>
       </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>Generating Testing Codes for Behavior-Driven Development from Problem Diagrams: A Tool-Based Approach</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85007170291&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=38fa4d68f434cab6feb96bef53650e5d&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28generating+testing+codes+for+behavior+driven+development+from+problem+diagrams+a+tool+based+approach%29&amp;sl=115&amp;sessionSearchId=38fa4d68f434cab6feb96bef53650e5d&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9113,17 +7070,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Benchmark driven framework for development of emotion sensing support systems</t>
+          <t>Benchmark Driven Framework for Development of Emotion Sensing Support Systems</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Emotion sensing support system to assist human decision making during interview scenario is a developing research field. This paper presents a new framework for the development of emotion sensing support systems that is a complete, easily extendible, flexible, and configurable environment with intensive benchmark capabilities. The design of the framework was inspired by behavior-driven development, agile software development technique. It provides: 1) effective collaboration platform between technological and psychological researches, and 2) intensive benchmarking capabilities to test the performance of the entire system as well as individual algorithms. © 2012 IEEE.</t>
+          <t>Emotion sensing support system to assist human decision making during interview scenario is a developing research field. This paper presents a new framework for the development of emotion sensing support systems that is a complete, easily extendible, flexible, and configurable environment with intensive benchmark capabilities. The design of the framework was inspired by behavior-driven development, agile software development technique. It provides: 1) effective collaboration platform between technological and psychological researches, and 2) intensive benchmarking capabilities to test the performance of the entire system as well as individual algorithms.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Information science; Software engineering; affect; Agile software development; behavior-driven development; Collaboration platforms; Emotion detection; Entire system; Human decision making; Psychological research; Research fields; Sensor fusion; Support systems; Benchmarking</t>
+          <t>behavior-driven development; affect; emotion detection; sensor fusion</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -9133,44 +7090,13 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Proceedings - 2012 European Intelligence and Security Informatics Conference, EISIC 2012</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/EISIC.2012.27</t>
-        </is>
-      </c>
+          <t>Proceedings of the 2012 European Intelligence and Security Informatics Conference</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>353 – 355</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Polikovsky2012353,
-    author = "Polikovsky, Senya and Quiros-Ramirez, Maria Alejandra and Kameda, Yoshinori and Ohta, Yuichi and Burgoon, Judee",
-    title = "Benchmark driven framework for development of emotion sensing support systems",
-    year = "2012",
-    journal = "Proceedings - 2012 European Intelligence and Security Informatics Conference, EISIC 2012",
-    pages = "353 – 355",
-    doi = "10.1109/EISIC.2012.27",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84868521452\&amp;doi=10.1109\%2fEISIC.2012.27\&amp;partnerID=40\&amp;md5=0a38b46344f884118c54a8583c41e21e",
-    affiliations = "Department of Intelligent Interaction Technologies, University of Tsukuba, Japan; Eller College of Management, University of Arizona, United States",
-    abstract = "Emotion sensing support system to assist human decision making during interview scenario is a developing research field. This paper presents a new framework for the development of emotion sensing support systems that is a complete, easily extendible, flexible, and configurable environment with intensive benchmark capabilities. The design of the framework was inspired by behavior-driven development, agile software development technique. It provides: 1) effective collaboration platform between technological and psychological researches, and 2) intensive benchmarking capabilities to test the performance of the entire system as well as individual algorithms. © 2012 IEEE.",
-    author_keywords = "affect; behavior-driven development; emotion detection; sensor fusion",
-    keywords = "Information science; Software engineering; affect; Agile software development; behavior-driven development; Collaboration platforms; Emotion detection; Entire system; Human decision making; Psychological research; Research fields; Sensor fusion; Support systems; Benchmarking",
-    correspondence_address = "S. Polikovsky; Department of Intelligent Interaction Technologies, University of Tsukuba, Japan; email: senya@image.iit.tsukuba.ac.jp",
-    language = "English",
-    abbrev_source_title = "Proc. - Eur. Intell. Secur. Informatics Conf., EISIC",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 0; Conference name: 2012 European Intelligence and Security Informatics Conference, EISIC 2012; Conference date: 22 August 2012 through 24 August 2012; Conference code: 93470"
-}</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -9191,28 +7117,12 @@
       <c r="R92" t="n">
         <v>2</v>
       </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>Benchmark Driven Framework for Development of Emotion Sensing Support Systems</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84868521452&amp;doi=10.1109%2fEISIC.2012.27&amp;partnerID=40&amp;md5=0a38b46344f884118c54a8583c41e21e</t>
-        </is>
-      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>nan; References; Publisher</t>
-        </is>
-      </c>
+      <c r="X92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9226,64 +7136,33 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Benchmark driven framework for development of emotion sensing support systems</t>
+          <t>Benchmark Driven Framework for Development of Emotion Sensing Support Systems</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Emotion sensing support system to assist human decision making during interview scenario is a developing research field. This paper presents a new framework for the development of emotion sensing support systems that is a complete, easily extendible, flexible, and configurable environment with intensive benchmark capabilities. The design of the framework was inspired by behavior-driven development, agile software development technique. It provides: 1) effective collaboration platform between technological and psychological researches, and 2) intensive benchmarking capabilities to test the performance of the entire system as well as individual algorithms. © 2012 IEEE.</t>
+          <t>Emotion sensing support system to assist human decision making during interview scenario is a developing research field. This paper presents a new framework for the development of emotion sensing support systems that is a complete, easily extendible, flexible, and configurable environment with intensive benchmark capabilities. The design of the framework was inspired by behavior-driven development, agile software development technique. It provides: (1) effective collaboration platform between technological and psychological researches, and (2) intensive benchmarking capabilities to test the performance of the entire system as well as individual algorithms.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Information science; Software engineering; affect; Agile software development; behavior-driven development; Collaboration platforms; Emotion detection; Entire system; Human decision making; Psychological research; Research fields; Sensor fusion; Support systems; Benchmarking</t>
+          <t>affect;emotion detection;behavior-driven development;sensor fusion</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Polikovsky, Senya; Quiros-Ramirez, Maria Alejandra; Kameda, Yoshinori; Ohta, Yuichi; Burgoon, Judee</t>
+          <t>S. Polikovsky; M. A. Quiros-Ramirez; Y. Kameda; Y. Ohta; J. Burgoon</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Proceedings - 2012 European Intelligence and Security Informatics Conference, EISIC 2012</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/EISIC.2012.27</t>
-        </is>
-      </c>
+          <t>2012 European Intelligence and Security Informatics Conference</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>353 – 355</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Polikovsky2012353,
-    author = "Polikovsky, Senya and Quiros-Ramirez, Maria Alejandra and Kameda, Yoshinori and Ohta, Yuichi and Burgoon, Judee",
-    title = "Benchmark driven framework for development of emotion sensing support systems",
-    year = "2012",
-    journal = "Proceedings - 2012 European Intelligence and Security Informatics Conference, EISIC 2012",
-    pages = "353 – 355",
-    doi = "10.1109/EISIC.2012.27",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84868521452\&amp;doi=10.1109\%2fEISIC.2012.27\&amp;partnerID=40\&amp;md5=0a38b46344f884118c54a8583c41e21e",
-    affiliations = "Department of Intelligent Interaction Technologies, University of Tsukuba, Japan; Eller College of Management, University of Arizona, United States",
-    abstract = "Emotion sensing support system to assist human decision making during interview scenario is a developing research field. This paper presents a new framework for the development of emotion sensing support systems that is a complete, easily extendible, flexible, and configurable environment with intensive benchmark capabilities. The design of the framework was inspired by behavior-driven development, agile software development technique. It provides: 1) effective collaboration platform between technological and psychological researches, and 2) intensive benchmarking capabilities to test the performance of the entire system as well as individual algorithms. © 2012 IEEE.",
-    author_keywords = "affect; behavior-driven development; emotion detection; sensor fusion",
-    keywords = "Information science; Software engineering; affect; Agile software development; behavior-driven development; Collaboration platforms; Emotion detection; Entire system; Human decision making; Psychological research; Research fields; Sensor fusion; Support systems; Benchmarking",
-    correspondence_address = "S. Polikovsky; Department of Intelligent Interaction Technologies, University of Tsukuba, Japan; email: senya@image.iit.tsukuba.ac.jp",
-    language = "English",
-    abbrev_source_title = "Proc. - Eur. Intell. Secur. Informatics Conf., EISIC",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 0; Conference name: 2012 European Intelligence and Security Informatics Conference, EISIC 2012; Conference date: 22 August 2012 through 24 August 2012; Conference code: 93470"
-}</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -9304,28 +7183,12 @@
       <c r="R93" t="n">
         <v>2</v>
       </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>Benchmark Driven Framework for Development of Emotion Sensing Support Systems</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84868521452&amp;doi=10.1109%2fEISIC.2012.27&amp;partnerID=40&amp;md5=0a38b46344f884118c54a8583c41e21e</t>
-        </is>
-      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>nan; References; Publisher</t>
-        </is>
-      </c>
+      <c r="X93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9358,7 +7221,11 @@
           <t>Queue</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2791301.2793039</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -9405,7 +7272,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -9483,66 +7350,33 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>A practical method for API testing in the context of continuous delivery and behavior driven development</t>
+          <t>A Practical Method for API Testing in the Context of Continuous Delivery and Behavior Driven Development</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Enterprises are increasingly adopting an API-first approach to connect and expose software services. Saxo Bank is no exception to this.Crafting test suites for such APIs can seem straight forward due to the headless nature, but our experience shows that test suites often have two problems. The first problem is that execution of tests tends to fail and pass in seemingly nondeterministic ways (tests are flaky). The second problem is that functional coverage is not clearly documented.We have found that both problems stem from a lack of explicit focus on initial context (IC), a concept from behavior driven development. When a test is flaky it is often because actual IC in the test environment is not as required by the test. When functional coverage is not clear, it is most often because a systematic analysis involving IC was not performed.We propose a method for test analysis in which we include IC in the input space when analyzing functional coverage for an API, thereby including anything which can influence the outcome of test cases.Establishing IC is in general a hard problem. We have found that focus on the bounded context, a concept from domain driven design, of the system under test is a practical way to establish relevant IC.Experience with Saxo Bank's Open API shows that this method allows testers and developers to cooperate continuously, producing test plan documents which include the reasoning behind functional coverage. Explicit focus on IC in automated test case implementations turns flaky tests into tests which report on required IC in a test environment. The method easily generalizes to all levels of API tests. © 2021 IEEE.</t>
+          <t>Enterprises are increasingly adopting an API-first approach to connect and expose software services. Saxo Bank is no exception to this. Crafting test suites for such APIs can seem straight forward due to the headless nature, but our experience shows that test suites often have two problems. The first problem is that execution of tests tends to fail and pass in seemingly nondeterministic ways (tests are flaky). The second problem is that functional coverage is not clearly documented. We have found that both problems stem from a lack of explicit focus on initial context (IC), a concept from behavior driven development. When a test is flaky it is often because actual IC in the test environment is not as required by the test. When functional coverage is not clear, it is most often because a systematic analysis involving IC was not performed. We propose a method for test analysis in which we include IC in the input space when analyzing functional coverage for an API, thereby including anything which can influence the outcome of test cases. Establishing IC is in general a hard problem. We have found that focus on the bounded context, a concept from domain driven design, of the system under test is a practical way to establish relevant IC. Experience with Saxo Bank's Open API shows that this method allows testers and developers to cooperate continuously, producing test plan documents which include the reasoning behind functional coverage. Explicit focus on IC in automated test case implementations turns flaky tests into tests which report on required IC in a test environment. The method easily generalizes to all levels of API tests.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Integrated circuits; Testing; Verification; Automated test; Domain-driven designs; Functional coverage; Practical method; Software services; System under test; Systematic analysis; Test Environment; Software testing</t>
+          <t>Combinatorial Testing;API Testing;Behavior Driven Development;Domain Driven Design;Continuous Delivery;Industry;Application</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Bennett, Brian Elgaard</t>
+          <t>B. E. Bennett</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Proceedings - 2021 IEEE 14th International Conference on Software Testing, Verification and Validation Workshops, ICSTW 2021</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ICSTW52544.2021.00020</t>
-        </is>
-      </c>
+          <t>2021 IEEE International Conference on Software Testing, Verification and Validation Workshops (ICSTW)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>44 – 47</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Bennett202144,
-    author = "Bennett, Brian Elgaard",
-    title = "A practical method for API testing in the context of continuous delivery and behavior driven development",
-    year = "2021",
-    journal = "Proceedings - 2021 IEEE 14th International Conference on Software Testing, Verification and Validation Workshops, ICSTW 2021",
-    pages = "44 – 47",
-    doi = "10.1109/ICSTW52544.2021.00020",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85108022218\&amp;doi=10.1109\%2fICSTW52544.2021.00020\&amp;partnerID=40\&amp;md5=9398710261263e5ca74b55f2bfb9e216",
-    affiliations = "OpenAPI Product Team, Saxo Bank A/S, Hellerup, Denmark",
-    abstract = "Enterprises are increasingly adopting an API-first approach to connect and expose software services. Saxo Bank is no exception to this.Crafting test suites for such APIs can seem straight forward due to the headless nature, but our experience shows that test suites often have two problems. The first problem is that execution of tests tends to fail and pass in seemingly nondeterministic ways (tests are flaky). The second problem is that functional coverage is not clearly documented.We have found that both problems stem from a lack of explicit focus on initial context (IC), a concept from behavior driven development. When a test is flaky it is often because actual IC in the test environment is not as required by the test. When functional coverage is not clear, it is most often because a systematic analysis involving IC was not performed.We propose a method for test analysis in which we include IC in the input space when analyzing functional coverage for an API, thereby including anything which can influence the outcome of test cases.Establishing IC is in general a hard problem. We have found that focus on the bounded context, a concept from domain driven design, of the system under test is a practical way to establish relevant IC.Experience with Saxo Bank's Open API shows that this method allows testers and developers to cooperate continuously, producing test plan documents which include the reasoning behind functional coverage. Explicit focus on IC in automated test case implementations turns flaky tests into tests which report on required IC in a test environment. The method easily generalizes to all levels of API tests. © 2021 IEEE.",
-    author_keywords = "API Testing; Application; Behavior Driven Development; Combinatorial Testing; Continuous Delivery; Domain Driven Design; Industry",
-    keywords = "Integrated circuits; Testing; Verification; Automated test; Domain-driven designs; Functional coverage; Practical method; Software services; System under test; Systematic analysis; Test Environment; Software testing",
-    correspondence_address = "B.E. Bennett; OpenAPI Product Team, Saxo Bank A/S, Hellerup, Denmark; email: bb@saxobank.com",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-166544456-9",
-    language = "English",
-    abbrev_source_title = "Proc. - IEEE Int. Conf. Softw. Test., Verif. Valid. Workshops, ICSTW",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 3; Conference name: 14th IEEE International Conference on Software Testing, Verification and Validation Workshops, ICSTW 2021; Conference date: 12 April 2021 through 16 April 2021; Conference code: 169220"
-}</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -9563,32 +7397,12 @@
       <c r="R96" t="n">
         <v>2</v>
       </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>A Practical Method for API Testing in the Context of Continuous Delivery and Behavior Driven Development</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85108022218&amp;doi=10.1109%2fICSTW52544.2021.00020&amp;partnerID=40&amp;md5=9398710261263e5ca74b55f2bfb9e216</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10014,14 +7828,10 @@
           <t>Game-based learning represents a promising alternative to teach computing in higher education. This paper presents “BDD Assemble!”, a paper-based game proposal for teaching Behavior Driven Development (BDD) competences. For this, the proposed game and the evaluation approach with software engineering students are described. As a result, a simple, interactive and colaborative game was provided, able to teach BDD concepts in a practical, competitive and fun way. © IFIP International Federation for Information Processing, 2019.</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Boolean functions; Software engineering; Behavior Driven Development; Development designs; Educational game; Evaluation approach; Game-based Learning; Higher education; Software engineering students; Serious games</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Sarinho, Victor T.</t>
+          <t>Sarinho V.T.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -10029,46 +7839,10 @@
           <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-030-34644-7_41</t>
-        </is>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>431 – 435</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Sarinho2019431,
-    author = "Sarinho, Victor T.",
-    editor = "van der Spek E. and S., Göbel and E., Do and E., Clua and J., Baalsrud Hauge",
-    title = "“BDD Assemble!”: A Paper-Based Game Proposal for Behavior Driven Development Design Learning",
-    year = "2019",
-    journal = "Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)",
-    volume = "11863 LNCS",
-    pages = "431 – 435",
-    doi = "10.1007/978-3-030-34644-7\_41",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85076955587\&amp;doi=10.1007\%2f978-3-030-34644-7\_41\&amp;partnerID=40\&amp;md5=bb3285eb5155fe4140cf6abbc54713c9",
-    affiliations = "Laboratório de Entretenimento Digital Aplicado (LEnDA), State University of Feira de Santana, Av. Transnordestina, s/n, Novo Horizonte, Feira de Santana, Bahia, Brazil",
-    abstract = "Game-based learning represents a promising alternative to teach computing in higher education. This paper presents “BDD Assemble!”, a paper-based game proposal for teaching Behavior Driven Development (BDD) competences. For this, the proposed game and the evaluation approach with software engineering students are described. As a result, a simple, interactive and colaborative game was provided, able to teach BDD concepts in a practical, competitive and fun way. © IFIP International Federation for Information Processing, 2019.",
-    author_keywords = "Behavior Driven Development; Educational game; Paper-based game",
-    keywords = "Boolean functions; Software engineering; Behavior Driven Development; Development designs; Educational game; Evaluation approach; Game-based Learning; Higher education; Software engineering students; Serious games",
-    correspondence_address = "V.T. Sarinho; Laboratório de Entretenimento Digital Aplicado (LEnDA), State University of Feira de Santana, Novo Horizonte, Feira de Santana, Av. Transnordestina, s/n, Brazil; email: vsarinho@uefs.br",
-    publisher = "Springer",
-    issn = "03029743",
-    isbn = "978-303034643-0",
-    language = "English",
-    abbrev_source_title = "Lect. Notes Comput. Sci.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 1; Conference name: 1st IFIP TC 14 Joint International Conference on Entertainment Computing and Serious Games, ICEC-JCSG 2019; Conference date: 11 November 2019 through 15 November 2019; Conference code: 234589"
-}</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -10089,32 +7863,12 @@
       <c r="R103" t="n">
         <v>2</v>
       </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>“BDD Assemble!”: A Paper-Based Game Proposal for Behavior Driven Development Design Learning</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85076955587&amp;doi=10.1007%2f978-3-030-34644-7_41&amp;partnerID=40&amp;md5=bb3285eb5155fe4140cf6abbc54713c9</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>Springer</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10191,12 +7945,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Given that telecommunications networks are constantly groing in complexity and heterogeneity, management systems have to ork ith incomplete data, handle uncertain situations and deal ith dynamic environments. In addition, the high competitiveness in the telecommunications market requires cost cutting and customer retention by providing reliable systems. Thus, improving fault diagnosis systems and reducing the mean time to repair ith automatic systems is an important area of research for telecommunications companies. This paper presents a Fault Diagnosis Multi-Agent System (MAS) applied for the management of a business service of Telefónica Czech Republic. The proposed MAS is based on an extended Belief-Desire-Intention (BDI) model that combines heterogeneous reasoning processes, ontology-based reasoning and Bayesian reasoning. This hybrid diagnostic technique is described in detail in the paper. The system has been evaluated ith data collected during one and a half years of system operation on a live network. The main benefits of the system have been a significant reduction in both the average incident solution time and the mean diagnosis time. © 2012 Elsevier Ltd.</t>
+          <t>Given that telecommunications networks are constantly growing in complexity and heterogeneity, management systems have to work with incomplete data, handle uncertain situations and deal with dynamic environments. In addition, the high competitiveness in the telecommunications market requires cost cutting and customer retention by providing reliable systems. Thus, improving fault diagnosis systems and reducing the mean time to repair with automatic systems is an important area of research for telecommunications companies. This paper presents a Fault Diagnosis Multi-Agent System (MAS) applied for the management of a business service of Telefónica Czech Republic. The proposed MAS is based on an extended Belief-Desire-Intention (BDI) model that combines heterogeneous reasoning processes, ontology-based reasoning and Bayesian reasoning. This hybrid diagnostic technique is described in detail in the paper. The system has been evaluated with data collected during one and a half years of system operation on a live network. The main benefits of the system have been a significant reduction in both the average incident solution time and the mean diagnosis time.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Agents; Bayesian networks; Complex networks; Diagnosis; Multi agent systems; Repair; BDI; Belief-desire-intention models; Fault diagnosis systems; Heterogeneous reasoning; Real-life applications; Telecommunications markets; Telecommunications networks; Uncertainty; Information management</t>
+          <t>Network management, Agent, Bayesian network, Diagnosis, Uncertainty, BDI</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -10209,44 +7963,10 @@
           <t>Journal of Network and Computer Applications</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jnca.2012.11.004</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>146 – 154</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Carrera2014146,
-    author = "Carrera, Álvaro and Iglesias, Carlos A. and García-Algarra, Javier and Kolařík, Dušan",
-    title = "A real-life application of multi-agent systems for fault diagnosis in the provision of an Internet business service",
-    year = "2014",
-    journal = "Journal of Network and Computer Applications",
-    volume = "37",
-    number = "1",
-    pages = "146 – 154",
-    doi = "10.1016/j.jnca.2012.11.004",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84890440026\&amp;doi=10.1016\%2fj.jnca.2012.11.004\&amp;partnerID=40\&amp;md5=c02588feadfa1a138164a0a16ccc365c",
-    affiliations = "Department of Telematic Engineering Systems, Universidad Politécnica de Madrid, ETSI Telecomunicación, 28040 Madrid, Av. Complutense 30, Spain; Telefónica Investigación y Desarrollo, 28050 Madrid, Ronda de la Comunicación s/n, Spain; IP Netork and Services, Telefónica Czech Republic, 130 00 Praha, Olšanská 6, Czech Republic",
-    abstract = "Given that telecommunications networks are constantly groing in complexity and heterogeneity, management systems have to ork ith incomplete data, handle uncertain situations and deal ith dynamic environments. In addition, the high competitiveness in the telecommunications market requires cost cutting and customer retention by providing reliable systems. Thus, improving fault diagnosis systems and reducing the mean time to repair ith automatic systems is an important area of research for telecommunications companies. This paper presents a Fault Diagnosis Multi-Agent System (MAS) applied for the management of a business service of Telefónica Czech Republic. The proposed MAS is based on an extended Belief-Desire-Intention (BDI) model that combines heterogeneous reasoning processes, ontology-based reasoning and Bayesian reasoning. This hybrid diagnostic technique is described in detail in the paper. The system has been evaluated ith data collected during one and a half years of system operation on a live network. The main benefits of the system have been a significant reduction in both the average incident solution time and the mean diagnosis time. © 2012 Elsevier Ltd.",
-    author_keywords = "Agent; Bayesian network; BDI; Diagnosis; Netork management; Uncertainty",
-    keywords = "Agents; Bayesian networks; Complex networks; Diagnosis; Multi agent systems; Repair; BDI; Belief-desire-intention models; Fault diagnosis systems; Heterogeneous reasoning; Real-life applications; Telecommunications markets; Telecommunications networks; Uncertainty; Information management",
-    correspondence_address = "A. Carrera; Department of Telematic Engineering Systems, Universidad Politécnica de Madrid, ETSI Telecomunicación, 28040 Madrid, Av. Complutense 30, Spain; email: a.carrera@dit.upm.es",
-    issn = "10958592",
-    language = "English",
-    abbrev_source_title = "J Network Comput Appl",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 19"
-}</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -10267,28 +7987,12 @@
       <c r="R105" t="n">
         <v>2</v>
       </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>A real-life application of multi-agent systems for fault diagnosis in the provision of an Internet business service</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84890440026&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=ca6f7b61ec7d3d0397052adf79993853&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28a+real+life+application+of+multi+agent+systems+for+fault+diagnosis+in+the+provision+of+an+internet+business+service%29&amp;sl=130&amp;sessionSearchId=ca6f7b61ec7d3d0397052adf79993853&amp;relpos=0</t>
-        </is>
-      </c>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>nan; References; Publisher</t>
-        </is>
-      </c>
+      <c r="X105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10591,61 +8295,28 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>In a user-centered development process, artifacts are aimed to evolve in iterative cycles until they meet users' requirements and then become the final product. Every cycle gives the opportunity to revise the design and to introduce new requirements which might affect the specification of artifacts that have been set in former development phases. Testing the consistency of multiple artifacts used to develop interactive systems every time that a new requirement is introduced it is a cumbersome and time consuming activity, especially if it should be done manually. For that we propose an approach based on Behavior-Driven Development (BDD) to support the automated assessment of artifacts along the development process of interactive systems. In order to prevent that test should be written to every type of artifact, we investigate the use of ontologies for specifying the test once and then run it in all artifacts sharing the ontological concepts. © 2016 IEEE.</t>
+          <t>In a user-centered development process, artifacts are aimed to evolve in iterative cycles until they meet users' requirements and then become the final product. Every cycle gives the opportunity to revise the design and to introduce new requirements which might affect the specification of artifacts that have been set in former development phases. Testing the consistency of multiple artifacts used to develop interactive systems every time that a new requirement is introduced it is a cumbersome and time consuming activity, especially if it should be done manually. For that we propose an approach based on Behavior-Driven Development (BDD) to support the automated assessment of artifacts along the development process of interactive systems. In order to prevent that test should be written to every type of artifact, we investigate the use of ontologies for specifying the test once and then run it in all artifacts sharing the ontological concepts.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Ontology; Requirements engineering; Software prototyping; Automated assessment; Automated Requirements Checking; Behavior-Driven Development; Development process; Interactive system; Ontological modeling; Requirements specifications; User-centered development; Specifications</t>
+          <t>Automated Requirements Checking;Behavior-Driven Development;Ontological Modeling;Prototyping;Multi-Artifact Testing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Silva, Thiago Rocha</t>
+          <t>T. R. Silva</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Proceedings - 2016 IEEE 24th International Requirements Engineering Conference, RE 2016</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/RE.2016.12</t>
-        </is>
-      </c>
+          <t>2016 IEEE 24th International Requirements Engineering Conference (RE)</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>444 – 449</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Silva2016444,
-    author = "Silva, Thiago Rocha",
-    title = "Definition of a Behavior-Driven Model for Requirements Specification and Testing of Interactive Systems",
-    year = "2016",
-    journal = "Proceedings - 2016 IEEE 24th International Requirements Engineering Conference, RE 2016",
-    pages = "444 – 449",
-    doi = "10.1109/RE.2016.12",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85007236127\&amp;doi=10.1109\%2fRE.2016.12\&amp;partnerID=40\&amp;md5=d3927e222108577ce820f94d2282ce7f",
-    affiliations = "ICS-IRIT, Université Paul Sabatier - Toulouse III, Toulouse, France",
-    abstract = "In a user-centered development process, artifacts are aimed to evolve in iterative cycles until they meet users' requirements and then become the final product. Every cycle gives the opportunity to revise the design and to introduce new requirements which might affect the specification of artifacts that have been set in former development phases. Testing the consistency of multiple artifacts used to develop interactive systems every time that a new requirement is introduced it is a cumbersome and time consuming activity, especially if it should be done manually. For that we propose an approach based on Behavior-Driven Development (BDD) to support the automated assessment of artifacts along the development process of interactive systems. In order to prevent that test should be written to every type of artifact, we investigate the use of ontologies for specifying the test once and then run it in all artifacts sharing the ontological concepts. © 2016 IEEE.",
-    author_keywords = "Automated Requirements Checking; Behavior-Driven Development; Multi-Artifact Testing; Ontological Modeling; Prototyping",
-    keywords = "Ontology; Requirements engineering; Software prototyping; Automated assessment; Automated Requirements Checking; Behavior-Driven Development; Development process; Interactive system; Ontological modeling; Requirements specifications; User-centered development; Specifications",
-    correspondence_address = "T.R. Silva; ICS-IRIT, Université Paul Sabatier - Toulouse III, Toulouse, France; email: rocha@irit.fr",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-150904121-3",
-    language = "English",
-    abbrev_source_title = "Proc. - IEEE Int. Requir. Eng. Conf., RE",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 9; Conference name: 24th IEEE International Requirements Engineering Conference, RE 2016; Conference date: 12 September 2016 through 16 September 2016; Conference code: 125191; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -10666,32 +8337,12 @@
       <c r="R110" t="n">
         <v>2</v>
       </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>Definition of a Behavior-Driven Model for Requirements Specification and Testing of Interactive Systems</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85007236127&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=25e0d50dc4ea41c299cd174b495bde06&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28definition+of+a+behavior+driven+model+for+requirements+specification+and+testing+of+interactive+systems%29&amp;sl=118&amp;sessionSearchId=25e0d50dc4ea41c299cd174b495bde06&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -10792,7 +8443,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/2962695.2962711</t>
+          <t>https://doi.org/10.1145/2962695.2962711</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -10928,62 +8579,28 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>In Behaviour-Driven Development (BDD) the behaviour of a software system is specified as a set of example interactions with the system using a 'Given-When-Then' structure. These examples are expressed in high level domain-specific terms, and are executable. They thus act both as a specification of requirements and as tests that can verify whether the current system implementation provides the desired behaviour or not. This approach has many advantages but also presents some problems. When the number of examples grows, BDD specifications can become costly to maintain and extend. Some teams find that parts of the system are effectively frozen due to the challenges of finding and modifying the examples associated with them. We surveyed 75 BDD practitioners from 26 countries to understand the extent of BDD use, its benefits and challenges, and specifically the challenges of maintaining BDD specifications in practice. We found that BDD is in active use amongst respondents, and that the use of domain specific terms, improving communication among stakeholders, the executable nature of BDD specifications, and facilitating comprehension of code intentions are the main benefits of BDD. The results also showed that BDD specifications suffer the same maintenance challenges found in automated test suites more generally. We map the survey results to the literature, and propose 10 research opportunities in this area. © 2018 IEEE.</t>
+          <t>In Behaviour-Driven Development (BDD) the behaviour of a software system is specified as a set of example interactions with the system using a "Given-When-Then" structure. These examples are expressed in high level domain-specific terms, and are executable. They thus act both as a specification of requirements and as tests that can verify whether the current system implementation provides the desired behaviour or not. This approach has many advantages but also presents some problems. When the number of examples grows, BDD specifications can become costly to maintain and extend. Some teams find that parts of the system are effectively frozen due to the challenges of finding and modifying the examples associated with them. We surveyed 75 BDD practitioners from 26 countries to understand the extent of BDD use, its benefits and challenges, and specifically the challenges of maintaining BDD specifications in practice. We found that BDD is in active use amongst respondents, and that the use of domain specific terms, improving communication among stakeholders, the executable nature of BDD specifications, and facilitating comprehension of code intentions are the main benefits of BDD. The results also showed that BDD specifications suffer the same maintenance challenges found in automated test suites more generally. We map the survey results to the literature, and propose 10 research opportunities in this area.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Reengineering; Specifications; Surveys; Automated test; behaviour-driven development; Domain specific; High-level domain; Research opportunities; Software systems; System implementation; Test suites; Boolean functions</t>
+          <t>behaviour-driven development;test suite maintenance;test suite evolution</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Binamungu, Leonard Peter; Embury, Suzanne M.; Konstantinou, Nikolaos</t>
+          <t>L. P. Binamungu; S. M. Embury; N. Konstantinou</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>25th IEEE International Conference on Software Analysis, Evolution and Reengineering, SANER 2018 - Proceedings</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/SANER.2018.8330207</t>
-        </is>
-      </c>
+          <t>2018 IEEE 25th International Conference on Software Analysis, Evolution and Reengineering (SANER)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>175 – 184</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Binamungu2018175,
-    author = "Binamungu, Leonard Peter and Embury, Suzanne M. and Konstantinou, Nikolaos",
-    title = "Maintaining behaviour driven development specifications: Challenges and opportunities",
-    year = "2018",
-    journal = "25th IEEE International Conference on Software Analysis, Evolution and Reengineering, SANER 2018 - Proceedings",
-    volume = "2018-March",
-    pages = "175 – 184",
-    doi = "10.1109/SANER.2018.8330207",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85051037084\&amp;doi=10.1109\%2fSANER.2018.8330207\&amp;partnerID=40\&amp;md5=ecd970534150c2cf0a2a95b3019ee91e",
-    affiliations = "School of Computer Science, University of Manchester, Manchester, United Kingdom",
-    abstract = "In Behaviour-Driven Development (BDD) the behaviour of a software system is specified as a set of example interactions with the system using a 'Given-When-Then' structure. These examples are expressed in high level domain-specific terms, and are executable. They thus act both as a specification of requirements and as tests that can verify whether the current system implementation provides the desired behaviour or not. This approach has many advantages but also presents some problems. When the number of examples grows, BDD specifications can become costly to maintain and extend. Some teams find that parts of the system are effectively frozen due to the challenges of finding and modifying the examples associated with them. We surveyed 75 BDD practitioners from 26 countries to understand the extent of BDD use, its benefits and challenges, and specifically the challenges of maintaining BDD specifications in practice. We found that BDD is in active use amongst respondents, and that the use of domain specific terms, improving communication among stakeholders, the executable nature of BDD specifications, and facilitating comprehension of code intentions are the main benefits of BDD. The results also showed that BDD specifications suffer the same maintenance challenges found in automated test suites more generally. We map the survey results to the literature, and propose 10 research opportunities in this area. © 2018 IEEE.",
-    author_keywords = "behaviour-driven development; test suite evolution; test suite maintenance",
-    keywords = "Reengineering; Specifications; Surveys; Automated test; behaviour-driven development; Domain specific; High-level domain; Research opportunities; Software systems; System implementation; Test suites; Boolean functions",
-    correspondence_address = "L.P. Binamungu; School of Computer Science, University of Manchester, Manchester, United Kingdom; email: leonardpeter.binamungu@manchester.ac.uk",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-153864969-5",
-    language = "English",
-    abbrev_source_title = "IEEE Int. Conf. Softw. Anal., Evol. Reengineering, SANER - Proc.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 18; Conference name: 25th IEEE International Conference on Software Analysis, Evolution and Reengineering, SANER 2018; Conference date: 20 March 2018 through 23 March 2018; Conference code: 135723; All Open Access, Green Open Access"
-}</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
           <t>Included</t>
@@ -11004,32 +8621,12 @@
       <c r="R114" t="n">
         <v>2</v>
       </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>Maintaining behaviour driven development specifications: Challenges and opportunities</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85051037084&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=846059c0a2311614eff4ccbcc61ff5c9&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28maintaining+behaviour+driven+development+specifications+challenges+and+opportunities%29&amp;sl=99&amp;sessionSearchId=846059c0a2311614eff4ccbcc61ff5c9&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -11048,61 +8645,28 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>In Behaviour-Driven Development (BDD), the behaviour of the software to be built is specified as a set of example interactions with the system, expressed using a 'Given-When-Then' structure. The examples are written using customer language, and are readable by end-users. They are also executable, and act as tests that determine whether the implementation matches the desired behaviour or not. This approach can be effective in building a common understanding of the requirements, but it can also face problems. When the suites of examples grow large, they can be difficult and expensive to change. Duplication can creep in, and can be challenging to detect manually. Current tools for detecting duplication in code are also not effective for BDD examples. Moreover, human concerns of readability and clarity can rise. We present an approach for detecting duplication in BDD suites that is based around dynamic tracing, and describe an evaluation based on three open source systems. © 2018 IEEE.</t>
+          <t>In Behaviour-Driven Development (BDD), the behaviour of the software to be built is specified as a set of example interactions with the system, expressed using a “Given-When-Then” structure. The examples are written using customer language, and are readable by end-users. They are also executable, and act as tests that determine whether the implementation matches the desired behaviour or not. This approach can be effective in building a common understanding of the requirements, but it can also face problems. When the suites of examples grow large, they can be difficult and expensive to change. Duplication can creep in, and can be challenging to detect manually. Current tools for detecting duplication in code are also not effective for BDD examples. Moreover, human concerns of readability and clarity can rise. We present an approach for detecting duplication in BDD suites that is based around dynamic tracing, and describe an evaluation based on three open source systems.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Boolean functions; Open source software; Software testing; Behaviour-driven development; Duplication detection; End users; In-buildings; Open source system; Open systems</t>
+          <t>behaviour-driven development;duplication detection;dynamic tracing</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Binamungu, Leonard Peter; Embury, Suzanne M.; Konstantinou, Nikolaos</t>
+          <t>L. P. Binamungu; S. M. Embury; N. Konstantinou</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2018 IEEE 2nd International Workshop on Validation, Analysis and Evolution of Software Tests, VST 2018 - Proceedings</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/VST.2018.8327149</t>
-        </is>
-      </c>
+          <t>2018 IEEE Workshop on Validation, Analysis and Evolution of Software Tests (VST)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>6 – 10</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>@CONFERENCE{Binamungu20186,
-    author = "Binamungu, Leonard Peter and Embury, Suzanne M. and Konstantinou, Nikolaos",
-    title = "Detecting duplicate examples in behaviour driven development specifications",
-    year = "2018",
-    journal = "2018 IEEE 2nd International Workshop on Validation, Analysis and Evolution of Software Tests, VST 2018 - Proceedings",
-    volume = "2018-March",
-    pages = "6 – 10",
-    doi = "10.1109/VST.2018.8327149",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85051002229\&amp;doi=10.1109\%2fVST.2018.8327149\&amp;partnerID=40\&amp;md5=83750c109eb712ae38b32d237b14dafc",
-    affiliations = "School of Computer Science, University of Manchester, Manchester, United Kingdom",
-    abstract = "In Behaviour-Driven Development (BDD), the behaviour of the software to be built is specified as a set of example interactions with the system, expressed using a 'Given-When-Then' structure. The examples are written using customer language, and are readable by end-users. They are also executable, and act as tests that determine whether the implementation matches the desired behaviour or not. This approach can be effective in building a common understanding of the requirements, but it can also face problems. When the suites of examples grow large, they can be difficult and expensive to change. Duplication can creep in, and can be challenging to detect manually. Current tools for detecting duplication in code are also not effective for BDD examples. Moreover, human concerns of readability and clarity can rise. We present an approach for detecting duplication in BDD suites that is based around dynamic tracing, and describe an evaluation based on three open source systems. © 2018 IEEE.",
-    author_keywords = "Behaviour-driven development; Duplication detection; Dynamic tracing",
-    keywords = "Boolean functions; Open source software; Software testing; Behaviour-driven development; Duplication detection; End users; In-buildings; Open source system; Open systems",
-    publisher = "Institute of Electrical and Electronics Engineers Inc.",
-    isbn = "978-153866492-6",
-    language = "English",
-    abbrev_source_title = "IEEE Int. Workshop Valid., Anal. Evol. Softw. Tests, VST - Proc.",
-    type = "Conference paper",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 9; Conference name: 2nd IEEE International Workshop on Validation, Analysis and Evolution of Software Tests, VST 2018; Conference date: 20 March 2018; Conference code: 135603"
-}</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
           <t>Included</t>
@@ -11123,32 +8687,12 @@
       <c r="R115" t="n">
         <v>2</v>
       </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
+      <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>Detecting duplicate examples in behaviour driven development specifications</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85051002229&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=2a64eb24fadad1f09b29454e497d661d&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28detecting+duplicate+examples+in+behaviour+driven+development+specifications%29&amp;sl=90&amp;sessionSearchId=2a64eb24fadad1f09b29454e497d661d&amp;relpos=0</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -11243,7 +8787,11 @@
           <t>MODELS '20: Proceedings of the 23rd ACM/IEEE International Conference on Model Driven Engineering Languages and Systems</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3365438.3410953</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -11290,7 +8838,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -11423,7 +8971,11 @@
           <t>SEHC '13: Proceedings of the 5th International Workshop on Software Engineering in Health Care</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/2663575.2663588</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -11470,7 +9022,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -11509,7 +9061,11 @@
           <t>SEHC '13: Proceedings of the 5th International Workshop on Software Engineering in Health Care</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/2663575.2663588</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -11556,7 +9112,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -12215,7 +9771,11 @@
           <t>CEE-SECR '15: Proceedings of the 11th Central &amp; Eastern European Software Engineering Conference in Russia</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2855667.2855678</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -12262,7 +9822,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -12833,7 +10393,11 @@
           <t>ICGSE '19: Proceedings of the 14th International Conference on Global Software Engineering</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ICGSE.2019.00016</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -12880,7 +10444,7 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -12981,7 +10545,11 @@
           <t>EICS '14: Proceedings of the 2014 ACM SIGCHI symposium on Engineering interactive computing systems</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2607023.2610278</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -13028,7 +10596,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -13067,7 +10635,11 @@
           <t>SBCARS '19: Proceedings of the XIII Brazilian Symposium on Software Components, Architectures, and Reuse</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3357141.3357145</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -13114,7 +10686,7 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -13641,7 +11213,11 @@
           <t>ICPE '19: Proceedings of the 2019 ACM/SPEC International Conference on Performance Engineering</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3297663.3309674</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -13688,7 +11264,7 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -14101,7 +11677,11 @@
           <t>RACS '15: Proceedings of the 2015 Conference on research in adaptive and convergent systems</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2811411.2811555</t>
+        </is>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -14148,7 +11728,7 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -14187,7 +11767,11 @@
           <t>A-TEST 2021: Proceedings of the 12th International Workshop on Automating TEST Case Design, Selection, and Evaluation</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3472672.3473956</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -14234,7 +11818,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -14273,7 +11857,11 @@
           <t>ISEC '21: Proceedings of the 14th Innovations in Software Engineering Conference (formerly known as India Software Engineering Conference)</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3452383.3452388</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -14320,7 +11908,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -14977,7 +12565,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.5555/2662413.2662432</t>
+          <t>https://doi.org/10.5555/2662413.2662432</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -15131,7 +12719,11 @@
           <t>EICS '16: Proceedings of the 8th ACM SIGCHI Symposium on Engineering Interactive Computing Systems</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2933242.2935868</t>
+        </is>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -15178,7 +12770,7 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -15307,7 +12899,11 @@
           <t>SBES '19: Proceedings of the XXXIII Brazilian Symposium on Software Engineering</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3350768.3350781</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -15354,7 +12950,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -15490,7 +13086,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Dynamic signal driving strategy based high speed and low powered dual edge triggered flip flop design used memory applications</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -15513,11 +13109,7 @@
           <t>Microprocessors and Microsystems</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://doi.org/doi:10.1007/978-3-540-29678-2_3</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
@@ -15541,24 +13133,12 @@
       <c r="R174" t="n">
         <v>2</v>
       </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>Pub Med Central</t>
-        </is>
-      </c>
+      <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>Dynamic signal driving strategy based high speed and low powered dual edge triggered flip flop design used memory applications</t>
-        </is>
-      </c>
+      <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr">
-        <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
-        </is>
-      </c>
+      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -15711,7 +13291,11 @@
           <t>CASCON '13: Proceedings of the 2013 Conference of the Center for Advanced Studies on Collaborative Research</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/2555523.2555556</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -15758,7 +13342,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -16251,7 +13835,11 @@
           <t>EuroPLoP '20: Proceedings of the European Conference on Pattern Languages of Programs 2020</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3424771.3424822</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -16298,7 +13886,7 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -16339,7 +13927,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3350768.3351300</t>
+          <t>https://doi.org/10.1145/3350768.3351300</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -16587,7 +14175,11 @@
           <t>A-TEST 2020: Proceedings of the 11th ACM SIGSOFT International Workshop on Automating TEST Case Design, Selection, and Evaluation</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3412452.3423573</t>
+        </is>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -16634,7 +14226,7 @@
       </c>
       <c r="X189" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -16799,7 +14391,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3385209.3385214</t>
+          <t>https://doi.org/10.1145/3385209.3385214</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -17083,7 +14675,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3350768.3350786</t>
+          <t>https://doi.org/10.1145/3350768.3350786</t>
         </is>
       </c>
       <c r="J196" t="inlineStr"/>
@@ -17175,7 +14767,11 @@
           <t>ICSEW'20: Proceedings of the IEEE/ACM 42nd International Conference on Software Engineering Workshops</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr"/>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3387940.3391480</t>
+        </is>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -17222,7 +14818,7 @@
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -17327,7 +14923,11 @@
           <t>SAC '12: Proceedings of the 27th Annual ACM Symposium on Applied Computing</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2245276.2245404</t>
+        </is>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -17374,7 +14974,7 @@
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -17665,7 +15265,11 @@
           <t>WWW '18: Companion Proceedings of the The Web Conference 2018</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3184558.3191654</t>
+        </is>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -17712,7 +15316,7 @@
       </c>
       <c r="X204" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -18065,7 +15669,11 @@
           <t>SBES '20: Proceedings of the XXXIV Brazilian Symposium on Software Engineering</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3422392.3422460</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -18112,7 +15720,7 @@
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -18151,7 +15759,11 @@
           <t>FormaliSE '18: Proceedings of the 6th Conference on Formal Methods in Software Engineering</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3193992.3194000</t>
+        </is>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -18198,7 +15810,7 @@
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -18353,7 +15965,11 @@
           <t>SAST '18: Proceedings of the III Brazilian Symposium on Systematic and Automated Software Testing</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3266003.3266010</t>
+        </is>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -18400,7 +16016,7 @@
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -18659,7 +16275,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.5555/3463952.3464076</t>
+          <t>https://doi.org/10.5555/3463952.3464076</t>
         </is>
       </c>
       <c r="J218" t="inlineStr"/>
@@ -19221,7 +16837,11 @@
           <t>MODELS '20: Proceedings of the 23rd ACM/IEEE International Conference on Model Driven Engineering Languages and Systems: Companion Proceedings</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3417990.3421264</t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -19268,7 +16888,7 @@
       </c>
       <c r="X226" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -19555,7 +17175,11 @@
           <t>SafeThings'17: Proceedings of the 1st ACM Workshop on the Internet of Safe Things</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3137003.3137007</t>
+        </is>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -19602,7 +17226,7 @@
       </c>
       <c r="X231" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -19707,7 +17331,11 @@
           <t>ACM SIGAPP Applied Computing Review</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3357385.3357386</t>
+        </is>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -19754,7 +17382,7 @@
       </c>
       <c r="X233" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -21535,7 +19163,11 @@
           <t>FormaliSE '17: Proceedings of the 5th International FME Workshop on Formal Methods in Software Engineering</t>
         </is>
       </c>
-      <c r="I261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/3101290.3101300</t>
+        </is>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -21582,7 +19214,7 @@
       </c>
       <c r="X261" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -22211,7 +19843,11 @@
           <t>Proceedings of the ACM on Programming Languages</t>
         </is>
       </c>
-      <c r="I271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3386326</t>
+        </is>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
@@ -22254,7 +19890,7 @@
       </c>
       <c r="X271" t="inlineStr">
         <is>
-          <t>nan; References; Pages; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -23195,7 +20831,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1007/s00165-020-00512-5</t>
+          <t>https://doi.org/10.1007/s00165-020-00512-5</t>
         </is>
       </c>
       <c r="J286" t="inlineStr"/>
@@ -23477,7 +21113,11 @@
           <t>Communications of the ACM</t>
         </is>
       </c>
-      <c r="I290" t="inlineStr"/>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2755501</t>
+        </is>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -23524,7 +21164,7 @@
       </c>
       <c r="X290" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -23563,7 +21203,11 @@
           <t>WebMedia '19: Proceedings of the 25th Brazillian Symposium on Multimedia and the Web</t>
         </is>
       </c>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3323503.3360639</t>
+        </is>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -23610,7 +21254,7 @@
       </c>
       <c r="X291" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -24585,7 +22229,11 @@
           <t>ICSE '15: Proceedings of the 37th International Conference on Software Engineering - Volume 2</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr"/>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/2819009.2819154</t>
+        </is>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -24632,7 +22280,7 @@
       </c>
       <c r="X306" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -24917,7 +22565,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/1984732.1984736</t>
+          <t>https://doi.org/10.1145/1984732.1984736</t>
         </is>
       </c>
       <c r="J311" t="inlineStr"/>
@@ -26359,7 +24007,11 @@
           <t>ACM SIGSOFT Software Engineering Notes</t>
         </is>
       </c>
-      <c r="I335" t="inlineStr"/>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/1988997.1989006</t>
+        </is>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
@@ -26402,7 +24054,7 @@
       </c>
       <c r="X335" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -26929,7 +24581,11 @@
           <t>ICGDA '20: Proceedings of the 2020 3rd International Conference on Geoinformatics and Data Analysis</t>
         </is>
       </c>
-      <c r="I344" t="inlineStr"/>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3397056.3397085</t>
+        </is>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -26976,7 +24632,7 @@
       </c>
       <c r="X344" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -27421,7 +25077,11 @@
           <t>PLATEAU 2016: Proceedings of the 7th International Workshop on Evaluation and Usability of Programming Languages and Tools</t>
         </is>
       </c>
-      <c r="I352" t="inlineStr"/>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3001878.3001881</t>
+        </is>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -27468,7 +25128,7 @@
       </c>
       <c r="X352" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -27542,7 +25202,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>The Appendix in Parkinson's Disease: From Vestigial Remnant to Vital Organ?</t>
+          <t>Appendix</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -27557,11 +25217,7 @@
         </is>
       </c>
       <c r="H354" t="inlineStr"/>
-      <c r="I354" t="inlineStr">
-        <is>
-          <t>https://doi.org/doi:10.3233/JPD-191703</t>
-        </is>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
@@ -27585,24 +25241,12 @@
       <c r="R354" t="n">
         <v>2</v>
       </c>
-      <c r="S354" t="inlineStr">
-        <is>
-          <t>Pub Med Central</t>
-        </is>
-      </c>
+      <c r="S354" t="inlineStr"/>
       <c r="T354" t="inlineStr"/>
-      <c r="U354" t="inlineStr">
-        <is>
-          <t>Appendix</t>
-        </is>
-      </c>
+      <c r="U354" t="inlineStr"/>
       <c r="V354" t="inlineStr"/>
       <c r="W354" t="inlineStr"/>
-      <c r="X354" t="inlineStr">
-        <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
-        </is>
-      </c>
+      <c r="X354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -28095,7 +25739,11 @@
           <t>WSC '21: Proceedings of the Winter Simulation Conference</t>
         </is>
       </c>
-      <c r="I363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/3522802.3522901</t>
+        </is>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -28142,7 +25790,7 @@
       </c>
       <c r="X363" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -28181,7 +25829,11 @@
           <t>ISSTA 2024: Proceedings of the 33rd ACM SIGSOFT International Symposium on Software Testing and Analysis</t>
         </is>
       </c>
-      <c r="I364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3650212.3685559</t>
+        </is>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -28228,7 +25880,7 @@
       </c>
       <c r="X364" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -28317,7 +25969,11 @@
           <t>SA '13: SIGGRAPH Asia 2013 Courses</t>
         </is>
       </c>
-      <c r="I366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2542266.2542269</t>
+        </is>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -28364,7 +26020,7 @@
       </c>
       <c r="X366" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; Keywords; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -28403,7 +26059,11 @@
           <t>GAS '24: Proceedings of the ACM/IEEE 8th International Workshop on Games and Software Engineering</t>
         </is>
       </c>
-      <c r="I367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3643658.3643919</t>
+        </is>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -28450,7 +26110,7 @@
       </c>
       <c r="X367" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -28489,7 +26149,11 @@
           <t>HRI '24: Companion of the 2024 ACM/IEEE International Conference on Human-Robot Interaction</t>
         </is>
       </c>
-      <c r="I368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3610978.3640618</t>
+        </is>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -28536,7 +26200,7 @@
       </c>
       <c r="X368" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -28865,7 +26529,11 @@
           <t>WoSC '22: Proceedings of the Eighth International Workshop on Serverless Computing</t>
         </is>
       </c>
-      <c r="I374" t="inlineStr"/>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3565382.3565882</t>
+        </is>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -28912,7 +26580,7 @@
       </c>
       <c r="X374" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -29287,7 +26955,11 @@
           <t>ICWET '10: Proceedings of the International Conference and Workshop on Emerging Trends in Technology</t>
         </is>
       </c>
-      <c r="I381" t="inlineStr"/>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/1741906.1742029</t>
+        </is>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -29334,7 +27006,7 @@
       </c>
       <c r="X381" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -29605,7 +27277,11 @@
           <t>SA '22: SIGGRAPH Asia 2022 XR</t>
         </is>
       </c>
-      <c r="I386" t="inlineStr"/>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3550472.3558410</t>
+        </is>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -29652,7 +27328,7 @@
       </c>
       <c r="X386" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -29749,7 +27425,11 @@
           <t>IDE '24: Proceedings of the 1st ACM/IEEE Workshop on Integrated Development Environments</t>
         </is>
       </c>
-      <c r="I388" t="inlineStr"/>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3643796.3648462</t>
+        </is>
+      </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -29796,7 +27476,7 @@
       </c>
       <c r="X388" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -30071,7 +27751,11 @@
           <t>WICON '08: Proceedings of the 4th Annual International Conference on Wireless Internet</t>
         </is>
       </c>
-      <c r="I393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/1554126.1554192</t>
+        </is>
+      </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -30118,7 +27802,7 @@
       </c>
       <c r="X393" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -30192,7 +27876,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Promoting active aging through assistive product design innovation: a preference-based integrated design framework</t>
+          <t>Design</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -30207,11 +27891,7 @@
         </is>
       </c>
       <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr">
-        <is>
-          <t>https://doi.org/doi:10.3389/fpubh.2023.1203830</t>
-        </is>
-      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr"/>
@@ -30235,24 +27915,12 @@
       <c r="R395" t="n">
         <v>2</v>
       </c>
-      <c r="S395" t="inlineStr">
-        <is>
-          <t>Pub Med Central</t>
-        </is>
-      </c>
+      <c r="S395" t="inlineStr"/>
       <c r="T395" t="inlineStr"/>
-      <c r="U395" t="inlineStr">
-        <is>
-          <t>Design</t>
-        </is>
-      </c>
+      <c r="U395" t="inlineStr"/>
       <c r="V395" t="inlineStr"/>
       <c r="W395" t="inlineStr"/>
-      <c r="X395" t="inlineStr">
-        <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
-        </is>
-      </c>
+      <c r="X395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -30320,7 +27988,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Fanning the Flames of Passion: A Develop Mindset Predicts Strategy-Use Intentions to Cultivate Passion</t>
+          <t>Develop</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -30335,11 +28003,7 @@
         </is>
       </c>
       <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr">
-        <is>
-          <t>https://doi.org/doi:10.3389/fpsyg.2021.634903</t>
-        </is>
-      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr"/>
@@ -30363,24 +28027,12 @@
       <c r="R397" t="n">
         <v>2</v>
       </c>
-      <c r="S397" t="inlineStr">
-        <is>
-          <t>Pub Med Central</t>
-        </is>
-      </c>
+      <c r="S397" t="inlineStr"/>
       <c r="T397" t="inlineStr"/>
-      <c r="U397" t="inlineStr">
-        <is>
-          <t>Develop</t>
-        </is>
-      </c>
+      <c r="U397" t="inlineStr"/>
       <c r="V397" t="inlineStr"/>
       <c r="W397" t="inlineStr"/>
-      <c r="X397" t="inlineStr">
-        <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
-        </is>
-      </c>
+      <c r="X397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -30873,7 +28525,11 @@
           <t>ISSTA 2016: Proceedings of the 25th International Symposium on Software Testing and Analysis</t>
         </is>
       </c>
-      <c r="I406" t="inlineStr"/>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/2931037.2931042</t>
+        </is>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -30920,7 +28576,7 @@
       </c>
       <c r="X406" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -31052,7 +28708,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Online social transparency in enterprise information systems: a risk assessment method</t>
+          <t>Enterprise Information Systems</t>
         </is>
       </c>
       <c r="E409" t="inlineStr"/>
@@ -31063,11 +28719,7 @@
         </is>
       </c>
       <c r="H409" t="inlineStr"/>
-      <c r="I409" t="inlineStr">
-        <is>
-          <t>https://doi.org/doi:10.1007/s10799-021-00347-3</t>
-        </is>
-      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr"/>
@@ -31091,24 +28743,12 @@
       <c r="R409" t="n">
         <v>2</v>
       </c>
-      <c r="S409" t="inlineStr">
-        <is>
-          <t>Pub Med Central</t>
-        </is>
-      </c>
+      <c r="S409" t="inlineStr"/>
       <c r="T409" t="inlineStr"/>
-      <c r="U409" t="inlineStr">
-        <is>
-          <t>Enterprise Information Systems</t>
-        </is>
-      </c>
+      <c r="U409" t="inlineStr"/>
       <c r="V409" t="inlineStr"/>
       <c r="W409" t="inlineStr"/>
-      <c r="X409" t="inlineStr">
-        <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
-        </is>
-      </c>
+      <c r="X409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -31122,7 +28762,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>ESPRESSO: Robust discovery and quantification of transcript isoforms from error-prone long-read RNA-seq data</t>
+          <t>Espresso</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -31137,11 +28777,7 @@
         </is>
       </c>
       <c r="H410" t="inlineStr"/>
-      <c r="I410" t="inlineStr">
-        <is>
-          <t>https://doi.org/doi:10.1126/sciadv.abq5072</t>
-        </is>
-      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr"/>
@@ -31165,24 +28801,12 @@
       <c r="R410" t="n">
         <v>2</v>
       </c>
-      <c r="S410" t="inlineStr">
-        <is>
-          <t>Pub Med Central</t>
-        </is>
-      </c>
+      <c r="S410" t="inlineStr"/>
       <c r="T410" t="inlineStr"/>
-      <c r="U410" t="inlineStr">
-        <is>
-          <t>Espresso</t>
-        </is>
-      </c>
+      <c r="U410" t="inlineStr"/>
       <c r="V410" t="inlineStr"/>
       <c r="W410" t="inlineStr"/>
-      <c r="X410" t="inlineStr">
-        <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
-        </is>
-      </c>
+      <c r="X410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -31393,7 +29017,11 @@
           <t>NISS '21: Proceedings of the 4th International Conference on Networking, Information Systems &amp; Security</t>
         </is>
       </c>
-      <c r="I414" t="inlineStr"/>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3454127.3457627</t>
+        </is>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -31440,7 +29068,7 @@
       </c>
       <c r="X414" t="inlineStr">
         <is>
-          <t>nan; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -32163,11 +29791,7 @@
         </is>
       </c>
       <c r="H427" t="inlineStr"/>
-      <c r="I427" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2585239/</t>
-        </is>
-      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr"/>
@@ -32191,28 +29815,12 @@
       <c r="R427" t="n">
         <v>2</v>
       </c>
-      <c r="S427" t="inlineStr">
-        <is>
-          <t>Pub Med Central</t>
-        </is>
-      </c>
+      <c r="S427" t="inlineStr"/>
       <c r="T427" t="inlineStr"/>
-      <c r="U427" t="inlineStr">
-        <is>
-          <t>Getting Started</t>
-        </is>
-      </c>
-      <c r="V427" t="inlineStr">
-        <is>
-          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2585239/</t>
-        </is>
-      </c>
+      <c r="U427" t="inlineStr"/>
+      <c r="V427" t="inlineStr"/>
       <c r="W427" t="inlineStr"/>
-      <c r="X427" t="inlineStr">
-        <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Publisher</t>
-        </is>
-      </c>
+      <c r="X427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -32740,58 +30348,17 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>HR-Index: An Effective Index Method for Historical Reachability Queries over Evolving Graphs</t>
-        </is>
-      </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>Reachability query is a fundamental problem and has been well studied on static graphs. However, in the real world, the graphs are not static but always evolving over time. In this paper, we study the problem of historical reachability query on evolving graphs. We propose a novel index, named HR-Index, which integrates complete and correct historical reachability information of the evolving graph. A historical reachability query on an evolving graph can be converted into a static reachability query on its HR-Index and thus query efficiency can be improved significantly. We also propose two optimization techniques to reduce the size of HR-Index effectively. We confirm the effectiveness and efficiency of our method through conducting extensive experiments on real-life datasets. Experimental results show both vertex and edge size of HR-Index are far smaller than that of the evolving graphs and our method has at least an order of magnitude improvement in time and space efficiency compared to the state-of-the-art method.</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>evolving graph;  index;  reachability query</t>
-        </is>
-      </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>Yang, Yajun; Li, Hanxiao; Zhu, Xiangju; Wang, Junhu; Wang, Xin; Gao, Hong</t>
-        </is>
-      </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>Proc. ACM Manag. Data</t>
-        </is>
-      </c>
-      <c r="I437" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3589272</t>
-        </is>
-      </c>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>@article{10.1145/3589272,
-    author = "Yang, Yajun and Li, Hanxiao and Zhu, Xiangju and Wang, Junhu and Wang, Xin and Gao, Hong",
-    title = "HR-Index: An Effective Index Method for Historical Reachability Queries over Evolving Graphs",
-    year = "2023",
-    issue_date = "June 2023",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    volume = "1",
-    number = "2",
-    url = "https://doi.org/10.1145/3589272",
-    doi = "10.1145/3589272",
-    abstract = "Reachability query is a fundamental problem and has been well studied on static graphs. However, in the real world, the graphs are not static but always evolving over time. In this paper, we study the problem of historical reachability query on evolving graphs. We propose a novel index, named HR-Index, which integrates complete and correct historical reachability information of the evolving graph. A historical reachability query on an evolving graph can be converted into a static reachability query on its HR-Index and thus query efficiency can be improved significantly. We also propose two optimization techniques to reduce the size of HR-Index effectively. We confirm the effectiveness and efficiency of our method through conducting extensive experiments on real-life datasets. Experimental results show both vertex and edge size of HR-Index are far smaller than that of the evolving graphs and our method has at least an order of magnitude improvement in time and space efficiency compared to the state-of-the-art method.",
-    journal = "Proc. ACM Manag. Data",
-    month = "jun",
-    articleno = "127",
-    numpages = "25",
-    keywords = "evolving graph, index, reachability query"
-}</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -32814,26 +30381,10 @@
       </c>
       <c r="S437" t="inlineStr"/>
       <c r="T437" t="inlineStr"/>
-      <c r="U437" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="V437" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3589272</t>
-        </is>
-      </c>
-      <c r="W437" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X437" t="inlineStr">
-        <is>
-          <t>nan; References; Pages; Source</t>
-        </is>
-      </c>
+      <c r="U437" t="inlineStr"/>
+      <c r="V437" t="inlineStr"/>
+      <c r="W437" t="inlineStr"/>
+      <c r="X437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -33195,22 +30746,18 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Language design and implementation using ruby and the interpreter pattern</t>
+          <t>Interpreter Pattern</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>In this paper, the S-expression Interpreter Framework (SIF) is presented as a tool for teaching language design and implementation. The SIF is based on the interpreter design pattern and is written in the Ruby programming language. Its core is quite small, but it can be easily extended by adding primitive procedures and special forms. The SIF can be used to demonstrate advanced language concepts (variable scopes, continuations, etc.) as well as different programming styles (functional, imperative, and object oriented).</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>s-expression;  ruby;  interpreter;  design patterns</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4842-2680-3_12</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>Ortiz, Ariel</t>
+          <t>Wessel Badenhorst</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -33218,57 +30765,10 @@
           <t>These keywords were added by machine and not by the authors. This process is experimental and the keywords may be updated as the learning algorithm improves.</t>
         </is>
       </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/1352135.1352155</t>
-        </is>
-      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>48–52</t>
-        </is>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/1352135.1352155,
-    author = "Ortiz, Ariel",
-    title = "Language design and implementation using ruby and the interpreter pattern",
-    year = "2008",
-    isbn = "9781595937995",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/1352135.1352155",
-    doi = "10.1145/1352135.1352155",
-    abstract = "In this paper, the S-expression Interpreter Framework (SIF) is presented as a tool for teaching language design and implementation. The SIF is based on the interpreter design pattern and is written in the Ruby programming language. Its core is quite small, but it can be easily extended by adding primitive procedures and special forms. The SIF can be used to demonstrate advanced language concepts (variable scopes, continuations, etc.) as well as different programming styles (functional, imperative, and object oriented).",
-    booktitle = "Proceedings of the 39th SIGCSE Technical Symposium on Computer Science Education",
-    pages = "48–52",
-    numpages = "5",
-    keywords = "s-expression, ruby, interpreter, design patterns",
-    location = "Portland, OR, USA",
-    series = "SIGCSE '08"
-}
-@article{10.1145/1352322.1352155,
-    author = "Ortiz, Ariel",
-    title = "Language design and implementation using ruby and the interpreter pattern",
-    year = "2008",
-    issue_date = "March 2008",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    volume = "40",
-    number = "1",
-    issn = "0097-8418",
-    url = "https://doi.org/10.1145/1352322.1352155",
-    doi = "10.1145/1352322.1352155",
-    abstract = "In this paper, the S-expression Interpreter Framework (SIF) is presented as a tool for teaching language design and implementation. The SIF is based on the interpreter design pattern and is written in the Ruby programming language. Its core is quite small, but it can be easily extended by adding primitive procedures and special forms. The SIF can be used to demonstrate advanced language concepts (variable scopes, continuations, etc.) as well as different programming styles (functional, imperative, and object oriented).",
-    journal = "SIGCSE Bull.",
-    month = "mar",
-    pages = "48–52",
-    numpages = "5",
-    keywords = "s-expression, ruby, interpreter, design patterns"
-}</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -33291,26 +30791,10 @@
       </c>
       <c r="S444" t="inlineStr"/>
       <c r="T444" t="inlineStr"/>
-      <c r="U444" t="inlineStr">
-        <is>
-          <t>Interpreter Pattern</t>
-        </is>
-      </c>
-      <c r="V444" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/1352135.1352155</t>
-        </is>
-      </c>
-      <c r="W444" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X444" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U444" t="inlineStr"/>
+      <c r="V444" t="inlineStr"/>
+      <c r="W444" t="inlineStr"/>
+      <c r="X444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -34016,56 +31500,25 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Generating fixtures for JavaScript unit testing</t>
+          <t>JavaScript Unit Testing</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>In today's web applications, JavaScript code interacts with the Document Object Model (DOM) at runtime. This runtime interaction between JavaScript and the DOM is error-prone and challenging to test. In order to unit test a JavaScript function that has read/write DOM operations, a DOM instance has to be provided as a test fixture. This DOM fixture needs to be in the exact structure expected by the function under test. Otherwise, the test case can terminate prematurely due to a null exception. Generating these fixtures is challenging due to the dynamic nature of JavaScript and the hierarchical structure of the DOM. We present an automated technique, based on dynamic symbolic execution, which generates test fixtures for unit testing JavaScript functions. Our approach is implemented in a tool called ConFix. Our empirical evaluation shows that ConFix can effectively generate tests that cover DOM-dependent paths. We also find that ConFix yields considerably higher coverage compared to an existing JavaScript input generation technique.</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>DOM;  JavaScript;  concolic execution;  dynamic symbolic execution;  test fixture;  test generation;  web applications</t>
-        </is>
-      </c>
+          <t>https://link.springer.com/chapter/10.1007/978-1-4302-6674-7_10</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Fard, Amin Milani; Mesbah, Ali; Wohlstadter, Eric</t>
+          <t>Gil FinkIdo Flatow</t>
         </is>
       </c>
       <c r="H457" t="inlineStr"/>
-      <c r="I457" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ASE.2015.26</t>
-        </is>
-      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>190–200</t>
-        </is>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1109/ASE.2015.26,
-    author = "Fard, Amin Milani and Mesbah, Ali and Wohlstadter, Eric",
-    title = "Generating fixtures for JavaScript unit testing",
-    year = "2015",
-    isbn = "9781509000241",
-    publisher = "IEEE Press",
-    url = "https://doi.org/10.1109/ASE.2015.26",
-    doi = "10.1109/ASE.2015.26",
-    abstract = "In today's web applications, JavaScript code interacts with the Document Object Model (DOM) at runtime. This runtime interaction between JavaScript and the DOM is error-prone and challenging to test. In order to unit test a JavaScript function that has read/write DOM operations, a DOM instance has to be provided as a test fixture. This DOM fixture needs to be in the exact structure expected by the function under test. Otherwise, the test case can terminate prematurely due to a null exception. Generating these fixtures is challenging due to the dynamic nature of JavaScript and the hierarchical structure of the DOM. We present an automated technique, based on dynamic symbolic execution, which generates test fixtures for unit testing JavaScript functions. Our approach is implemented in a tool called ConFix. Our empirical evaluation shows that ConFix can effectively generate tests that cover DOM-dependent paths. We also find that ConFix yields considerably higher coverage compared to an existing JavaScript input generation technique.",
-    booktitle = "Proceedings of the 30th IEEE/ACM International Conference on Automated Software Engineering",
-    pages = "190–200",
-    numpages = "11",
-    keywords = "DOM, JavaScript, concolic execution, dynamic symbolic execution, test fixture, test generation, web applications",
-    location = "Lincoln, Nebraska",
-    series = "ASE '15"
-}</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -34088,26 +31541,10 @@
       </c>
       <c r="S457" t="inlineStr"/>
       <c r="T457" t="inlineStr"/>
-      <c r="U457" t="inlineStr">
-        <is>
-          <t>JavaScript Unit Testing</t>
-        </is>
-      </c>
-      <c r="V457" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ASE.2015.26</t>
-        </is>
-      </c>
-      <c r="W457" t="inlineStr">
-        <is>
-          <t>IEEE Press</t>
-        </is>
-      </c>
-      <c r="X457" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U457" t="inlineStr"/>
+      <c r="V457" t="inlineStr"/>
+      <c r="W457" t="inlineStr"/>
+      <c r="X457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -34747,56 +32184,25 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Layout and Image Recognition Driving Cross-Platform Automated Mobile Testing</t>
+          <t>Mobile Testing</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>The fragmentation problem has extended from Android to different platforms, such as iOS, mobile web, and even mini-programs within some applications (app), like WeChat1. In such a situation, recording and replaying test scripts is one of the most popular automated mobile app testing approaches. However, such approach encounters severe problems when crossing platforms. Different versions of the same app need to be developed to support different platforms relying on different platform supports. Therefore, mobile app developers need to develop and maintain test scripts for multiple platforms aimed at completely the same test requirements, greatly increasing testing costs. However, we discover that developers adopt highly similar user interface layouts for versions of the same app on different platforms. Such a phenomenon inspires us to replay test scripts from the perspective of similar UI layouts.In this paper, we propose an image-driven mobile app testing framework, utilizing Widget Feature Matching and Layout Characterization Matching to analyze app UIs. We use computer vision (CV) technologies to perform UI feature comparison and layout hierarchy extraction on mobile app screenshots to obtain UI structures containing rich contextual information of app widgets, including coordinates, relative relationship, etc. Based on acquired UI structures, we can form a platform-independent test script, and then locate the target widgets under test. Thus, the proposed framework non-intrusively replays test scripts according to a novel platform-independent test script model. We also design and implement a tool named LIRAT to devote the proposed framework into practice, based on which, we conduct an empirical study to evaluate the effectiveness and usability of the proposed testing framework. The results show that the overall replay accuracy reaches around 65.85\% on Android (8.74\% improvement over state-of-the-art approaches) and 35.26\% on iOS (35\% improvement over state-of-the-art approaches).</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>Record and Replay;  Mobile Testing;  Image Analysis;  Cross-Platform Testing</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4302-4039-6_13</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Yu, Shengcheng; Fang, Chunrong; Yun, Yexiao; Feng, Yang</t>
+          <t>Scott Preston</t>
         </is>
       </c>
       <c r="H469" t="inlineStr"/>
-      <c r="I469" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ICSE43902.2021.00139</t>
-        </is>
-      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>1561–1571</t>
-        </is>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1109/ICSE43902.2021.00139,
-    author = "Yu, Shengcheng and Fang, Chunrong and Yun, Yexiao and Feng, Yang",
-    title = "Layout and Image Recognition Driving Cross-Platform Automated Mobile Testing",
-    year = "2021",
-    isbn = "9781450390859",
-    publisher = "IEEE Press",
-    url = "https://doi.org/10.1109/ICSE43902.2021.00139",
-    doi = "10.1109/ICSE43902.2021.00139",
-    abstract = "The fragmentation problem has extended from Android to different platforms, such as iOS, mobile web, and even mini-programs within some applications (app), like WeChat1. In such a situation, recording and replaying test scripts is one of the most popular automated mobile app testing approaches. However, such approach encounters severe problems when crossing platforms. Different versions of the same app need to be developed to support different platforms relying on different platform supports. Therefore, mobile app developers need to develop and maintain test scripts for multiple platforms aimed at completely the same test requirements, greatly increasing testing costs. However, we discover that developers adopt highly similar user interface layouts for versions of the same app on different platforms. Such a phenomenon inspires us to replay test scripts from the perspective of similar UI layouts.In this paper, we propose an image-driven mobile app testing framework, utilizing Widget Feature Matching and Layout Characterization Matching to analyze app UIs. We use computer vision (CV) technologies to perform UI feature comparison and layout hierarchy extraction on mobile app screenshots to obtain UI structures containing rich contextual information of app widgets, including coordinates, relative relationship, etc. Based on acquired UI structures, we can form a platform-independent test script, and then locate the target widgets under test. Thus, the proposed framework non-intrusively replays test scripts according to a novel platform-independent test script model. We also design and implement a tool named LIRAT to devote the proposed framework into practice, based on which, we conduct an empirical study to evaluate the effectiveness and usability of the proposed testing framework. The results show that the overall replay accuracy reaches around 65.85\\% on Android (8.74\\% improvement over state-of-the-art approaches) and 35.26\\% on iOS (35\\% improvement over state-of-the-art approaches).",
-    booktitle = "Proceedings of the 43rd International Conference on Software Engineering",
-    pages = "1561–1571",
-    numpages = "11",
-    keywords = "Record and Replay, Mobile Testing, Image Analysis, Cross-Platform Testing",
-    location = "Madrid, Spain",
-    series = "ICSE '21"
-}</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -34819,26 +32225,10 @@
       </c>
       <c r="S469" t="inlineStr"/>
       <c r="T469" t="inlineStr"/>
-      <c r="U469" t="inlineStr">
-        <is>
-          <t>Mobile Testing</t>
-        </is>
-      </c>
-      <c r="V469" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ICSE43902.2021.00139</t>
-        </is>
-      </c>
-      <c r="W469" t="inlineStr">
-        <is>
-          <t>IEEE Press</t>
-        </is>
-      </c>
-      <c r="X469" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U469" t="inlineStr"/>
+      <c r="V469" t="inlineStr"/>
+      <c r="W469" t="inlineStr"/>
+      <c r="X469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -35838,57 +33228,25 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Reducing Barriers to Entry by Removing Prerequisites for a CS1 Introductory Programming Course</t>
+          <t>Prerequisites</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Introductory programming has evolved in many places to become a CS0 course, enabling students to get their feet wet with programming without completing significant math coursework. A scan of CS programs shows that a majority of CS1 programming courses that count towards an undergraduate CS degree continue to have a math or CS0 prerequisite. This experience report discusses the impact of removing the math prerequisite at an R2 university and a small liberal arts college. Having minimal prerequisites has beneficial effects in terms of diversifying the CS student body as well as enabling students to begin CS coursework early, often in the first semester, potentially impacting persistence, but also enabling students to decide, early, if CS is right for them. The high success rate of students of various backgrounds taking CS certificates and pursuing graduate school also shows that aggressive prerequisites in the past may have been functioning as barriers to entering CS programs. If we are serious about supporting diversity, we need to acknowledge the wide disparity in high school education nationwide and that prerequisites are perhaps functioning as a needless barrier. Where the CS0 course doesn't count towards a degree, or there isn't space for that requirement in the program, it is also worth considering whether the CS0 prerequisite is necessary.</t>
-        </is>
-      </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>Barrier Reduction;  Broadening Participation in Computing (BPC);  CS1;  Diversity;  Intro Programming</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4302-2887-5_3</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr">
         <is>
-          <t>Das, Udayan; Fulton, Chris</t>
+          <t>Steven Sanderson</t>
         </is>
       </c>
       <c r="H487" t="inlineStr"/>
-      <c r="I487" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3626253.3635492</t>
-        </is>
-      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>1616–1617</t>
-        </is>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3626253.3635492,
-    author = "Das, Udayan and Fulton, Chris",
-    title = "Reducing Barriers to Entry by Removing Prerequisites for a CS1 Introductory Programming Course",
-    year = "2024",
-    isbn = "9798400704246",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3626253.3635492",
-    doi = "10.1145/3626253.3635492",
-    abstract = "Introductory programming has evolved in many places to become a CS0 course, enabling students to get their feet wet with programming without completing significant math coursework. A scan of CS programs shows that a majority of CS1 programming courses that count towards an undergraduate CS degree continue to have a math or CS0 prerequisite. This experience report discusses the impact of removing the math prerequisite at an R2 university and a small liberal arts college. Having minimal prerequisites has beneficial effects in terms of diversifying the CS student body as well as enabling students to begin CS coursework early, often in the first semester, potentially impacting persistence, but also enabling students to decide, early, if CS is right for them. The high success rate of students of various backgrounds taking CS certificates and pursuing graduate school also shows that aggressive prerequisites in the past may have been functioning as barriers to entering CS programs. If we are serious about supporting diversity, we need to acknowledge the wide disparity in high school education nationwide and that prerequisites are perhaps functioning as a needless barrier. Where the CS0 course doesn't count towards a degree, or there isn't space for that requirement in the program, it is also worth considering whether the CS0 prerequisite is necessary.",
-    booktitle = "Proceedings of the 55th ACM Technical Symposium on Computer Science Education V. 2",
-    pages = "1616–1617",
-    numpages = "2",
-    keywords = "Barrier Reduction, Broadening Participation in Computing (BPC), CS1, Diversity, Intro Programming",
-    location = "Portland, OR, USA",
-    series = "SIGCSE 2024"
-}</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -35911,26 +33269,10 @@
       </c>
       <c r="S487" t="inlineStr"/>
       <c r="T487" t="inlineStr"/>
-      <c r="U487" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="V487" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3626253.3635492</t>
-        </is>
-      </c>
-      <c r="W487" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X487" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U487" t="inlineStr"/>
+      <c r="V487" t="inlineStr"/>
+      <c r="W487" t="inlineStr"/>
+      <c r="X487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -36002,70 +33344,25 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>A tentative framework for connecting long-term business and product planning with iterative \&amp;amp; incremental software product development</t>
+          <t>Product Planning</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>For a company in the software product business, it is essential to understand how to connect business management and software development [17] and employ a solid, value-based approach in its decision-making. However, software engineering literature (SE) commonly addresses what should be done at the "floor level" and leaves the link to business and product management unaddressed [14]. Also, existing software development models mostly adhere to the viewpoint of individual development projects and thus fail to sufficiently address common product development concerns such as multi-project or project portfolio management [20].</t>
+          <t>http://link.springer.com/chapter/10.1007/978-3-642-55140-6_4</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr">
         <is>
-          <t>V\"{a}h\"{a}niitty, Jarno</t>
+          <t>Hans-Bernd KittlausSamuel A. Fricker</t>
         </is>
       </c>
       <c r="H489" t="inlineStr"/>
-      <c r="I489" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/1083091.1083097</t>
-        </is>
-      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>1–4</t>
-        </is>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/1083091.1083097,
-    author = {V\"{a}h\"{a}niitty, Jarno},
-    title = "A tentative framework for connecting long-term business and product planning with iterative \\&amp;amp; incremental software product development",
-    year = "2005",
-    isbn = "159593118X",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/1083091.1083097",
-    doi = "10.1145/1083091.1083097",
-    abstract = {For a company in the software product business, it is essential to understand how to connect business management and software development [17] and employ a solid, value-based approach in its decision-making. However, software engineering literature (SE) commonly addresses what should be done at the "floor level" and leaves the link to business and product management unaddressed [14]. Also, existing software development models mostly adhere to the viewpoint of individual development projects and thus fail to sufficiently address common product development concerns such as multi-project or project portfolio management [20].},
-    booktitle = "Proceedings of the Seventh International Workshop on Economics-Driven Software Engineering Research",
-    pages = "1–4",
-    numpages = "4",
-    location = "St. Louis, Missouri",
-    series = "EDSER '05"
-}
-@article{10.1145/1082983.1083097,
-    author = {V\"{a}h\"{a}niitty, Jarno},
-    title = "A tentative framework for connecting long-term business and product planning with iterative \\&amp;amp; incremental software product development",
-    year = "2005",
-    issue_date = "July 2005",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    volume = "30",
-    number = "4",
-    issn = "0163-5948",
-    url = "https://doi.org/10.1145/1082983.1083097",
-    doi = "10.1145/1082983.1083097",
-    abstract = {For a company in the software product business, it is essential to understand how to connect business management and software development [17] and employ a solid, value-based approach in its decision-making. However, software engineering literature (SE) commonly addresses what should be done at the "floor level" and leaves the link to business and product management unaddressed [14]. Also, existing software development models mostly adhere to the viewpoint of individual development projects and thus fail to sufficiently address common product development concerns such as multi-project or project portfolio management [20].},
-    journal = "SIGSOFT Softw. Eng. Notes",
-    month = "may",
-    pages = "1–4",
-    numpages = "4"
-}</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -36088,26 +33385,10 @@
       </c>
       <c r="S489" t="inlineStr"/>
       <c r="T489" t="inlineStr"/>
-      <c r="U489" t="inlineStr">
-        <is>
-          <t>Product Planning</t>
-        </is>
-      </c>
-      <c r="V489" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/1083091.1083097</t>
-        </is>
-      </c>
-      <c r="W489" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X489" t="inlineStr">
-        <is>
-          <t>nan; Venue; Keywords; References; Source</t>
-        </is>
-      </c>
+      <c r="U489" t="inlineStr"/>
+      <c r="V489" t="inlineStr"/>
+      <c r="W489" t="inlineStr"/>
+      <c r="X489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -36126,22 +33407,22 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Domain-specific languages (DSLs) allow developers to write code at a higher level of abstraction compared with general-purpose languages (GPLs). Developers often use DSLs to reduce the complexity of GPLs. Our previous study found that developers performed program comprehension tasks more accurately and efficiently with DSLs than with corresponding APIs in GPLs. This study replicates our previous study to validate and extend the results when developers use IDEs to perform program comprehension tasks. We performed a dependent replication of a family of experiments. We made two specific changes to the original study: (1) participants used IDEs to perform the program comprehension tasks, to address a threat to validity in the original experiment and (2) each participant performed program comprehension tasks on either DSLs or GPLs, not both as in the original experiment. The results of the replication are consistent with and expanded the results of the original study. Developers are significantly more effective and efficient in tool-based program comprehension when using a DSL than when using a corresponding API in a GPL. The results indicate that, where a DSL is available, developers will perform program comprehension better using the DSL than when using the corresponding API in a GPL. © 2018, Springer Science+Business Media, LLC, part of Springer Nature.</t>
+          <t>Domain-specific languages (DSLs) allow developers to write code at a higher level of abstraction compared with general-purpose languages (GPLs). Developers often use DSLs to reduce the complexity of GPLs. Our previous study found that developers performed program comprehension tasks more accurately and efficiently with DSLs than with corresponding APIs in GPLs. This study replicates our previous study to validate and extend the results when developers use IDEs to perform program comprehension tasks. We performed a dependent replication of a family of experiments. We made two specific changes to the original study: (1) participants used IDEs to perform the program comprehension tasks, to address a threat to validity in the original experiment and (2) each participant performed program comprehension tasks on either DSLs or GPLs, not both as in the original experiment. The results of the replication are consistent with and expanded the results of the original study. Developers are significantly more effective and efficient in tool-based program comprehension when using a DSL than when using a corresponding API in a GPL. The results indicate that, where a DSL is available, developers will perform program comprehension better using the DSL than when using the corresponding API in a GPL.</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Problem oriented languages; Controlled experiment; Domain specific languages; General purpose languages; Program comprehension; Replication; Digital subscriber lines</t>
+          <t>Domain-specific languages; General-purpose languages; Program comprehension; Controlled experiment; Replication</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>Kosar, Tomaž; Gaberc, Sašo; Carver, Jeffrey C.; Mernik, Marjan</t>
+          <t>Kosar, Tomaz; Gaberc, Saso; Carver, Jeffrey C.; Mernik, Marjan</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Empirical Software Engineering</t>
+          <t>EMPIRICAL SOFTWARE ENGINEERINGarrow_drop_down</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -36152,38 +33433,10 @@
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
-          <t>2734 – 2763</t>
-        </is>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>@ARTICLE{Kosar20182734,
-    author = "Kosar, Tomaž and Gaberc, Sašo and Carver, Jeffrey C. and Mernik, Marjan",
-    title = "Program comprehension of domain-specific and general-purpose languages: replication of a family of experiments using integrated development environments",
-    year = "2018",
-    journal = "Empirical Software Engineering",
-    volume = "23",
-    number = "5",
-    pages = "2734 – 2763",
-    doi = "10.1007/s10664-017-9593-2",
-    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85041817185\&amp;doi=10.1007\%2fs10664-017-9593-2\&amp;partnerID=40\&amp;md5=08584b57449331c4801a21d3a4bc386c",
-    affiliations = "Faculty of Electrical Engineering and Computer Science, University of Maribor, Koroška cesta 46, Maribor, 2000, Slovenia; Department of Computer Science, University of Alabama, Tuscaloosa, AL, United States",
-    abstract = "Domain-specific languages (DSLs) allow developers to write code at a higher level of abstraction compared with general-purpose languages (GPLs). Developers often use DSLs to reduce the complexity of GPLs. Our previous study found that developers performed program comprehension tasks more accurately and efficiently with DSLs than with corresponding APIs in GPLs. This study replicates our previous study to validate and extend the results when developers use IDEs to perform program comprehension tasks. We performed a dependent replication of a family of experiments. We made two specific changes to the original study: (1) participants used IDEs to perform the program comprehension tasks, to address a threat to validity in the original experiment and (2) each participant performed program comprehension tasks on either DSLs or GPLs, not both as in the original experiment. The results of the replication are consistent with and expanded the results of the original study. Developers are significantly more effective and efficient in tool-based program comprehension when using a DSL than when using a corresponding API in a GPL. The results indicate that, where a DSL is available, developers will perform program comprehension better using the DSL than when using the corresponding API in a GPL. © 2018, Springer Science+Business Media, LLC, part of Springer Nature.",
-    author_keywords = "Controlled experiment; Domain-specific languages; General-purpose languages; Program comprehension; Replication",
-    keywords = "Problem oriented languages; Controlled experiment; Domain specific languages; General purpose languages; Program comprehension; Replication; Digital subscriber lines",
-    correspondence_address = "T. Kosar; Faculty of Electrical Engineering and Computer Science, University of Maribor, Maribor, Koroška cesta 46, 2000, Slovenia; email: tomaz.kosar@um.si",
-    publisher = "Springer New York LLC",
-    issn = "13823256",
-    coden = "ESENF",
-    language = "English",
-    abbrev_source_title = "Empir Software Eng",
-    type = "Article",
-    publication_stage = "Final",
-    source = "Scopus",
-    note = "Cited by: 28"
-}</t>
-        </is>
-      </c>
+          <t>2734-2763</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -36206,7 +33459,7 @@
       </c>
       <c r="S490" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
       <c r="T490" t="inlineStr"/>
@@ -36222,12 +33475,12 @@
       </c>
       <c r="W490" t="inlineStr">
         <is>
-          <t>Springer New York LLC</t>
+          <t>SPRINGER</t>
         </is>
       </c>
       <c r="X490" t="inlineStr">
         <is>
-          <t>nan; References</t>
+          <t>nan; References; Year; Bibtex</t>
         </is>
       </c>
     </row>
@@ -36467,57 +33720,21 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Cognitive biases in software quality and testing</t>
-        </is>
-      </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>Humans are an integral entity for performing software quality and testing activities. The quality is compromised when human-thought process deviates from the laws of rational thinking, referred to as cognitive biases. The work carried out so far from this perspective in software quality and testing is very scarce and is limited to one cognitive bias only. This work aims to explore the phenomenon of cognitive biases in software quality and testing in more detail. Furthermore, investigating the factors that exist in an organisational context and that trigger the biases, which in turn deteriorate the quality of software, is also the focus of this work. Acquiring the knowledge of cognitive biases and the triggering factors will help in circumventing them, thus improving software quality.</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>software testing;  software quality;  software psychology;  human factors;  cognitive bias</t>
-        </is>
-      </c>
+          <t>Quality and Testing</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr">
         <is>
-          <t>Salman, Iflaah</t>
+          <t>Andrew Davis</t>
         </is>
       </c>
       <c r="H495" t="inlineStr"/>
-      <c r="I495" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/2889160.2889265</t>
-        </is>
-      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>823–826</t>
-        </is>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/2889160.2889265,
-    author = "Salman, Iflaah",
-    title = "Cognitive biases in software quality and testing",
-    year = "2016",
-    isbn = "9781450342056",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/2889160.2889265",
-    doi = "10.1145/2889160.2889265",
-    abstract = "Humans are an integral entity for performing software quality and testing activities. The quality is compromised when human-thought process deviates from the laws of rational thinking, referred to as cognitive biases. The work carried out so far from this perspective in software quality and testing is very scarce and is limited to one cognitive bias only. This work aims to explore the phenomenon of cognitive biases in software quality and testing in more detail. Furthermore, investigating the factors that exist in an organisational context and that trigger the biases, which in turn deteriorate the quality of software, is also the focus of this work. Acquiring the knowledge of cognitive biases and the triggering factors will help in circumventing them, thus improving software quality.",
-    booktitle = "Proceedings of the 38th International Conference on Software Engineering Companion",
-    pages = "823–826",
-    numpages = "4",
-    keywords = "software testing, software quality, software psychology, human factors, cognitive bias",
-    location = "Austin, Texas",
-    series = "ICSE '16"
-}</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -36540,26 +33757,10 @@
       </c>
       <c r="S495" t="inlineStr"/>
       <c r="T495" t="inlineStr"/>
-      <c r="U495" t="inlineStr">
-        <is>
-          <t>Quality and Testing</t>
-        </is>
-      </c>
-      <c r="V495" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/2889160.2889265</t>
-        </is>
-      </c>
-      <c r="W495" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X495" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U495" t="inlineStr"/>
+      <c r="V495" t="inlineStr"/>
+      <c r="W495" t="inlineStr"/>
+      <c r="X495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -36627,57 +33828,25 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Exploiting the progress of OO refactoring tools with Android code smells: RAndroid, a plugin for Android studio</t>
+          <t>Refactoring Tools</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Mobile applications market is facing a stronger demand continuously, due to the growing popularity of mobile phones. A demand that forces developers to rush the implementation process and shorten the conception phase, leading to poor conception and implementation choices known as code smells. These smells have a negative effect on both device and application's performance, and must therefore be corrected to ensure the quality of mobile applications and the smoothness of their users' experience. This task requires the identification of the infected entities and their refactoring. Most existing refactoring approaches and techniques are focused on object-oriented applications' code smells while only a few of them are destined to Android specific code smells.In this paper, we present a tool, named RAndroid, that handles automatic refactoring for four different Android specific code smells, and gives recommendations on how to manually refactor a fifth one. RAndroid is built as an Android Studio plugin adapting the logic of the well-known oriented-object refactoring tool "JDeodorant" [13] as it's first layer. We evaluated RAndroid on 52 real-world open-source Android applications, developed by both experts and beginners, covering 194 code smell instances.</t>
-        </is>
-      </c>
-      <c r="F497" t="inlineStr">
-        <is>
-          <t>refactoring;  mobile application;  code smells;  Java;  Android</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4302-2728-1_6</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
-          <t>Gattal, Abderraouf; Hammache, Abir; Bousbia, Nabila; Henniche, Adel Nassim</t>
+          <t>Francesco TrucchiaJacopo Romei</t>
         </is>
       </c>
       <c r="H497" t="inlineStr"/>
-      <c r="I497" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3412841.3442129</t>
-        </is>
-      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>1580–1583</t>
-        </is>
-      </c>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3412841.3442129,
-    author = "Gattal, Abderraouf and Hammache, Abir and Bousbia, Nabila and Henniche, Adel Nassim",
-    title = "Exploiting the progress of OO refactoring tools with Android code smells: RAndroid, a plugin for Android studio",
-    year = "2021",
-    isbn = "9781450381048",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3412841.3442129",
-    doi = "10.1145/3412841.3442129",
-    abstract = {Mobile applications market is facing a stronger demand continuously, due to the growing popularity of mobile phones. A demand that forces developers to rush the implementation process and shorten the conception phase, leading to poor conception and implementation choices known as code smells. These smells have a negative effect on both device and application's performance, and must therefore be corrected to ensure the quality of mobile applications and the smoothness of their users' experience. This task requires the identification of the infected entities and their refactoring. Most existing refactoring approaches and techniques are focused on object-oriented applications' code smells while only a few of them are destined to Android specific code smells.In this paper, we present a tool, named RAndroid, that handles automatic refactoring for four different Android specific code smells, and gives recommendations on how to manually refactor a fifth one. RAndroid is built as an Android Studio plugin adapting the logic of the well-known oriented-object refactoring tool "JDeodorant" [13] as it's first layer. We evaluated RAndroid on 52 real-world open-source Android applications, developed by both experts and beginners, covering 194 code smell instances.},
-    booktitle = "Proceedings of the 36th Annual ACM Symposium on Applied Computing",
-    pages = "1580–1583",
-    numpages = "4",
-    keywords = "refactoring, mobile application, code smells, Java, Android",
-    location = "Virtual Event, Republic of Korea",
-    series = "SAC '21"
-}</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -36700,26 +33869,10 @@
       </c>
       <c r="S497" t="inlineStr"/>
       <c r="T497" t="inlineStr"/>
-      <c r="U497" t="inlineStr">
-        <is>
-          <t>Refactoring Tools</t>
-        </is>
-      </c>
-      <c r="V497" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3412841.3442129</t>
-        </is>
-      </c>
-      <c r="W497" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X497" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U497" t="inlineStr"/>
+      <c r="V497" t="inlineStr"/>
+      <c r="W497" t="inlineStr"/>
+      <c r="X497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -37421,57 +34574,21 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Benchmarking Runtime Scripting Performance in Wasmer</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>In this paper, we explore the use of Wasmer and WebAssembly (WASM) as a sandboxed environment for general-purpose runtime scripting. Our work differs from prior research focusing on browser-based performance or SPEC benchmarks. In particular, we use micro-benchmarks and a macro-benchmark (both written in Rust) to compare execution times between WASM and native mode. We first measure which elements of script execution have the largest performance impact, using simple micro-benchmarks. Then we consider a Web proxy caching simulator, with different cache replacement policies, as a macro-benchmark. Using this simulator, we demonstrate a 5-10x performance penalty for WASM compared to native execution.</t>
-        </is>
-      </c>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>benchmarking;  caching;  performance;  scripting;  webassembly</t>
-        </is>
-      </c>
+          <t>Scripting</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr">
         <is>
-          <t>Hockley, Devon; Williamson, Carey</t>
+          <t>Gennadiy Alpaev</t>
         </is>
       </c>
       <c r="H510" t="inlineStr"/>
-      <c r="I510" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3491204.3527477</t>
-        </is>
-      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>97–104</t>
-        </is>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3491204.3527477,
-    author = "Hockley, Devon and Williamson, Carey",
-    title = "Benchmarking Runtime Scripting Performance in Wasmer",
-    year = "2022",
-    isbn = "9781450391597",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3491204.3527477",
-    doi = "10.1145/3491204.3527477",
-    abstract = "In this paper, we explore the use of Wasmer and WebAssembly (WASM) as a sandboxed environment for general-purpose runtime scripting. Our work differs from prior research focusing on browser-based performance or SPEC benchmarks. In particular, we use micro-benchmarks and a macro-benchmark (both written in Rust) to compare execution times between WASM and native mode. We first measure which elements of script execution have the largest performance impact, using simple micro-benchmarks. Then we consider a Web proxy caching simulator, with different cache replacement policies, as a macro-benchmark. Using this simulator, we demonstrate a 5-10x performance penalty for WASM compared to native execution.",
-    booktitle = "Companion of the 2022 ACM/SPEC International Conference on Performance Engineering",
-    pages = "97–104",
-    numpages = "8",
-    keywords = "benchmarking, caching, performance, scripting, webassembly",
-    location = "Bejing, China",
-    series = "ICPE '22"
-}</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -37494,26 +34611,10 @@
       </c>
       <c r="S510" t="inlineStr"/>
       <c r="T510" t="inlineStr"/>
-      <c r="U510" t="inlineStr">
-        <is>
-          <t>Scripting</t>
-        </is>
-      </c>
-      <c r="V510" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3491204.3527477</t>
-        </is>
-      </c>
-      <c r="W510" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X510" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U510" t="inlineStr"/>
+      <c r="V510" t="inlineStr"/>
+      <c r="W510" t="inlineStr"/>
+      <c r="X510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -37813,57 +34914,25 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Quantum Software Testing 101</t>
+          <t>Software Testing</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Quantum software testing (QST) is an emerging research area within quantum software engineering (QSE) to ensure quantum software functional and non-functional correctness and dependability. Since quantum computers perform computations significantly differently than classical computing, testing quantum software running on these quantum computers also differs due to quantum computing's unique characteristics, e.g., entanglement and superposition. Due to the rising interest of the software engineering community in QSE, we will provide an introduction to QST. We will introduce quantum computing and its various principles, quantum software development as quantum circuits, and current QST literature, including a key set of techniques with examples. Finally, a set of future research challenges related to QST will be presented.</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr">
-        <is>
-          <t>quantum computing;  quantum programs;  quantum software testing</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-3-030-00262-6_4</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr">
         <is>
-          <t>Ali, Shaukat</t>
+          <t>Gordon FraserJosé Miguel Rojas</t>
         </is>
       </c>
       <c r="H516" t="inlineStr"/>
-      <c r="I516" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3639478.3643059</t>
-        </is>
-      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>426–427</t>
-        </is>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3639478.3643059,
-    author = "Ali, Shaukat",
-    title = "Quantum Software Testing 101",
-    year = "2024",
-    isbn = "9798400705021",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3639478.3643059",
-    doi = "10.1145/3639478.3643059",
-    abstract = "Quantum software testing (QST) is an emerging research area within quantum software engineering (QSE) to ensure quantum software functional and non-functional correctness and dependability. Since quantum computers perform computations significantly differently than classical computing, testing quantum software running on these quantum computers also differs due to quantum computing's unique characteristics, e.g., entanglement and superposition. Due to the rising interest of the software engineering community in QSE, we will provide an introduction to QST. We will introduce quantum computing and its various principles, quantum software development as quantum circuits, and current QST literature, including a key set of techniques with examples. Finally, a set of future research challenges related to QST will be presented.",
-    booktitle = "Proceedings of the 2024 IEEE/ACM 46th International Conference on Software Engineering: Companion Proceedings",
-    pages = "426–427",
-    numpages = "2",
-    keywords = "quantum computing, quantum programs, quantum software testing",
-    location = "Lisbon, Portugal",
-    series = "ICSE-Companion '24"
-}</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -37886,26 +34955,10 @@
       </c>
       <c r="S516" t="inlineStr"/>
       <c r="T516" t="inlineStr"/>
-      <c r="U516" t="inlineStr">
-        <is>
-          <t>Software Testing</t>
-        </is>
-      </c>
-      <c r="V516" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3639478.3643059</t>
-        </is>
-      </c>
-      <c r="W516" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X516" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U516" t="inlineStr"/>
+      <c r="V516" t="inlineStr"/>
+      <c r="W516" t="inlineStr"/>
+      <c r="X516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -37919,57 +34972,25 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Specification by Example for Educational Purposes</t>
+          <t>Specification by Example</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>The Specification By Example (SBE) is a guideline for building the right software, a software that meets customer requirements. It is based on seven process patterns and enhances communication and collaboration and it usually is used in agile software development. The connection between education and agile software development sounds actually as an emergent topic. In this paper, we propose to structure a teaching approach in analogy to an agile software developement by transposing each process pattern of SBE to a corresponding one in the teaching domain. Moreover, we show that thanks to the emergence of a collective intelligence process, the students are more confident and more responsible. Such a course offers the opportunity to learn not only technical skills, but also some values in a new mindset.</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr">
-        <is>
-          <t>specification by example;  agile teaching;  agile software development</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-3-030-00262-6_4</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr">
         <is>
-          <t>Blasquez, Isabelle; Leblanc, Herv\'{e}</t>
+          <t>Michael Hüttermann</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
-      <c r="I517" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3059009.3059039</t>
-        </is>
-      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>212–217</t>
-        </is>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3059009.3059039,
-    author = "Blasquez, Isabelle and Leblanc, Herv\'{e}",
-    title = "Specification by Example for Educational Purposes",
-    year = "2017",
-    isbn = "9781450347044",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3059009.3059039",
-    doi = "10.1145/3059009.3059039",
-    abstract = "The Specification By Example (SBE) is a guideline for building the right software, a software that meets customer requirements. It is based on seven process patterns and enhances communication and collaboration and it usually is used in agile software development. The connection between education and agile software development sounds actually as an emergent topic. In this paper, we propose to structure a teaching approach in analogy to an agile software developement by transposing each process pattern of SBE to a corresponding one in the teaching domain. Moreover, we show that thanks to the emergence of a collective intelligence process, the students are more confident and more responsible. Such a course offers the opportunity to learn not only technical skills, but also some values in a new mindset.",
-    booktitle = "Proceedings of the 2017 ACM Conference on Innovation and Technology in Computer Science Education",
-    pages = "212–217",
-    numpages = "6",
-    keywords = "specification by example, agile teaching, agile software development",
-    location = "Bologna, Italy",
-    series = "ITiCSE '17"
-}</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -37992,26 +35013,10 @@
       </c>
       <c r="S517" t="inlineStr"/>
       <c r="T517" t="inlineStr"/>
-      <c r="U517" t="inlineStr">
-        <is>
-          <t>Specification by Example</t>
-        </is>
-      </c>
-      <c r="V517" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3059009.3059039</t>
-        </is>
-      </c>
-      <c r="W517" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X517" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U517" t="inlineStr"/>
+      <c r="V517" t="inlineStr"/>
+      <c r="W517" t="inlineStr"/>
+      <c r="X517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -38025,52 +35030,25 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Specifications and testing aided by a variant of the cause-effect process</t>
+          <t>Specifications and Testing</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>For many years the cause-effect process has played a role in testing [1, 2]. A simplified variation of the cause-effect process will be shown. This variation is not only effective for testing and carefully analyzing existing specifications, but is also useful for developing complete specifications. The cause-effect graph is claimed to be unnecessary.</t>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4842-1745-0_15</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>Baxter, Anthony Q.; French, J. Austin</t>
+          <t>Tim Brizard</t>
         </is>
       </c>
       <c r="H518" t="inlineStr"/>
-      <c r="I518" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/503720.503750</t>
-        </is>
-      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>405–408</t>
-        </is>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/503720.503750,
-    author = "Baxter, Anthony Q. and French, J. Austin",
-    title = "Specifications and testing aided by a variant of the cause-effect process",
-    year = "1992",
-    isbn = "0897915062",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/503720.503750",
-    doi = "10.1145/503720.503750",
-    abstract = "For many years the cause-effect process has played a role in testing [1, 2]. A simplified variation of the cause-effect process will be shown. This variation is not only effective for testing and carefully analyzing existing specifications, but is also useful for developing complete specifications. The cause-effect graph is claimed to be unnecessary.",
-    booktitle = "Proceedings of the 30th Annual ACM Southeast Regional Conference",
-    pages = "405–408",
-    numpages = "4",
-    location = "Raleigh, North Carolina",
-    series = "ACMSE '92"
-}</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -38093,26 +35071,10 @@
       </c>
       <c r="S518" t="inlineStr"/>
       <c r="T518" t="inlineStr"/>
-      <c r="U518" t="inlineStr">
-        <is>
-          <t>Specifications and Testing</t>
-        </is>
-      </c>
-      <c r="V518" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/503720.503750</t>
-        </is>
-      </c>
-      <c r="W518" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X518" t="inlineStr">
-        <is>
-          <t>nan; Venue; Keywords; References; Source</t>
-        </is>
-      </c>
+      <c r="U518" t="inlineStr"/>
+      <c r="V518" t="inlineStr"/>
+      <c r="W518" t="inlineStr"/>
+      <c r="X518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -38752,7 +35714,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Test early, test often: a formative usability kit for writers</t>
+          <t>Test Early, Test Often</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -38763,40 +35725,14 @@
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>Kaminsky, Sophie Kohn</t>
+          <t>Doug RosenbergBarry BoehmMatt StephensCharles SuscheckShobha Rani DhalipathiBo Wang</t>
         </is>
       </c>
       <c r="H530" t="inlineStr"/>
-      <c r="I530" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/147001.147007</t>
-        </is>
-      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>47–55</t>
-        </is>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/147001.147007,
-    author = "Kaminsky, Sophie Kohn",
-    title = "Test early, test often: a formative usability kit for writers",
-    year = "1992",
-    isbn = "0897915321",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/147001.147007",
-    doi = "10.1145/147001.147007",
-    booktitle = "Proceedings of the 10th Annual International Conference on Systems Documentation",
-    pages = "47–55",
-    numpages = "9",
-    location = "Ottawa, Ontario, Canada",
-    series = "SIGDOC '92"
-}</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -38819,26 +35755,10 @@
       </c>
       <c r="S530" t="inlineStr"/>
       <c r="T530" t="inlineStr"/>
-      <c r="U530" t="inlineStr">
-        <is>
-          <t>Test Early, Test Often</t>
-        </is>
-      </c>
-      <c r="V530" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/147001.147007</t>
-        </is>
-      </c>
-      <c r="W530" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X530" t="inlineStr">
-        <is>
-          <t>nan; Venue; Abstract; Keywords; References; Source</t>
-        </is>
-      </c>
+      <c r="U530" t="inlineStr"/>
+      <c r="V530" t="inlineStr"/>
+      <c r="W530" t="inlineStr"/>
+      <c r="X530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -38910,57 +35830,25 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Gamification in Test-Driven Development Practice</t>
+          <t>Test-Driven Development</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>The challenge of effectively developing and sustaining high-performance professional development practices in software engineering education is one that must be addressed. Test-driven development (TDD), an example of a key professional practical activity, is strongly linked to these high-performance practices. To examine the effects of gamification - the use of game design elements in a non-game context - on motivating students to develop and sustain TDD practice, an experiment was conducted and utilized ordinary least squares (OLS) regression to analyze the data. This experiment showed that gamification motivates students to do high-performing TDD practice. More specifically, gamification changes the individual's TDD behavior, increases engagement in the development activity, and the effect continues for a longer period even after gamification has ceased. Furthermore, a positive association between gamification and the maintainability of the team codebase was supported by the data.</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>Engagement;  Gamification;  Maintainability;  Software Engineering;  Test-driven Development</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4842-5949-8_8</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>Ren, Wei</t>
+          <t>Stephan Roth</t>
         </is>
       </c>
       <c r="H532" t="inlineStr"/>
-      <c r="I532" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3617553.3617889</t>
-        </is>
-      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>38–46</t>
-        </is>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3617553.3617889,
-    author = "Ren, Wei",
-    title = "Gamification in Test-Driven Development Practice",
-    year = "2023",
-    isbn = "9798400703737",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3617553.3617889",
-    doi = "10.1145/3617553.3617889",
-    abstract = "The challenge of effectively developing and sustaining high-performance professional development practices in software engineering education is one that must be addressed. Test-driven development (TDD), an example of a key professional practical activity, is strongly linked to these high-performance practices. To examine the effects of gamification - the use of game design elements in a non-game context - on motivating students to develop and sustain TDD practice, an experiment was conducted and utilized ordinary least squares (OLS) regression to analyze the data. This experiment showed that gamification motivates students to do high-performing TDD practice. More specifically, gamification changes the individual's TDD behavior, increases engagement in the development activity, and the effect continues for a longer period even after gamification has ceased. Furthermore, a positive association between gamification and the maintainability of the team codebase was supported by the data.",
-    booktitle = "Proceedings of the 2nd International Workshop on Gamification in Software Development, Verification, and Validation",
-    pages = "38–46",
-    numpages = "9",
-    keywords = "Engagement, Gamification, Maintainability, Software Engineering, Test-driven Development",
-    location = "San Francisco, CA, USA",
-    series = "Gamify 2023"
-}</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -38983,26 +35871,10 @@
       </c>
       <c r="S532" t="inlineStr"/>
       <c r="T532" t="inlineStr"/>
-      <c r="U532" t="inlineStr">
-        <is>
-          <t>Test-Driven Development</t>
-        </is>
-      </c>
-      <c r="V532" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3617553.3617889</t>
-        </is>
-      </c>
-      <c r="W532" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X532" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U532" t="inlineStr"/>
+      <c r="V532" t="inlineStr"/>
+      <c r="W532" t="inlineStr"/>
+      <c r="X532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -39190,57 +36062,25 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Automated Testing of Networked Systems Reliability</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>The reliability of a network is a crucial requirement for systems such as IoT, client-server, or cloud-based solutions. Unfortunately, real networks cannot be assumed to be fault-free, especially when considering various hardware problems, performance issues, or malicious attacks. Testing networked systems should therefore include evaluating fault tolerance under various network conditions. The paper presents a doctoral research project on automated verification of networked systems using fault-attack injection using a derived model of network communication.</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>Networked systems;  fault/attack injection;  network model;  testing</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4842-0187-9_12</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>Rozs\'{\i}val, Michal</t>
+          <t>Chris Northwood</t>
         </is>
       </c>
       <c r="H536" t="inlineStr"/>
-      <c r="I536" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3650212.3685559</t>
-        </is>
-      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>1920–1922</t>
-        </is>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3650212.3685559,
-    author = "Rozs\'{\i}val, Michal",
-    title = "Automated Testing of Networked Systems Reliability",
-    year = "2024",
-    isbn = "9798400706127",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3650212.3685559",
-    doi = "10.1145/3650212.3685559",
-    abstract = "The reliability of a network is a crucial requirement for systems such as IoT, client-server, or cloud-based solutions. Unfortunately, real networks cannot be assumed to be fault-free, especially when considering various hardware problems, performance issues, or malicious attacks. Testing networked systems should therefore include evaluating fault tolerance under various network conditions. The paper presents a doctoral research project on automated verification of networked systems using fault-attack injection using a derived model of network communication.",
-    booktitle = "Proceedings of the 33rd ACM SIGSOFT International Symposium on Software Testing and Analysis",
-    pages = "1920–1922",
-    numpages = "3",
-    keywords = "Networked systems, fault/attack injection, network model, testing",
-    location = "Vienna, Austria",
-    series = "ISSTA 2024"
-}</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -39263,26 +36103,10 @@
       </c>
       <c r="S536" t="inlineStr"/>
       <c r="T536" t="inlineStr"/>
-      <c r="U536" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="V536" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3650212.3685559</t>
-        </is>
-      </c>
-      <c r="W536" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X536" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U536" t="inlineStr"/>
+      <c r="V536" t="inlineStr"/>
+      <c r="W536" t="inlineStr"/>
+      <c r="X536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -40394,45 +37218,25 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>The basics of simulation</t>
+          <t>The Basics</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Simulation is experimentation with a model. The behavior of the model imitates some salient aspect of the behavior of the system under study and the user experiments with the model to infer this behavior. This general framework has proven a powerful adjunct to learning, problem solving, design, and control. In this tutorial, we focus principally on discrete-event simulation - its underlying concepts, structure, and application.</t>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4842-2638-4_1</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>White, K. Preston; Ingalls, Ricki G.</t>
+          <t>Bala Paranj</t>
         </is>
       </c>
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>1087–1101</t>
-        </is>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.5555/3466184.3466308,
-    author = "White, K. Preston and Ingalls, Ricki G.",
-    title = "The basics of simulation",
-    year = "2021",
-    isbn = "9781728194998",
-    publisher = "IEEE Press",
-    abstract = "Simulation is experimentation with a model. The behavior of the model imitates some salient aspect of the behavior of the system under study and the user experiments with the model to infer this behavior. This general framework has proven a powerful adjunct to learning, problem solving, design, and control. In this tutorial, we focus principally on discrete-event simulation - its underlying concepts, structure, and application.",
-    booktitle = "Proceedings of the Winter Simulation Conference",
-    pages = "1087–1101",
-    numpages = "15",
-    location = "Orlando, Florida",
-    series = "WSC '20"
-}</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -40455,22 +37259,10 @@
       </c>
       <c r="S556" t="inlineStr"/>
       <c r="T556" t="inlineStr"/>
-      <c r="U556" t="inlineStr">
-        <is>
-          <t>The Basics</t>
-        </is>
-      </c>
+      <c r="U556" t="inlineStr"/>
       <c r="V556" t="inlineStr"/>
-      <c r="W556" t="inlineStr">
-        <is>
-          <t>IEEE Press</t>
-        </is>
-      </c>
-      <c r="X556" t="inlineStr">
-        <is>
-          <t>nan; Venue; Keywords; References; DOI; Source; Link</t>
-        </is>
-      </c>
+      <c r="W556" t="inlineStr"/>
+      <c r="X556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -41934,57 +38726,25 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Engaging Developers in Exploratory Unit Testing through Gamification</t>
+          <t>Unit Testing</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>Exploratory testing, known for its flexibility and ability to uncover unexpected issues, often faces challenges in maintaining systematic coverage and producing reproducible results. To address these challenges, we investigate whether gamification of testing directly in the Integrated Development Environment (IDE) can guide exploratory testing. We therefore show challenges and quests generated by the Gamekins gamification system to make testing more engaging and seamlessly blend it with regular coding tasks. In a 60-minute experiment, we evaluated Gamekins' impact on test suite quality and bug detection. The results show that participants actively interacted with the tool, achieving nearly 90\% line coverage and detecting 11 out of 14 bugs. Additionally, participants reported enjoying the experience, indicating that gamification can enhance developer participation in testing and improve software quality.</t>
-        </is>
-      </c>
-      <c r="F582" t="inlineStr">
-        <is>
-          <t>Exploratory Testing;  Gamification;  IDE;  IntelliJ;  Software Testing</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4302-3163-9_7</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr"/>
       <c r="G582" t="inlineStr">
         <is>
-          <t>Straubinger, Philipp; Fraser, Gordon</t>
+          <t>Gary McLean Hall</t>
         </is>
       </c>
       <c r="H582" t="inlineStr"/>
-      <c r="I582" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3678869.3685683</t>
-        </is>
-      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>2–9</t>
-        </is>
-      </c>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3678869.3685683,
-    author = "Straubinger, Philipp and Fraser, Gordon",
-    title = "Engaging Developers in Exploratory Unit Testing through Gamification",
-    year = "2024",
-    isbn = "9798400711138",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3678869.3685683",
-    doi = "10.1145/3678869.3685683",
-    abstract = "Exploratory testing, known for its flexibility and ability to uncover unexpected issues, often faces challenges in maintaining systematic coverage and producing reproducible results. To address these challenges, we investigate whether gamification of testing directly in the Integrated Development Environment (IDE) can guide exploratory testing. We therefore show challenges and quests generated by the Gamekins gamification system to make testing more engaging and seamlessly blend it with regular coding tasks. In a 60-minute experiment, we evaluated Gamekins' impact on test suite quality and bug detection. The results show that participants actively interacted with the tool, achieving nearly 90\\% line coverage and detecting 11 out of 14 bugs. Additionally, participants reported enjoying the experience, indicating that gamification can enhance developer participation in testing and improve software quality.",
-    booktitle = "Proceedings of the 3rd ACM International Workshop on Gamification in Software Development, Verification, and Validation",
-    pages = "2–9",
-    numpages = "8",
-    keywords = "Exploratory Testing, Gamification, IDE, IntelliJ, Software Testing",
-    location = "Vienna, Austria",
-    series = "Gamify 2024"
-}</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -42007,26 +38767,10 @@
       </c>
       <c r="S582" t="inlineStr"/>
       <c r="T582" t="inlineStr"/>
-      <c r="U582" t="inlineStr">
-        <is>
-          <t>Unit Testing</t>
-        </is>
-      </c>
-      <c r="V582" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3678869.3685683</t>
-        </is>
-      </c>
-      <c r="W582" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X582" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U582" t="inlineStr"/>
+      <c r="V582" t="inlineStr"/>
+      <c r="W582" t="inlineStr"/>
+      <c r="X582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -43026,57 +39770,25 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Secure Generic Remote Workflow Execution with TEEs</t>
+          <t>Workflow</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>In scientific environments, the frequent need to process substantial volumes of data poses a common challenge. Individuals tasked with executing these computations frequently encounter a deficit in local computational resources, leading them to opt for the facilities of a Cloud Service Provider (CSP) for data processing. However, the data subjected to these calculations may be subject to confidentiality constraints. This paper introduces a proof-of-concept framework that leverages Gramine LibOS and Intel SGX, enabling the protection of generic remote workflow computations through SGX enclaves as Trusted Execution Environments (TEEs). The framework entails the delineation of user and CSP behavior and has been implemented using Bash scripts. Furthermore, an infrastructure has been designed for the Data Center Attestation Primitives (DCAP) remote attestation mechanism, wherein the user gains trust in the proper instantiation of the enclave within the CSP. To assess the framework efficacy, it has been tested on two distinct workflows, one trivial and the other involving real-world bioinformatics applications for processing DNA data. The performance study revealed that the framework incurred an acceptable overhead, ranging from a factor of x1.4 to x1.8 compared to unsafe execution practice.</t>
-        </is>
-      </c>
-      <c r="F600" t="inlineStr">
-        <is>
-          <t>trusted execution environment;  workflow;  Intel SGX;  gramine;  privacy-preserving;  confidential computing</t>
-        </is>
-      </c>
+          <t>http://link.springer.com/chapter/10.1007/978-1-4302-6098-1_8</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr"/>
       <c r="G600" t="inlineStr">
         <is>
-          <t>Brescia, Lorenzo; Aldinucci, Marco</t>
+          <t>Mark E. Daggett</t>
         </is>
       </c>
       <c r="H600" t="inlineStr"/>
-      <c r="I600" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3642978.3652834</t>
-        </is>
-      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>8–13</t>
-        </is>
-      </c>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>@inproceedings{10.1145/3642978.3652834,
-    author = "Brescia, Lorenzo and Aldinucci, Marco",
-    title = "Secure Generic Remote Workflow Execution with TEEs",
-    year = "2024",
-    isbn = "9798400705465",
-    publisher = "Association for Computing Machinery",
-    address = "New York, NY, USA",
-    url = "https://doi.org/10.1145/3642978.3652834",
-    doi = "10.1145/3642978.3652834",
-    abstract = "In scientific environments, the frequent need to process substantial volumes of data poses a common challenge. Individuals tasked with executing these computations frequently encounter a deficit in local computational resources, leading them to opt for the facilities of a Cloud Service Provider (CSP) for data processing. However, the data subjected to these calculations may be subject to confidentiality constraints. This paper introduces a proof-of-concept framework that leverages Gramine LibOS and Intel SGX, enabling the protection of generic remote workflow computations through SGX enclaves as Trusted Execution Environments (TEEs). The framework entails the delineation of user and CSP behavior and has been implemented using Bash scripts. Furthermore, an infrastructure has been designed for the Data Center Attestation Primitives (DCAP) remote attestation mechanism, wherein the user gains trust in the proper instantiation of the enclave within the CSP. To assess the framework efficacy, it has been tested on two distinct workflows, one trivial and the other involving real-world bioinformatics applications for processing DNA data. The performance study revealed that the framework incurred an acceptable overhead, ranging from a factor of x1.4 to x1.8 compared to unsafe execution practice.",
-    booktitle = "Proceedings of the 2nd Workshop on Workflows in Distributed Environments",
-    pages = "8–13",
-    numpages = "6",
-    keywords = "trusted execution environment, workflow, Intel SGX, gramine, privacy-preserving, confidential computing",
-    location = "Athens, Greece",
-    series = "WiDE '24"
-}</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -43099,26 +39811,10 @@
       </c>
       <c r="S600" t="inlineStr"/>
       <c r="T600" t="inlineStr"/>
-      <c r="U600" t="inlineStr">
-        <is>
-          <t>Workflow</t>
-        </is>
-      </c>
-      <c r="V600" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3642978.3652834</t>
-        </is>
-      </c>
-      <c r="W600" t="inlineStr">
-        <is>
-          <t>Association for Computing Machinery</t>
-        </is>
-      </c>
-      <c r="X600" t="inlineStr">
-        <is>
-          <t>nan; Venue; References; Source</t>
-        </is>
-      </c>
+      <c r="U600" t="inlineStr"/>
+      <c r="V600" t="inlineStr"/>
+      <c r="W600" t="inlineStr"/>
+      <c r="X600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
